--- a/output/Total_time_range_data/江苏省/徐州市_学习考察.xlsx
+++ b/output/Total_time_range_data/江苏省/徐州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3390 +436,3710 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>71</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>美了环境暖了人心</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001003/20220304/8236227a-3305-4498-85eb-71f4b90cd14d.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['乡村要发展，环境是底色。连日来，新河镇通过人居环境整治攻坚行动，着力解决“农村垃圾、生活污水、村容村貌、残垣断壁”等问题，全面改善农村人居环境，提升文明乡风，助推乡村振兴。', '日前，记者在新河镇镇南村看到，干净整洁的村内道路，一排排农家小院收拾得干净利落。村里的保洁队伍正在清理村民房前屋后的排水沟，并给排水沟两侧新栽种的景观树做涂白养护工作。过去，因为村庄没有排水系统，每到汛期，路面污水横流，给村民们的日常生活带来了不少困扰。村民吴昌军回忆：“家家户户门前没有排水沟，却都有出水沟，导致生活污水都往路上淌，弄得路上到处都是水，路都没法走，生产生活环境很不好。”', '对此，镇南村两委经过多次走访，广泛征求群众意见后，决定以人居环境整治为抓手，通过拆除违建、改厕入户、挖通沟渠、加装分散式生活污水处理设备等措施，使村容村貌焕然一新，村民的生活幸福指数直线上升。看着如今整洁的村庄环境，吴昌军开心地说：“现在大家一出门亮堂堂的，到处干干净净的，不管是干群关系还是邻里之间也都更和谐了，乡村文明也提升了一大步。”', '村民吴学民家今年春节期间还闹了个笑话，吴学民说：“今年闺女回家来看望我，差点儿没找到家门，以前家家户户门口都有旱厕、猪圈、搭建的棚子，遮得严严实实，现在都没有了，路两边还种上了景观树，装上了路灯，变化太大了，每天早上出门空气都清新了许多。”', '改善人居环境、提升乡风文明的同时，也有力助推了乡村振兴。在杲楼村一家猕猴桃种植园中，种植户郭成利正带着工人栽植猕猴桃幼苗。两年前，郭成利一直在外务工，后来听说村里鼓励年轻人回乡创业，可以通过流转土地，发展规模化种植。他决定回乡创业，经过多地考察学习，最终选择规模化种植市场上非常受欢迎的红心猕猴桃。郭成利信心满满地说：“政府给了我种植技术上的指导，也给了政策、资金上的扶持，让我很安心，一期40亩，去年就已经见效益了，卖了有20多万元，相信接下来效益会更好。”', '现在，郭成利的猕猴桃种植园规模已经扩建到第三期，总共120亩，成了远近闻名的猕猴桃种植大户。自己创业的同时，猕猴桃园的发展也给当地村民提供了就业机会，每年用工量达5000多人次。村民单丙付就是其中一员，他认为：“自己年龄大了，不方便再去外面打工了，现在在家门口就能就业，还能照顾家庭，感觉挺好的。”', '围绕补短板、强弱项、提品质，新河镇常态化开展人居环境整治攻坚行动，治理乱堆乱放、乱倒乱扔、乱搭乱建等“六乱”现象，开展清垃圾、清污水、清杂物、清塘沟、清违建、清残垣断壁等“六清”行动，持续擦亮乡村振兴的底色。新河镇二级主任科员季先舟表示：“将加大人居环境整治宣传力度，积极引导群众参与到人居环境整治这项活动中，做好‘门前三包’，实现镇域环境整体提升；对于人居环境整治清理出来的村集体资产和公共空间，用来鼓励村里发展特色产业，并给予政策支持、资金扶持，以各村发展特色产业强村富民。”']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>71</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>小小食用菌致富金钥匙</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-02-25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001002/20220225/b216ffe6-6d5b-493c-8158-34c448ef3532.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['春风送暖，大地回春。在丰县凤城街道刘李三村的专业合作社食用菌种植大棚内，一派繁忙景象。', '“今年合作社种植了9个大棚的羊肚菌，一般情况下鲜品批发价每斤在55元左右，干品一等品的价格每斤高达700元，且销路顺畅，现在正值羊肚菌种植管护的重要时节，一个月后，一朵朵可爱的羊肚菌将破土而出。”刘李三村专业合作社负责人陈宗科话里透着对新一年致富的希望。', '“羊肚菌不仅味道鲜美，还富含20多种营养元素，具有较高的食用价值和药用价值。”刘李三村党总支书记王涛说，羊肚菌排名中国“四大名菌”之首，素有“菌种之王”的美誉，在大力发展菌类种植的基础上，刘李三村致富能手及回村创业大学生多次外出考察学习，并在2021年成功种植羊肚菌。', '“人工种植羊肚菌要先过技术关，从菌种筛选、营养袋的填充，再到培育室温度调节，每一个环节都非常精细。从种植到收获，村合作社雇用附近20多名乡亲来帮忙，每人每天100元。”陈宗科说。', '在刘李三村王然食用菌种植基地，平菇菌包生产现场也是热火朝天，工人们正在为新一季平菇菌袋生产而忙碌着。', '大棚里一朵朵小平菇层层排列，甚是惹人喜爱，时下正是平菇采收期，当地村民正在忙着采摘、清理、装车。王涛说：“下一步，将这条富有特色的农业创新发展之路引导好、宣传好，让菌菇种植成为致富‘金钥匙’，逐步扩充食用菌种植品种，扩大种植规模。”（龚严巍 刘冰）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>71</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>鹿楼镇小蘑菇撑起乡村振兴大产业</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-04-28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001006/20220428/a9669a0f-aef1-42ea-a81a-2133804c3153.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['采摘、分拣、烘干、打包……这几天，鹿楼镇食用菌种植“土专家”李加祥的羊肚菌迎来采收季节。在他的带领下，鹿楼镇有120多位村民靠种植羊肚菌致富。如今，以羊肚菌为代表的食用菌种植已成为鹿楼镇打造现代农业领先镇的一个重要支撑。', '30多年前，李加祥和同村村民经常到大沙河林场拾野生蘑菇。不满足于靠“天”吃饭的他，承包几亩地，从槐树林里采来菌种，并参加各类技术培训班，努力探索食用菌种植技术。', '万事开头难，由于灭菌、接种等技术不到位，李加祥第一次做的2000多个菌包无一成功。后来，他通过考察学习、反复试验，第二年蘑菇种植取得成效，收益颇丰。此后，他带领合作社与农科部门食用菌驯化与栽培研究团队合作，持续开展了羊肚耳、榆蘑、猴脑菌和毛木耳等优良品种的引进和适栽试验。', '靠种植起家的李加祥在发展过程中，越来越意识到单靠自己一家种植是有局限性的。于是，他决定把精力集中到菌种生产上，工厂化生产菌包，以赊销方式带动村民种植食用菌。', '2020年，在“三乡工程”相关政策的支持下，李加祥在原有食用菌专业合作社的基础上成立了徐州硕讯生物科技发展有限公司。2021年新建8200平方米标准化研发中心、原料库、食用菌菌包车间，智能化发菌培养库(恒温库)及3000平方米珍稀菌实验棚，形成了集食用菌菌包加工、发菌、培育、生产及食用菌回收、晾晒、包装、储存、深加工、销售于一体的食用菌生产基地。', '今年55岁的李冬梅是徐州硕讯生物科技公司的一名女工，她的主要工作是详细记下育种棚的数据。除了在公司打工，她自己也尝试种植食用菌。李冬梅说：“有企业帮着提供菌包、育菇和销售，自己种植食用菌的底气更足了。”', '如今在鹿楼镇鹿韩庄村，部分村民靠种植食用菌日子越过越红火。鹿楼镇24个行政村蘑菇种植业都有了长足的发展，共计有食用菌大棚种植面积2000余亩，位居沛县榜首。', '近年来，鹿楼镇抢抓“国家级全域土地综合整治”和“丰沛交界区域融合发展”两大历史机遇，在更大层面推动农业主导产业规模化种植、新品种应用、新技术推广、机械化生产。', '目前，沛县特色食用菌标准化产业示范园区正在规划建设中。该园区以食用菌标准化种植为特色、以产业化和循环经济发展为动力、以科研研发为支撑。鹿楼镇按照研发制菌—工厂化生产菌包—工厂化发菌—分户种植(示范带动)—农户生产出菇—产品回收(五五分成)—初加工—深加工的思路，又招引了食品加工企业入驻，形成链条完整的现代食用菌产业示范园。', '鹿楼镇党委书记韩方兴表示，要发挥食用菌产业园、果品一二三产融合园区的示范引领作用，以招引江苏馋百味食品加工企业为重点，填补鹿楼镇农副产品精深加工的空白。要依托现有种植和经营模式，努力形成菌包工厂生产、种植、初加工、深加工产业链，精准拉长、补齐、做强农产品产业链，不断提高农产品附加值和市场吸引力。（梁 振）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>71</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>龚维芳高建民带队赴宿迁市宿豫区宿城区学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.zgts.gov.cn/001/001001/20220621/904ded33-cf22-4ca2-bb1d-843cc29a378c.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['6月18日，徐州市副市长、铜山区委书记龚维芳，区长高建民率铜山区考察团赴宿迁市宿豫区、宿城区学习考察。宿迁市副市长武倩陪同活动。', '铜山考察团一行先后来到宿豫区新庄镇陈墩新型农村社区、京东农业科技示范园、袁家村宿迁印象、新庄镇振友新型农村社区，宿城区牛角村欢乐田园度假区、田洼智慧农业园、王官集镇休闲农业观光园、文创小镇、唐圩美丽小村等地，每到一处，考察团一行都认真听取情况介绍，详细了解宿迁推进乡村振兴工作的措施和成效。', '考察学习结束后，铜山区立即召开座谈会，交流体会，相互启发，进一步把学习考察成果转化为发展思路和实效。', '龚维芳指出，宿迁市的乡村振兴工作富于创新、思路清晰、模式好、成效显著，值得铜山区学习借鉴。要以此次考察为契机，学习宿迁的好经验好做法，取长补短，促进提升。要立足铜山农村实际，拓宽思路，创新理念，坚持高起点科学规划，强化组织实施，注重乡村振兴示范导向，抓好关键环节，突出要素保障，彰显乡土风情，以强有力的举措确保取得实效，推动乡村振兴工作走在全市全省前列。', '龚维芳强调，铜山区广大干部要进一步解放思想，看到与先进地区存在的差距，做到工作标准再提高、工作措施再优化、工作力度再加大。要进一步强化组织领导，认真梳理参观学习中的亮点，结合各地实际，拿出具体举措，提升地方发展的动力。要进一步强化系统谋划，在前期工作的基础上，学习借鉴宿迁经验，做到点线面结合、城镇村融合，优化布局，把各项工作落实到项目上，扎扎实实做好特色田园乡村、农房改善、人居环境、公共空间治理、现代农业等各项工作。要进一步提升广大干部抓落实的能力，做到主动工作，不断增强干事创业的精气神，努力把各项蓝图变为现实，把铜山的乡村建设成为宜居宜业的富美乡村，让老百姓安居乐业。', '高建民指出，通过学习要看到我们工作中的不足，进一步开阔思路，利用好上级政策，破解发展中的各项难题。各地各单位要进一步加强工作力度，立足自身实际，努力寻求突破。要在干事的魄力上、创新的精神上、工作的标准上进一步加力，补短板、强弱项，拿出实实在在的改进措施和推进计划，把各项工作做得更加扎实有效。', '铜山考察团成员一致认为，此次宿迁考察开阔了眼界、拓宽了思路，收获颇多、受益匪浅，希望与宿迁进一步加强联系，相互交流学习，把在宿迁学习到的好经验、好做法转化为推动工作的实践，全力加快铜山乡村振兴步伐。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>71</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>一山一水一片田新山河村又美又富</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-11-29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001003/20211129/056e8244-4b8d-45f3-aadf-2212a0db4a93.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['邳城镇新山河村作为徐州市特色田园乡村，除了拥有富有乡村韵味的颜值外，还通过壮大村集体经济，让传统的农耕土地焕发出勃勃生机。', '这两天，记者来到新山河村茭白种植基地看到，不少村民趁着天气晴好，正在地里栽插茭白秧苗，在不远处的田块上，栽植好的秧苗整齐划一，蔚为壮观。新山河村党总支书记周元蛟告诉记者：“茭白主要销往苏锡常地区，产品供不应求。今年，地头收购价格达到五六块一斤，一季亩产4000斤，种一季能收两茬。”', '谁曾想，眼前这一块满是生机勃勃的茭白地，几年前还是一片废弃的河滩地。在村民看来，这一切的改变与周元蛟息息相关。', '2017年，一直在外地做工程生意的周元蛟，在我市实施“三乡工程”带动下，毅然回村担任该村党总支书记。看到村里落后状况，周元蛟心里有说不出来的滋味，下决心改变村庄面貌。“回到村里后，我就经常思考村子如何才能发展起来。经过实地调研和深入思考，当时把发展思路定在发展集体经济上，壮大村集体经济，带动村民一起致富。”', '在周元蛟看来，只有用工业化理念发展农业，牢牢抓住农业项目，才能让村子强起来、村民富起来。“只有村集体有钱了，才能给百姓切切实实地做好事。我们开展工作的时候，群众才愿意参与进来。”', '新山河村靠近龙堰河，河两边有大面积荒废的河滩地。如何让土地焕发生机，村两委决定集中经营这片土地。周元蛟解释说：“只有规模经营，才能降低种植成本，提高土地产出效益。当时这片土地是荒废的，我们就商量把土地整合起来，共流转500多亩地由村集体经营。”', '土地流转出来了，究竟种什么？如何种？为了把这片土地种好，周元蛟和村组干部多次外出考察学习，最终选择规模种植茭白。“我们到浙江、安徽等地，发现高效农业茭白种植项目前景好，正好新山河整理出来的河滩地特别适合种植茭白，另外种植茭白用工量大，从种到收，一年下来，用工时间达到五六个月，每一天都得几十个人，能给留守在家的村民提供就业岗位。”周元蛟说。', '在流转土地过程中，村民除了可以收到租金，还可以到茭白种植基地务工，参加村集体收入的分红。村民周学宪把自家五亩地流转给村里后，经常到茭白基地打零工。这几天，他每天都到基地帮忙栽插茭白秧苗。“一亩地净赚1000元租金，来这里干活一个月还能赚1000多元。”', '除了种植茭白，新山河村还根据实际，发展渔光发电、规模种植果树等项目，以项目带动村集体增收。周元蛟告诉记者：“村里把龙堰河整治后，引进渔光互补发电项目，除了收水面承包费，还能拿到发电提成，这两样加起来有二三十万元。另外对村里荒废山体进行整治，整治出来500多亩土地种植果树，这又能增加一笔收入。”', '随着新山河村民腰包鼓起来，村庄面貌也靓起来。如今，走在村里，各家各户门前都铺上水泥路，健身广场、休闲长廊等设施配备齐全，景观小品以及关于文明新风宣传画随处可见，宛如一个山清水秀的江南水乡。对于接下来发展，周元蛟信心满满：“我们村里有一座山一条河一块地，依据这些资源，村里形成三大产业，我们现正策划建一个冷库存储茭白，提升产品附加值，让百姓腰包更鼓起来，提升百姓幸福感。”']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>71</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>我县党政代表团赴贾汪区和山东省微山县考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-10-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001001/20211030/9b1385bf-3712-47af-a5c2-fbc7c87ea4e8.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['10月29日，县委书记吴昊，县委副书记、代县长索向东带领我县党政代表团赴贾汪区和山东省微山县，实地考察经济社会转型发展情况，学先进、找差距，树标杆、谋赶超，进一步提升推动我县经济社会高质量发展的能力和水平。', '习近平总书记在2017年12月亲临贾汪视察时，称赞贾汪转型实践做得好，现在是“真旺”了！贾汪“真旺”旺在哪里？有什么经验可学？', '我县党政代表团首先到贾汪区实地参观了徐州德龙金属科技有限公司、徐州交通控股诚意桥梁工业化有限公司、江苏吉麦新能源车业有限公司、电电产业园B区、江苏康迅数控装备科技有限公司、锦鲤文化产业园、全域旅游服务中心，详细了解贾汪在重大项目建设、产业转型、乡村振兴、全域旅游等方面的经验和做法。大家对贾汪坚持以高质量贯彻落实习近平总书记视察贾汪重要指示精神为主线，坚持“生态立区、产业强区、旅游旺区、文明兴区”发展战略，努力开创资源枯竭城市高质量转型发展之路的做法纷纷点赞，表示要学习先进经验和做法，进一步解放思想，拉升工作标杆，助力我县各项工作再上新台阶。', '在微山县，我县党政代表团先后参观了宜居新材料科技公司、迪佳电子触摸屏及智能家居车联网产品研发生产项目、德朗能新能源科技公司、微山县数字文化中心、微山湖国家湿地公园、铁道游击队纪念园。每到一处，大家都认真察看并听取讲解，并就一些细节问题与微山县相关人员进行交流。通过“点对点”学习、“面对面”取经，大家对微山县以动能转换为抓手，加快产业转型升级，做强现代制造业、做优文化旅游业等方面的工作感触颇深，深受启发。', '这是一次“务实高效”的考察之旅，一整天的时间，两个县区，十三个考察点，我县党政代表团一行边看边议、边思边学，既有深入细致的交流探讨，也有对先进经验的学习思考，更有自我加压，奋勇争先的警醒与启迪。', '看到了兄弟县区发展的成绩，学习了兄弟县区发展的宝贵经验，如何将他山之石化作本土启发，化作奋进的动力，化作发展的成绩，成了我县党政代表团每位成员思考的问题。大家纷纷表示，将以此次考察为契机，结合自身实际，把学习考察成果转化为推进各项工作的具体思路和务实举措，助推我县经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>71</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>连云港市农业农村局来我县考察学习高标准农田建设建后管护工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-11-04</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.cnsn.gov.cn/xwzx/001002/20211104/1f68cc69-5b0b-4d6b-adcd-836879f08da3.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['11月3日，连云港市农业农村局成云飞副局长一行19人来我县考察学习高标准农田建设工程建后管护工作创新做法。', '高标准农田建成后如果管护不当容易造成损坏，而且一时也无法筹集维护资金。为保证高标准农田建成后能够长期处于使用状态，发挥粮食高产田应有的作用，县农业农村局与中国人保财险睢宁分公司开展“农业保险管护合作”机制，以农业保险合同方式为高标准农田提供农业保险管护基金，降低了高标准农田管护风险。', '在汇报上，中国人保财险睢宁分公司公司副经理张猛汇报了我县创新高标准农田建设工程建后管护工作的开展情况与具体做法。9月15日，县农业农村局与人保财险徐州睢宁支公司成功签下全省首单高标准农田建设工程质量责任保险，为睢宁县2020年度已建的11.4万亩高标准农田提供工程质量风险和管护维修保障340余万元，填补了江苏省在高标准农田建设领域的保险空白。', '县农业农村局韩超局长从管护队伍的衔接、管护资金的来源、如何提高效率等方面详细介绍了我县的做法。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>71</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市委书记陈堂清主持召开市委常委会会议</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021-10-13</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20211013/83f74379-4385-4dbd-8c87-9eb6c6f9f14e.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['10月12日，市委书记陈堂清主持召开市委常委会会议，传达学习省委第十巡视组对徐州市开展涉粮问题专项巡视巡察工作动员会精神、徐州市三季度重大产业项目观摩点评会精神和徐州市党政代表团赴常州市、无锡市、苏州市考察学习精神。', '会议传达学习了省委第十巡视组对徐州市开展涉粮问题专项巡视巡察工作动员会精神。陈堂清要求，要提高政治站位。粮食安全关系国计民生，要讲政治，讲规矩，严格按照习近平总书记批示指示精神，准确把握开展涉粮问题专项巡视巡察的重要意义，切实把思想和行动统一到中央和省委、徐州市委决策部署上来，坚决扛稳粮食安全政治责任，粮食企业要切实对照问题查摆整改，确保上级关于粮食安全重大决策部署落到实处。要主动协作配合。全市各级各部门要严谨细致做好各项准备，全面真实提供情况，实事求是反映问题，扎实做好统筹调度、服务保障，确保巡视巡察工作有力、有序、有效开展。要全面抓好问题整改。针对巡视巡察中发现的问题，各级各部门要照单全收，深刻剖析原因，查找薄弱环节，制定整改措施，边巡边改、立行立改，做到件件有着落、事事有回音。要强化标本兼治，把此次涉粮问题专项巡视巡察作为推动改革、促进发展的重要契机，举一反三、由点及面，推动构建粮食安全长效机制，确保涉粮问题专项巡视巡察取得扎实成效。', '会议传达学习了徐州市三季度重大产业项目观摩点评会精神。陈堂清要求，要坚守“工业立市、产业强市”战略。始终把重大项目建设作为牵引性抓手，对标对表苏中苏南地区，坚持走新型工业化道路，夯实制造业强基工程。要改善产业生态，促进产业链、供应链、金融链深度融合。各镇办要瞄准百亿产业镇，两个园区要瞄准千亿园区目标，做强产业发展能级，逐步形成既有顶天立地大树成荫的大企业作支柱，更有铺天盖地小树成林的中小微企业作支撑的产业发展格局。要围绕“4+4”主导产业，加大招引，加快建设，在谈项目抓签约，签约项目抓开工，开工项目抓投产，投产项目抓运营，一环扣一环，为建设徐州工业第一县提供强劲支撑。要突出问题导向。迅速扭转当前薄弱环节的被动局面，紧扣项目转化、项目推进、项目服务等方面存在的问题，认真梳理，形成问题清单，采取切实有效措施逐个加以解决。要加快项目落地的建设步伐。牢固树立“项目为王”理念，推行“拿地即开工”制度，倒排序时，制定任务书、时间表、路线图，全力拼抢四季度，以项目建设大突破推进经济发展大提速。要树立“今天再晚也是早，明天再早也是晚”的理念，奋勇争先，全力抓好项目建设。要形成大抓项目的浓厚氛围。大力弘扬“五种风气”，主要领导要带头推进项目，拿出足够精力和时间研究解决项目推进过程中遇到的困难，保证项目顺利推进。包挂领导既要当指挥员又要当战斗员，主动深入建设现场摸清情况、推动工作、化解难题。要强化协调联动，各相关部门要相互协同、相互支持，实现招商信息共享、资源共享、成果共享，形成合作共赢的生动局面。', '会议传达学习了徐州市党政代表团赴常州市、无锡市、苏州市考察学习精神。陈堂清指出，学习徐州市党政代表团赴常州市、无锡市、苏州市考察学习精神目的是要搞清楚苏锡常的成果要诀，弄明白我们要学什么、搞清楚我们的差距在哪、弄明白我们要补什么、搞清楚奋起直追的着力点、弄明白我们要怎么干。苏锡常地区的发展经验证明，只有牢牢抓住制造业这个基础，才能不断巩固提升领先优势；只有持续推进产业升级，才能在发展中始终占据前沿地位；只有不断深化改革开放创新，才能为发展提供不竭动力。陈堂清要求，要把新发展理念作为一号行动。全市上下要把思想和行动统一到新发展理念上来，坚决打好“双碳”“双控”主动仗，坚决遏制“两高”项目盲目发展，为建设实力新沂打下坚实基础。要把招商引资作为一号工程，进一步加大招商引资力度，紧盯目标不放松，多措并举，主动出击，切实提升招商引资质效，助力招商引资工作取得新突破、激活发展新动能。要把项目建设作为一号任务。一切围着项目转，一切围绕项目干，全力优化营商环境，加大项目招引力度，集中精力推进项目建设，积蓄长远发展新动能，下好高质量发展先手棋。要把服务企业作为一号平台。大力弘扬“店小二”精神，为项目建设提供“一站式”“保姆式”服务，苦干实干巧干，为建设徐州工业第一县注入强大动能。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>71</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>比学赶超竞相发展全力建设徐州工业第一县</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2021-10-25</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20211025/242a0359-b73a-4f26-8a8a-b1c30cb6c40f.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['在建设徐州工业第一县的征程中，如何进一步激发争先斗志，昂扬奋进姿态？10月22日—23日，市委书记陈堂清、市长李胜率我市党政代表团及企业家代表赴宿迁市考察学习重大项目建设工作，并就学习成效和三季度经济运行情况进行座谈，引导全市各条线各板块“跳出新沂看新沂”，主动对标先进找差距，鼓足干劲、加压奋进，大干当前、冲刺全年，在全市形成比学赶超的浓厚氛围，确保实现争先进位目标。市领导郑伟、张长征、王君迎等参加活动。', '10月22日，陈堂清、李胜率代表团深入宿迁市部分县域板块和专业园区等地，在生产建设一线学习宿迁市招商引资、项目建设等工作的宝贵经验。', '“花木之乡”沭阳不仅是花木产业发展的良田，更有项目落地的“沃土”。代表团先后来到苏弘新材料、瑞泰精密科技项目，走进生产车间查看项目生产情况。在了解到瑞泰精密科技项目是瑞声科技控股有限公司在沭阳投资的第四个项目情况后，代表团对沭阳“有求必应、无事不扰”的营商环境给予肯定，并表示要将沭阳的先进经验带回去，持续优化新沂营商环境，为招商引资、项目建设提供硬支撑。', '“意杨之乡”泗阳大树成林，产业项目也呈现出顶天立地之势。投资超300亿元的盛虹芮邦新材料项目投资体量大、占地面积大、生产规模大，令代表团倍受震撼，大家更加坚定了招大引强的决心和信心，纷纷表示，将在新沂高端纺织产业发展的良好基础上，招引龙头企业上下游配套项目，形成既有顶天立地大树成荫的大企业作支柱，更有铺天盖地小树成林的中小微企业作支撑的产业发展格局，构建实力雄厚的现代产业体系。同时，从规划到施工仅用了100天、80天甚至还在持续刷新的“宿迁速度”，也让大家倍感压力，大家纷纷表示，将把压力转化为不竭动力，坚定不移招大引强、培大育强，坚持不懈优服务、强保障、增动能，以“辛苦指数”换取项目建设的“加速度”。', '进入宿城区恒力产业园的生产车间，工人寥寥无几，耳畔只有纺织机器在持续轰鸣，一派火热生产的景象给代表团留下了深刻印象。代表团成员为企业自动化、智能化的生产车间不断点赞，对宿迁日新月异的变化由衷赞叹，更近距离感受到了宿迁市干部敢想敢干、勇争一流，啃硬骨头、攻坚拔寨的精气神，大家表示要学习宿迁干部推进重大项目建设的拼劲、闯劲和韧劲，持续发力、久久为功，为新沂更多大项目、好项目落地加速加力。', '宿迁经开区新能源产业已初步形成较为完整的产业链，龙恒新能源、聚灿光电、天合光能这样的新能源“超级工厂”在这里集聚成群，产业规模迅速壮大，区域影响力明显提升，预计到今年年底，产业规模将突破400亿元。完善的新能源产业链颠覆了代表团成员对宿迁产业发展的固有印象。', '苏宿工业园是苏州与宿迁合作共建园区，随着可成科技、长电科技等一家家国内外龙头企业、知名企业相继落户，昔日的一片乡野农田变成如今的投资高地。陈堂清指出，宿迁在外向型经济发展上下足了真功夫，见到了实效，大家要认真学习苏宿工业园的宝贵经验，结合我市实际，招引更多外资企业，彰显高水平开放型城市的特色，在建设徐州工业第一县工作中实现新突破。', '宿豫区的京东物流已成为区域一大特色，代表团先后来到京东全国客服中心二期和京东物流项目，了解宿豫区现代服务业发展情况。陈堂清指出，宿迁市现代服务业发展令人羡慕，新沂交通区位优越，枢纽经济发展势头正劲，希望两地加强交流与合作，在更深层次、更广领域携手，共谋枢纽经济发展的美好明天。', '10月23日上午，我市召开赴宿迁市考察学习座谈暨三季度经济运行分析会。会上，陈堂清指出，此次考察学习过程中，切实感受到了周边地区竞相发展的强劲态势，看到了周边地区抢机遇的闯劲、抓项目的拼劲、育产业的韧劲和强作风的干劲。全市上下要善于取长补短，摒弃“县域思维”，放大自身产业和区域优势，紧紧抓住机遇、充分用好机遇，不断增创高质量发展新优势。要抓紧抓牢项目建设“牛鼻子”，树立大抓产业的鲜明导向，为建设“徐州工业第一县”提供强有力的支撑。要解放思想、创新创优，自加压力、抬高标杆，转变作风、强化落实，真正把心思用在实干上、落实到服务项目上。', '陈堂清要求，要聚力争先领先，加快建设“徐州工业第一县”。在发展理念上要“先人一步”。把新发展理念作为指挥棒、红绿灯，摒弃“县域思维”，在更大“坐标系”中谋局落子。要在项目引建上“快人一拍”。持续提升项目招引质效，接续突破“1 号项目”，压茬推进项目建设，以项目强产业、以产业强实体、以实体强实力。要在产业培育上“强人一头”。建强产业链，优化供应链，提升价值链，健全创新链，着力构筑以战略性新兴产业为引领、先进制造业为主导、现代服务业为驱动的现代产业体系。要在平台载体上“优人一等”。打造园区“主阵地”，打造功能平台“强磁场”，打造镇域板块“增长极”，不断提升平台的综合效益，厚植实体经济新动能。要在营商环境上“胜人一筹”。用情提供全方位服务，用力提供集成式服务，用心提供全周期服务，助力企业茁壮成长、做大做强。', '要弘扬“五种风气”，着力打造干事创业的过硬干部队伍。要在状态、有激情。全市广大干部都要在其位、谋其政、负其责，时刻保持“等不起”的紧迫感、“慢不得”的责任感、“坐不住”的使命感、“赶不上”的危机感，全力以赴推动现代化建设各项任务落地见效。要强素质、有能力。要钻研政策和业务，真正成为“懂产业、会招商、善服务”的行家里手。要不畏难、有担当。强化担当意识，敢于迎难而上、动真碰硬，不达目标决不罢休。要重实干、有作为。大兴求真务实之风，勇于争先进位，不断开辟发展新境界、打开发展新天地。', '就深刻领会赴宿迁市考察学习精神，市长李胜要求，要对标宿迁找差距。在工业经济、产业质态、借力发展、精神状态上，与宿迁对标对表、深入分析，明确举措、奋力赶超，力争新沂发展焕发新面貌。要审视自身、明确方向，坚定不移跨越赶超。必须放大格局定位，拓宽“1号视野”。必须明晰方向思路，培育“1号产业”。必须坚决招大引强，突破“1号工程”。必须加快项目建设，狠抓“1号任务”。必须做大做强板块经济，增强“1号引擎”。必须提升服务效能，彰显“1号担当”。要锚定目标，找准发力点。扎实做好经济运行分析，积极推进招商引资和项目建设，确保考核进位争先，全力保障能源电力供应，全面提高我市经济运行质量和效益。', '会上，市领导郑伟、胡传栋、常夫建和锡沂高新区党工委书记王冬分别就考察学习作了交流发言；相关部门就三季度经济运行工作分别进行汇报。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>71</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>中共贾汪区委中心组学习暨区委常委会扩大会议召开</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-10-14</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20211014/099e8171-62ab-455b-aa95-2f7415c794ca.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['10月13日下午，区委书记薛永主持召开中共贾汪区委中心组学习暨区委常委会（扩大）会议，认真学习习近平总书记在陕西榆林考察时的重要讲话精神等，传达市党政代表团赴苏州市、无锡市、常州市考察学习及座谈会议精神，研究部署全区重点工作。', '会议分两个阶段进行。第一阶段召开区委中心组学习会，集中学习习近平总书记在陕西榆林考察时的重要讲话精神、习近平总书记在纪念辛亥革命110周年大会上的重要讲话精神、习近平总书记在中央人才工作会议上的重要讲话精神、《中国共产党党和国家机关基层组织工作条例》、中共江苏省委关于加强对“一把手”和领导班子监督的实施意见。', '会议强调，习近平总书记在陕西榆林考察时的重要讲话高瞻远瞩、思想深邃、内涵丰富，为我们推进各项工作指明了方向、提供了遵循。要深入贯彻落实绿水青山就是金山银山的理念，把生态治理和发展特色产业有机结合起来，坚定不移实施“生态立区”发展战略，努力建设更高水平的美丽生态贾汪，走出一条生态和经济协调发展、人与自然和谐共生之路。', '会议要求，要学深悟透习近平总书记在纪念辛亥革命110周年大会上的重要讲话精神，切实增强为实现中华民族伟大复兴而奋斗的政治责任感和历史使命感，始终牢记全心全意为人民服务的宗旨，增强“不进则退，慢进亦退”的紧迫感，大兴“五风”、快马加鞭、紧张快干，做好贾汪各项工作，在实干中展现责任担当、增强干事创业本领，奋力谱写贾汪高质量转型发展新篇章。', '会议指出，要深刻认识人才的重要性，有人才就有成果，有成果就有产业转化，人才是科技的前沿和基础。要全方位培养、引进、用好人才，实施更加积极的人才政策，加大投入，培养引进一批科技领军人才、创新创业团队和青年科技人才。广大党员干部要加强学习，争当有用人才、解决问题的人才、善于向基层学习的人才，共同为更高水平推动“四区”并进全面转型，奋力谱写“贾汪真旺”新篇章提供人才支撑、夯实人才基础。', '会议强调，要认真抓好《中国共产党党和国家机关基层组织工作条例》的学习宣传和贯彻落实，全面掌握《条例》内容，严格遵守和执行《条例》规定，落实机关党的建设主体责任，列出相关法律法规详细清单，压实整改责任，精准细致完成工作，净化政治生态，规范组织生活。要带头执行中央和省委关于加强对“一把手”和领导班子监督的重大决策部署，加强党内一把手的监督力度，“一把手”和领导班子成员要严格要求自己，以上率下，指导基层更好更有力地落实到位。', '第二阶段召开区委常委会（扩大）会议。传达市党政代表团赴苏州市、无锡市、常州市考察学习及座谈会议精神；听取徐州市民生改善三年行动计划（2021-2023年）贾汪区重点任务清单汇报，徐州市产业发展、创新驱动发展三年行动计划（2021-2023年）贾汪区建筑业服务业农业及创新驱动发展重点任务清单汇报，徐州市城乡建设三年行动计划（2021-2023年）贾汪区重点任务清单汇报，贾汪区“党建强基”三年行动计划（2021-2023年）汇报；学习习近平总书记关于保证粮食安全、加强粮库监管、惩治涉粮腐败等系列重要讲话和重要指示批示精神，以及《国务院粮食流通管理条例》《江苏省粮食流通条例》，听取全区粮食工作情况汇报，规范民办义务教育发展和推进“双减”工作情况汇报，全区卫生健康工作情况汇报。', '会议强调，对标对表苏锡常，认清差距，重点重抓产业强区，狠抓招商引资“一号工程”，大力实施重大产业项目、城建重点工程和为民办实事项目，更高水平推进“四区”并进全面转型。', '会议指出，要把民生改善三年行动与“我为群众办实事”、四大行动计划等工作结合起来，进一步细化目标、分解任务、压实责任，推动民生改善三年行动计划各项任务落地落实。要统筹协调基层、部门和区分管领导力量，拧成一股绳，共同想办法，形成真抓实干的浓厚氛围。', '会议要求，要自觉把落实区建筑业服务业农业及创新驱动发展重点任务清单与贯彻市第十三次党代会精神有机结合起来，主动把推动区清单任务落地落细。要落实好区城乡建设三年行动计划，加快城市更新改造，不断完善城市功能，提升城乡公共服务水平，不断满足人民群众对美好生活的需要。 要推动“党建强基”三年行动计划各项任务抓具体、抓深入、抓到位，各责任单位要对照目标任务和进度安排，迅速行动，逐项研究具体落实举措。', '会议强调，粮食安全事关国家安全，要切实提高政治认识，高度重视粮食安全问题。职能部门要守住底线，主动作为，深入学习《条例》内容，规范工作，查漏补缺，做到立查立整立改，坚决守住粮食安全底线。教育和医疗关系广大群众的切身利益，是百姓最关心的问题。要提高站位，高度重视教育和医疗工作，提高教师和医务人员专业素养，内强素质、外塑形象，全面落实“双减”工作，持续提升医疗服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>71</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>山东省郯城县县长于广威率考察团来我市考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20230420/de3f82d0-8e9a-48e4-89aa-49749acdb3c8.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['4月19日，山东省郯城县县长于广威率郯城考察团一行来我市就社会事业、工业经济、乡村振兴、城市建设等重点工作进行学习考察。我市领导李胜、赵慧慧、石祥雷参加活动。', '考察团先后参观了钟吾养老服务中心、臧圩村五he园、瓦窑富驰家园、新风鸣基地、水性超纤、中新钢铁、新沂海门中学、沭河之晨、新苑小区等地。每到一处，他们都认真听、仔细看、详细问，深入细致了解我市高质量发展新理念、新做法、新经验，并就两地如何做好苏鲁边界高质量发展进行深入交流。', '在钟吾养老服务中心，考察团详细了解养老机构功能空间、适老设计、管理服务等情况。在了解相关情况后他们表示，要认真学习借鉴新沂养老体系建设的先进经验，积极探索养老服务新业态、新模式，不断满足老年人多层次、多样化需求，为郯城养老服务工作注入强劲动能。', '阳春四月，春暖花开。走进臧圩村五he园、富驰家园，绿草丛生、花红柳绿，一派生机盎然的景象。考察团一路看、一路听，一路学习、一路交流。大家纷纷表示，新沂在乡村振兴、美丽宜居及农房改善工作中，坚持规划引领、以人为本，先进的经验方法值得学习借鉴。今后，郯城将提高思想认识，牢牢把握高质量发展这一首要任务，结合县域资源，多点发力，不断提升老百姓的获得感、满意度。', '来到新凤鸣新沂产业基地，考察团了解了产业发展、科技创新、上下游产业链等方面情况。他们指出，新沂的大项目、好项目层出不穷，为新沂高质量发展提供了有力支撑。郯城要认真学习新沂在培育壮大新兴产业的先进经验和优化营商环境建设中的先进理念做法，积极招引发展前景好、生态效益高的新兴产业项目，充分发扬“店小二”精神，推动郯城工业经济实现高质量发展。', '活动中，市长李胜对郯城县一行的到来表示欢迎，并简要介绍了我市经济社会发展情况。他说，新沂，历史文化悠久。花厅文化、漕运文化、红色文化孕育了新沂的文化发展。新沂，生态环境优美。有山有水，生态秀丽，“一山一湖一古镇”旅游品牌享誉全国。新沂，产业基础雄厚。始终坚持“工业立市、产业强市”，围绕“4+4”先进制造业体系，不断加快建设“徐州县域工业领头羊”。新沂，城市能级跃升。围绕城市能级提升，聚焦美丽新沂建设，加快补齐短板，城乡面貌精彩蝶变。多年来，新沂与郯城感情深厚，交流频繁，希望两地进一步深化交流合作，加强互学互鉴，实现优势互补、合作共赢，携手并肩推进两地经济社会繁荣发展。', '于广威对于我市的发展思路、务实的工作作风以及取得的发展成就给予高度赞赏。他表示，新沂发展势头强劲，在产业发展和资源转化利用中，有许多好的经验和做法值得郯城学习和借鉴。通过此次考察学习，对郯城县域发展有了更清晰的认识和了解。今后，希望双方以此次考察交流为契机，进一步加深合作，立足两地资源禀赋、产业基础，互通互联、互学互鉴，积极探索建立多层次、常态化的沟通对接机制，深化合作交流，拓宽合作渠道，强化人才交流、技术创新、产业发展等领域合作，推动两地在经济社会高质量发展上取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>71</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>结对交流互学习携手共进促帮扶治多县索加乡赴官山镇交流学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.cnsn.gov.cn/xwzx/001004/20230420/a7a28978-1ec2-4954-8be9-75b8e784a735.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['4月17日--18日，青海省治多县索加乡与官山镇结对互联活动拉开序幕。索加乡党委书记五一、索加乡乡长老沙开周等一行莅临我镇考察学习指导工作。镇党委书记何平、镇长刘宁陪同活动。先后对我镇循环农业产业进行调研，同时双方分享了各自的成功经验和发展理念。', '座谈会上，索加乡一行对我镇产业发展形势给予高度评价，认为官山镇立足禀赋优势发展循环农业定位准确、潜力巨大，走出一条别样乡村振兴路。座谈会后进行了合影留念。', '最后索加乡发出正式邀请，期待近期赴索加乡进一步考察交流调研，为下一步精准结对帮扶做实基础。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>71</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>花果飘香产业旺</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001003/20230825/51f97fca-e11d-47f1-998f-915c667a455c.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['秋天是丰收的季节，如果丰收有颜色，它会是绿色的、金色的、紫色的……放眼邳州大地，五谷丰登、瓜果飘香，五彩斑斓的丰收颜色，勾勒出这里最美的丰收图景。', '八路镇坚持用工业化理念发展现代优质高效农业，重点突出葡萄、花卉产业，积极引入特色产业，不断擦亮花果飘香品牌，打造现代农业发展“新高地”。', '“这个葡萄叫阳光玫瑰，这次到省绿协组织的最美企业评选，我们就带这个品种……”日前，在南京举办的2023江苏最美绿色优质农产品（葡萄）企业评选活动中，邳州市景泰现代农业科技发展有限公司获评“最美绿色优质农产品企业”。', '据介绍，此次评选，八路镇选取了甬优一号和阳光玫瑰两个品种参赛，现场通过对葡萄的果型、果肉、口感、糖分等方面进行测评，最终成功通过评选。八路镇农技中心负责人曹广磊告诉记者，这主要得益于八路镇多年来对葡萄产业的苦心经营。为提高葡萄品质和产量，八路镇多次组织到外地考察学习，同时邀请技术人员精心养护，并根据市场形势及时扩充品种，经过多年的种植探索和不断革新，如今葡萄种植已成为八路镇一大主导产业，辖区种植甬优、夏黑、红巴拉多等20余个品种，种植面积4000多亩。该镇还积极发展葡萄自采、池塘垂钓等旅游观光项目，进一步壮大葡萄产业发展。曹广磊介绍：“依托八路镇原有基础，进一步扩大种植范围，引导更多的老百姓种植，让他们获得更多的收益，在品牌打造上，进一步提升八路镇葡萄品牌影响力。”', '八路镇在着重抓好葡萄特色产业的同时，还持续做大花卉产业，绘就乡村“大美”文章。在邳州市雪莲花卉种植场，大片长寿花苗整齐排列，工人正在养护花苗。据悉，八路镇盘活了12000平方米的原有花卉温室大棚，招引了雪莲花卉公司，主要种植长寿花和油画花两个品种，自运营以来，花卉一直供不应求，去年销售额达180多万元。邳州市雪莲花卉种植场总经理任雪莲说：“一年销售量在100万棵到120万棵，一个棚销售量在65000到70000棵。”', '围绕花卉产业强链补链延链，八路镇一方面完善园区道路、管网等配套设施建设，另一方面注重项目招引，通过以商招商等方式，逐步形成了从普通草花到高端蝴蝶兰，从花卉种植到种苗培育的转型，具有不同产业层次的项目纷纷落户，花卉产业不断做大做强。', '在此基础上，八路镇还引进南美洲燕窝果。在燕窝果种植基地，一畦畦燕窝果树蓬勃生长、枝肥茎厚。该基地燕窝果种植面积14000平方米，采用订单种植方式，预计今年可收获。八路镇副镇长金艳说：“我们通过农业招商的形式引进这个项目，目前燕窝果亩产在3000斤至5000斤，30元钱一斤，效益非常可观。”', '围绕“花果飘香”发展定位，八路镇将紧盯葡萄、花卉产业，积极壮大燕窝果、甜瓜、西红柿等农业产业，聚力富民增收，助力乡村振兴。金艳表示：“持续在新品种上做优做强，引导生产合作社积极带动村民就业，在富民增收上再做新文章，打造一个花果飘香、山水八路。”']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>71</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>党校赴丰县县委党校参加创新型党课校际交流会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.xzqs.gov.cn/xwzx/001002/20230210/8af09b53-d80d-4ceb-ad2f-358e6538ffc2.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['2月8日，泉山区委党校常务副校长王卫带队，率5名教学骨干赴丰县县委党校参加市委党校创新型党课校际交流会，市委党校教育长郑厉兰、孟婷教授，丰县县委党校、云龙区委党校等相关领导参加会议。', '会议进行了现场教学观摩活动。参会人员考察学习了大沙河镇岳家村党建馆、大沙河湿地宣教馆、宗集村、瑶盛文化园及丰县文博园，了解了丰县的红色教育基地建设，并开展了青年教师教学座谈会。', '在教学交流阶段，泉山区委党校校青年教师周佳欣展示了特色音乐党课《中国人民志愿军战歌：历史、战争和今天的我们》，课程介绍了抗美援朝的起因、著名战役及战争结果，论述了抗美援朝的深刻历史意义。在讲述课程的过程中，周老带领学员一起歌唱了中国人民志愿军战歌，在歌声中为学员注入红色基因，赓续红色血脉。课程受到了市委党校教育长郑厉兰等相关领导的一致肯定，并对课程提出意见和建议。', '郑厉兰表示，党课教育质量的高低，对于提高党员政治素养、统一思想认识都有着至关重要的作用。如何在现有党课形式的基础上，进一步提升党课的知识性、趣味性、针对性和实效性，让党课入脑、入心、入情、入景，将是我们未来一个阶段继续需要探索和实践的课题。随着时代和形势的变化，党课教育的条件和对象也在变化，这就要求我们运用灵活多样的教育方法，增强教育的有效性。周老师的音乐党课彰显了泉山区委党校在创新党校教学形式工作所作的努力颇有成效、颇有亮点。', '王卫，创新型党课改变了传统党课“填鸭式”的教育方式，在形式和内容上，更加丰富、更接地气，激发了党员干部的学习热情。区委党校的音乐党课内容丰富、感染力强，使听课的党员不仅坐得住、听得进，而且听得聚精会神，收到了喜人的效果。开设音乐党课是我校贯彻区委“争第一、创唯一”精神的重要举措，是苏北地区首家开设音乐党课的党校，彰显了我校“敢为、敢闯、敢干、敢首创”的“四敢”精神。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>71</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>山西省运城市万荣县党政代表团来新考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001002/20230306/33c631ad-7007-40f1-867b-1399650ad150.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['3月5日，山西省运城市万荣县县长王飞带领万荣县党政代表团来新考察新沂市经济社会发展情况。新沂市领导李胜、常夫建、杜卿、王冬参加活动。', '座谈会上，市长李胜介绍了新沂市经济社会发展情况。李胜说，新沂是东陇海线上节点城市，江苏的北大门。新沂拥有厚重的历史文化，花厅文化、漕运文化、红色文化在这块土地上繁衍生息，流传至今。新沂拥有秀美的生态环境，山水资源丰富、生态优美，“一山一湖一古镇”旅游品牌享誉全国。新沂拥有便利的区位交通，战略位置特殊、交通区位优势明显，是徐连经济带战略支点、淮海经济区重要开放门户和徐州城市副中心，形成了“公、铁、水、空、管”联动的立体化交通网络和多式联运体系。希望今后两地能够扩大交流，围绕高质量发展同频共振，共同构建两地互利共赢的合作发展新格局。', '万荣县县长王飞说，此次来新沂考察学习，切身感受到了新沂生态之美、发展速度之快、营商环境之优，特别是重大产业项目招引与建设、产业链条培育等方面经验做法值得学习。对于先进经验将认真总结吸收，努力把学习成果转化为促进发展的动力，把各项工作做实、做好。', '会前，万荣县党政代表团先后来到东方雨虹、阿尔法、上菱电器等企业实地考察，详细了解新沂市在壮大新兴产业、招引龙头企业方面的经验做法，并进行了充分沟通交流。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>71</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>发展和改革局关于巡察整改情况的通报</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://xetdz.xz.gov.cn/govxxgk/gwh//5d7d121c-fb25-49b0-b0bf-71fcd32f3802.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['按照党工委统一部署，2022年7月1日至8月23日，党工委第二巡察组对发展和改革局进行巡察，并于11月4日，向发展和改革局反馈巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改情况予以公布。', '发展和改革局高度重视巡察整改工作，召开专题会议对反馈问题认真研究，统一思想、凝聚共识，以更高标准、更严要求、更实举措，高质量完成巡察整改工作。一是成立巡察整改工作领导小组，统筹推进各项整改工作；二是编制巡察整改问题清单，实行任务分解、责任到人，确保巡察整改工作无死角、全覆盖；三是实行月调度制度，坚持“挂图作战”、对账销号，每月调度、跟进、汇总，确保整改工作落地见效。', '一是利用党支部固定活动日、金龙湖书院等，系统学习党的二十大报告、中央经济工作会议精神等内容，提高全体工作人员政治理论素养和履职尽责能力。二是针对学习内容，联系经开区实际情况，赴企业深入开展调研，学用结合。', '一是出台党支部学习制度，采取“定期+随机学”模式，每月组织集中学习1次，同时根据业务需要随时学。二是严格落实学习计划，保障集中学习时间，已多次组织集中学习党的二十大报告、安全生产法、中央经济工作会议精神等内容。', '一是党的二十大及全国两会召开后，立即召开专题学习会，扎实开展二十大报告及政府工作报告学习教育活动。二是2023年1月18日，召开2022年度领导班子民主生活会，班子成员紧密联系实际，严格把自己摆进去，达到了沟通思想、找准问题、增进团结、形成共识的目的，成效明显。', '一是创新推进制造业向数字化、网络化、智能化转型，聘请专业诊断服务机构，开展对企诊断和咨询服务。二是严格落实“培大育强五条”“培育四上六条”“技改八条”等创新举措，助力产业发展。三是认真贯彻落实省政府42条、市政府136条，形成经开区贯彻落实意见，切实提振市场主体发展信心。', '一是广泛深入开展政策宣讲活动，摸排符合相关奖补政策条件的企业，主动上门给予指导，确保惠企政策精准推送、政策红利直达快享。二是不折不扣落实税费减免、租金减免等惠企政策，做到“大中小”全覆盖。', '2022年，威拉里新材料获批国家级“专精特新”小巨人企业，巴特机械等25家企业获批省级“专精特新”中小企业。目前，经开区现有国家“专精特新”小巨人企业2家，省级“专精特新”中小企业37家，与苏南先进地区差距进一步缩小。', '一是制定意识形态工作责任制任务清单，进一步加强意识形态领域管理工作。二是开展意识形态风险排查工作，明确意识形态分管领导，做好全局意识形态领域风险排查、分析研判、应急处置等工作。', '一是完善区、镇（街）、企业三级运行调度体系，加强对重点领域、重点行业的实地调研和实时监测，及时预警研判经济运行态势和波动情况。二是2022年12月，深入区内重点企业走访调研，收集问题诉求、摸排重大风险情况，清单化整理汇总，逐条明确责任部门，压实责任、推进解决。', '一是进一步明晰区信用办和第三方机构关于社会信用体系建设工作的权责分工，切实提高信用体系建设工作成效。二是与城市云计算公司等第三方机构签订保密协议，确定双方保密义务、防范数据泄露风险。', '一是2022年12月，局班子成员带队、联合安全专家深入开展冬季安全生产专项治理行动。二是2023年1月，与油气输送管道企业建立高后果区安全风险管控机制并签署协议。三是做好重点时段安全检查工作。春节、两会期间，每日检查电力、油气管道企业安全生产和应急值守情况。四是组织电力、粮食加工企业开展消防应急演练。', '一是坚持主动服务、靠前帮办，2022年8月，协助徐工港机完成税收等迁转事宜。二是积极宣传各级助企纾困政策措施，强化向上争取。2022年，协助区内企业获批省工业和信息产业转型升级专项资金、苏北五市制造业智改数转项目资金、市级智能车间、中小服务等资金4000余万元。', '一是深入摸排企业困难诉求，帮助富港电子等16家企业解决用能指标问题。二是为364家企业完成信用修复问题。三是根据省政府《关于推动经济运行率先整体好转的若干政策措施》，梳理摸排36家企业（项目）纳入项目储备库，积极向上争取政策资金。', '持续加强惠企政策宣传，推动减税降费、助企纾困、稳经济一揽子政策精准滴灌、直达快享。深入企业开展政策落实情况专题调研，倾听企业诉求，掌握第一手资料。2022年，累计完成留抵退税约13亿元，减免国有房产租金3000余万元。', '一是每月召开支委会部署推进各项重点任务，重点难点工作支部书记亲自抓、重大任务带头干，于2023年2月，完成党支部换届工作，明确支部委员会成员分工。二是严格落实“三会一课”、组织生活会、民主评议党员等制度，持续抓好“主题党日”活动。', '一是制定完善部门会议制度和“三重一大”事项议事制度，明确议事规则边界。二是根据会议议题合理排定会议方案，党务、行政会议分别召开、分开记录，避免交叉。', '一是2022年度民主生活会会前准备期间，通过书面征集方式，共收集33份意见建议，原汁原味、逐一向班子成员反馈。二是向全体党员发放2022年度组织生活会提醒单，对“一对一、面对面谈心谈话”提出具体要求。', '一是分别于2022年11月19日下午召开巡察整改专题民主生活会和2023年1月18日下午召开2022年度民主生活会。会上，班子成员紧扣主题，既直言不讳地指出别人的问题，又深刻查摆自身应该承担的责任，在红脸出汗中增进了党性、增强了班子团结。', '一是明确专人负责“三会一课”组织开展、会议记录、台账整理等。截至目前，“三会一课”均实事求是、规范记录，内容完备、台账齐全。二是加强党员培训教育，结合工作内容、岗位实际，选定党课课题，认真准备讲稿，切实提升党课质量。', '向全体党员发放《2022年度组织生活会提醒单》，督促党员按照实际撰写提交相关材料，支部委员加强审核，杜绝照搬照抄现象。全体党员均认真总结年度履职尽责、发挥先锋作用情况，按时提交2022年度民主评议党员登记表。', '加强支部党务工作人员学习教育和监督管理，严格党员发展流程。2022年，接收预备党员1名，新发展党员1名，培养入党积极分子2名，3名同志向党组织递交了入党申请书，实事求是做好发展党员会议记录、档案整理。', '一是2022年9月9日，召开全面从严治党专题会议，开展中秋、国庆节前廉政教育，部署党风廉政建设工作。二是班子成员均在2022年度述职报告中对党风廉政责任制履行情况进行了专题报告。', '一是部署开展重点岗位、重点领域的廉政风险排查，逐个制定防范措施。二是常态化开展廉政谈话，重点围绕重要节日、考核提拔等时间节点，开展廉政提醒。2023年2月，局主要负责人与新提拔的2名干部进行廉政谈话。', '一是2022年11月30日，组织部门人员开展党风廉政知识测试，以测促学、以学促廉。二是2022年12月30日，运用身边典型案件通报，对全体人员开展警示教育。三是2022年12月28日，组织召开警示教育会，通过徐州本地统计数据造假等多起典型案例，对基层统计人员进行再教育、再培训。', '一是制定完善部门会议制度和议事规则，明确分工、各负其责。二是严格落实徐信用办〔2019〕9号文件要求，联合法院成立政府失信专项治理联席会议制度，并将政府失信专项治理纳入机关部门及镇（街）信用体系建设一票否决项考核，大大降低政府失信风险。', '一是坚持干什么学什么、缺什么补什么，加强产业发展、安全生产、营商环境等专业知识的系统化、精准化学习。二是梳理明确政府购买服务事项清单，加强业务指导、流程把控。', '2022年，面对复杂严峻的外部环境和多重超预期的挑战，全局上下凝心聚力、砥砺前行，按照“分工不分家”的原则，加强团结，齐心协力，助推工业经济加快回升，助企纾困成效显著，综合考核位居经开区第一等次。2023年初，发展和改革局被市委、市政府评为2022年度“五个徐州”建设先进集体（产业强市类）。', '主动向上协调对接，在争取政策支持、获取荣誉表彰、争创试点示范等方面，为经开区发展争取红利和增量。2022年下半年，徐州经开区（国家级转型升级示范园区）获国家四部委“真抓实干成效明显”通报表扬；获批江苏省首批制造业高质量发展示范区建设地区。', '加强部门制度建设，制定出台部门内控制度，包括部门会议制度、财务报销制度、议事规则等，并严格贯彻落实，切实发挥制度管根本、管长远作用，工作规范化、决策科学性、议事民主性程度日益提升。', '制定出台部门财务报销制度，进一步明确和规范财务报销审批流程，责令相关人员开展自查自纠，并组织全体人员认真学习，要求严格按照财务制度和规定报销相关费用，加强报销手续、票据附件等审核把关，杜绝此类问题再发生。', '一是严格执行部门内控制度，涉及项目合同签订等重大事项，经由局班子会议集体研究、讨论决定，规范合同签订流程。二是开展第七次全国人口普查专项资金使用情况监督检查，各镇（街）自查后，抽取2个镇（街）进行现场检查，暂未发现存在挪用、转移或侵占专项资金。', '一是2月初，部门主要负责人带队赴苏锡常考察学习先进制造业，借鉴苏南地区先进经验做法。二是紧密联系经开区产业发展实际，拟定徐州经开区“十四五”工程机械、新能源、集成电路及ICT、生物医药、数字经济发展专项规划（初稿），经征求意见、研究论证后拟于2023年上半年印发。', '一是依托经开区现有产业基础优势，全力打造工程机械及智能装备产业集群、绿色低碳能源产业集群；加快培育生物医药与大健康、集成电路及ICT、数字经济三大新兴特色产业集群。二是围绕延链强链补链，2022年，签约落地了比亚迪新能源动力电池、金阳硅业20GW异质结基体材料项目等重大产业项目。', '一是2023年2月6日，召开统计人员培训会，带领基层统计人员再次学习贯彻国家统计局第6统计督察组督察反馈意见，规范统计业务开展。二是多次与经济运行平台开发公司、相关部门负责人对接，加快项目开发进度，争取尽快投入使用。', '下一步，将聚焦常态长效、标本兼治，抓学习强素质、抓落实出成效、抓制度保运行、抓纪律转作风，切实把巡察成果转化为推动整改落实、促进经济发展的坚实行动，坚决做好巡察“后半篇文章”。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>71</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>比学赶超奋勇争先全力开创高质量发展新局面我市党政代表团赴沭阳县考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20221102/55561779-9c8e-4c5c-a07a-549aa1ebc99d.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['比学赶超、奋勇争先，全力开创高质量发展新局面——我市党政代表团赴沭阳县考察学习_新沂市人民政府', '11月1日，市委书记陈堂清、市长李胜率我市党政代表团赴沭阳县考察，学习借鉴兄弟县在乡村振兴、产业发展、重大项目建设、教育等方面的特色亮点和工作经验，动员全市上下深入贯彻党的二十大精神，聚焦“发展第一要务”，坚持“工业立市、产业强市”战略不动摇，锚定建设“徐州工业第一县”定位，大抓产业、重抓制造业，敢为善为、务实落实，奋力打好全年收官战，夯实新沂经济高质量发展根基。市领导邢会义、胡传栋、高跃、赵慧慧等参加活动。', '沭阳国际花木城是集花木展销、信息发布、电子商务、现代物流、旅游观光五位一体的特大型花木综合交易市场，今年1-10月份实现场内销售超48亿。在花木城，各式各样盆景应有尽有，令人眼花缭乱。代表团对沭阳县着力构建特色花木产业体系，由卖产品向卖风景转型的做法给予赞赏，表示要认真学习研究沭阳花木产业发展的成功经验和做法，并结合新沂实际，引导我市花木电商产业与沭阳实现差异化发展。要进一步加强与沭阳的沟通交流，打破区域界线，积极招引花木龙头企业，推动我市花木产业发展迈上新台阶。', '重大产业项目是积蓄发展动能、助推经济高质量发展的主引擎。总投资150亿元的江苏桐昆恒阳化纤项目是沭阳县2020年12月签约的百亿级纺织龙头企业。走进厂区，自动化、智能化、智慧化成为这里最真实的写照，代表团倍受震撼、信心大增。大家纷纷表示，将聚焦新材料“1号产业”，坚定不移打造新沂高端纺织产业，不断引龙头、延链条、强产业，开创新沂高端纺织产业规模化、高端化、绿色化发展的新篇章。', '龙头企业“顶天立地”、中小企业“专精特新”是沭阳蝶变演绎的生动局面。代表团成员还先后来到通强股份、慧典新材料、乍浦科技和天能北方总部，实地了解企业历史、生产工艺、产业带动、智能制造等情况，对企业坚持高端化、智能化、绿色化发展表示肯定。大家纷纷表示，将坚持大小企业共建共育，深入实施“头雁计划”“雏鹰计划”“筑巢暖窝计划”，持续推动企业扩量提质增效，逐步形成既有顶天立地大树成荫的大企业作支柱，更有铺天盖地小树成林的中小企业作支撑的产业发展新格局。', '教育是最大的民生。多年来，沭阳如东中学始终坚持“对每一位学生负责，不让一个学生掉队”的办学理念，致力于办有良心的教育、负责任的教育。在如东中学，代表团详细了解学校办学模式、办学理念，学习先进办学经验。代表团表示，将持续厚植教育情怀，深化新沂与海门的教育合作，用心用情用力办好人民满意的教育，全面打响“学在新沂”教育品牌，推动新沂教育实现“学有所教”向“学有优教”转变。', '他山之石，可以攻玉；观沭问道，志在发展。一路考察、一路总结、一路思考，代表团入园区、进车间、看展厅，找差距、取真经、思良策，为推动新沂经济社会高质量发展汲取智慧、探索方向。陈堂清强调，要以此次学习观摩为契机，牢固树立“工业立市、产业强市”不动摇，在招商引资、项目建设上下力气，一着不让，真抓实干，自我加压、对标先进，跨越赶超、争先创优，加大项目招引力度，加快重大项目落地，持续优化营商环境，以重大项目建设的高质量为新沂经济高质量发展奠定坚实基础。要放大视野格局，找准参照坐标，冲破思想桎梏、创新工作方法，勇于挑重担、扛重责，踔厉奋发、笃行不怠，努力创造更加过硬的发展成果，以实际行动推动党的二十大精神在新沂落地生根、开花结果。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>71</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>深入推进对口帮扶持续加强对接交流千阳县县长李宇轩率党政代表团来我市开展苏陕协作工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-09-30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20220930/7fa8980c-e4ab-450a-9c22-c0c67429aeb5.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['深入推进对口帮扶 持续加强对接交流——千阳县县长李宇轩率党政代表团来我市开展苏陕协作工作_新沂市人民政府', '深入推进对口帮扶 持续加强对接交流——千阳县县长李宇轩率党政代表团来我市开展苏陕协作工作', '9月28—29日，陕西省宝鸡市千阳县县长李宇轩率党政代表团来我市开展苏陕协作工作，进一步学习交流我市在项目建设、产业发展等方面成功经验和先进做法，拓宽发展思路，增强发展活力。我市市长李胜，市委常委、常务副市长胡传栋；千阳县县委常委、副县长王晓东参加活动。', '代表团一行先后来到中新钢铁、新凤鸣新沂产业基地、上菱电器、韵达供应链、中清光伏、九如城唐店养老服务中心等地进行考察学习。每到一处，代表团都详细了解我市高质量发展的新理念、新技术，并就两地如何做好在产业协作、消费协作、劳务协作、人才协作等方面发展进行深入交流。', '在中新钢铁，代表团详细了解项目发展情况。作为省重大项目中新钢铁特钢板材项目，是中新钢铁转型升级的重要抓手，该项目总投资150亿元，对标了现代化、智能化绿色标杆工厂，全部投产后，年产能可达600万吨。在了解相关情况后，代表团表示，要认真学习借鉴新沂培育壮大新兴产业的先进经验，积极招引发展前景好、生态效益高的新兴产业项目，为千阳县产业转型升级注入强劲动能。', '走进新凤鸣新沂产业基地，代表团了解了项目进展、科技创新、上下游产业发展等情况。新凤鸣基地项目总投资180亿元，是一家集PTA、聚酯、纺丝、加弹、进出口贸易为一体的企业，采用国际先进的大容量、柔性化聚合工艺技术，形成年产270万吨聚酯材料生产能力。代表团指出，新沂的大项目、好项目层出不穷，为新沂高质量发展提供了有力支撑。千阳要认真学习东部发达地区干部群众解放思想、敢为人先的创新精神，放眼世界、追求卓越的一流标准和敢为善为、苦干实干的工作作风，立足自身资源禀赋和产业特点，不断加大产业协作力度和劳务协作深度，持续巩固脱贫攻坚成效。', '活动中，李胜对千阳县代表团的到来表示欢迎，并简要介绍了我市经济社会发展情况。他说，近年来，新沂始终坚持“工业立市、产业强市”，围绕“4+4”先进制造业体系，大招商、招大商，大抓项目、抓大项目，投资180亿元的新凤鸣高端纺织新材料、投资110亿元的明新旭腾水性超纤、投资105亿元的科隆新能源、投资79亿元的中清光伏新能源项目、投资150亿元的中新钢铁特钢板材、投资50亿元的上菱电器等一批重特大项目相继落地，谱写了工业经济跨越式发展新篇章。李胜指出，新沂与千阳有着多年的深厚友谊，随着东西部协作的深化，两地情谊、合作硕果和协作氛围越来越浓厚。在今后工作中，新沂将继续把千阳的事情当作自己的事情，一如既往从多角度多层面开展帮扶，不断促进两地协调发展、共同发展，共创新业绩、共谱新篇章、共享新成果。同时，希望两地要继续强化产业交流，增添发展新动能，不断发挥各自优势，深化交流、并肩战斗，推动两地产业协作落地见效；要继续加强人才交流，搭建沟通新桥梁，激发人才创新活力，让人才交流碰撞出发展新“火花”；要继续强化党政交流，不断扩大互访交流、拓展合作空间，取长补短、共谋发展，努力将两地协作向更宽领域、更深层次、更富成效拓展。', '李宇轩对新沂市委、市政府长期以来帮扶千阳的发展表示感谢。他指出，自苏陕协作以来，新沂在资金投入、项目建设、招商引资、人才交流等各个领域，给予了千阳倾情支持，为千阳打赢脱贫攻坚战、推进乡村振兴作出了重要贡献。今后，希望双方能够深入推进对口帮扶，持续加强对接交流、持续抓好产业协作、持续加强消费帮扶，推动合作内容落地生根、开花结果。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>71</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>师寨镇育菌中皇后带村民致富</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-12-29</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001002/20221229/e5eaeef2-232c-49a9-a3b9-9c31629a6245.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['冬至的阳光依然明媚，但“数九”的北风吹在湖西平原的黄土地上却尽显寒意。从温暖的家里出来，张顶峰还是打了个寒战，“趁现在不是太忙，先去地里把排水沟弄好……”', '2022年岁末，在丰县师寨镇仇集村羊肚菌种植家庭农场内，负责人张顶峰正在疏通排水沟。虽然已经退役多年，但干起活来依然一副独特的军人作派。“我是1998年参军入伍，2013年退役，回乡后我选择了自主创业。”说起当年的创业经历，张顶峰还是有些感慨。', '15年的军旅生涯，造就了他不甘落后、刚毅坚强、敢打敢拼的品格。决定自己创业之后，张顶峰考察了不少项目，一次考察期间，张顶峰请朋友在一家高级餐馆吃饭，发现一份鸡汤标价600元，便惊讶地问老板：“你们这鸡汤是金鸡还是银鸡做的？怎么这么贵？”老板拿出一个扁平的“干蘑菇”回答，“鸡不贵，菌贵。这是羊肚菌，每斤售价3000多元。”从那以后，羊肚菌这个名字就在张顶峰心里扎下了根。经多方考察学习，2017年，他回到老家师寨镇成立了丰县坪鑫羊肚菌种植家庭农场，专门种植被誉为“菌中皇后”的羊肚菌。', '“刚开始在村里承包了十多亩地，建了11个大棚，经过两年的摸索，2019年又继续流转25亩地，扩大种植规模。”张顶峰介绍说，截至目前，坪鑫羊肚菌种植家庭农场共建设了40多个大棚，羊肚菌亩均收入2万余元。经过多年的经验积累，张顶峰的种植技术逐渐成熟，吸引了许多村民加入到羊肚菌的种植中来，“有山东的、河南的，还有丰县本地的，主要是为他们提供菌种和技术指导。”', '羊肚菌因为特殊的种植生长条件，同一块地，两茬羊肚菌中间，要间隔几年。为了不让土地闲置，2022年张顶峰创新采用了“菌—菜”轮茬种植的模式，种植了大棚蒜苗、辣椒等蔬菜，这样不仅能让土壤增肥、提高有机质，还能实现效益翻番。', '“退伍了，但思想和行动不能退步。”张顶峰表示，“年底前，专门留着的几个大棚还将种植羊肚菌，主要是实验，看一看连续种植3年羊肚菌的产量如何，也是摸索一些经验。”张顶峰表示，接下来将在合适的时机扩大种植规模，继续探索羊肚菌、蔬菜轮茬种植，让土地效益最大化，吸纳更多的农户参与进来，做大做强坪鑫羊肚菌品牌，带动更多的村民一起致富，为乡村振兴注入新动能。', '党的二十大报告提出，全面推进乡村振兴，坚持农业农村优先发展。丰县师寨镇相关负责人介绍，目前，全镇拥有食用菌标准大棚约5000个、从业人员7000余人、经纪人和技术人员200余人，带动人均增收5000元。同时还拥有食用菌专业合作社和加工企业20余家，近年又成功引进种植姬松茸、羊肚菌等新品种，拓宽了农民致富渠道。全镇已形成黑木耳、白木耳、猴头菇、香菇、灵芝、姬松茸、羊肚菌等多品种协调发展，食用菌产业成为该镇的主导产业和特色产业。（龚严巍）']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>71</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>徐州日报喜看十年好风景一路高歌唱大风沛县高质量发展之路回眸</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001002/20220919/367cd9e9-e4ad-49a1-992c-466d56843a98.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['从徐州市区驾车北上，随着地势起伏，车就像在海洋里荡漾的小船——春季麦苗青青、夏季荷花映日、秋季金稻弯腰、冬季白雪皑皑……风吹浪涌、帆随风动，季节轮回、风光无限！', '党的十八大以来，沛县坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻落实市委、市政府工作部署，主动扛起“当好排头、走在前列”重大使命，全力争做徐州高质量发展的排头兵，争做微山湖地区县域协同发展的示范区，以创新引领布局现代产业体系，以绿色发展实现生态环境根本好转，以协调共享绘就共同富裕新图景，在推动高质量发展方面不断取得新成绩。', '回眸10年来沛县走过的高质量发展之路，如同行车坐看一届又一届县委、县政府接力建成的徐沛快速通道——两边皆是好风景，绿水青山展新颜！', '沛县龙东煤矿5000余亩碧波中，48万多块太阳能光伏板向阳而立，采煤沉陷区蝶变“绿电”厂；穿过龙固金灿灿的稻田，徐州恒辉编织机械有限公司内，高精密编织机械轮正编制汽车A柱、心脏封堵器、记忆合金；驶入安国镇大沙河产业发展经济带，江苏合品生物科技公司的车间内，秸秆、树枝放进机器，就能变身环保建材……', '沛县坚持“工业立县、产业强县”不动摇，以“333产业体系”为主攻方向，重点发展壮大新能源、高端纺织、新型铝材三大主导产业的同时，加快培育高端装备制造、生物医药与大健康、环保与新材料三大新兴产业，并转型升级煤焦电、冶金铸造、绿色食品三大传统产业，结构更优、层次更高的现代产业体系正在加紧构筑中。', '“抓大项目，大抓项目”成为沛县稳定经济增长的“压舱石”，推进高质量发展的“定盘星”。', '2011年，沛县新兴产业项目的版图上，已有中强光伏、润丽光能的身影，全年累计完成投资也不过50亿元。2016年，中辉光伏一期开工建设，这在当时是沛县招引的大项目，2018年，二期建设完成开工投产。一个个像中辉光伏这样的新能源企业在沛县落地生根，一座座新厂房不断建成，新项目持续落地，现代化智能工厂雏形初现。', '十年间，沛县积极淘汰落后产能，整合现有资源，延链、补链，腾笼换凤，换出了“产业链+集群”效应。', '依托江苏金荣泰新材料科技有限公司等行业领军企业，2020年，中国（淮海）绿色纺织产业园项目在沛县经济开发区开工建设。', '“过去，沛县纺织企业大都规模偏小，虽然环锭纺近230万锭，但平均到每个企业不到3万锭，其中10万锭以上企业仅有5家，5万锭以上企业只有7家，大群体、小个体特征十分明显。”沛县经济开发区党工委副书记、管委会副主任杨琦介绍，建设中国(淮海)绿色纺织产业园，就是要以龙头带集聚，以协同促集群，计划用5年到10年时间，建成世界一流全产业链纺织产业园。', '在沛县经济开发区沛公路北侧，坐落着徐州中利能源集团有限公司。2021年，总投资60亿元的8GW电池片+8GW电池组件项目落户这里，这一招商引资“1号工程”项目当年签约、当年开工、当年投产，实现了重大产业项目招引的历史性突破。', '风好帆悬正当时，不待扬鞭自奋蹄。扩量提质，满产达产的“沛县速度”还在续写新的篇章。', '项目如何引得进，又要怎样建得好？谱好招商引资“三部曲”，按下营商环境“快进键”，就是沛县给出的答案。', '办公桌上，摆放着厚厚的《中国能源报》和《太阳能》杂志，上面密密麻麻地标红了产业动态、政策信息和专家解读。中利光伏的招商故事，就是从这里开始的。', '“新能源产业是实现新旧动能转换的突破口，中利光伏项目能够招引成功，我们做了三件事：一是精研产业，明确招引方向；二是精准出击，盯紧重点客商；三是精细服务，推进项目落地。”沛县经济开发区招商局副局长梁海中说。', '远赴实地考察学习、广邀专家把脉问诊、想方设法推进洽谈，“不招大商心不甘，不破楼兰誓不还”！招商引资是一场“擂台赛”，拼的是各方比较优势，在梁海中看来，营商环境是核心竞争力。', '2021年10月23日，沛县优秀企业家和党政领导干部共同参加“亲清学堂”第一期毕业典礼暨第二期开班仪式。培养相互信任的干部和企业家、培养能够担起今后发展重任的干部和企业家、培养具有荣誉感的干部和企业家，带着这“三大任务”，沛县创设亲清学堂，民营企业家与党政干部共同学习、互融互信、同步成长，有力推动地方经济社会高质量发展。', '以营商环境提升弥补交通区位短板，沛县倾力打造“都来想法办、不说不能办”营商品牌，微山湖周边地区“两省八县”36项“通办”事项清单正式施行，在全省率先实现不动产登记“跨省通办”，入选《2021中国优化营商环境典范案例》。', '沛县行政审批局局长王全林介绍，把好事办实、把实事办好，沛县通过持续深化“一件事一次办”改革、推动“秒报秒批”一体化政务服务平台再升级、“跨省通办”扩面提质、打造“家门口”办事厅等，不断增强政务服务能力。', '从铸造，到阀门，到机床……占地70亩的江苏润鹏机械科技有限公司，两年之内上演转型升级“三级跳”。在生产车间，从南至北仅百十米的距离，可以看到一家企业的“前世今生”——从体量小、效率低的老式手动设备，到用于数控加工的半自动化机床，再到企业自主研发、直接生产数控设备的智能机械装备，目光所至，与日俱新。', '润鹏机械的苏邦威数控机床项目，更是新上自动化生产与制造设备156台套，综合生产制造水平居于全国前沿，预计能实现产值5亿元、利税6500万元。', '在大屯街道，我们还看到完成全过程数字化控制、智能化跃升的甲子丙5G光缆加强芯项目，这是大屯街道“智改数转”重点项目之一，这12条生产线投产后，将实现产值1亿元，利税1000万元。', '沛县大屯街道党工委书记苏增彦介绍，今年2月份之前，这是一家到了“穷途末路”的塑编企业，以前搞塑编，用工86人，年产值2000万元，利税200万元；现在生产玻璃纤维光缆加强芯，用工30人，预计年产值1亿元、利税1000万元。', '这两个项目是大屯“智改数转”之路上的一个缩影，也是沛县“智改数转”的一个缩影，从沛县经济开发区到沛北开发区，从宜沛工业园到龙固产业园，沛县正按照“市场倒逼、政府引导、企业自主”的原则，打好“智改数转”主动仗。', '进入新时代，沛县产业结构偏重、能源结构重煤的问题已到了痛下决心解决的时候。大力推行传统产业提升和老旧企业整治行动，沛县实行“三步走”，对环境问题突出的企业加大整治；加快推进传统产业结构提升；扎实抓好绿电发展机遇。', '目前，省政府正谋划氢能源基地试点，省工信厅和徐州市政府联合以沛县为基地，做氢能源产业发展规划，根据设想：光伏一条链、氢能源一条链，这两条链经过3年到5年发展，就有望实现从传统能源基地向新能源重镇的华丽转身。', '过去的沛县龙固镇，因煤而兴、因煤而困，随着资源的枯竭，支柱产业不再支柱，结构偏重、产能过剩、空气污染、土地塌陷……', '“资源枯竭不是止步不前的借口，老资源可以枯竭，新资源可以再造，能挖走的是煤炭，挖不走的是壮士断腕的决心、统筹兼顾的智慧、攻坚克难的勇气。”龙固镇党委书记阎垒武说，有了这些，就能再造龙固高质量发展的新动源！', '如今，脏乱的码头建成沙河公园，采煤沉陷区建成镇区“中心湖”，渔光发电项目快速推进，一批科创型企业迅速崛起，化采煤沉陷的劣势为搬迁优势，打造宜居家园……', '工信部公示的第四批专精特新“小巨人”企业名单，位于龙固镇的徐州恒辉编织机械有限公司名列其中。总经理韩年丰介绍，2014年，恒辉编织提出全面实现系统化、智能化、电算化、信息化方针，并用三年时间构建了ERP系统。目前，成为西班牙、德国、美国、意大利等一批海外企业高端装备供应商。', '在恒辉人看来，“让产品走向国产化”能够减轻社会层面负担，惠及更多人群。2018年，副总经理兼研发中心主任韩金辉带领恒辉研发团队相继研发出医用一次性导管、内溃疡镜、心脏支架等介入类编织器。', '目前，恒辉编织全国市场占有率70%以上，参与起草了高分子量聚乙烯纤维编织类国家标准。石油钻井平台、巨型舰只缆绳、风力发电扇叶吊装、冬奥会火炬等编织器产品都离不开恒辉生产的技术设备。', '点燃了创新发展的“主引擎”，沛县经济开发区综合实力跃居全省第31位，宜沛工业园创成全省南北共建特色园区，宜沛科创园获批国家级科技企业孵化器，41家创新型企业入驻沛县中关村信息谷创新示范基地……', '十年征途振奋人心，接续奋斗开启新程，“勇挑重担、多扛重责”的答卷上，沛县正在书写新的篇章。', '建立健全城乡融合发展体制机制和政策体系，是党的十九大作出的重大决策部署，是长期历史任务。', '看提质飞跃式的城市更新，看加速奔跑的乡村振兴，看生态环境的全面改善，看城乡融合的一体化进程……', '“今年夏天雨水这么大，我家小区门口的正阳路都没有淹。这要在以前，早‘看海’了！”家住新汉城小区的王先生说。', '今年6月、7月，沛县降雨量达到740毫米，是有记录以来的历史极值。为什么没出现水情？连续两年在新老城区主干道实施的不积水工程功不可没。', '据沛县水务局局长徐伟介绍，沛县充分利用社会资本投资2.4亿元，颠覆性地改变城区排水走向。“目前共新建箱涵3.5公里，铺设雨水管网8公里，铺设污水管网5.6公里。”', '避免了尴尬的“看海”，还要让老百姓看到真正的碧水蓝天、生态河道，住进新改造的小区，过上红红火火的日子。', '去年7月，沛县南四湖流域丰沛运河生态修复提升工程正式开工建设，全长9.8公里的流域综合治理项目正式启动。生态修复、景观提升，水质净化、生物栖息，沿河生态走廊、公园建了起来，“人—文—景—城”复合空间绘就出沛县“内外兼修”的气质与涵养。', '小区改造是民生，居民自治是政治，2021年起，沛县把老旧小区改造的过程，变成干群之间深度联系的过程，变成基层群众加强自治的过程。必须成立业主委员会或物业管理委员会，必须100%业主同意改造，必须100%业主同意拆除违建，物业费交纳率必须达到95%以上……有了这“四个必须”，一座座老旧小区统筹设计、统一改造、集中管理，景区、街区、住区以及周边环境一体化提档升级。', '人民城市人民建，人民城市为人民。2011年，沛县顺利通过全国文明县城复检，蝉联江苏省文明城市。2022年，沛县又获评省生态园林城市。', '目前，丰沛铁路桥、汉润路等一批市政道路工程顺利推进，新时代大厦、大屯国家矿山应急救援中心等重大功能性项目和公共服务设施加快建设，杨屯美丽宜居小城镇、丰沛运河生态修复等5个美丽宜居城市试点项目全面完成，徐沛运河郊野公园入选全省城市特色风貌塑造项目。', '城乡融合发展，是与乡村振兴战略规划紧密衔接的战略部署。全面推进乡村振兴，沛县五大工程34项重大项目稳步推进。', '“以前种地看天，现在这一片是咱们高标准农田示范区，过去夏天最高亩产800斤小麦，今年夏收，一亩地的收成有1200斤。”谈起这些年包地种粮的过程，种粮大户尤克强感触最深的，就是和收成息息相关的农田水利工程。', '田成方、渠相连、旱能灌、涝能排。数年间，沛县打破镇村行政限制的空间布局，将标准化农田建设与水资源利用、镇村布局、乡村振兴等规划充分衔接，走出了一条粮田蝶变“良田”的高标准农田建设之路。今年夏粮又实现了面积、总产、单产、效益“四个新高”。', '2019年，中国工程院辣椒院士工作站在沛县敬安镇落地。这颗“种业芯片”，是植入这个小小乡镇的财富密码。', '“几年来，敬安以科技赋能企业发展，大力引进育种人才，恒润、苏润、千润等多家现代化农业龙头企业带动形成‘龙头企业+合作社+基地+农户’的产业模式。”敬安镇党委书记张建长介绍。', '目前，辣椒制种面积16000余亩，各类合作社、家庭农场等新型经营主体158家，培养新型职业技术农民3000余人，年产值突破5亿元，带动当地农民增收2.5亿元。辐射带动周边3省5市区域的辣椒制种产业发展面积1万余亩，种植总面积达3.1万亩，产销占据全国辣椒育种市场半壁江山。', '鹿楼镇的金蝉养殖基地、龙固镇的水产养殖、安国镇的“沛公”西瓜品牌……用工业化思路发展农业，拉长产业链、提升价值链，沛县按照“特色成块、基地成片、产业成带”的思路，打造一个个特色产业集群，加快推动从“传统农业大县”向“现代农业强县”转变。', '十年，沛县不仅仅用农业产业化鼓起了百姓的“钱袋子”，也通过人居环境改善，让村民获得感更足，幸福感更强。', '“苇元中沟已进行疏浚和护坡整治，降低水污染的同时，也解决了雨天积水的问题。全村整体绿化面积提升了5倍。”这是村支书温法贞的介绍，也是苇元村的答案。', '以“美丽沛县”20项任务为重点，沛县统筹推进农房改善和人居环境整治，实现乡村振兴实绩考核位列全省县级进位第一等次，获评全国加快农房和村庄建设现代化试点县。', '在沛县龙固镇龙湖湿地，“以水治水”的人工湿地净化项目竣工，昔日的采煤塌陷地，岸边是湿地公园，水下是未灌浆的毛石，在循环清洁水体的同时，还肩负起库容防洪的任务，日均处理尾水可达1万吨。', '在安国湖国家湿地公园，自然形成的芦苇湿地与清澈荡漾的湖面是鸟儿栖息的天堂。岸边绿树成荫，移步换景，这里成了骑行爱好者的打卡地。', '在沛北经济开发区节能降碳综合服务平台，沛县杨屯镇党委书记王广浩介绍，杨屯镇利用物联网、云计算、大数据等技术手段建设的这个平台，通过数据采集、数据分析、实时监测、智能预测、即时预警等功能，打造区域节能降碳“一张网”。', '杨屯镇在59家重点企业的电费结算关口加装110块智能远程电表，将企业的实时用电数据上传到云平台，并结合企业主动填报产值等数据，掌握区域内能源消费结构和现状，为合理配置能源、优化产业结构提供辅助决策。', '沛县在全市率先建立生态环境保护委员会，生态环境“五网协同”市场化运行体系全力推进，农村生活污水治理率全市第一，农村生活垃圾分类处置“六化”模式，获评全国乡村建设评价样本县。截至今年5月19日，空气质量优良率达78.4%，同比提高5个百分点，改善幅度位居全市第一，国省考断面水质优Ⅲ比例达100%。', '改善二中、城镇中心小学、正阳小学办学环境，减少城乡居民医药费1.39亿元，新增城镇就业7265人……这是2011年沛县民生成绩单上的数字。', '随后五年间，沛县累计实施为民办实事项目346个，改扩建中小学校62所，增加就业岗位4.88万个，城乡教育、医疗、就业、养老、交通等公共服务体系更加健全。', '8月31日，走进刚刚开门迎新的沛县湖西职业教育园，穿过校门，8层楼高的图书馆非常气派，教学楼、宿舍楼、行政办公楼错落有致，全然不输一座大学校园。', '“走进新地标、站在新起点、树立新理念，我们不能人在新校园，心存旧观念，而是要以只争朝夕的紧迫感，锚定创办高职校的目标不动摇！早日圆上沛县人的‘大学梦’。”沛县职业教育学校党委书记、沛县中等专业学校校长吴凤英表示。', '“2019年10月完成整体搬迁，面积由原来的56亩增至现在的180亩，2020年12月转设三级综合医院。”在沛县人民医院刚建成的传染科大楼前，党委书记苏莎莎介绍，近年来沛县人民医院致力打造环微山湖县域医疗中心，努力推进三级乙等医院创建，力争建设成为高水平区域医疗中心、县级一流现代化医院。', '坚持以“百姓真正享受得到”为标准，十年间，沛县倾心倾情，一桩一件，务实落实，努力解决好群众“急难愁盼”。', '就业是最大的民生，每一个岗位，都关联着一份努力拼搏的梦想，牵动着一个安居乐业的家庭。', '在沛县，由沛县人社局组织的促进就业系列活动有一个温暖的名字——“一万个岗位留您在家”。', '今年上半年，沛县系列招聘活动共举行36场，几十家企业走进直播间，为求职者送岗位。这是沛县县委、县政府践行以人民为中心的发展思想的生动体现，创造条件让老百姓就近、就地谋就业，让子女不再是“留守儿童”,让父母不再是“空巢老人”。', '2011年，沛县城镇职工养老保险、医疗保险、失业保险三大保险覆盖率均已超过95%。城乡低保、新农保、城居保、新农合、城镇居民基本医疗保险财政补助标准也在逐年增加，困难群众的医疗救助及各项社会保险待遇水平不断提高。', '十年间，沛县深入开展全民参保扩面行动，健全完善覆盖全民、统筹城乡的多层次社会保障体系。今年以来，镇级医养结合养老加速推进，职工养老保险新增参保4942人。', '医疗、教育，就是老百姓最关心的话题。针对沛县基础教育长期薄弱、资源供给严重不足、教学质量全市落后的问题，沛县旗帜鲜明提出“教育兴县”战略。近年来，沛县以超常规的决心和力度，累计新改扩建各级各类学校82所，沛高中等78所已投入使用，“大班额”问题全面化解，打赢了基础教育“翻身仗”。', '让百姓的精神生活“富”起来，不仅仅要大力发展教育事业，还要深入推进“文化惠民”工程。', '在沛县，遍地开花的除了花，就是歌风书房。有的建在湖心岛，有的建在机关后，有的建在闹市中，有的建在社区里……', '每天上午8点30分营业、晚上8点打烊，全年无休、全自助借阅、在全县30多家歌风书房之间通借通还、60个座位……6月24日，沛县一家特别的歌风书房在沛县农商行金融城支行（书香特色银行）开门营业。', '“近年来，沛县以创建最美文化空间为目标，大力改革公共文化投入、管理、运行模式，建设广大群众触手可及的歌风书房34家。”沛县文体广电和旅游局局长王明运介绍，沛县把最好的资源、最好的风景，配置到“全民阅读”事业，倾力打造城区“10分钟阅读圈”和镇区“30分钟阅读圈”，两年时间在城乡实现歌风书房的全覆盖。', '一楼，是便民服务大厅、志愿者服务站、妇女儿童之家、歌风书房、党史学习专区；二楼，有社区新时代文明实践站、政协议事室、多功能健身室；门外，还有设施齐备的百姓大舞台……', '在沛县汉兴街道汉润社区，建成这座5626平方米的党群服务中心，只为一件事——攻坚克难为群众办实事。“党群服务中心集党群服务、便民服务、网格化服务、群团服务、文化服务为一体，我们的目标就是把这里整合打造成最贴近党员、群众的服务站点，让群众想来、爱来、盼来、还来。”汉兴街道党工委书记姚华说。', '2021年，全县33名唢呐协会会员递交移风易俗承诺书，喜事新办，丧事简办，“吹”响了这个千年古城的文明新风。今年3月，重整新建的吕公园正式对外开放，一座居民小区环抱中的口袋公园，镶嵌着“婚不论财、人知教子”的文化标签，让沛县千年优良民风焕发时代风采。', '树立一面旗帜、寻找一个典型、写好一个村规民约、建好一支志愿者队伍、举办一次集体婚礼、举行一次群众性移风易俗文化文艺活动——沛县正是用这样的“六个一”工作法，以全国文明城市创建为引领，以选树褒奖“沛县好人”等身边典型为抓手，沛县大力弘扬社会主义核心价值观，有效治理人情攀比、厚葬薄养等陈规陋习，积极培树文明乡风、淳朴民风，目前全县共有“全国道德模范”1人、“中国好人”20人。', '完善共建共治共享的社会治理制度，实现政府治理同社会调节、居民自治良性互动，村民“议一议”，就能带动好事“聚一聚”。', '在沛县安国湖国家湿地公园，有一座名为“协商议事同心桥”的栈道木桥。“这条栈道木桥，是安国镇党委政府和徐矿集团张双楼煤矿融合发展的友谊象征。”沛县副县长、安国镇党委书记朱成说，近年来，地矿通过“有事好商量”协商议事会，就采煤塌陷地村庄搬迁、土地复垦、环境保护等多个议题携手合作，助发展、惠民生、促和谐成效明显。', '兴文化、育文明，非凡十年，是完善共建共治共享制度的起点。擦亮城市精神文明的底色，更具引领力、凝聚力、影响力的文明沛县也将在新征程上，更加出彩。', '要始终坚持党要管党、全面从严治党，持续强党建、转作风、夯基础，不断彰显党建工作的实绩实效。', '2012年的沛县政府工作报告中，定下这样的目标：坚持政府工作思路项目化、项目责任化、落实奖惩化，任务面前不推诿，困难面前不退缩，矛盾面前不回避。', '2017年的沛县政府工作报告中，再次强调加强政府自身建设，严格依法行政、坚持务实高效、保持清正廉洁。', '选出什么样的干部？配出怎样的班子？十年来，沛县用关键少数带动绝大多数，以优良的党风促政风、带民风，党建工作提质，方能引领高质量发展。', '2021年初的“两委”换届选举，1994年出生的退伍军人闫伍泽高票当选沛县朱寨镇闫集村党支部书记，他也是加快推进村级后备干部队伍建设“雏雁计划”中的一员。“健全‘选拔链’，抓好基层党支部书记队伍是关键环节。”沛县县委常委、组织部部长张毅介绍，结合当地特色产业和班子结构现状，沛县实行以事定岗、以事择人，选优配强村支书，扎扎实实为群众办实事、做好事。', '调度各卡口值班人员到岗情况，排查辖区沿街商铺消防隐患，核实外来人员返沛信息登记表……汉源街道办事处嘉苑社区党支部书记郭娟边打开手机里的“个人待办”工作清单边介绍：“街道最近出台并推广‘十条工作法’，提出‘不能把说了当干了，不能把干了当干成了’‘问题不过夜’等要求。为提高执行力，我每天都对照项目，把上级要求做到位。”', '汉源街道办事处主任尹茂雷介绍，为落实推动党员干部“务实落实善作为”，汉源街道今年探索形成“十条工作法”，取得了阶段性成效。', '近两年，“全程公开、允许旁听、当面亮分、出门不改”的沛县绩效考核措施受到热议，而尹茂雷当时就是沛县目标管理办公室主任。这一工作经历，让尹茂雷对“务实落实善作为”理解尤为深刻。他说：“很多时候，我们不缺对党忠诚的政治品格，不缺干事创业的满腔激情，不缺谋划发展的精彩创意，但是缺把这些品格、激情、创意内化于心、外化于行的落实方法。”', '一直以来，基础教育始终是沛县的发展短板和薄弱环节。要打赢这场专业领域的“翻身仗”，党建引领势在必行。', '2021年9月，沛县出台《沛县中小学校党建工作要点》，提出充分发挥学校党组织政治核心作用，健全完善学校党建工作管理体制。其中，把骨干教师培养成党员、把党员教师培养成教学管理骨干的“双培养”机制，充分调动起了教师教育教学的积极性。', '“中小学党建8条”打响了“党建引领、学在沛县”的党建品牌，以高质量党建引领中小学校立德树人，成为近两年的县委书记项目，这是沛县教育独一份的别样名片。', '这里不仅仅是一所小学，更是沛县近代教育的发源地，是中国共产党沛县第一个特别支部诞生的地方。2020年10月，沛县在青墩寺小学内辟设中共沛县党史纪念馆。自2021年4月开馆以来，这里成为了干部群众接受党史学习教育、感悟红色精神、汲取奋进力量的必到之处。', '2021年5月底，沛县县委委员来到中共沛县党史纪念馆参加工作务虚会，并自带被褥、洗漱用品，晚饭后走访调研、夜宿农家。几天“民情探访”下来，共吸纳民意35条，推动解决民生问题36件，这件事被《人民日报》以《持续转作风吃住在农家》为题报道。', '除了沛县党史纪念馆，沛县共修建红色教育基地14个，建成全国首个县域数字“四史”馆，编写出版《沛县党史十讲》《中共沛县党史（第一卷）》，党史学习教育持续走深走实。', '在沛县东风路坐落着一座运动公园，七人制足球场、乒乓球台、健身舞场、环形跑道应有尽有。', '从前，这里是生命的终点站——“老”殡仪馆；现在，这里是生命的加油站——运动公园。从前，这里是城市东进的“休止符”；现在，这里是城市发展的“快进键”。', '建于1979年的沛县殡仪馆，位于沛城东风路东首，设施老化严重，距离新华小区和新华中学不到500米，直接影响城市向东“走”。', '2020年6月起，沛县研究部署殡仪馆迁建工作，2021年4月4日，新殡仪馆建成运营，老殡仪馆立即拆除，之后，不到3个月就建成运动公园。', '高标准、高质量、高速度建好这个公园，抹掉了沛县城区往东延伸的红色“休止符”，按下了城东片区高速建设的绿色“快进键”。', '2021年，沛县县级20项为民工程、各镇街各部门122项攻坚项目和村级394项惠民实事全面完成，16个老旧小区1.4万套住房不动产登记等难题全面化解。2022年，沛县又排定了县级20项、镇级108项和村级486项惠民实事项目，誓以一批难题堵点攻坚突破，推动人民群众幸福指数全面提升。', '“过去的十年是沛县发展史册上极不平凡的十年，十年来，全县上下深入贯彻落实中央和省、市委决策部署，艰苦创业不停步，开拓创新勇争先，主动应对重大挑战，携手战胜诸多困难，各项既定目标圆满实现，如期全面建成小康社会，在古沛大地描绘出奋进争先、蓬勃发展的生动画卷。”徐州市副市长、沛县县委书记吴昊说，这十年成就的取得，是以习近平同志为核心的党中央掌舵领航的结果，是省委市委坚强领导、大力支持的结果，是历届县委、县政府接续奋斗的结果，是全县党员干部勇挑重担、多扛重责、同心实干的结果，党的事业是薪火相传的过程，又一个十年即将开启，我们一代又一代的共产党人只要接续奋斗、勇往直前，一定会创造更加灿烂的辉煌！（李梦虎 朱睿 蔡承松）']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>71</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>邳州市党政代表团来新沂考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-08-10</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20220810/38b646c5-6d59-423b-bcbc-110571066bfa.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['8月10日，邳州市委书记曹智、市委副书记、市长王伟率邳州市党政代表团来我市考察学习园区发展、产业转型、项目建设等方面的特色亮点和先进经验，以学促谋、以学促干，更好地“扛起新使命、谱写新篇章”。我市领导陈堂清、李胜、邢会义、王君迎参加活动。', '金秋八月，新沂大地热潮涌动。项目年产值是多少？产品研发的核心理念有哪些？上下游产业链发展如何？带着这些问题，代表团来到新凤鸣新沂产业基地，详细了解项目进展、新产品研发等情况。新凤鸣新沂产业基地项目是省重大产业项目，总投资180亿元，是一家集PTA、聚酯、纺丝、加弹、进出口贸易为一体的企业，采用国际先进的大容量、柔性化聚合工艺技术，形成年产270万吨聚酯材料生产能力，同时，企业构建了数字化运营和梯度式研发双平台，实现全链条研发生产新体系。代表团对新凤鸣项目从落地到开工仅用4个月，从建设到即将投产仅用1年4个月的飞快速度表示赞赏，认为新沂重大项目建设速度快、服务企业能力强，新沂抓项目、强产业、优环境的氛围浓厚，邳州将认真学习借鉴。', '活动中，陈堂清简要介绍了我市基本情况。近年来，新沂始终坚持“工业立市、产业强市”不动摇，全力加快工业振兴步伐，牢牢扭住招商引资“生命线”、项目建设“牛鼻子”，围绕“4+4”先进制造业体系，大招商、招大商，大抓项目、抓大项目，厚植实体经济新动能，经济社会发展呈现出“稳、进、好”的态势，迸发出“新活力”。特别是今年，一批投资超50亿元的重大产业项目相继建成投产，逐步构建了产业体系新格局，为建设“徐州工业第一县”奠定了坚实基础。', '曹智对新沂经济社会呈现出的良好发展态势给予高度评价，他说，一个个项目起于平地、一组组数据记录奋进，它们的背后是新沂在项目建设与推进发展中始终秉承的大格局、高视野，以及超前谋划和敢闯敢干、创新奋进的气魄，专业专注专研的精神，为邳州树立了榜样、探索了经验、开阔了思路。邳州要学习新沂的好经验、好做法，结合工作实际，把受到的启迪转化为推动经济社会发展的具体思路和工作举措。同时希望以此次考察为契机，两地进一步加强交流与合作，把地域相邻、交通相连、人文相亲、产业相融的优势转化为两地高质量发展的胜势，努力创造出更加过硬的发展成果，为徐州发展大局挑重担、扛重责。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>71</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>加快教育现代化建设全力办好人民满意教育</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-09-09</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20220909/dc1d2190-1707-4764-b2e4-0df575652b5b.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['9月8日，庆祝第38个教师节暨全市教育高质量发展推进大会在会议中心大会堂召开。大会总结成绩、表彰先进、部署任务，动员全市上下深入推进教育高质量发展，加快教育现代化建设，营造尊师重教、崇文尚学的浓厚氛围，全力办好人民满意教育。市委书记曹智讲话，市委副书记、市长王伟主持。徐州市教育局局长石启红应邀出席会议并讲话。', '曹智在讲话中首先代表市四套班子领导向受表彰的先进集体、先进个人表示祝贺，并通过他们向为我市教育改革发展默默耕耘、辛勤工作、无私奉献的广大教师、教育工作者和离退休老教师致以节日问候和崇高敬意。', '曹智指出，市委、市政府高度重视教育发展，去年以来，先后9次调度、23次调研教育工作，坚持把教育摆在优先发展的战略位置，加大教育投入，建强教师队伍，提升教学质量，教育事业呈现出良好的发展态势，教育资源供给不断优化，教育队伍建设不断加强，教育评价体系不断完善，教育教学质量不断提升。此次，我市召开全市教育高质量发展推进大会，就是要传递“全社会要关注教育、全社会要尊重教师”的强烈信号，树立“营造公平公正、风清气正的教育生态”鲜明导向，明确“办好人民满意的教育”核心目标。', '曹智强调，要提高政治站位，以更强担当推动教育事业高质量发展。坚定不移用习近平总书记关于教育的重要论述统一思想、引领方向，准确把握教育优先发展的深刻内涵，担起为党育人的时代重任，扛起教育强市的责任担当，厚植教育惠民的民生情怀。要提高办学水平，以更大力度推动学校优质化特色化发展。学前教育要深化普惠规范。多渠道加大学前教育投入，形成覆盖城乡、布局合理的学前教育体系。义务教育要坚持优质均衡。坚持问题导向，根据生源数量动态变化规律，做好城乡学校建设规划布局；以集团化办学为抓手，放大优质教育资源辐射能力，缩小市区乡镇、各所学校之间的差距；提前规划建设幼儿园和义务教育阶段学校，保障学校规划建设与城市基础设施同步，让群众第一时间共享教育红利。高中教育要实现量质提升。擦亮运河中学金字招牌，打造品牌高中雁阵，激励全市高中竞相发展，努力让更多的学生考上大学、考上好一点的大学。职业教育要突出产教融合。深化校企对接，合理增设与六大主导产业相适应的紧缺专业、新兴专业，订单式培养“产销对路”的高级技工人才，实现教育链、产业链、创新链和人才链“四链衔接”，全面打响邳州职业教育品牌，实现教育进步和产业发展相互赋能。各级各类学校必须守牢校园安全底线，健全学校突发公共卫生事件工作和预警机制，加强应急预案演练，常态化落实学校疫情防控各项要求，努力创造安定和谐的校园内外环境。要提高能力本领，以更严标准打造专业化高素质教师队伍。把教师队伍建设作为教育工作的重中之重，以队伍建设的高质量推动教育发展的高质量。打造一支有信念、有能力的教师队伍，各位老师要坚定理想信念，保持热爱教育的定力，勤于学习、忠于职守、乐于奉献；打造一支会办学、办好学的校长队伍，深化校长聘任机制，严格开展校长履职考评，各位校长要强业务、会管理、在状态。教育主管部门要深入一线、靠前服务，教育局要强化规矩意识，全面加强作风建设，加强对教育方针政策、业务知识、前沿理念的学习研究，提高指导教育工作的能力和水平；教师发展中心要加强对教育工作的分析研究，全力服务好教学一线。要提高教育效能，以更丰富的活动营造良好教育生态。转变教育理念，落实“五育”并举，广泛开展校内外活动，全面营造崇文尚学、尊师重教的环境氛围，不断增强教师的获得感、成就感和荣誉感，让学生感谢学校、感恩老师。通过校园活动健康学生身心。积极举办社团文体活动，构建“一校一品”的特色发展格局，定期开展心理健康教育主题活动，培育学生积极心理品质；巩固“双减”工作质效，增加活动类、体验类作业占比，促进德智体美劳全面发展。通过教师活动提升素质水平。积极组织参加教育教学比赛活动，开展教科研训活动，进一步提高课堂质效；定期组织外出考察、学习培训活动，加强校际交流，推进教育教学上台阶、上水平。通过社会活动营造尊师重教氛围。发挥新闻媒体的舆论导向作用，推出系列宣传活动，充分展现邳州教育亮点，引导更多群众参与到教育管理中来，构建家校社“三位一体”的“大教育”格局，全面营造尊重教育、尊重知识、尊重人才、尊重教师的浓厚氛围。', '曹智最后强调，教育事业承载着邳州的前途和未来，寄托着全市人民的希望和期盼。全市广大教师和教育工作者要不忘办学初心、牢记育人使命，敢为善为、务实落实，奋力推进邳州教育事业高质量发展，以实际行动迎接党的二十大胜利召开。', '王伟强调，要统筹推进各类教育协调发展，突出“普惠规范”抓好学前教育、突出“优质均衡”抓好义务教育、突出“量质提升”抓好高中教育、突出“产教融合”抓好职业教育。要全面加强教师人才队伍建设，深入实施“三师工程”“青蓝工程”，加强师德师风建设，教育引导教师争做“四有”好老师，以“学高为师、身正为范”当好学生健康成长引路人。要大力弘扬尊师重教良好风尚，不断提高教师待遇，改善办学条件，健全学校、家庭、社会协同育人机制，营造全社会关心支持教育的良好氛围，让广大教师在岗位上有幸福感、事业上有成就感、社会上有荣誉感，为邳州建设现代化教育强市凝聚强大合力。', '石启红表示，徐州市召开庆祝第38个教师节暨教育高质量发展推进大会之后，邳州立即召开大会，传达贯彻落实徐州市委、市政府部署要求，充分体现了邳州优先发展教育事业、建设教育强市的坚定决心，必将指引着邳州教育改革发展向更高水平、更高质量迈进。', '石启红对我市教育工作取得的成绩给予充分肯定。石启红说，邳州教育体量大，是徐州市教育格局中极其重要的板块。近年来，在邳州市委、市政府的高度重视下，全市紧紧围绕“办人民满意的教育”目标，大力实施“建学校、招老师、严管理、提质量、强后备、保安全”六项举措，办学水平不断提升，各项工作取得明显成效，学校建设加快推进，师资力量全面加强，高考质量稳步提升，优质资源供给持续扩大。', '石启红指出，当前，徐州教育还存在着发展不平衡不充分、城乡教育二元结构明显、教育投入总量高但生均经费低等短板弱项，希望邳州认真贯彻徐州大会精神，构建高质量发展的邳州创新探索，落实教育优先发展的战略地位，牢记立德树人根本任务，把牢教育质量关键环节，建好教师队伍第一资源，抓好安全稳定最大任务，为徐州教育改革作出新的更大贡献。', '会上，邳州市委常委、宣传部部长李世峰宣读表彰决定，副市长高琼作教育工作报告。大会还对获奖代表进行了现场颁奖，受表彰的先进集体、优秀个人、尊师重教先进单位代表作了会议发言。与会人员共同观看了2022年教育发展成果专题片。', '吕岩、孙强、邱文莉、韩振松、陈纬、卢沛、岳汉等市四套班子领导在主会场参加会议；德教双馨老教师代表受邀在主席台前排就坐。会议以视频会议形式召开，各镇（区、街道）设分会场。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>71</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>学先进树标杆新沂科技局赴海安张家港等地考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-06-25</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001002/20220625/9c8a40a5-81e3-4319-8268-7950a089c704.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为贯彻落实市委、市政府“发展指标上对标海安、转型路径上对标张家港”指示精神，学习借鉴两地的成功经验，进一步拓展思维、探索路径，推动我市科技创新工作再上新台阶，6月20-22日，由新沂科技局党组书记何高强带队，局班子成员及经开区、高新区科技部门负责人组成的科技考察组赴海安、张家港、苏州等地进行为期三天的考察学习。', '在海安，考察组先后实地走访了海安上海交大智能装备研究院、图灵机器人、繁华玻璃、海安南大高新技术研究院、天楹集团等处，并与海安科技局班子成员进行座谈交流。海安科技局任镇局长介绍了海安科技创新工作的思路与亮点。近年来，海安市围绕“枢纽海安、科创新城”发展定位，坚持创新核心地位，持续推进科技体制改革，围绕“政府主动、企业主体、产业主导”三大创新要素做足文章。海安成立了市科创委，建立联席会议制度，形成大科创委协调议事机制。出台“1+13+1”的科创政策体系，涉及40个牵头单位，12大指标，204项细化任务。出台创新驱动高质量发展36条政策，条条用真金白银支持科技改革、载体建设、企业创新。海安市连续四年被省政府表彰为推动科技政策落实和科技体制改革成效明显地区，苏中县 （市）唯一。位列“2021年中国创新百强县（市）”榜单第11名。', '在张家港，考察组先后参观了中科纳米张家港化合物半导体研究所、集成电路产业促进中心、苏州氢能产业创新中心，座谈会上，张家港科技局俞萍副局长详细介绍了张家港科技创新取得成果和创新做法，两地科技部门进行了热烈讨论和交流。近年来，张家港聚焦“科技支撑产业发展”主题，紧扣“科技创新引领转型升级的全国样板”和“高质量发展的创新型县（市）”全面推进“创新张家港”建设。在全国率先成立市委创新委，形成了各方力量共同参与的“大创新”格局。张家港在全国率先探索实施的“企业创新积分制”经验，被科技部在59家全国高新区推广试点。积分制采用指标量化的办法对企业创新行为按类打分，将积分结果与政策兑现、荣誉表彰、人才房补贴、金融支持等挂钩，有效破解科技创新“评价难”“申报难”“兑现难”等现实困境。张家港2018年入围首批全国创新型县（市）建设名单，2020年、2021年连续两年入围科技部“百城百园”行动，被省政府表彰为推动科技政策落实和科技体制改革成效明显地区。', '在苏州，考察组一行实地考察苏大天宫孵化器、盛博科技产业园、欧朗物联硬创空间等地，听取了平台运营负责人对企业经营和创新成果介绍。以苏大天宫为代表的科创平台采取“孵化+投资+创业服务”运营模式，充分利用“政产学研资”转化资源，打造众创空间3.0，已建设成为全国有名的专业化的资源集聚空间。已累计孵化服务创业团队和创业企业300多个，累计提供就业岗位1932个，入孵创业实体孵化成功率达到80%以上，完成工业园区云彩创新项目立项17个，成功孵化培育领军人才企业20余家。考察组还组织开展两场座谈活动，同步进行科技招商推介，与有关专业孵化器运营团队达成了初步合作意向，为后续科技平台招商奠定了基础。', '此次考察学习是一次对标先进、解放思想之旅,是一次学习取经、启迪智慧之旅,更是一次观念碰撞、精神振作之旅。通过考察学习，开阔了视野，看到了差距，打开了思路，坚定了信心，为深入推进新沂科技创新工作提供了新思路。下一步，新沂科技局将认真做好本次考察学习活动总结工作，做好消化吸收，结合我市实际，进一步对标补短，强化科技服务，狠抓工作落实，推动科技创新工作上新台阶，为新沂建设“一支点一门户一中心”和“徐州工业第一县”注入强有力的“科技力量”']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>71</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>我市与泰安济宁两地公共资源交易中心签订跨区域远程异地评标合作协议</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-08-04</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001002/20220804/6916b726-8c4b-409e-b026-db038c93aa3a.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['8月2日到3日，市政务办党组书记、主任刘东亮，市政务办党组成员、市公共资源交易中心主任朱洪延等一行6人分别到泰安市、济宁市公共资源交易中心考察学习，并签订跨区域远程异地评标合作协议。', '考察期间，考察组成员分别参观了泰安、济宁两地交易中心服务区、不见面开标区、电子见证区等场所。双方就土地二级交易市场建设情况、跨区域远程异地评标合作、政务服务及公共资源交易创新等工作进行了座谈交流。', '我市公共资源交易中心将以此次签约为契机，进一步加强与淮海经济区“四省八市”以及长三角区域各交易中心的联系，深化共识、携手并进，充分挖掘各自优势，拓宽合作领域，提升协作层次，积极开创公共资源交易跨区域合作发展、共同进步的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>71</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>大沙河镇为农村学生的卓越成长助跑</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-09-01</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001002/20210901/b9c9c804-6234-40d6-a679-02eea1377652.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['自党史学习教育开展以来，大沙河镇坚持把教育列为第一民生，大力开展“我为群众办实事”实践活动，先行先试推进农村小学生进城入镇上学，让农村小学生听上“名师课”，为全县“农村小学生进城入镇”工作积累经验、提供借鉴。', '大沙河镇多次召开教育工作专题座谈会、推进会，广泛听取学校、驻村相关负责人及学生家长意见建议，对全镇农村小学生“进城入镇”上学情况进行全面摸排，摸清生源情况、镇区学位情况、农村学生进城入镇上学意愿等，为推进试点提供依据。经调查，农村小学生“进城入镇”意愿率达100%。', '多次外出考察学习并结合我镇实际，重新编排公交线路，新增中心小学停靠点，优化改造食城等沿线停靠点。对车流量较多的路口，全面划设人行道、斑马线，安装减速带，消除道路交通安全隐患。坚持家校共促，成立由村干部、家长代表、教师代表组成的志愿者服务队，排班负责站点接送学生，维持上下车秩序。安排教师随车服务，保障学生途中安全。', '坚持全镇一盘棋，各校一张网，多从家长角度谋思路、做工作，建立校园开放日，主动邀请农村家长代表前来参观，让家长安心；建立“一对多”师生结对机制，经常性开展谈心交流，加大关心关爱，帮助学生解决学习生活中的困难和问题。建立老生、新生结对“传帮带”机制，引导新生尽快融入新集体、适应新生活。', '推进七百多名小学生走出农村、融入城镇入学，让农村学生与城镇孩子享受同等的教育水平，为梦想助力。这一举措不仅是对教育资源的优化，更是对民声所向的回应。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>71</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>携手并进共同谱写高质量发展新篇章</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021-09-06</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001001/20210906/3f3f3636-90cc-4e42-9937-d7969ea7fd6c.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['9月4日，铜山区委常委、徐州高新区党工委副书记、管委会常务副主任戴雷率领党政代表团来邳，考察学习我市经济社会发展情况。市委书记曹智陪同活动。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>71</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>考察学习携手并进在高质量发展赛道上持续加速加力</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021-09-05</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20210905/cd582ca3-44dc-46c8-a7c9-521547afec28.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['9月4日，铜山区委常委、徐州高新区管委会常务副主任戴雷率党政代表团来我市考察，学习我市招商引资“1号工程”、项目建设“新沂速度”、服务项目的“新沂模式”等经验和做法，加强两地交流发展，在高质量发展赛道上持续加速加力。我市领导陈堂清、郑伟参加活动。', '水性超纤项目是省、徐州市重大产业项目，当前，项目建设与生产同步推进。在水性超纤生产车间里，铜山区党政代表团查看生产设备、生产流程，认真听取项目发展情况。水性超纤项目计划总投资110亿元，围绕全水性定岛超纤新材料核心产业，发挥水性聚氨酯、定岛超纤有色丝、定岛超纤无纺基布、色母粒等四大领域的核心技术，重点发展水性汽车内饰、超纤民用及军工产品、超纤医用材料等细分领域。通过“一核一院一园一金”的建设，形成以绿色产品、绿色企业、绿色产业基地、绿色供应链的千亿水性产业集聚区，打造国家级全水性新材料产业平台。戴雷对新沂产业链式发展模式给予肯定，认为新沂深入推进产业成片延链发展，成效明显、前景广阔，对于实现产业基础高级化、产业链现代化具有重要意义。', '在新凤鸣新沂产业基地项目现场，铜山区党政代表团认真听取项目负责人介绍。当了解到该项目实现了当年签约、当年开工建设，刷新了重大项目建设的“新沂速度”时，代表团纷纷表示，新沂坚持围着项目转、盯着项目干，为加快项目建设不断创新思路和举措，展现出了打造“徐州工业第一县”的担当，取得了丰硕成果，成功的经验值得铜山借鉴和学习。', '上菱高端智能冰箱制造项目，总投资50亿元，主要开展智能高端冰箱、冷柜等家电产品的研发、生产和销售，项目一期按智能化、信息化、可视化的现代企业要求进行建设，打造国内领先、世界一流的高端智能家电产业基地。二期将围绕白色家电产业链，引入配套企业，打造智能家电产业园。现代化、智能化生产车间让铜山区党政代表团眼前一亮，大家纷纷表示，新沂的招商引资工作成果丰硕，高端产业项目不断涌现，项目的综合竞争力越来越强，铜山要认真总结新沂经验，力争招引更多优质项目。', '新沂新兴产业渐成风景，传统产业也正添绿意。中新钢铁特钢板材减量置换技改升级项目总投资150亿元，建设高炉、转炉、精炼炉、热连轧生产线及中厚特种专用板材生产线，可满足国内70%左右下游产品生产，项目建成后将打造为淮海经济区钢铁龙头企业，带动徐州市冶金及装备产业发展。铜山区党政代表团被我市传统产业“二次创业”的激情所感染，项目的大体量给他们留下了深刻印象，颠覆了对新沂传统产业发展的认识，新沂的产业结构日益优化、发展质效日益提升，必将为新沂高质量发展提供强大动力。', '吾悦广场开业以来，商场运营情况良好。代表团走进商场内，现场感受我市服务业产业发展成效。吾悦广场项目总投资10亿元，突出“购物+体验”“服务+社交”主旨，建设一站式城市全生活广场，为新沂市民提供一站式多元化的商业消费体验和更多休闲、娱乐和社交的选择，带动区域产城融合发展。代表团点赞新沂现代服务业发展，认为新沂在产城融合道路上蹄疾步稳，必将为新沂经开区向着千亿园区目标迈进奠定基础。', '活动中，我市市委书记陈堂清简要介绍了新沂经济社会发展情况。今年以来，新沂聚焦打造“徐州工业第一县”的目标，以“一支点一门户一中心”战略定位为引领，以建设实力新沂、美丽新沂、幸福新沂为抓手，重抓实体经济，筑牢县域发展“坚实支撑”统筹城乡发展，厚植生态宜居“美丽底色”；强化区域协同，放大双向开放“比较优势”；坚持人民至上，刷新共建共享“幸福指数”，统筹推进稳增长、促改革、调结构、惠民生、防风险等各项工作，高质量发展迈出了坚实步伐。', '新沂重大产业项目蓬勃发展的态势、“二次创业”强劲势头给铜山区党政代表团留下了深刻印象，大家纷纷表示不虚此行。戴雷认为，新沂企业发展、项目建设、产城融合呈现出新亮点、新特色，尤其大项目、好项目令人震撼、让人羡慕，项目体量大、质态优、前景好、爆发性强，为新沂高质量发展提供了强有力支撑。新沂干部比学赶超、勇争第一、敢创唯一的精气神感染着大家，脚踏实地、攻坚克难、奋勇前行的劲头值得铜山学习借鉴。戴雷表示，要认真总结学习新沂的先进做法和成功经验，精准对标找差，在项目招引、建设和服务上不断实现新突破。今后，希望两地在更多领域发挥优势、加强互动、携手共进。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>71</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>以新时代的辩证法写好沛县答卷党建辩证法少与多</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001006/20210704/dc0e4581-6ead-4a00-baae-97533b770ea0.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['沛县在党建工作中，坚持狠抓基层党组织书记这个关键少数，以书记强带动班子强、以干部强带动党员强、以组织强带动落实强，实现党组织工作全覆盖，用正反典型教育党员，实现了以优良的党风促政风、带民风，以新时代的辩证法写好高质量党建引领高质量发展的沛县答卷。', '“只有时刻把群众冷暖放心上，扎扎实实为群众办实事、做好事，才能赢得群众的信任和支持。”在年初举行的“两委”换届选举中，司苏淼全票当选沛县张寨镇司楼村党支部书记。司苏淼的发小——40岁的司振宇曾在南京工作多年，如今，他回到司楼村搞养殖，在司楼村“两委”选举中，全票当选村党支部副书记。', '也是在这次换届选举中，1994年出生的退役军人闫伍泽高票当选沛县朱寨镇闫集村党支部书记，是目前沛县最年轻的村支书。据了解，为加快推进村级后备干部队伍建设“雏雁计划”，沛县出台《关于在退役军人中培养推选村(社区)“两委”后备人才的实施意见》等文件，共有200名退役军人在村(居)“两委”任职。', '“这三个人的当选，是沛县健全‘选拔链’，聚力抓好基层党支部书记队伍建设的一个真实写照。”沛县县委常委、组织部部长张毅介绍，沛县针对当地特色产业、班子结构现状，推行以事定岗、以事择人，重点从致富能手中“挑”，从机关人员中“派”，从返乡能人中“请”等办法，选优配强村书记。', '第一是拉长“培养链”，沛县常态化开展对基层书记的培训，分批分类组织270名书记到浙江、福建考察学习。', '第二是完善“激励链”，大力选树先进典型，沛县栖山镇胡楼社区党总支书记王吉永被推选为全国优秀党务工作者。', '沛县胡寨镇吴双楼村党支部依托吴双楼村农地股份合作社流转850亩土地进行产业结构调整，发展“稻虾共作”“藕虾共作”，壮大了村集体经济，大力推进“户户通”工程、亮化工程、村庄环境整治，村容村貌焕然一新。“壮大村级集体经济，为老百姓办实事，是增强村级党组织凝聚力、号召力、影响力的重要保证，反过来，我们也要把党的组织优势转化为高质量发展优势。”沛县胡寨镇党委书记孙道远说。', '加强和改进城市基层党建，是夯实党在城市执政基础、推进城市治理体系和治理能力现代化的核心要义。', '去年，沛县将提升城市社区党建工作规范化水平列为“书记项目”，探索推行组织联建强基础、力量联配强队伍、多方联手强服务、资源联合强保障的“四联四强”工作机制，以党建聚力，构建城市社会治理新格局。', '“选优配强领导班子，努力让街道社区党组织有效发挥作用。”沛县沛城街道办事处副主任宋敏说，加强基层党组织延伸覆盖，将其延伸到小区、楼宇。沛城街道汉台社区建立“社区党总支—小区党支部—楼栋党小组—党员中心户”四级网格党建架构，有效延伸党建引领社区治理工作触角。', '沛县完善区域化党建工作格局，在城市街道社区普遍推行大党（工）委，通过联席会议制度、统一活动日制度等，实现优势互补、资源共享、共驻共建。', '“以前做社区矫正，工作单一，现在全科综合性的社区工作更贴近群众，服务范围也更广泛。” 31岁的魏青是沛城街道香城社区服务中心的全科社工，大学毕业后曾在沛县司法局做社区矫正员，去年9月，参加沛县城市社区工作者招聘被录取。', '2020年以来，沛县全面推行城市社区工作者职业化体系建设，设立三岗十八级职业薪酬体系，畅通社区工作者职业晋升渠道，让社区工作者有干头、有奔头、有盼头。去年9月份新招聘的80名社区工作者，年纪轻、学历高、头脑活，为社区注入了强大的活力。', '多方联手强服务——坚持以居民为中心，让社区党组织、社会组织、社会工作、社会志愿服务等互相联手。', '沛县在社区治理中，推行网格化管理，推动社区党员干部和志愿者下沉，并以社区党群服务中心为阵地，以政府购买服务为抓手，既开展普惠居民的卫生、绿化、治安、文体等综合性服务项目，又推出面向特殊群体的社会救助、社会福利、失业人员再就业等服务。', '资源联合强保障——做好社区治理必须做实基本保障，实现资源下沉，保证基层党组织有力开展工作。', '沛县按照“组织建设先行”的思路，落实党建引领物业管理服务“双覆盖双提升”主题活动，成立中共沛县物业服务行业委员会。', '“我们小区物业服务很贴心。”沛县汉源街道九龙城小区物业服务由盛全物业承担，这家公司通过党建引领，积极打造“红色物业”，优质服务受到业主肯定。', '沛县汉兴街道锦诚社区把原售楼中心打造成集党建宣传、文化娱乐、休闲健身、养老育幼的“生活大本营”——社区党群服务中心。', '“一楼是老年人活动中心，二楼是妇幼活动中心，还有智慧书屋，这里还是社区居民的‘评议中心’，一些大小事就在这里解决了。”锦诚社区党支部书记毛基荣说。', '沛县创造性地开展新经济组织和新社会组织党建工作，新经济组织和新社会组织中的党组织数量大幅度增加，影响力明显增强。', '“去年，我们针对‘两新’组织，全面摸排清底数，推进党组织应建尽建。”沛县县委组织部组织三科科长宋雅莉提供了一个数据，摸底排查期间共组建党组织11个。', '沛县以“两新”组织党务工作者队伍专业化建设为重点，切实抓实基层基础工作，以“有形+有效”“标准+示范”“实绩+实效”， 在“两新”组织中，推动党的组织全面覆盖、党的工作全面加强、党的建设全面融合，实现“两新”组织党建工作与经济发展深度融合、双向促进。', '沛县还在“两新”领域，建立经济发展、市场监督、民政、税务等部门联席会议制度，动态掌握“两新”组织发展变化情况，将“两新”组织党组织应建尽建要求落到实处。在开发园区招聘8名专职党务工作者，壮大工作力量，精细落实非公企业党建工作要求。通过开展“党旗飘在一线、堡垒驻在一线、党员冲在一线”突击行动，有效发挥“两新”组织党组织和党员在抗击疫情冲击中的“战斗堡垒”和“先锋模范”作用，全县民营经济保持了蓬勃发展的良好势头。', '“坚决防止‘灯下黑’‘两张皮’！”沛县机关工委副书记燕伟说，围绕机关党建，沛县制定党支部“七个一”标准化建设方案。', '加强党对教育工作的全面领导，是办好教育的根本保证。今年，“以高质量党建引领中小学校立德树人”被确定为沛县县委书记基层党建“书记项目”。', '沛县汉润小学围绕这个“书记项目”，明确“党建引领，立德树人”品牌，着力打造书香校园。教师团结进取，学生健康成长，成绩大幅提高。家长甄文文说：“孩子现在变得懂礼貌、讲文明了，我们通过在家长学校的学习，知道了怎样与孩子沟通、如何鼓励孩子。”', '“今年以来，我们以‘书记项目’为引领，聚焦中小学校党建薄弱环节，进一步严密组织体系，严格队伍管理，深化思想政治教育，以高质量党建引领中小学校立德树人。”沛县教育工委书记、沛县教育局局长王家勇说。', '沛县还注重发挥县委书记“书记项目”牵引作用，组织指导52个基层党（工）委精准实施一批基层党建书记项目，破解一批基层党建工作难题，年底组织开展优秀“书记项目”评选表彰。', '沛县经济开发区是工业化园区，党建工作面临非公企业多、流动党员多的难题。“我们积极创新党工共建发展模式，探索实施主导企业党支部引领全区产业链支部的运行模式，促进产业发展与党工共建同向发力、同频共振。”沛县经济开发区党工委副书记、管委会副主任杨琦说， 把党组织建在产业链上，让党员聚在产业链上， 沛县经济开发区实现了党工组织全覆盖。', '沛县还丰富党组织设置模式，在互联网、离退休干部等行业群体中，以“支部+协会”设立非建制性功能型党组织，着力推进新兴业态党建“两个覆盖”。', '1929年，中共沛县第一个特别支部在沛县张寨镇青墩寺小学诞生。2020年10月，沛县县委、县政府决定在青墩寺小学辟设中共沛县党史纪念馆。', '“我们在建设中共沛县党史纪念馆过程中，查阅了大量的革命史料，访谈过许多革命先辈的后人，可以说，纪念馆的建设全过程，就是我们接受党史学习教育的过程，也是接受革命洗礼的过程。”沛县张寨镇党委书记王明运说。', '该馆自4月1日运行以来，成为全县干部群众接受党史教育、感悟红色精神、汲取奋进力量的红色打卡地。', '近日，沛县廉政教育基地投入使用。这个基地是结合沛县实际，精心打造的具有地域文化特色、古今历史交融、体验式、互动式的廉政教育基地，旨在面向全县党员、干部展开廉政教育、纪法教育、警示教育。', '沛县廉政教育基地综合运用创意场景、多媒体互动、沉浸式空间、5G技术等现代展示手段，并将沛县特色元素融入展项设计中，使廉政教育更具吸引力、震撼力和感染力，真正起到“入眼、入耳、入脑、入心”的效果。', '“沛县廉政教育基地的建成，对于深入贯彻落实全面从严治党方针，加强廉洁、廉政文化建设，以永远在路上的坚韧和执着，扎实推进党风廉政建设和反腐败斗争，实现不敢腐、不能腐、不想腐一体推进战略目标，具有重要意义。”沛县县委常委、县纪委书记、县监委主任张波说。', '在沛县廉政教育基地，我们还能看到沛县干部群众熟悉的一个个名字——他们曾经是同志，如今是沛县干部群众的反面教材，一个个案例发人深省，一组组数据触目惊心。', '“在建党100周年的历史时刻，沛县的党员、干部都要到中共沛县党史纪念馆、沛县廉政教育基地走一走、看一看。在党史纪念馆，我们通过学习革命先辈的光辉事迹，明白做人的‘高线’；在廉政教育基地，我们通过看看身边的腐败分子，认清做人的‘底线’。”沛县县委书记吴昊说，要让意志坚定的人看了党史纪念馆，热血沸腾，要让意志薄弱的人看了廉政教育基地，心惊胆战，通过正反典型的教育，坚定理想信念，强化使命担当，以“两个争做”的优异成绩向建党100周年献礼，以高质量发展的不断进步，向党组织和人民群众交出合格答卷！']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>71</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>对标找差促提升明确方向抓落实</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021-08-19</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20210819/3134b36a-751f-4f13-bf7e-dded536b04e5.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['8月17日，市委书记曹智，市委副书记、代市长王伟率党政代表团赴新沂市考察重大项目建设，通过走出去看一看、比一比、学一学，进一步增强时不我待的紧迫感、提振干事创业的精气神，聚焦发展第一要务、项目第一抓手，强化“项目为王”的理念、营造大干快上的氛围，全力推动招商引资、项目建设实现更大突破。新沂市委书记陈堂清、市长李胜陪同活动。', '当天上午，曹智王伟一行首先来到水性超纤项目，考察了解项目进展、科技创新、上下游企业招引等情况。水性超纤项目总投资110亿元，围绕全水性定岛超纤新材料核心产业，重点推进水性汽车内饰、超纤民用及军工产品、超纤医用材料等细分领域的应用及相关行业的发展。目前全国第一条实现量产的全水性定岛超纤新材料生产线已正式投产，项目全面建成投产后，可实现年销售收入200亿元。代表团对项目坚持科技创新、打造全产业链发展的思路予以赞赏，认为新沂市强化“项目为王”理念，瞄准链主企业精准发力，为产业集群发展注入了新动能。', '在新凤鸣新沂产业基地项目施工现场，代表团详细了解项目发展方向、发展定位和进展情况。该项目总投资180亿元，建设周期预计为5年，按照一次规划、分期实施方案，逐步形成年产270万吨聚酯新材料的产能规模。全部建成投产后，预计实现年销售收入260亿元，利税20亿元。目前热电锅炉主厂房基础正在开挖，热电及短纤主体将在年底建成。代表团认为，该项目体量大、质态优、层次高、前景广，对于引领带动产业链发展及配套项目集聚具有十分重要的意义。', '代表团随后来到中新钢铁特钢板材减量置换技改升级项目现场，了解项目转型升级情况。该项目总投资150亿元，建设高炉、转炉、精炼炉、热连轧生产线及中厚特种专用板材生产线，可满足国内70%左右下游产品生产，同时配套建设综合利用发电、铁路专用线、新戴运河码头、智能物流货场、独立生活中心等设施。预计9月份高炉点火试生产，今年预计可实现产值超200亿元。代表团认为，新沂市传统产业转型升级的力度大、热情高，产业结构日益优化，项目质效日益提升，园区积极破解要素制约，主动靠前服务重大产业项目的创新举措值得借鉴和学习。', '在随后召开的座谈会上，曹智说，此次考察的项目体量大、质态新、推进速度快、带动能力强，园区基础日趋完善，创新活力逐渐释放，高端产业项目层出不穷，在高质量发展的进程中迈出了坚实步伐。邳州将认真学习、吸纳新沂在重大项目建设上的经验做法，将所见所思转化为抓招商、抓项目的思路举措，转化为从严从实、实干实效的干部作风，以项目建设实际成效推进邳州经济高质量发展。', '要对标先进，准确研判，找到差距、短板和不足。科学分析定位，把握发展形势，明确追赶目标，向苏南看、和苏中比，在徐州当排头、全省争进位；牢牢把握项目建设和产业集聚，加快重大项目建设步伐，加快产业集聚，形成高质量发展态势；加大“僵尸企业”清理力度，强化新旧动能转化，为项目发展腾挪空间。', '要结合定位，系统谋划，明确未来发力方向。要有目标，重新梳理、建立包挂制度，坚持“回头看”；认真研究，结合自身基础，立足招商引资优势，继续精耕细作，持之以恒抓主导产业，同时开辟招商引资新战场；守好根据地，积极扶持现有企业做大做强，为企业成长打造沃土；将服务下沉，围绕项目建设、产业发展真抓实干、务实进取，确保项目落地见效。', '要扎实举措，积极履职，进一步强化要素保障能力。要有“主动办”的服务意识，围绕项目落地积极靠前、综合施策，只为落实想办法，不为困难找借口；要有“马上办”的执行能力，以等不起的紧迫感、慢不得的危机感、坐不住的责任感，自我加压，坚定信心，迎难而上；要有“办必成”的责任担当，以“如坐针毡，夜不能寐”的工作状态，担当作为、严实苦干，栉风沐雨、背水一战，以干事创业的激情豪情，掀起新一轮发展高潮。', '王伟指出，此次考察既要看到自身的问题和不足，增强紧迫感，又要看到自身优势，增强发展信心。要保持招商引资、项目建设的战略定力，用一笔笔投资、一个个项目来稳增长、稳就业、稳预期。把握招商引资的主攻方向，提升项目招引的针对性、精准性，全力招引重大项目，尽快实现百亿元级项目的突破。解放思想，进一步提升招商办法、招商手段，有效提升招商实效。注重项目的产出效益，推动签约项目从纸上落到地上，投产项目尽快满产，变成规上、形成税源。加强节点意识，精准推进项目建设，压实属地、部门和投资主体责任，全力以赴抢时间、抓进度、赶工期，将工作效率转换为项目建设效率。', '会上，官湖镇、高新区、开发区、经发局、商务局、自然资源和规划局、生态环境局、深圳招商办相关负责人分别作了交流发言。大家纷纷表示，将对标找差，加压奋进，从汲取新沂的有益经验做起，全方位学习苏南、对标苏中，全面发起招大引强和项目建设的强大攻势，为“徐州当排头、全省争进位”勇挑重担、贡献力量。', '吕岩、孙强、邱文莉、韩振松、李世峰、伏旭、陈纬、卢沛、岳汉等市四套班子领导参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>71</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>吴昊带领我县党政代表团赴鱼台和滕州考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-07-06</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001001/20210706/8a4862a1-caba-4afe-a472-283723b6285e.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['7月5日，县委书记吴昊带领我县党政代表团赴山东省鱼台县、滕州市考察学习，以“他山之石”激发发展灵感，为我县新一轮高质量发展储蓄力量。', '走进鱼台县济宁安泰矿山设备制造有限公司，企业自主研发的数字化矿用隔爆型潜水电泵让人眼前一亮，用户可以通过工业互联云实现对该潜水电泵的远程控制，此发明填补了国内行业空白。', '企业获得优异成绩的背后是鱼台县坚持走新旧动能转换之路的推动。鱼台县围绕“智能制造，科技创新，构建工业泵产业生态”目标，加快发展壮大机电装备制造产业集群，成立工业泵产业园建设专班，设立1亿元体量的新旧动能转换基金，引导企业加大技术改造，达到生产和产品“双智能”。', '大项目支撑大发展。滕州市鑫迪家居工业4.0智能制造项目是山东省重点项目，总投资50亿元，围绕“智能工厂、智能制造、智能物流、智能设计”的总体定位，高标准建设了现代化厂房、研发中心等，着力打造中国家居行业4.0智能制造示范标杆基地。', '考察人员对项目的高科技含量、广阔发展前景等赞叹不已，深切感悟到，项目是发展的硬支撑、硬任务、硬抓手。', '滕州市30万吨/年己内酰胺项目总投资51亿元，投产达效后，年可实现销售收入46亿元，利税5亿元。该项目是滕州市开发区聚焦打造“千亿级化工新材料产业集群”的一个补链项目。', '考察人员为项目的强劲带动作用所吸引。项目建成后，将进一步拉长产业链条，有力推动滕州市煤化工产业向新材料方向转变。其下游产品聚酰胺等项目，也纷纷落户开工建设。', '一天的时间，400公里行程，10个考察学习点，大家一路看，一路思索，一路谋划，纷纷表示，这场考察学习之旅，提振了精气神，将认真借鉴两地的好经验、好做法，结合实际，切实把学习考察的成果转化为推动沛县高质量发展的有力举措。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>71</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>号线再传新消息薛永率贾汪区党政代表团拜访徐州地铁集团</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-08-19</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20210819/58d02bc8-da74-4828-9f58-b5430b14eb00.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['8月18日下午，区委书记薛永率贾汪区党政代表团到徐州地铁集团考察学习，与徐州地铁集团党委书记、董事长朱明勇，党委委员、副总经理胡清茂等公司领导，就深化拓展双方合作、推进市域（郊）铁路S1号线等工作进行深入交流并达成广泛共识。区领导李政、吴琼、施兴程等参加活动。', '2019年以来，徐州市地铁建设以每年开通1条线路的喜人进度，逐步实现了由线成网。目前地铁运行里程达到64千米，在全省排名第4，充分展现了城市建设的徐州速度。', '长期以来，贾汪区与徐州地铁集团联系密切、互动频繁，积极对上争取徐州至贾汪市域（郊）铁路S1号线，目前预可行性研究工作已经完成，并先后被列入《徐州市“十四五”综合交通运输体系发展规划》和国家发改委《长江三角洲地区多层次轨道交通规划》，为贾汪城市发展带来了重大机遇。', '朱明勇对贾汪区党政代表团的到访表示热烈欢迎。在介绍了地铁集团发展情况后说，今年6月，国家发改委正式印发了《长江三角洲地区多层次轨道交通规划》，支持徐州等地的城市轨道交通发展，徐州至贾汪S1号线列为远期布局。希望双方积极对接，做好S1号线前期规划及手续办理等工作，提前谋划专项资金归集和监督管理工作，争取在合作共赢的基础上早日开工建设。', '朱明勇说，徐州地铁集团全力落实企业责任，不断优化设计理念、设计方案，加大技术创新，从源头上控制初期初始投资造价，努力实现基建系统集约集成，减少项目投入。S1号线一旦开工建设，徐州地铁集团将抓安全重细节，确保每个环节有序推进，高品质建设S1号线。徐州地铁集团与贾汪区的合作空间非常广阔，下一步将与贾汪区成立前期工作小组，一起探讨产业合作和发展机会，开展深度投资，围绕教育、商业等建设S1号线城市产业带，助力贾汪加快融入主城区。', '徐州地铁集团与贾汪区的合作空间非常广阔，下一步将与贾汪区成立前期工作小组，一起探讨产业合作和发展机会，开展深度投资，围绕教育、商业等建设S1号线城市产业带，助力贾汪加快融入主城区。', '薛永对徐州地铁集团一直以来的关心、支持表示感谢。他说，目前，徐州地铁运营深受百姓认可，口碑极佳，徐州地铁集团强大的创新能力、浓厚的实干氛围和良好的发展态势值得贾汪学习。贾汪作为徐州主城区，急需地铁轻轨引领新发展。地铁建设对提升贾汪人民生活品质，推动贾汪真正融入主城区，加强淮海经济区中心城市意义重大，贾汪人民有着强烈的期盼。希望双方在全力推动S1号线建设的基础上，充分利用贾汪的绿色建材、水泥等产业优势，扩大合作空间。', '贾汪作为徐州主城区，急需地铁轻轨引领新发展。地铁建设对提升贾汪人民生活品质，推动贾汪真正融入主城区，加强淮海经济区中心城市意义重大，贾汪人民有着强烈的期盼。希望双方在全力推动S1号线建设的基础上，充分利用贾汪的绿色建材、水泥等产业优势，扩大合作空间。', '薛永表示，贾汪区将立足土地等资源优势，积极准备建设用地，筹措建设资金，全力解决好资金归集问题，全力支持地铁建设。希望双方加强对接协调，成立前期工作小组，共同推进S1号线规划，力争早日开工建设，实现互利共赢。', '会上，徐州地铁集团副总工程师王敦显介绍地铁项目规划建设情况；区委常委、常务副区长李政介绍贾汪区经济社会发展情况；双方就深化合作进行了深入交流。', '座谈前，与会人员参观了徐州地铁科普中心、徐州轨道交通线网控制中心，全面了解地铁发展历史及徐州地铁建设运营情况。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>71</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>看实效谋实策出实招办实事沛县求实三日行</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-07-19</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001006/20210719/abdeb99a-cfec-4fd0-acae-381f5bbb07d7.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['第一天，行程400公里，到山东省鱼台县和滕州市考察学习；第二天全天、第三天上午，在县内17个镇（场）街和开发区观摩；第三天下午，分析点评。这是7月5日至7月7日沛县党政一班人的行程表！', '沛县县委把学习贯彻习近平总书记“七一”重要讲话精神的成效转化为“攻坚克难为群众办实事”的实际行动，让群众有更多获得感。于是，就有了这三天的马不停蹄、一路飞奔，他们深入一线看项目，走进群众察民生，沉下身子解民忧，求的就是一个“实”——看实效！谋实策！出实招！办实事！', '一楼，便民服务大厅、志愿者服务站、妇女儿童之家、歌风书房、党史学习专区；二楼，社区新时代文明实践站、社区学校、党员远程教育中心、政协议事室、非公党建联谊室、多功能健身室；三楼，党建引领展示区、忆苦思甜村史区、幸福家园城建区；四楼，4个居委会的集中办公场所和其他相关功能室，还有一个设施齐备的社区小剧场……', '在沛县汉兴街道汉润社区党群服务中心楼前，参加沛县攻坚克难项目观摩的人们，不由地竖起了大拇指！', '作为汉兴街道“攻坚克难为群众办实事”项目，这个总面积5626平方米的党群服务中心，建在全县最大的安置小区——沛县汉润家园小区的中心位置。', '在汉润社区党群服务中心北面，就是汉兴街道新时代文明实践所，这里的三、四楼高标准建成惠民宴会中心，总建筑面积3000平方米，有独立的厨房、两个宴会厅、20个包间，可容纳750余人同时就餐。为群众提供了卫生整洁、设施完善、操作规范的宴客场所，改变了沿街办酒席的旧习俗。', '“党群服务中心在宣传、教育、展示的基础上，集党员服务、便民服务、网格化服务、群团服务、文体服务‘五大服务’为一体。”汉兴街道党工委书记姚华说，我们的目标就是把这里整合打造成最贴近党员、群众的服务站点，成为群众想来、爱来、盼来、还来的活动阵地。', '水草丰美，野鸭嬉水，步道弯弯……一幅美丽的景象呈现在观摩团面前，站在高大气派的安国湖国家湿地公园门前，沛县安国镇党委书记武来力说：“生态欠的账，要用生态建设来还，在塌陷地造出生态福地！”', '今年，安国镇把创建安国湖国家湿地公园作为“攻坚克难为群众办实事”项目，已经完成科普宣教馆内部装修布展等工程，确保各项指标达到国家级湿地公园标准。', '“绿水青山就是金山银山”。安国湖国家湿地公园的建设，实现了煤矿塌陷区生态的华丽转变，将沉重的历史包袱变成了新的发展财富，为探索采煤塌陷地治理带动城市发展的“沛县模式”贡献了经验。', '在沛县迎宾小区，参加观摩的人们看到，整个小区没有一处违建，外立面整修一新，有的单元前还在加建电梯……', '“在老旧小区改造方面，我们协同县住建局等单位，按照县委提出的‘体现民意、汇聚民力、匡正民风’的原则，把小区改造的过程变成干群关系深度联系的过程，变成基层群众加强自治的过程，变成老百姓自我提高、自我教育的过程，真正让居民唱主角。”沛城街道党工委书记张伟说，目前迎宾小区等4个老旧小区正在改造施工。', '下一步，沛县将通过老旧小区改造、物业模式改革，变为小区环境改变、居民生活改善，完善社区党组织、居委会、物管会、物业公司“四位一体”管理机制，建立长效管理机制，提升小区精细化管理水平。', '小区建成后，开发商未将施工临电转化为正式用电，存在着电价高、电压不稳、频繁停电、线路老化等问题，严重威胁居民生命财产安全，成了老大难的问题。', '“每度电能省了两毛九！镇里办的这个实事，让老百姓时刻享受实惠！搬走了堵在大家心口10年的石头。”鹿楼镇居民艾沿义感慨地说，他住在鹿楼镇雅乐居10年，3个月前还按商业用电（每度0.81元）交电费。', '解决镇区雅乐居等3个小区192户居民的用电问题，是鹿楼镇的“攻坚克难为群众办实事”项目。“我们积极与供电公司协调，争取项目和资金支持，最大限度降低居民用电入户中的各种费用。”鹿楼镇党委书记韩方兴说，总费用161.2万余元，每户掏280元就行。', '“我们对全镇19个临时用电小区，逐案分析、试点推进，今年计划完成2个小区的改造。”胡寨镇党委书记孙道远介绍，胡寨镇把老旧小区电力改造作为“攻坚克难为群众办实事”项目，目前上半年已完成福鑫雅苑小区的改造，这个小区每年可节省电费约十余万元。', '福鑫雅苑小区居民穆孝信对前来观摩的沛县县委书记吴昊说：“我们小区多年来一直用高价电，不仅花了冤枉钱，还觉得比别的小区‘低一等’！现在大家心里别提多敞快了！”', '吴昊高兴地点了点头，把目光投向不远处的一栋烂尾楼，这栋楼从2006年就矗立在那。吴昊接着给胡寨镇出了一个新“难题”：“将来，能不能把这个楼作为攻坚克难项目给解决了？”', '据了解，沛县结合党史学习教育，统筹推进“我为群众办实事”实践活动，把“多年想办应办而未办成的事”办实办好，努力把开展党史学习教育的成果转化为增进民生福祉、加快高质量发展的具体成效。', '“县委要求各级干部把攻坚克难项目作为检验能力的试金石、历练本领的磨刀石，努力在攻坚克难中长本事、练才干。”沛县县委常委、宣传部部长、沛县党史学习教育领导小组办公室主任赵士鹏说，全县从县、镇层面排定122项攻坚克难项目，梳理出394项村居、社区攻坚克难项目，将每一个来自群众诉求、代表群众满满期盼的实事办实办好。', '目前，朱寨镇幼儿园教育发展、魏庙镇徐沛快速通道出口片区综合提升、龙固镇采煤沉陷区生态环境修复湖陵湿地工程、杨屯镇公庄老村拆迁、沛城街道徐沛路弱电网线入地工程、河口镇吴河村群众出行难题等一批村居、社区攻坚克难项目基本完成，其他项目正在积极推进中……', '看着一个个曾经的“大难题”逐个破解，慢慢变成了一份份百姓满意的“民生答卷”时，与会人员倍感自豪，也感觉到肩上的责任更重了，攻坚克难，解决群众“急难愁盼”问题的决心更强了。', '“我们只要围绕群众反映强烈的民生难题，一件接着一件办，一年接着一年干，就能不断增强人民群众的获得感、幸福感、安全感，这是我们学习贯彻习近平总书记‘七一’重要讲话精神的最好方式。”吴昊说，面对困难，是迎难而上？是回避推诿？结果大不相同，回避推诿会无限期地拖下去，只要是出于公心，把群众的工作做好、利益摆正，就没有什么难事，只要真的奔着困难上，就会发现所谓的困难，其实都不是什么困难。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>71</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>我县以高质量党建引领乡村振兴路</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-06-19</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001006/20210619/a97a4588-146a-403c-a823-00a34266544c.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['近年来，沛县县委认真贯彻落实党中央和省市委“抓基层党建、促乡村振兴”的决策部署，扎实推进书记争当表率、干部争当楷模、党员争当先锋“三争当”领航行动，全力打造一支乡村振兴的“群雁”队伍，以书记强带动班子强、以干部强带动党员强、以组织强带动落实强，努力走出以高质量党建引领乡村振兴的发展之路，乡村振兴实绩考核入围全省第一等次。', '深入开展“三争当”领航行动，打造服务群众有感情、发展富民有本领、作风行动有正气的基层干部队伍。', '健全选拔链，针对各村特色产业、班子结构现状，推行以事定岗、以事择人，采取从致富能手中“挑”，从机关人员中“派”，从返乡能人中“请”等办法，选优配强村书记。拉长培养链，常态化开展村书记培训，分批分类组织270名村书记到浙江、福建考察学习乡村振兴工作。将带民致富能力列入换届人选标准，明确写进换届实施文件，换届中548名致富带头人进入村班子，68人当选为村书记。完善激励链，大力选树优秀村书记先进典型，3名村书记获评省“百名示范”，胡楼社区书记王吉永同志被推选为全国优秀党务工作者。', '通过“三个一批”方式，不断增强村干部队伍生机和活力。精简淘汰一批，在村“两委”换届中超龄干部全部退出、年轻干部全面配齐，“一肩挑”比例全部达标。清理整顿一批，定期对村干部进行政治体检和全面扫描，共调整履职不力、群众口碑差、违纪违法的不称职村干部51人。招引储备一批，实施“雏雁培育”工程，按照每村不低于2人的标准，公开招聘742名村后备干部，142名后备干部脱颖而出进入村班子，13名后备干部当选党组织书记。其中，372名退役军人入村工作，得到退役军人事务部肯定。', '主动承接农村发展党员工作整顿省级试点，对十八大以来发展的2253名农村党员逐一排查，为全省面上铺开探索路径。实施党员“双培双带”工程，472名党员被培养成为致富带头人，204名致富带头人被培养成党员。发挥党员带头作用，坚持“四强”标准，在全县农村党员中选树2202户党员中心户，为“党员中心户”开展工作创造条件、提供便利，鼓励支持开展形式多样的为民、便民活动。', '找准基层党建与强村富民的结合点，全力提升村党组织带领群众致富的能力和水平，多措并举让村集体家底厚起来、让百姓“钱袋子”鼓起来。', '将村级集体收入增收作为村“两委”换届提名的必备条件，对标村级集体经济收入突破50万元目标，采取新老干部结对“传帮带”、强村弱村干部定期交流挂职锻炼、举办“发挥支部作用、增加集体收入”村书记专题轮训，总结推介增收“十条路径”“助村八策”“兴村六条”等措施，积极探索村级集体经济多元化发展路径，村均集体经营性收入同比增长36.7%。同时，通过村庄整治清理回收侵占公共空间的建筑物58座，资源性资产14351亩，闲置的土地和坑塘14041亩，这些“整治出的资源”已经成为我县村集体增收的有力支撑。', '把党组织建在特色产业链上，立足资源禀赋，加快土地向规模经营集中、产业向集群园区集中、资金向重点区域集中，集中力量把特色培优做强，推动大沙河沿线10万亩、微山湖沿线30万亩现代农业示范带建设，带动群众在家门口就业致富。37个省定经济薄弱村和7.9万名建档立卡低收入人口实现高质量脱贫。', '以“美丽沛县”二十项重点任务为抓手，统筹推进农房改善和人居环境整治，建成美丽宜居村庄237个、省市特色田园乡村13个，构建点有特色、线有美景、片有精品的美丽乡村新格局，获评苏北地区农房改善绩效评价优秀等次。', '坚持以百姓真正“享受得到”为标准，要求全县村级党组织至少排定1项“多年想办而未办成”的事，作为“我为群众办实事”攻坚项目，394个攻坚项目顺利推进，一批长期困扰基层干群身边的“急难愁盼”问题得到有力解决。', '坚持既造福百姓，又匡正民风，以社会主义核心价值观为引领，以评选“最美家庭”“沛县好人”等为抓手，大力倡导移风易俗，实现以党员干部为主体的村级党群议事会、红白理事会、乡贤议事会、志愿服务队、农民艺术团的全覆盖，引导群众自觉抵制陈规陋习，婚事新办、丧事俭办等文明新风逐渐养成。', '坚持以党建为引领，建成“四位一体”社会治理示范点23个，“人在网格走、事在网格办”社会治理新格局加快形成，民事案件万人起诉率考核全省先进、苏北最优，法治建设综合满意度、社会治安满意度均居全市第一。', '沛县将创新实干，务实进取，推动农村基层党建工作再攀新高，努力为全市高质量发展贡献更多沛县力量。\u200b\u200b\u200b\u200b']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>71</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>新沂市民宗局到丰县考察学习红石榴家园创建工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001002/20210610/d314deb5-d57d-4688-aa1e-653aa2210586.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['丰县连续6次被国务院授予“全国民族团结进步模范集体”光荣称号，位于该县北关村的红石榴家园为周边各族群众提供一个信息互动、人员互动、衔接互补、尊重差异、包容多样的活动平台，让丰县各族群众手足相亲、守望相助，像石榴籽一样紧紧抱在一起。在北关村，考察学习组参观了汇丰社区服务中心、党建文化馆、红石榴主题馆、养老服务中心、乡贤议事馆、妇女儿童之家、居民阅览室、红石榴公园和文慈眼科医院，详细了解了“红石榴家园工作开展情况。', '两地民宗局还就民族工作、宗教场所“四进”活动等情况进行了座谈交流。通过这次考察学习，大家开阔了视野，增长了见识，拓宽了思路，纷纷表示将进一步总结、学习、借鉴丰县“红石榴家园”创建工作经验，结合实际，有力推动新沂市“红石榴家园”创建工作开展。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>71</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>深化交流共谋合作开辟新沂教育高质量发展新局面</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20210617/cfa9728e-a93f-4b3a-86e6-19cea3cd610d.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['交流促进成长，合作共谱新篇。6月15日，市委书记陈堂清率党政代表团赴南通市海门区考察，学习产业培育、文化建设、教育事业发展等方面的先进经验，并与海门区政府签订教育战略合作协议，为新沂教育高质量发展插上腾飞的翅膀。海门区领导郭晓敏、徐加明、江永军、黄静，我市领导陆成春参加活动。', '中国教育看江苏，江苏教育看南通。陈堂清着重考察了江苏省海门中学，走进学校的教学楼、音乐礼堂等地，观摩了学生社团活动，了解海门中学辉煌的办学历史、先进的办学理念、鲜明的办学特色、优异的办学成果和优秀的教师队伍等情况。江苏省海门中学创建于1912年，学校坚持贯彻“实施人性教育，培养有为人才”的办学理念，以“敦品力学 大气卓越”校训精神为引领，形成了“博学笃行、敬业乐群”的校风，“严谨、求精”的教风和“厚积、有恒”的学风，积累凝聚成“追求真理、严谨治学、厚积有恒”的学校精神，为国家培养大批优秀人才，已成为江苏基础教育实施素质教育的代表之一。学校是首批江苏省重点中学、首批江苏省国家级示范性普通高中、首批江苏省四星级高中、国家级新课程样本学校、中国百强中学，北京大学首批39所中学校长实名推荐学校，清华大学首批A计划学校之一，连续8次获评中国百强中学，在国内有广泛的影响力。陈堂清对海门中学的办学水平给予高度评价，他指出，海门中学是一所历史悠久、文化底蕴深厚和办学业绩卓越的著名中学，学校秉承的“实施人性教育，培养有为人才”理念，坚持的“办学高标准、教育高效率、学生高素质”目标，让我们受益匪浅、感受颇多，对于促进新沂教育高质量发展具有重要的学习借鉴意义。', '陈堂清简要介绍了我市经济社会发展情况。他说，新沂地处苏鲁两省交界、亚欧大陆桥东端，是江苏省确定的“东陇海城镇轴中间节点城市、苏北重要的交通枢纽、新兴的工业和商贸旅游城市”，先后荣获全国文明城市提名城市、国家卫生城市、国家园林城市、全国百强县、中国工业百强县等称号。新沂，是一座底蕴深厚的“人文之城”、区位优越的“枢纽之城”、生态宜居的“山水之城”、富有活力的“产业之城”，城市发展格局不断拓展，城市发展能级日益提升，区域影响力和竞争力逐渐增强。近年来，新沂市委、市政府高度重视教育事业，始终把“办好人民满意教育”作为最大的民生，大力开展“教育学南通、水平双提升”活动，不断加大投入力度，优化资源配置，改善办学条件，教育综合实力不断增强，呈现整体向好、持续攀高的可喜态势。近三年，我市共实施校舍建设项目180 个，建筑总面积63.68 万平方米，概算投资23.78 亿元，新沂教育实现了突破性提升，高中考成绩位列徐州县（市）区第一方阵。', '陈堂清指出，海门是近代著名实业家、教育家张謇的故乡，素有尊师重教的优良传统，“父教育母实业”的思想根植人心。海门浓厚的教育氛围、先进的办学理念、科学的管理模式、个性的办学特色、精致的校园文化、专业的名师团队，都走在了全省前列，打造了响当当的“海门品牌”“海门现象”。我市将全力支持两地教学合作，在政策扶持、项目建设、师资培训、特色发展等方面，拿出最大诚意、最优政策，推动两地教育教学全方位融合，更好满足新沂人民对优质教育资源的需求。新沂海门中学将坚持把立德树人作为根本任务，在队伍建设、课程改革、教学研究、质量提升等方面加强与海门中学深度融合，努力将新沂海门中学办成社会认可、百姓满意的优质学校，为新沂教育高质量发展提供新经验、探索新路径。同时，希望与海门中学进一步深化合作，共享先进的办学理念、科学的管理经验、名师的示范引领、优质的课程资源，共同把新沂海门中学建设成为更具特色、更富活力、更高水平的品牌学校，推动新沂教育实现“学有所教”向“学有优教”转变。', '南通市海门区委书记郭晓敏表示，此次合作必将开启海门教育发展的新篇章，海门将全力支持新沂海门中学的建设与发展，将优质资源、先进经验与新沂共享，推动两地更好更快发展。同时，希望通过此次合作搭建双方交流的平台，努力在更宽领域、更深层次、更高水平上实现合作共赢，开创新沂与海门携手发展的新局面。', '期间，两地签订了教育战略合作协议。根据协议，双方将通过开展两地教育行政部门及部分中小学（幼儿园）的对口合作交流等形式，相互借鉴先进教育经验，努力打造人民满意教育。', '陈堂清还来到中天绿色精品钢项目、海门艾郎风电科技发展有限公司进行考察，感受海门产业发展脉动，为实力新沂建设探索新路径。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>71</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>才聚云龙领创未来区人社局召开百千万引才计划企业政策推介会</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-06-22</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.xzyl.gov.cn/xwzx/001002/20210622/8bbc39cb-be02-453b-b72c-3a463a67d9b5.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['才聚云龙·领创未来——区人社局召开“百千万”引才计划企业政策推介会_徐州市云龙区人民政府', '为进一步实施“人才强区”战略，落实徐州市“555”引才工程，6月21日下午，区人社局召开了云龙区“百千万”引才计划企业政策推介会，区委组织部副部长王以昊、区人社局党组书记、局长李燕出席会议并讲话，区人社局副局长郑梅主持会议，区级20余家相关单位、各街道办事处、管理处（中心、办公室）、60余家辖区重点企业及社会团体代表参加会议。', '会上，王以昊副部长对云龙区经济社会发展情况和领军人才的支持政策进行了精彩介绍，真诚邀请各位企业家到云龙区考察学习、落地项目。李燕局长重点推介了我区的人才招引政策，从我区成就人才发展的优越政策、专门人才的护航保障、青年人才的续航保障、成就人才的升级措施、成就人才的一流服务五个维度进行了重点宣讲。徐州报业传媒集团有限公司人力资源部董秀艳、南京银行徐州股份有限公司徐州分行风险管理部综合岗员工王腾飞分别作为企业代表和专门人才代表进行发言。', '本次推介会加深了人才和企业对于人才政策的了解，同时搭建了人才与政府沟通交流的平台，为后续企业获得更直接、更实效的人才政策支持奠定了基础。', '自云龙区“百千万”引才计划政策实施以来，区人社局通过重点企业走访、电话调研、建立企业人才需求库，掌握辖区120余家企业人才需求情况，发放云龙区“百千万”引才计划宣传彩页1700余份，开展“一对一”政策解读，保障引才政策落实落细。区人社局将以最优的人才政策、最好的平台、最暖的服务，助力全区引进专门人才300人，落实大学生就业4500人，让人才引得进、留得住、发展得好，为全区济社会发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>71</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>学习借鉴雄安经验推动徐州高质量发展</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20210607/fef24024-a830-49e9-a493-d145f59a584d.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['6月4日，市委书记、市人大常委会主任周铁根率徐州市考察团赴河北雄安新区考察学习。河北省委常委、副省长，雄安新区党工委书记、管委会主任张国华陪同活动。', '河北雄安新区设立以来，在以习近平同志为核心的党中央坚强领导下，在国家有关部委、京津两地和社会各界的大力支持下，河北省委、省政府举全省之力推进雄安新区规划建设，紧紧围绕创造“雄安质量”，编制形成“1+4+26”规划体系，4个重点片区控制性详细规划获批，5个外围组团规划完成编制，实现“一主五辅”全覆盖，各项工作取得重要阶段性进展。', '考察团一行首先来到雄安规划展示中心，详细了解雄安新区整体规划及建设情况。在雄安商务服务中心建设工地，各建筑单体雏形已现，规划图景正在成为美好现实。该项目秉持“以中为主、中西合璧、古今交融”的设计理念，主要包含会展、办公、酒店、公寓、教育、商业等业态，为雄安新区建设提供配套服务和支撑。火热的建设场景让考察团切身感受到雄安新区未来发展的勃勃生机。考察团表示，雄安新区配套服务设施理念先进、布局科学，许多经验做法值得徐州学习借鉴。', '金湖公园位于容东片区内，贯穿连接容东片区的各个组团，东西长约3.9公里，南北长约3.2公里，总占地面积约3700亩，由一个生态林带、一个综合公园、五个专类公园三部分组成，目前绿化栽植、基础设施建设正加快推进。考察团一行来到项目施工现场，听取项目介绍，雄安新区积极践行绿色发展理念、着力提升城市功能品质的做法，给考察团留下了深刻印象。', '淀泊星罗棋布，沟壕纵横交错，芦苇生机盎然，蓝天下，天水一色，鱼翔浅底。雄安新区坚持生态优先、绿色发展，加快恢复白洋淀“华北之肾”功能，白洋淀水质由2017年劣Ⅴ类提升到Ⅲ—Ⅳ类标准。考察团来到白洋淀新安北堤木栈道，对白洋淀生态环境保护和治理所取得的成效给予高度赞扬。', '考察团表示，设立雄安新区，是以习近平同志为核心的党中央作出的一项重大的历史性战略抉择，是习近平总书记亲自谋划、亲自决策、亲自推动的重大国家战略。通过实地考察，更加真切地感受到“千年大计、国家大事”的蓬勃势头和壮阔前景。雄安新区设立以来，坚持高水平规划、高标准建设、高质量发展，特别是在新区规划、项目建设、生态保护等方面取得的突破性成绩令人敬佩，积累的宝贵经验值得徐州学习借鉴。希望两地在城市规划、生态保护等领域加强交流合作，推动双方实现共赢发展。', '徐州市委常委、秘书长王强，副市长赵立群；雄安新区党工委委员、管委会副主任陈峰等参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>71</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>学习借鉴成都经验建设人城境业和谐统一的公园城市</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021-05-27</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20210527/0e2c212b-a09c-4e6c-9696-4b9cf30b3fc9.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['5月23日—24日，市委书记陈堂清带队前往四川省成都市，考察学习成都市在城市规划、公园城市建设、社区治理、现代服务业发展等方面的宝贵经验和做法，为实力新沂、美丽新沂、幸福新沂建设探索新路径。市领导王夫寿、刘磊参加活动。', '建设国家中心城市，顶层设计至关重要。成都规划馆对新一轮成都城市总体规划进行了系统展示。代表团仔细观展、听取介绍，对成都市自觉践行新发展理念、融入新发展格局的大气魄、大视野、大手笔给予高度评价，表示要对标学习，高起点高标准做好新沂城市规划，优化功能布局、空间格局、资源配置，以高水平规划引领新沂建设高品位的现代化中等城市。', '晓看红湿处，花重锦官城。陈堂清一行先后来到天府绿道规划展示中心和桂溪生态公园，沿途看清水绿意、赏似锦繁花，体验历史余韵，取公园城市建设之“经”。天府绿道规划展示中心展示内容以成都加快建设美丽宜居公园城市决策部署为重点，展示天府绿道体系总体规划及建设进程，展示锦城公园项目建设进度、特色亮点项目情况等内容。同时，展示中心充分融入文创、会议、休闲等功能，为市民、游客提供可阅读、可感知、可消费的生活消费场景，也成为探索绿道生态价值转化的代表作。桂溪生态公园以“运动活力、休闲时尚”为主题定位，以展现新天府城市风貌和生活消费场景为主要目标，围绕核心游览动线，分点位植入艺术展览、文化装置、文创市集等主题文化内容，科学布局精品餐饮、板式网球场等特色业态以及自动贩售机、集装箱超市等便民服务类设施，构建独具绿道特色的文化、运动、生活场景。陈堂清边走边看，感受颇深，他指出，成都在公园城市建设方面为新沂提供了路径，要积极学习、学以致用。持续在城市绿化上下功夫，深入开展国土绿化美化行动，聚焦“四河一湖”、国省道干线等重点领域，实施绿色通道、生态廊道、绿美村庄、农田林网等工程建设，充分挖掘城镇、村庄、社区、庭院等绿化潜力，建成特色森林城市、一批森林小镇和森林乡村，呈现“城在景中、景在城中、城乡共美”的醇美画卷。要坚持适地适树原则，多栽植乡土树种和三化树种，丰富林相、色相、季相，打造错落有致、层次分明、自然流畅、四季多彩的城市园林绿化景观。要见缝插绿、拆违补绿，加增量、保存量，双管齐下，让市民“开窗见田、推门见绿”，实现“城在林中、林在城中、人在绿中”，擦亮美丽新沂最靓丽底色。', '社区活，城市活。来到麓湖公园社区和下涧槽社区，浓郁的文化气息扑面而来，社区群众文化生态圈正在逐步构建。在宽窄巷子“WePark玩湃社区足球公园”，“迷你”的体育活动空间被高效利用起来，人气爆棚，让有限的城市空间爆发出无限的价值。陈堂清指出，成都在社区治理、文体服务、老旧小区和背街小巷改造等方面亮点频现，为当下公园城市建设与社区活力提升提供了崭新的思路和场景，值得我们学习借鉴。并叮嘱相关部门要坚持文体惠民原则，大力推进文体服务进社区、惠民生，切实满足人民群众对美好生活的向往。要推进美丽宜居街区建设，积极融入“海绵”“微更新”等理念，促进城市内涵式发展，有序改造一批棚户区、老旧小区，一体优化交通环境、生态空间、公共服务配套等，健全城市“15分钟社区服务圈”“10分钟公园绿地服务圈”“10 分钟体育健身圈”“5分钟便民生活圈”，实现城市让生活更美好。', '东郊记忆、望平坊是成都市特色文旅融合景区和商业街，工业文明和现代时尚在这里交相辉映，给我市党政代表团留下了深刻印象。陈堂清指出，文旅融合让成都工业遗迹焕发新生，这对新沂发展旅游产业具有重要的启发意义，要深入挖掘新沂丰富的文化资源、生态资源、红色资源、农业资源等，以文化为魂，实施“旅游+”发展模式，以文促旅、以农兴旅、以绿强旅，为旅游体验增添温度与活力，讲好新沂故事，提升旅游吸引力。', '陈堂清一行还考察学习了成都东客站枢纽、凤凰山体育公园、支矶石街、泡桐树街等处，学习成都在交通枢纽站点打造、公共体育设施建设、街巷更新等方面的先进经验。', '活动中，陈堂清指出，成都在公园城市建设、城市有机更新、现代服务业发展、社区治理等方面涌现出了先进经验和做法，大家要深入学习、认真研究、因地制宜、学以致用，为实力新沂、美丽新沂、幸福新沂建设提供新思路、探索新路径。陈堂清强调，公园城市的建设本质就是在践行“人民城市为人民”的理念，成都在公园城市建设中不仅铺展了生态画卷，还厚植了文化底蕴，融合了多元消费，把商场、社区建到了公园里，实现“人、城、境、业”和谐统一，形成了“山水林田湖城”的生态格局，这对新沂的发展具有重要的借鉴意义。在新一轮的规划发展中，要始终秉持以人民为中心的发展思想，尊重城市发展规律，科学布局生产、生活、生态空间，大手笔打通城市绿脉，给自然留下更多修复空间，给市民创造天蓝、地绿、水净的美好家园。要以美丽新沂建设为抓手，超前谋划城市建设，全面实施城市更新行动，精准精细做好城市管理，持续推进新沂现代化城市发展格局，加快建设全面体现新发展理念的城市，让市民在公园城市中诗意栖居。要发展绿色产业，供给绿色产品，促进绿色经济发展，让生态价值转化为发展动能，推动实力新沂行稳致远。要以建设“文化强市”为引领，加大文体事业投入力度，加快文体项目建设速度，补短板、强弱项，探索建立文体资源共建共享机制，真正让文体建设成果惠及广大群众，让幸福新沂成为现实图景。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>71</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南通考察学习</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20210519/8b8382b0-f0be-4c8e-9bed-44ca6986b24b.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['5月16日下午至17日，结束在如东县考察后，市委书记吴卫东带领党政代表团来到南通市崇川区、创新区考察学习。', '在南通市委常委、崇川区委书记刘浩的陪同下，吴卫东一行首先来到江苏省车联网先导区示范园，详细了解园区建设及智能车联网产业发展情况。据悉，该示范园是“车—路—网—云”一体化的车路协同车联网示范园区，整个园区布设覆盖5G-V2X网络，拥有智能化升级改造后的“聪明道路”，可为智能驾驶汽车（无人车）提供车路协同的多种驾驶场景模拟。崇川区正以省级车联网先导区示范园为载体，围绕C-V2X车路协同系统、应用软件与信息服务领域加快布局，形成产业集聚。在通富微电子股份有限公司展厅，吴卫东详细询问企业生产运营、项目建设等情况。通富微电是我国集成电路封装测试龙头企业，在国内外拥有六大生产基地，建成国内首条触控与显示驱动整合芯片金凸块产线，将国内首条12英寸28纳米全制程先进封测线应用于移动智能终端产品。吴卫东说，邳州半导体材料与设备产业，经过十多年的发展，实现了产业集聚化和产业链循环化，打造了全国知名的光刻材料生产基地、行业领先的生产和测试设备生产基地、显示材料生产基地、光电材料外延片生产基地、柔性电子生产基地，产业基础好，五条产业链也与通富微电在相关领域具有高度耦合性，希望双方能够加强协作，实现产业链协同发展。', '南通市在五山及沿江地区实施整体规划、集中整治、生态修复和功能提升，彻底改变了“滨江不见江、近水不亲水”的历史，使其成为“面向长江、鸟语花香”的“城市客厅”。吴卫东一行来到崇川区五山及滨江地区考察五山滨江生态修复，详细了解了南通市实施五山及沿江生态修复、守护出江入海生态屏障、落实长江禁渔等工作后，赞叹五山及沿江地区的巨大变化，认为南通把习近平总书记关于长江经济带“共抓大保护、不搞大开发”的重要指示要求落到了实处，在产业退、港口移、城市进、生态保等方面取得显著成效，切切实实提高了百姓的幸福感和获得感。', '南通市创新区，是未来南通城市的新中心。吴卫东一行先后来到紫琅科技城规划展厅和紫琅公园，详细了解创新区的规划布局、区域科技创新、绿色生态发展等情况。', '高起点、大手笔打造城市新核心区，成为南通创新转型的破题之作。初夏时节，紫琅湖畔浸润着诗情画意，规划面积为17平方公里的南通创新区正蓄势而起，南通大剧院、美术馆、科创中心和人才公寓等建筑展露新貌，未来这里是南通城市新中心和科技创新、金融商务、企业总部所在地。代表团一行认真考察创新区规划布局和项目建设情况，对南通“把最好的环境留给创新、留给人才”的建设理念由衷点赞，认为南通创新区着力打造以人才为中心的发展环境等做法思路清、措施实，在协调推进老城区和新城区发展、着力提升城市功能品质等方面探索出一条可供借鉴的新路。吴卫东叮嘱有关部门负责同志，要认真学习领会紫琅科技城的做法和创新之举，在东湖创新生态区隆丰湖片区打造过程中，要解放思想，进一步转变观念、大胆创新，切实把隆丰湖片区打造成制度创新“试验田”、科技创新“策源地”、动能转换“加速器”、高质量发展“排头兵”；要突出创新，营造良好的创新生态，把创新作为第一动力，在制度、技术、管理模式等方面做好创新文章，努力把隆丰湖片区打造成适宜各类创新主体活力竞相迸发的高地；要彰显区域特色，围绕“智慧生态湖、城市会客厅”总体定位，按照“一水一湖生多岛、多组多片聚活力”的整体构思，把隆丰湖片区打造成为城市品牌。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>71</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>新华日报红色星火燃亮沛县田园乡村</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-04-29</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.px.gov.cn/xwzx/001002/20210429/870d2a8a-5490-4ae2-8d6c-b478459721a8.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['红色资源承载着闪光的历史记忆，是重温党的辉煌历程、传播革命文化、传承红色基因、汲取智慧力量的重要载体和平台。今年以来，沛县立足建党百年新起点，结合党史学习教育，进一步发掘传承利用“家门口”红色资源，以“红色+基地”“红色+农业”“红色+美丽乡村”等特色化建设和发展模式，集聚红色力量，筑强组织堡垒，提速乡村振兴，涵育乡风文明，推进农民更富、农业更强、农村更美，群众归属感、获得感、幸福感节节攀升。', '“今天是周末，带着孙子孙女来沛县党史纪念馆参观，让他们身临其境感受沛县的革命历史，更加珍惜来之不易的幸福生活。”近日，家住沛县县城的张兴运老人说。', '沛县党史纪念馆位于张寨镇青墩寺小学。1929年，中共沛县第一个特别党支部在这里诞生，孟昭佩任支部书记，从此，沛县革命斗争有了坚强的组织者和领导者。郝中士、张光中、郭影秋、鹿渠清、李公俭等以教师身份从事党的秘密工作，在长期的革命斗争中谱写了一曲又一曲可歌可泣的英雄赞歌。', '为保护家门口的红色资源、传承红色精神，沛县县委县政府严格按照“保护为主、抢救第一、合理利用、强化管理”的方针，持续推进红色文化建设。1983年，沛县人民政府将青墩寺小学列为县“重点文物保护单位”，并拨专款整修；青墩寺小学于1984年被沛县人民政府列为“文物保护单位”，2011年被命名为“全县小学生爱国主义教育基地”，2014年被列为“江苏文化遗产解读工程”……每年吸引大批师生和社会各界人士前来参观学习、缅怀英烈。', '为迎接中国共产党百年华诞，2020年10月，沛县县委县政府在青墩寺小学辟设中共沛县党史纪念馆。党史馆建筑面积1300平方米，全面展现新民主主义革命时期沛县党组织的建设史、成长史。自4月1日对外开放以来，党史馆日均接待参观者万余人，成为全县干部群众接受党史学习教育、感悟红色精神、汲取奋进力量的又一红色打卡地。', '暮春时节，张寨镇陈油坊村掩映在一片深绿中。正在葡萄园里忙碌的几位村妇告诉记者，今年村里又引进了葡萄新品种，她们正在专家指导下进行间作种植。', '喜迎建党百年华诞，沛县把开展党史学习教育与提速乡村振兴有效衔接，各镇以学促行、以行践学，全县掀起学党史、悟思想、办实事、开新局发展热潮。', '陈油坊村是全国“一村一品”示范村，葡萄种植远近闻名。在开展学党史、悟思想、办实事、开新局实践活动中，张寨镇党委政府了解到部分农户的葡萄树已老化且品种单一，随即组织人员到外地考察学习，引进30多个葡萄新品种，聘请技术专家进村指导种植。目前全村正按计划采用间隔更换的方式，逐步优化葡萄品种和生产布局。“农家乐”葡萄园观光采摘将实现8个月不断档，真正从提升葡萄品质上实现农业增效、农民增收。', '为规避市场风险，陈油坊村探索实践“支部引领、协会运作、农民参与”的模式，成立沛县华运葡萄专业合作社，注册商标，全力做好引导和服务。“我们采用滴灌、生态防虫、物联网等先进种植技术，葡萄通过有机无公害食品认证，很受市场欢迎，现在每亩大棚葡萄种植收入最少也有2万多元。”村党支部书记孟凯说。尝到了甜头，村民种植积极性一年比一年高，种植面积由原来的20余亩发展到3000亩，辐射带动周边立寺、李庙、唐楼等8个行政村，形成了集种植、采摘、休闲观光及农家乐旅游于一体的万亩生态葡萄产业园。', '道路干净整洁，农房黛瓦白墙，绿植错落有致，池塘清澈见底，百花馨香争妍……来到沛县红色基地青墩寺小学所在地张寨镇刘庄村，美丽画卷尽收眼底。', '张寨镇依托青墩寺小学这一红色文化资源，坚持走红色引领、绿色发展文旅之路，努力把刘庄村打造成宜居宜游宜业的红色旅游特色村。结合沛县党史纪念馆建设和学党史活动开展，张寨镇将村庄环境整治作为检验党史学习教育成效的重要内容，围绕庭院整洁、绿化绿植、村容村貌提升、厕所改造、农村生活垃圾等重点领域，持续推进相关工作。', '支部引领，党员带动，群众广泛参与，张寨镇先后对青墩寺小学内部道路、地下管网、路灯、监控等进行全方位提档升级；对村庄周边部分房屋进行拆迁，规划建设停车场、游客中心、农家乐、民宿等；对沿线路段进行硬化、亮化、绿化、美化，铺设柏油路面，清淤河沟池塘，栽植观赏花木，高标准提升村庄参观品质，多举措增加文旅效益。', '“村环境几乎每天都在发生变化，走出家门就像是走进公园，很是舒心。党史馆建在我们村，环境越来越美，游客来来往往，带给我们的收入越来越多。生活在这里，我们感到很幸福。”几位村民告诉记者。', '“红色基因是张寨镇发展的不竭动力。张寨镇正竭力把红色资源转化为发展优势，坚持党建引领，积极打造绿色美好家园，聚力培大育强产业集群，强力推进乡村振兴。”张寨镇党委书记王明运说。', '政通、业兴、村美、民安，沛县红色基地的美好与勃发，为沛县新农村增添红色底蕴，引领人们赓续红色精神、践行初心使命，扎实推进乡村振兴战略实施。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>71</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>我市党政代表团赴如东考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001001/20210518/339eb6f9-74a7-4329-b712-bcc67cc5671d.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['去年6月，我市与南通市如东县签订了合作共建协议，双方在产业承接、园区共建、城镇建设、科技创新、乡村振兴等领域对接合作。5月16日上午，我市党政代表团赴如东县考察学习，为全市经济高质量发展持续蓄力。图1为吴卫东率党政代表团参观如东中天科技产业园。图2为如东LNG能源岛洋口港。图3为中天科技展厅展品引发我市党政代表团成员浓厚兴趣。韦超 摄']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>71</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>邳州党政代表团赴上海考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2021-05-17</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20210517/30de1f76-c84a-4966-97a8-f787537b1192.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['浦江之东，活力涌动。5月15日，市委书记吴卫东率邳州党政代表团赴上海临港新片区、浦东新区考察学习。上海市浦东新区副区长、区政府党组成员吕雪城陪同活动。', '经过多年的探索和实践，上海自由贸易区已成为我国改革开放的“新名片”。走进上海自由贸易实验临港新片区，到处呈现出一片日新月异、热火朝天的发展景象，让考察团成员深刻感受到改革创新的浓厚气息。', '考察团一行先后到中国（上海）自由贸易试验区临港新片区展示中心、临港新片区现代服务业开放区展厅考察学习。在临港新片区展示中心，考察团一行观看了宣传片、卫星遥感影像图变化，参观了实体沙盘、产城融合、产业发展等展区，全方位了解了上海自贸区临港新片区以“6+2”为核心的开放政策，以及在投资贸易、科技创新、产城融合等方面取得的丰硕成果。在现代服务业开放区展厅，考察团详细了解了该片区功能布局、现代服务业新业态以及体制创新机制。', '临港新片区位于上海大治河以南、金汇港以东（包括小洋山岛、浦东国际机场南侧区域），总面积 873平方公里。2019年8月临港新片区挂牌成立以来，围绕政策制度创新、特殊功能打造、现代化新城建设等全面发力，跑出了加速度、提升了活跃度、打出了显示度。到2025年新片区将建立比较成熟的投资贸易自由化便利化制度体系，打造一批更高开放度的功能型平台，集聚一批世界一流企业，区域创造力和竞争力显著增强，经济实力和经济总量大幅提升；到2035年建成具有较强国际影响力和竞争力的特殊经济功能区，形成更加成熟定型的制度成果，打造全球高端资源要素配置的核心功能，成为我国深度融入经济全球化的重要载体。考察学习期间，考察团成员认真看、仔细听、详细问、用心记，上海自贸区临港新片区发展速度之快、规划理念之先进给大家留下了深刻的印象。', '张江人工智能馆是浦东新区发展人工智能产业的重要空间载体，定位于“对话未来”的AI之旅，集中体现上海科创中心建设以来人工智能领域最新成效，集聚了上海近年在人工智能基础科研、关键技术、产业应用等领域的探索与突破。', '在张江人工智能馆，代表团一行依次参观了人工智能、未来制造、未来智城、未来健康、智迎未来五个展馆，深入了解上海在人工智能创新策源取得的成绩。可实现智能分拣、智能排产的AI生产线，可提供疾病筛查、智能诊断和健康管理的智慧诊疗机器人，可释放交通及能源无限潜能、助力城市绿色发展的人工智能技术……参观过程中，代表团一行零距离体验未来社会的生动场景，全方位感受人工智能的科技魅力，对张江抢先布局人工智能产业，积极打造产业生态圈的做法表示赞叹。', '吴卫东表示，科技创新驱动对区域发展至关重要，要学习临港、张江的好思路好做法，坚持科技创新为先导，持续优化营商环境，吸引更多科技工作者来邳州开展前沿研究，加快培育高新技术产业，推动邳州经济高质量发展。十四五期间，我市将继续突出创新的核心位置，把改革创新作为加快发展的动力源泉，深入实施创新驱动发展战略，大力推动创新要素集聚、科技成果转化，前瞻布局人工智能、数字经济等未来产业，全力构建以创新为引领和支撑的现代产业体系，创建国家创新型城市。', '此次考察学习，来到中国最具发展活力的经济区域——长三角，就是为了解放思想、寻找差距、对标先进，开拓眼界，站在改革开放前沿，目睹热火朝天、激情飞扬的干事创业实践，感受时不我待、只争朝夕的拼搏奋斗氛围。要认真学习先进地区“敢为人先、勇立潮头”的开拓精神、“广纳百川、广聚英才”的开阔思路、“从无到有、从有到精”的开发理念、“只争朝夕、锐意进取”的精神面貌。通过此次学习考察，汲取精神动力、鼓足干劲闯劲，在邳州发展新征程上，跑出速度、成效与责任。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>71</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>如皋市党政代表团来邳考察</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2021-05-15</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20210515/9e065c3f-36ca-43f8-917c-7fe1beb6f194.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['5月13日，如皋市委书记何益军率党政代表团一行来我市考察学习高质量文明城市建设的先进经验及特色亮点。市委书记吴卫东陪同活动。', '代表团一行首先来到王杰纪念馆，通过观览基本陈列，听取讲解，详细了解王杰烈士伟大而短暂的一生，缅怀革命先烈，追忆英雄事迹。', '随后，代表团来到向阳社区，详细了解社区新时代文明实践站建设、网格联动工作开展、小区志愿服务等方面情况。文明城市创建工作开展以来，向阳社区充分发挥党建引领网格作用，打破传统网格组建模式，依靠社区党群服务中心，搭建党员活动室、多媒体室、小白果书屋、综合办事大厅等便民服务功能为一体的综合服务区。代表团高度肯定了社区坚持党建引领，充分发挥网格化进行社区治理的做法，表示将借鉴我市网格化基层治理的成功经验，结合如皋实际，进一步创新社会管理工作，提高基层创文水平。', '在文明巷，代表团详细了解了我市背街小巷改造提升工作开展情况。文明巷由26家单位老旧宿舍组成，原先相互之间被一道道围墙分割成了一个个狭窄的空间，被居民称为“堵心墙”。创文期间，运河街道通过拆除违搭乱建、硬化破损路面、打造邳州特色的剪纸文化墙和好人好事文化墙等方式，打通了“堵心墙”，一股文明之风涤荡在巷子中。代表团认为，背街小巷的改造提升，体现着一座城市创文工作的精细化水平，我市在改造过程中找准堵点、难点、痛点问题，注重硬件改造更新换代的同时，也抓好居民文化素养、文明意识等软件提升的做法，值得借鉴和学习。', '在新时代文明实践中心，代表团详细了解中心组织架构、人员配备、运行机制、活动开展等情况。我市新时代文明实践中心牢牢把握“传播新思想引领新风尚”的工作目标，依靠中心、站、所三级阵地相互贯通的网络体系，不断推动中心与基层社会治理、文明城市创建、乡村振兴等工作的深入融合，助推精神文明建设迈上新台阶。代表团表示，我市新时代文明实践中心，组织有序、活动种类丰富、形式多样，做到了聚人气、拢人心、顺民意，以实际行动践行了新时代文明实践阵地建设的本质和初衷。', '活动中，吴卫东简要介绍了邳州文明城市创建经验。他说，文明城市是邳州人民多年的夙愿，从2002年创成省文明城市，到2015年被列入全国文明城市提名城市，再到去年高分捧回全国文明城市“金字招牌”，多年来，邳州坚持把文明城市创建作为打造贯彻新发展理念区域样板的重要抓手，用执着和奋进，真干、实干，用力干、持久干，不断成就城市的文明之美。坚持创城为民，秉承创建为民、创建惠民理念，让群众在实实在在的变化中，感受到看得见、摸得着的幸福；提高城市能级，坚持以城带乡、以乡促城，优化空间布局，提升内涵品质；提升市民素质，传扬城市精神“立志”、弘扬时代新风“立德”、开展文明实践“立行”；健全长效机制，以长效的组织领导机制筑保障，长效的督查考核机制强动力，以长效的共建共享机制聚合力，为推进文明城市建设常态长效提供根本保证。', '何益军对邳州文明城市创建工作给予高度评价，认为我市产业基础扎实，发展动力强劲、城市功能完善，创建富有特色。如皋将以邳州为标杆，主动学习邳州创建精神，学习邳州干部干事创业新气象、担当作为新风貌，激发创建动力，深入思考为什么创建、怎么样创建，真正提升对创建文明城市的认识，推动创建真正取得实效，同时希望两地在推进高质量文明城市建设中携手共进。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>71</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>外出学习好经验找准差距促提升</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.cnsn.gov.cn/xwzx/001002/20210421/1a510d7d-4aa6-4321-beff-7cc188cc325b.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['为进一步促进我县各镇公墓管理规范化，提升公墓管理水平，对照先进找差距，补足短板寻提升。4月20日，县民政局组织王集、凌城、邱集、高作、沙集、庆安、桃园的7个镇民政负责人及公墓管理人员到梁集镇公墓进行参观学习，交流公墓管理经验。', '梁集镇公墓管理人员从公墓的规划建设、环境绿化、日常规范管理、公墓信息化等方面做了的具体介绍，并与参观学习人员进行了面对面深入沟通交流，对大家提出的问题进行了一一解答。经过实地查看、深入交流，大家一致认为，梁集镇在公益性公墓规划建设、管理运营中有很多好的做法和经验值得学习和借鉴，通过考察学习，不仅开阔了眼界、增长了见识，也进一步拓展了工作思路。', '下一步，将充分吸收借鉴这次学习中的好做法、好经验，结合公墓实际，对公墓建设管理等方面进行提档升级，促进公墓规范管理再上新台阶，人文服务水平再提升。(拟稿：赵泽松 审核：彭飞 发布：仝昕）']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>71</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>睢宁县党政代表团赴泗县灵璧县考察学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.cnsn.gov.cn/xwzx/001001/20210428/3a5ac2a8-8949-49ac-b3e8-e7008eac79fa.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['4月26日，县委书记苏伟率领睢宁县党政代表团赴泗县、灵璧县考察学习。泗县县委书记张志强、灵璧县委书记刘博夫陪同考察。', '在泗县，党政代表团先后参观了大庄镇曙光村、屏山镇花卉苗木基地、垃圾发电厂及生物质秸秆发电厂、蟠龙山奇石文化园、高坚机械公司、现代农机装备制造产业园、三馆、大数据中心、新时代文明实践中心等地，详细了解泗县基层党建“五牌联动”、产业扶贫、工业发展、城市建设、社会治理等情况。近年来，泗县紧紧抓住工业化、城镇化“双轮驱动”，全面落实“六稳”要求，做好产业强县、乡村振兴、县城带动、改革发展、对外开放、民生保障六项重点工作。全县脱贫攻坚成效显著提升，产业发展显著加快，城乡面貌显著改善，人民福祉显著增进，党的建设显著加强。', '苏伟表示，泗县这几年发展势头迅猛，尤其在城市建设方面令人耳目一新、很受启发。苏伟在介绍睢宁经济社会发展情况时说，进入“十四五”，睢宁立下了“双千双百、撤县建市”的奋斗目标，谋定了“五五工程”的战略格局，以“五个一百”抓产业，以“三园”建设抓乡村振兴，以“公园城市”抓城市建设，以“九项机制”抓营商环境，干部精气神、群众信心底气、企业直观感受都有了质的提升。睢宁真诚地邀请泗县党政代表团来睢考察指导、传经送宝，为睢宁发展多提宝贵意见。', '张志强说，泗县与睢宁有很深的历史渊源，两地边界接壤、交通互联、人文相亲，商贸往来较为密切，近年来，睢宁发展迅速，形成了许多好理念、好经验、好做法，尤其在强化区域合作、强化对外开放方面值得学习借鉴。希望双方进一步加强互动、加强对接，在交通、水利、公共基础设施等方面开展区域合作，在推动高质量发展中实现合作共赢。', '在灵璧县，党政代表团先后来到儒特实业有限公司、轴承产业园、国祯生物质热电有限公司、百通达科技医疗用品有限公司、雨鑫木业有限公司等地参观。近年来，灵璧县抢抓长三角一体化发展机遇，锚定承接产业转移集聚区建设，坚持以“两县两区一基地”建设为统领，全面推进制造业、农村人居环境整治、新型城镇化、民生工程和政务服务水平“五大提升行动”，纵深推动全面从严治党。', '苏伟表示，睢宁的发展和灵璧县处于同一发展阶段，都面临着转型升级的重要任务和良好机遇，有着广阔的合作空间。希望睢宁、灵璧、泗县、宿州等毗邻地区建立区域协调发展联席会议制度和合作协商机制，进一步加强多地交通互联互通、水系联航联治、社会治安联合防控等，实现资源共享、优势互补、合作共赢，携手打造长三角一体化发展区域样板。', '刘博夫说，灵璧、睢宁两县山水相连、唇齿相依，官方和民间交往甚密，是苏皖毗邻的两个友好县。长期以来，双方共同携手、真诚合作，形成了优势互补、相互支持的睦邻友好关系。今年是实施“十四五”规划的开局之年，也是长三角一体化发展的关键之年，值此重要时期，睢宁县党政代表团来灵璧传经送宝，共商发展大计，必将进一步促进两县人民在政治、经济、文化等方面更深层次的交流与合作。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>71</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>南京市民宗局到邳州市考察宗教工作</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001002/20210421/2b2fab5e-7d37-45c2-9def-23a8770fc003.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['4月20日，南京市委统战部副部长、民宗局局长苏宇红等一行16人，到邳州市考察交流宗教工作。徐州市委统战部副部长、民宗局局长吴尔松，副局长何效红，邳州市委书记吴卫东，邳州市委常委、统战部部长李世峰及相关人员陪同考察活动。', '考察团先后观摩了该市基督教三自爱国运动委员会宗教中国化建设情况和市民宗信息中心，现场观看了信息化、网格化建设成果演示。信息化系统平台通过整合人才、数据、平台等资源，强化宗教工作的上下联动和数据共享，推动“线上”与“线下”的有机融合，构建起了邳州宗教事务智慧管理模式，进一步提高了宗教事务管理效率，探索出了县域宗教治理体系和治理能力现代化的“邳州方案”。', '考察团表示，邳州市宗教活动场所贯彻落实党的宗教政策到位，把宗教信仰与社会主义核心价值观、优秀传统文化等内容紧密结合的到位，宗教活动场所的规范化、法治化、标准化管理到位。大家一致认为，此次考察学习亮点纷呈，收获颇丰，邳州宗教中国化推进有方，宗教信息化工作措施有力，网格化管控有效，并希望今后两地加强沟通交流。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>71</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>沛县人社局来睢考察综合柜员制工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2021-04-09</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.cnsn.gov.cn/xwzx/001002/20210409/f6e6595d-1d41-448e-a1b9-6310b0618597.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['考察组一行首先参观了便民服务大厅，对科学完备的功能分区、井然有序的叫号系统、温馨舒适的办事环境给予了充分肯定，对睢宁人社局坚持“换位思考、小处着手”理念，体贴入微设置老弱病残绿色窗口、疑难业务处理室、母婴室、阅读角、便民服务柜、敬老专座等便民设施赞不绝口。', '随后，考察组一行来到会议室座谈了解相关情况，相关科室负责同志从建设背景、业务整合、队伍组建、大厅改造、功能成效等方面做了详细介绍。针对改革中的难点问题，两地人员进行了深入交流。', '为进一步优化营商环境，睢宁县人社局于2020年10月全面实行综合柜员制业务经办模式改革，将各部门分设的25个办事窗口整理合并为11个综合窗口，协调投入180余万元，升级改造2700余平方服务大厅。全面优化经办流程，将就业、社保、退管、农保、信息中心等5个部门的74项窗口业务全部纳入综合柜员，整合确定14个“一件事”事项，将各类申请表格由37个压缩到12个，真正实现了一窗通办、简办快办。面向全局公开选拔23名综合柜员，组织高强度的技能训练和多样化的拓展训练，着力打造一流业务团队。建立健全12项窗口服务和柜员日常管理制度，深入开展“比学赶超”活动，优化绩效考评机制，持续激发综合柜员奋勇创新争先的精气神。', '通过实地参观和座谈了解，考察组对我县综合柜员制工作给予了高度评价，纷纷表示此次考察学习亮点纷呈，有很多值得学习借鉴之处，希望今后进一步加强交流学习，相互促进，共同提高，推动人社事业更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>71</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>加强交流互鉴共谱发展新篇</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2021-04-25</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001004/20210425/2337f7c2-ac96-4bbc-aee7-3b314501ad09.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['4月23日至24日，市委书记、市人大常委会主任周铁根率徐州市考察团赴湖南省长沙市考察，学习借鉴长沙市推进产业特别是工程机械产业发展的经验做法，深化交流拓展两地产业合作发展空间。湖南省委常委、长沙市委书记吴桂英，市委副书记、市长、湖南湘江新区党工委书记郑建新陪同活动。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>71</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>徐州经开区党政代表团来新沂考察</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2021-04-10</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20210410/3fa365c7-6481-4f10-a6da-05f0d9e90181.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['4月8日，徐州经开区党工委书记李淑侠、党工委副书记、管委会主任臧晓鹏率经开区党政代表团来我市考察经济社会发展情况。通过现场观摩，感受我市以招商引资为“生命线”，以项目建设为触点、以人才引进为关键，蓬勃发展的最新脉动。我市领导陈堂清、杨远朝、菅志辉、程峰参加活动。', '四月的新沂，春潮涌动。园区企业活力迸发，项目建设热火朝天，产业链条日趋形成，新沂大地处处涌动着发展的热潮。代表团一行首先来到水性超纤项目，考察了解项目进展、科技创新、上下游企业招引等情况。水性超纤项目计划总投资110亿元，围绕全水性定岛超纤新材料绿色智造为核心产业，重点发展水性汽车内饰、超纤民用及军工产品、超纤医用材料等细分领域的应用及相关行业的发展。项目2020年5月份开工建设，同年11月份进入试生产，目前全国第一条实现量产的全水性定岛超纤新材料生产线正式投入运行。代表团对水性超纤坚持科技创新为引领、打造全产业链发展的思路予以赞赏，认为我市强化“项目为王”理念，瞄准链主企业精准发力，以“强雁”壮大产业“雁阵”，以“1号工程”引领全产业链发展，为产业集群发展注入了新动能。同时，园区全力服务重大产业项目的创新举措值得借鉴和学习。', '在白色家电产业园项目施工现场，代表团详细了解项目发展方向、产品定位以及我市白色家电产业链打造情况。白色家电产业园项目总投资50亿元，其中一期投资30亿元，新增建筑面积30万㎡，主要开展智能高端冰箱、冷柜等家电产品的研发、生产和销售，项目按智能化、信息化、可视化的现代企业要求进行建设，配套智能化、信息化物流配送系统，打造国内领先、世界一流的高端智能家电产业基地。二期将围绕白色家电产业链，引入配套企业，打造白色家电产业园。一期项目建成后，年产各类高端智能冰箱冰柜200万台，实现年销售收入35亿元，税收1.2亿元。代表团对产业园发展情况给予充分肯定，认为我市在产业高质量发展的进程中迈出了坚实步伐，园区基础日趋完善，创新活力逐渐释放，企业高质量发展信心坚定，高端产业项目层出不穷，有效推进产业基础高级化和产业链现代化。', '在中新钢铁特钢板材减量置换技改升级项目现场，繁忙的施工场景、正在安装的设备设施，给代表团留下了深刻印象。该项目总投资150亿元，建设高炉、转炉、精炼炉、热连轧生产线及中厚特种专用板材生产线，可满足国内70%左右下游产品生产，配套建设综合利用发电、铁路专用线、新戴运河码头、智能物流货场、独立生活中心等设施。代表团被我市传统产业转型升级的力度、“二次创业”的激情所感染，看到了我市传统产业向着“高端”攀升的火热态势，产业结构日益优化、项目质效日益提升，谱写了新沂高质量发展新篇章。', '发展是第一要务，人才是第一资源，创新是第一动力。代表团走进晨曦人才公寓，参观了样板间，查看了公寓服务管理系统，详细了解我市人才公寓建设和入住情况、“钟吾英才”计划制定和实施情况。晨曦人才公寓建筑面积约3.9万平方米，总投资2.1亿元，共330套，房间内家具、家电、厨卫一应俱全，实现拎包即住。2021年2月24日迎来第一批人才入住，截至目前已入住96户。干净舒适的居住环境、安全优质的服务保障，让代表团频频点赞，认为新沂高度重视人才工作，投入力度大、政策覆盖面广、服务精准度高，有效补齐了短板、打牢了基础，各类人才队伍不断壮大、创新创业活力不断增强，形成了“人才引领创新、创新驱动发展”的良好局面，这些宝贵经验值得深入学习。', '代表团还来到宿北大战纪念碑亭，瞻仰革命先烈，聆听革命历史。代表团表示，将坚决继承革命先烈的宝贵精神，肩负起繁荣一方经济的重任，扛起高质量发展排头兵的责任，在党史学习教育中汲取前进力量，不断实现新跨越。', '活动中，陈堂清简要介绍了我市经济社会发展情况。今年以来，我市紧紧围绕“工业立市、产业强市”不动摇，牢固树立“没有实体经济，就没有新沂高质量发展基础；没有大项目，就没有新沂现代化发展未来”的理念，聚焦产业基础高级化、产业链现代化，坚持以战略性新兴产业引领发展、以先进制造业主导发展、以现代服务业驱动发展，加快构建更具张力和爆发力的现代产业体系。招商引资“1号工程”实现历史性突破，一批重特大项目相继签约落地、开工建设。特别是今年初，总投资180亿元的新凤鸣集团新沂产业基地项目正式签约，更为新沂高质量发展注入了强劲动力。大力实施传统产业“二次创业”，聚焦化工、纺织等产业，通过完善现代企业制度、提升装备、科技创新、数字化赋能等，引导传统产业升级改造，推动优势企业向“高峰”挺进，传统产业向“高端”攀升，新兴产业向“高速”发展，现代服务业向“高质”迈进，筑牢高质量发展的硬核支撑。全面推动化工园区提档升级，成功获批省化工集中区，为创建化工园区打下了坚实基础。创新推行产业链“链长制”，超纤材料、冶金装备等产业链更具活力，500亿级以上的产业集群正加速形成。大力提升创新“浓度”，国家级水性超纤新材料创新研究院、经开区科创园等平台加快建设运营，国家级高企数量达154家，总量继续保持徐州县区领先。', '李淑侠对新沂经济社会呈现出的良好发展态势给予高度评价，李淑侠说，所到之处，大干快上、生机盎然、蓬勃发展的景象，让人真切感受到了产业发展的“新沂模式”、项目建设的“新沂速度”、服务发展的“新沂经验”。回去后将结合徐州经开区实际，全面消化考察学习成果，加快推进经开区高质量发展。徐州经开区将与新沂加强沟通交流，积极推动双方在多层次、多领域达成合作，努力实现共同提升、多赢发展，为徐州打造贯彻新发展理念区域样板贡献力量！']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>71</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>济宁市市监局一行赴睢考察学习进口冷链食品集中监管仓</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2021-04-06</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.cnsn.gov.cn/xwzx/001002/20210406/99d7be7d-c005-483f-87a3-f558c3235fc6.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['近日，济宁市市场监管局参观团一行专程赴睢宁考察学习，了解我县进口冷链食品监管工作的先进经验做法，并进行座谈交流。', '参观人员一行来到县进口冷链食品集中监管仓，详细了解了集中监管仓的基本情况、运作流程、功能区划分等情况，并实地参观了集中监管仓各功能区设置情况及工作人员现场操作流程。', '在进口冷链食品集中监管仓办公室，考察组还听取了集中监管仓基本工作规范、区域布置、工作专班组织架构、应急处置等详细报告。针对冷链食品入仓后核酸检测和消毒流程，同睢宁局相关负责人进行了深入交流。', '参观团人员一致表示，睢宁进口冷链食品集中监管工作值得深入学习，尤其是监管模式更加符合济宁实际，好的经验做法可以直接复制。济宁市局将通过此次考察学习，认真做好对标分析，汲取睢宁集中监管仓的优秀经验做法，找出差距，梳理摸透冷链食品集中监管仓的运作方式方法，在下一步工作中进一步健全完善济宁集中监管仓各项规范制度，做好流程再造、布局设置、消毒检测等各项工作，确保进口冷链食品在全市监管“无缝隙、无死角”，夯实常态化疫情防控各项工作。', '完善济宁集中监管仓各项规范制度，做好流程再造、布局设置、消毒检测等各项工作，确保进口冷链食品在全市监管“无缝隙、无死角”，']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>71</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>考察学习互促共进睢宁县物业服务行业党委一行赴昆山交流学习</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-04-02</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.cnsn.gov.cn/xwzx/001002/20210402/d61e1015-9b96-4126-9166-dd39bce05189.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['“考察学习、互促共进”——睢宁县物业服务行业党委一行赴昆山交流学习_睢宁县人民政府', '为切实提升我县物业服务企业整体水平、加强物业行业之间交流与学习，县城管局、县物业服务行业党委一行赴昆山考察学习。此次活动由县城管局党组副书记、物业服务行业党委书记李强带队，县城管局局长助理王伟蔚、物管中心主任张大军、街道物业相关领导和近20家会员单位成员等近40人参加。', '此行考察学习对象主要是昆山绿城物业托管的项目，考察学习组先后考察了时代御湖别墅、长顺滨江皇冠等项目。通过现场参观、听取介绍、互相交流等方式，认真考察学习了绿城服务在垃圾分类、绿化养护、排水系统细节处理等方面的先进经验和创新做法，从中找差距、学经验。', '随后，考察学习组与绿城服务的管理人员在项目会议室进行深入交流。详细了解绿城服务的“8S管理方法”，探讨借鉴实施“8S目视化管理细节”，塑造出一个整洁明亮的工作环境，培养员工良好的工作习惯，改善服务品质，提升工作效率，降低服务成本，提升服务质量。', '经过此次考察学习，考察学习组人员感触深刻，纷纷表示我县物业管理与所考察城市存在差距，他们成熟的管理体系以及先进的管理经验非常值得借鉴学习。睢宁县物业协会在以后的工作中将以服务好广大会员单位、维护会员单位合法权益为己任；倡导行业自律和公平竞争；请进来、走出去，推动企业之间互相交流、合作与创新；引导会员单位做规范、强标准，更好地服务于业主，让广大业主满意、舒心、放心。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>71</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>开新局出新彩市水务局奋力开创乡村振兴帮促新格局</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001002/20210323/7f4a07c5-a473-4681-91ef-e5953cd06f46.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['2021年是“十四五”开局之年，也是全面推进乡村振兴起步之年。市水务局凝心聚力开好局、起好步，在挂钩帮扶村高质量开展乡村振兴帮促工作，着力抓好产业立村、项目兴村关键工作，奋力开创具有我市水务特色的乡村振兴帮促新格局。', '积极考察学习。今年以来，市水务局驻村帮扶工作队积极组织詹湖村新任职“两委”成员、返乡能人到贾汪区紫庄镇油坊村天勤香油厂等地，有针对性的考察学习相关乡村产业发展形态和经验做法。下一步，詹湖村将立足当地产业基础和资源禀赋，计划种植樱桃番茄、车厘子等优质农产品，逐步推进一二三产业“抱团发展”，开启一枝独秀到百花齐放的产业振兴之路。', '推进帮扶项目。市水务局行业帮扶项目涉及农村生态河道整治以及小型泵站、闸涵、防渗渠更新改造等农水项目，计划汛前完成，将有力夯实当地农业发展基础、完善水安全保障体系、提升水生态环境质量、增进人民群众获得感。同时，提前做好房亭河改造工程詹湖村段的规划工作，努力将房亭河打造成为造福当地百姓的幸福河，为詹湖村未来农旅项目开发提供坚实水务支撑。', '实施“一支一项”。积极响应市委驻铜帮扶工作队2021年度乡村振兴“一支一项”活动倡议，结合局水务工作特点和詹湖村村情民意，由单集站党支部作为活动对接支部，在2020年支部结对共建的基础上，以“践行新时代水利精神，助推詹湖村乡村振兴”为主题，主要在消费帮扶、支部共建、智力帮扶、志愿服务等方面开展乡村振兴“一支一项”活动。', '培育特色产业。目前詹湖村粉丝车间已建成，“詹湖牌”单集粉丝系列产品计划于本周末投产，项目将按照“村委会+企业+特色产业+乡村振兴”的村企联建模式运营，提供家门口就业岗位约50个，村集体采取入股形式参与收益分红，打造乡村振兴共赢模式。下一步，局驻村帮扶工作队将帮助詹湖村引进市农科院甘薯研究所的优良红薯品种；同时，加大粉丝产品营销力度，塑造单集粉丝品牌形象，实现经济和社会效益双丰收，以产业的振兴带动詹湖村全面振兴。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>71</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>徐州市文明行为促进条例解读之二</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.xzqs.gov.cn/govxxgk/13673981-6/2021-03-23/a22c3fd3-6a11-4a5b-9187-e80929115c35.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['3月1日起施行的《徐州市文明行为促进条例》（以下简称《条例》），是我市从制度层面探索文明入法、德法共治的一次具体实践，对于提升市民文明素质和社会文明程度、推进城市治理体系和治理能力现代化，将产生积极、深远的影响。', '从开门立法，到回应社会关切，再到于《条例》中结合徐州实际，以助推经济社会高质量发展，我们不难看出，《条例》的出台既是一次汇聚民智、凝聚共识的过程，也对公众文明行为进行了一次深刻的宣传教育，其中不少内容值得回味。', '作为我市制定实施的第一部关于精神文明建设的综合性地方法规，《条例》是我市近几年立法工作的一项重大成果。在《条例》的调研起草、审核修改过程中，我市立法部门倾注大量的智慧和汗水，既充分吸收借鉴了省内外兄弟城市经验做法，又立足徐州实际、体现本土特色，有效融入时代精神，充分吸纳各方意见，经过反复调研论证、多次修改完善，最终形成了导向鲜明、操作性强的高质量地方法规。', '据了解，早在2017年，我市有关部门就已着手准备有关立法工作并启动前期调研。2018年，市文明委向市人大交流立法愿望和思路，得到支持，市文明办向市人大法工委汇报和咨询立法相关事项，提交立法建议。之后，“徐州市文明行为促进条例”项目被列入市人大《2020年立法计划》。市委宣传部、市文明办、市城管局、市公安局等市文明委成员单位及创建重点责任单位有关人员开始赴省内外城市考察学习，为我市立法工作的提出和推进提供有益参考。', '一方面马不停蹄开展考察调研，一方面还要学习研究法律法规。为此，市文明办及时成立起草工作小组，认真学习中央、省、市有关文件精神，明确立法重点，把握立法程序、权限等要求，并学习借鉴各地文明行为促进条例，汇总20条上位法以及我市与文明行为促进条例相关的17条地方性法规等参考资料，让条款拟定更准确、内容更丰富。', '立良法，离不开科学、全面的论证。为使《条例》更好体现民意、汇聚民智、凝聚共识，立法部门在制定过程中不仅严格贯彻落实党的十九大及各次全会精神，以社会主义核心价值观为指引，结合我市实际，坚持科学、民主和依法立法，还广泛吸收采纳常委会组成人员、人大代表、政协委员、专家学者、部门，特别是社会公众的意见，最终形成对我市文明行为促进工作作出全面规范的一部综合性地方法规。', '民主立法、科学立法，是提高立法质量，实现良法促进发展、保障善治的根本途径。据了解，我市有关部门多渠道公开征求社会各界意见，认真研究修改，充分吸收合法合理部分，使《条例》有了更强的可操作性和民意基础。', '“去年8月，条例草案经市人大常委会会议初审后，市人大法工委通过多种形式广泛征求意见和建议，持续开展调研论证，对条例草案进行了反复修改。修改后的《条例》集中体现了社会主义核心价值观的要求，总结了全市文明创建的经验，吸收借鉴了其他省市的先进做法，规定了公民基本文明行为规范，鼓励和支持公民参与志愿服务、公益服务等活动，同时根据新政策、新导向，将部分新风尚纳入倡导范围，以立法的形式促进和提升全市公民的文明素质和城市文明程度。”市法宣办有关人士表示，正是通过广征民意、充分论证，《条例》才更符合实际、便于实施。', '记者了解到，《条例》坚持德治与法治相结合，既强调引导公民严于律己，自觉履行公民权利和义务，养成良好道德习惯，又体现法律和社会监督，规范、约束人们的行为；既着眼大多数，符合徐州地域文化和市民生活特点，又把握市民道德建设中最突出的问题，倡导新风，鼓励先进，促进人们不断去追求更高层次的道德目标；既反映道德建设的理论问题和最新成果、突出思想性，又总结、概括我市多年来在精神文明建设实践中积累的好经验、好做法，突出针对性、可操作性，重点放在“实施”上。在力求立法原则清晰的同时，着力融入时代精神，注重体现“徐州特色”。', '例如，将《新时代公民道德建设实施纲要》《新时代爱国主义教育实施纲要》等要求细化为具体的行为规范和工作措施，围绕上述《纲要》中提出的“践行绿色生产生活方式”要求，结合新冠肺炎疫情期间暴露出的问题，将“践行低碳、绿色生活方式”“取餐使用公筷公勺”等要求纳入《条例》；围绕我市蝉联“全国双拥模范城”，将“自觉遵守、执行军人及其家属优待规定”“不得以侮辱、诽谤或者其他方式侵害英雄烈士等姓名、肖像、名誉、荣誉”等要求纳入《条例》；围绕我市打造世界级汉文化旅游目的地，在硬件、软件方面突出文明旅游相关内容等。', '据了解，《条例》不仅弘扬了有情有义、诚实诚信、开明开放、创业创新的“徐州精神”，也为建设整洁环保的生活环境、便捷高效的服务体系和规范有序的社会秩序提供了法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>71</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>丰县召开年老干部迎新春座谈会</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2021-02-10</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001001/20210210/3bcfbda6-2f22-488e-8002-79f5f070ec0d.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['2月6日，丰县2021年老干部迎新春座谈会召开，县领导娄海、郑春伟、杜亚峰、徐国良、张云出席会议，靳允良、李玉岭、陈兰勋、史亚林、刘波、张洪昌、刘祖斌、刘尊德、洪信来、刘玉成、李以林11位在丰的县处级离退休干部欢聚一堂、畅叙情谊，同贺新春佳节，共话发展大计。县委副书记、县长郑春伟主持会议。', '会上，县委书记娄海代表县委、县人大、县政府、县政协向老干部们致以节日的问候和良好的祝愿，并向老领导、老干部们通报了2020年全县经济社会发展情况和2021年工作目标。', '老干部们先后发言，对2020年以来全县经济社会发展取得的成绩给予高度肯定，并围绕工业经济、民生项目、城市建设、教育医疗发展等多个方面畅所欲言，建言献策。', '2020年是极不寻常的一年，过去的一年，全县上下坚持以新发展理念为指引，聚焦高质量发展创新突破、苦干实干，在大战大考中交出了过硬答卷。', '娄海指出，过去的一年里，丰县奋力打赢了疫情防控阻击战，取得疫情防控和经济社会发展双胜利，多项指标增幅跃居全市前列。聚焦脱贫攻坚和乡村振兴，实施85项湖西片区提升突破工程，力争三年时间再造一个新湖西。加速构建现代产业体系，坚定不移实施“工业立县、产业强县”发展战略，12家终端设备企业投产，23个产业链关键项目落地，智能设备“一号产业”框架基本形成。大力推进“千企升级转型计划”，带领50名企业家外出考察学习，激发了企业家干事创业激情。雅迪等电动车行业全国“十强”7家落户丰县，家具行业、楼梯行业量质均有大幅提升，农业龙头企业带动集聚效应明显，开发区在全省上升10个位次，高新区综合实力不断提升，顺河、欢口等各园区建设势头强劲。打造一流营商环境，把营商环境建设作为战略性举措，在全国率先开通直通书记、县长的“962518”服务发展专线，全力帮助企业解决发展难题，营商环境成功跻身全国县域第36位，县域软实力更上新台阶。民生福祉大幅增进，燃气、供热、供水、公交、教育、医疗等各领域取得长足进步，重抓教育在丰县得到真正落实，高质量创成省文明城市，群众的幸福感、获得感持续提升。创新推进社会治理模式，探索形成社会治理领域速应处置机制，成立专门速应队伍，“民有所需、我必速应” 社会治理品牌深入人心。始终坚持以党的政治建设为统领，常态化开展县委常委会大调研大观摩，重大项目、乡村振兴、文明城市创建等七大指挥部高效运转。市委主要领导用“士别三日刮目相看”“有志者事竟成”“坚守初心前途无量”三句话对丰县工作给予高度肯定。', '娄海强调，饮水思源——丰县能有今天成绩，离不开各位老领导当年艰苦创业打下的坚实根基；丰县干部的拼劲和干劲，离不开各位老领导当年言传身教的作风传承；丰县的未来，仍然离不开各位老领导的关心支持。', '今年是建党100周年，是“十四五”规划的开局之年，也是加快推进高质量振兴发展的关键之年。站在“两个一百年”历史交汇点上，我们用力用情系统谋划了丰县“十四五”及更长一个阶段发展。经过多轮、多层次征求意见、修改完善，“十四五”规划基本形成，描绘了丰县未来发展美好蓝图。我们将继续坚定不移实施“工业立县、产业强县”发展战略，高质量推进产业发展、城乡融合、乡村振兴、生态建设、民生改善和社会治理等重点工作，全力建设苏鲁豫皖接壤地区“五个高地”，高标准打造贯彻新发展理念区域样板，推动丰县全面赶超、全方位振兴取得新的更大突破。', '振兴丰县的宏伟事业，向上向好的强劲势头，需要凝聚各方面的智慧和力量，同心同德，团结拼搏。希望各位老领导继续发挥模范带头的作用，继续用榜样的力量，为全县广大党员干部树立讲党性、讲纪律、讲规矩、讲大局的作风标杆，多做鼓劲鞭策、增进和谐、促进发展的工作，积极为丰县建言献策。新的一年里，全县各级各部门要坚持把老干部工作放在工作大局中思考、谋划和推进，始终对老同志保持敬重之心、倾注关爱之情、多做务实之事。县委县政府将会更加努力，恪尽职守、脚踏实地，把老领导的接力棒传好，把党和群众的事业做好，用丰县的发展实绩回报各位老领导的信任与重托。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>71</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市委书记陈堂清率考察团赴邳州市徐州经开区考察学习</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2021-02-05</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/001/001001/20210205/7b290330-b956-4b5f-b0a5-eaf688c5de75.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['一年之计在于春，扬帆奋进正当时。2月3日，市委书记陈堂清、市长李胜率考察团赴邳州市、徐州经开区考察学习新兴产业、项目建设等方面的先进经验，开启新沂市新型工业化、先进制造业的学习之旅，也开启新沂创新平台的学习之旅，通过对标先进，精准找差距、奋力补短板、攻坚强弱项，以更大格局、更宽视野、更大力度推动新兴产业发展、加速项目建设，切实筑牢新沂高质量发展的坚实支撑。新沂市领导郑伟、张长征、王君迎等参加活动。邳州市领导吴卫东，徐州经开区领导李淑侠、臧晓鹏等陪同活动。', '上午，考察团来到邳州市，先后深入土山镇众力合创精密机械项目、土山镇博科工程机械项目、土山工业园区服务中心、官湖镇德鲁尼智能家居项目、官湖镇朗斯卫浴项目、碾庄镇五金机械园区服务中心、碾庄镇鑫宇源机械项目、碾庄镇东鹏五金工具项目等地，详细了解邳州市镇域经济发展情况，大家感受到邳州以园区为平台，以项目为触点，经济社会蓬勃发展的最新脉动。', '近年来，邳州市坚持“工业立市、产业强市”，大力实施“1226”工业振兴行动，围绕打造一个国家级开发园区，地区生产总值、工业销售收入均达1500亿元的奋斗目标，实施链主企业培育、雁阵集群打造两大计划，主攻碳基新材料、半导体材料与设备、节能环保、高端装备制造、生态家居、绿色食品等六大主导产业，现代产业体系日臻完善。去年，地区生产总值突破1000亿元，同比增长3.7%，跃居全国百强县第36位，全国工业百强县第30位，创成苏北首家县级全国文明城市，获评中国最具幸福感城市、全国营商环境质量十佳县市。', '考察学习中，大家边走边看，边问边学，不时相互交流讨论。土山镇的工程机械配套产业、官湖镇的生态家居产业、碾庄镇的五金机械产业等等各板块产业集聚成链的发展态势日益凸显。大家纷纷表示，邳州市镇域善于立足自身资源禀赋和产业基础，始终坚守主导产业不动摇，主动转型升级、强化创新驱动，深度培育特色产业，形成了“一镇一品”的产业发展格局，干部抓经济的专业化水平高，服务产业发展的精气神十足，镇域“小老虎”朝气蓬勃、令人振奋。陈堂清强调，各镇（街道）要主动对标找差，在今后的工作中，积极借鉴邳州市镇域经济发展的先进经验和做法，聚焦最有基础、最有优势、最有潜力的主导产业，进一步解放思想，主动破除路径依赖和惯性思维束缚，创新工作体制机制，提升工作的专业化水平，努力把学习成果转化为集中精力抓产业发展的实际行动，转变为产业发展的实际成效。', '下午，考察团深入徐州经开区，先后来到鑫晶大硅片项目、徐州综合保税区、徐工重型项目、徐工矿机项目、恩华药业项目、万邦医药项目、金龙湖宕口公园、金龙湖之窗等地，探寻徐州经开区新兴产业培育、传统产业转型的“密码”。', '徐州经济技术开发区创建于1992年7月，2010年3月晋升为国家级开发区，总面积293.6平方公里，现有企业4680家、世界500强企业22家、规模以上工业企业168家、高新技术企业128家，是国家产业转型升级示范园区、国家新型工业化高端装备制造产业示范基地、国家新能源特色产业基地、国家知识产权示范园区、国家绿色园区、国家生态工业示范园区、国家“大中小企业融通型”创新创业特色载体、江苏省智慧园区、江苏省工业互联网示范工程首批“互联网+先进制造”基地，综合实力位居全国219家国家级经开区第25位、江苏省137家经开区第7位。', '考察中，市委书记陈堂清强调，纵向比看成绩，横向比看差距。在比学赶超的赛道上，我们要敢于同强的比，向高的攀，与勇的争，跟快的赛，勇争一流、敢争第一。经开区作为徐州市经济发展的主阵地、改革开放的最前沿、创新创优的风向标，一直是我们县区板块学习对标的榜样。今天的活动，既是新沂新型工业化、先进制造业的学习之旅，也是新沂创新平台的学习之旅，通过对标徐州经开区，我们要精准找出自己的差距短板，在新兴产业培育上、在下一步新型工业化的进程中加力加速，以更大格局、更宽视野、更大力度推动新兴产业发展、加速项目建设进度。', '陈堂清要求，大家要把此次学习考察的思想触动迅速转化为发展的实际行动，准确把握新发展阶段、深入贯彻新发展理念、主动融入新发展格局，以“争当表率、争做示范、走在前列”为总要求，以招商引资一号工程为抓手，心无旁骛抓有效投入，创新创优抓要素保障，全力推进产业基础高级化、产业链现代化。各镇（街道）要发扬为民服务孺子牛、创新发展拓荒牛、艰苦奋斗老黄牛精神，主动作为、奋发有为、担当善为，扎实推进镇域“小老虎”培育工作，为推动新沂高质量发展贡献镇域力量。要大力弘扬雷厉风行、马上办的工作作风，争分夺秒加快项目进展，呈现出项目建设的爆发态势。陈堂清希望，在今后的工作中，加强区域板块之间的互动交流，相互借鉴、相互学习、相互促进，为徐州打造贯彻新发展理念区域样板做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>71</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>加强合作交流推动转型发展</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020-12-17</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20201217/c88c4bc5-478a-4183-989e-f0994d728bca.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['12月15日，辽宁省阜新市党政代表团在市委书记、市人大常委会主任吕志成的带领下来徐考察。市委书记、市人大常委会主任周铁根热情接待了代表团一行。', '代表团一行首先来到贾汪区，参观贾汪转型之路展馆，听取贾汪经济社会转型发展情况介绍，并实地考察了潘安湖采煤塌陷地整治工程。一路走一路看一路问，代表团一行对贾汪经济社会转型发展取得的成就给予充分肯定，认为贾汪在新发展理念指引下，坚持生态优先、绿色发展，变绿水青山为金山银山，尤其在生态修复、产业转型、改善矿区群众生产生活等方面亮点突出、成效明显。代表团成员认为，阜新市作为资源枯竭型城市和老工业基地，与贾汪一样也因煤而立、因煤而兴，同样面临着繁重的转型发展任务，阜新将认真学习借鉴贾汪的经验做法，携手开创资源枯竭城市转型发展的新局面。', '在马庄村，代表团一行实地参观了新时代文明实践站、村史馆、党员学习室、香包文化大院，详细了解马庄村历史变迁、精神文明建设、基层党建和乡村振兴等方面工作开展情况。代表团成员普遍认为，马庄村用先进文化聚人心、领好路、谋发展，新时代文明实践“十必联”工作法把服务送到群众身边，把矛盾化解在萌芽，拉近了干群距离。香包等特色产业壮大了集体经济，带动了百姓增收致富，传承了非遗文化，促进了精神文明建设。马庄村展现了新时代农民新风采和农村新风貌，其深入实施乡村振兴战略的探索实践值得阜新学习借鉴。', '近年来，徐州经济技术开发区始终坚持“工业立区、产业强区”，前瞻布局战略性新兴产业、高新技术产业和“四新经济”，全力打造地标型特色产业集群，为建设淮海经济区中心城市探路领跑。在徐州经开区金龙湖之窗，代表团一行听取经开区建设和产业集聚情况介绍，着重了解经开区在科技创新、新能源产业发展等方面的新理念新举措，对经开区推动产业转型升级和智慧城市建设等方面的做法给予高度评价。代表团成员表示，徐阜两地在推进产业发展中有相似之处，在项目建设、企业培育、产业规划布局等方面有很多举措和经验值得相互学习借鉴，希望通过此次考察学习加深双方的交流了解，相互学习、共同进步，携手推动老工业基地高质量转型发展。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>71</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>加强交流互动共谱发展新篇</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-02-05</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20210205/e562599c-9e88-4608-a1f4-cd584d4ce1e0.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['2月3日，正值立春，新沂市委书记陈堂清，市委副书记、市长李胜率党政考察团来我市考察经济社会发展情况。通过现场观摩，感受我市以园区为平台，以项目为触点，蓬勃发展的最新脉动。我市市委书记吴卫东陪同活动。', '春回大地，万象更新。园区发展势如破竹，项目建设战鼓正酣，产业链条日趋形成，邳州大地处处涌动着发展的热潮。考察团一行首先来到土山镇，考察了解众力合创精密机械、博科工程机械、徐工土山产业园服务中心等发展情况。2020年，土山镇定向发力，工业经济实现重大突破，全年共签约亿元以上项目18个，新增规模以上工业企业8家，2021年，土山镇将继续坚定不移地实施工业倍增计划，不断提升徐工土山产业园的规模实力，力争早日建成“苏北特色产业重镇”。考察团对土山镇坚定不移对接徐工、配套徐工、服务徐工、融入徐工的思路给予高度赞扬，认为我市找准关键链条、瞄准关键企业、盯准关键人员抓招商的创新举措值得借鉴和学习。', '接着，考察团来到官湖镇德鲁尼智能家居项目建设现场、朗斯卫浴等地，详细了解我市生态家居产业发展情况。2020年，官湖镇围绕“创建省级开发区、建设全国一流园区”目标，持续完善生态家居产业链，闼闼木门、朗斯卫浴等链主企业相继竣工投产，德鲁尼智能家居项目成为传统产业转型升级的标杆，全镇22个在建项目、35个储备项目加速推进。考察团认为，邳州强化“项目为王”理念，重点攻坚行业龙头，多措并举招引产业“链主”，培育壮大产业“雁阵”，用大项目、大集群打造了家居产业地标，为产业延链、补链、壮链注入了新动能。', '考察团还来到碾庄镇五金机械园区服务中心、鑫宇源机械、东鹏五金工具观摩生产现场，听取相关介绍。碾庄镇大力培育以五金工具和机械制造为主导的特色产业集群，不断做大总量，做优质量。全镇工业企业149家，其中五金机械类企业87家，2020年招大引强成效显著，园区承载提质扩面。考察团充分肯定我市坚持集约集聚的园区发展导向，认为我市产业发展思路新，举措实，精准匹配产业发展定位，实现差异化定位、特色化发展，为新沂经济社会发展提供了有益借鉴。', '活动中，吴卫东简要介绍了我市经济社会发展情况。他说，2020年，邳州坚持“工业立市、产业强市”发展战略，以“1226”工业振兴行动为引领，深入推进“链主”企业和“雁阵”集群两大培育计划，加快构建现代产业体系，推动经济体系优化升级。2021年，邳州将聚焦“争当徐州打造贯彻新发展理念区域样板先行军”奋斗目标，全面建设“六高城市”，确保“十四五”开好局，全面建设社会主义现代化起好步。', '陈堂清对邳州经济社会呈现出的良好发展态势给予高度评价，认为邳州上下展现出的干事创业激情、敢于担当作为的工作作风，让考察团感触很深，启发很大。考察团将结合新沂实际，全面消化考察学习成果，加快推进新沂经济社会高质量发展。新沂和邳州地理相连、人文相亲，希望两地站在“十四五”发展起点，进一步加强交流互动，进行更深层次、更广领域的合作和发展，共谱两地高质量发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>71</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>庄兆林赴长沙学习考察工程机械产业发展情况</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020-12-09</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20201209/093b8e58-9dd6-4191-ae6a-6b6813d476f5.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['12月7日，市长庄兆林赴湖南长沙考察，学习借鉴长沙市推进工程机械产业发展的思路举措和先进经验，积极对接交流拓展两地产业合作空间，寻求推进我市工程机械产业高质量发展的新办法新路径。长沙市市长郑建新、副市长邱继兴陪同活动，副市长赵兴友、市政府秘书长周天文参加考察。', '考察团一行先后考察了中联重科智慧产业城、山河智能产线车间、中国铁建重工高端地下装备制造车间及数字化指挥监控中心、三一集团展览馆及18号厂房，重点了解了长沙市工程机械产业规模布局、发展态势、政府扶持政策举措，以及相关企业的发展历程、核心业务、规模体量、营利能力、比较优势、前景规划等情况，4家企业智能化的产线车间、火热的生产现场、强劲的发展态势、超前的创新理念给考察团留下了深刻印象。', '在随后的座谈会上，两市围绕工程机械产业发展形势、企业扶持政策、科技创新支持、土地人才要素保障等方面进行了深入交流，并就两市产业合作发展、共同打造产业集群、联手开拓国际市场等达成共识。', '庄兆林表示，长沙近年来是省会城市发展中的一匹“黑马”，经济社会发展呈现出四个方面特点：发展速度快，2012年以来GDP年均增长9.6%，去年为8.1%；发展质量高，在经济高速增长的同时，空气质量优良天数占比达90%，林木覆盖率超过50%，连续13年入选“中国最具幸福感城市”；发展后劲足，尤其是各类创新资源运用的好，万人发明专利数量在各省会城市中名列前茅；发展活力强，拥有八大千亿级产业，75家上市企业，部分产业产值规模超过3000亿。长沙的发展深入遵循新发展理念，让考察团看到了推动高质量发展和贯彻新发展理念的现实样板。', '特别是在工程机械产业发展上，长沙在五个方面令考察团感到十分震撼：龙头集聚态势令人震撼，4家全球行业前50强企业在长沙集聚，且发展的动力活力非常强；发展的速度令人震撼，4家企业的规模都有望在三到五年内实现翻番；发展氛围令人震撼，长沙市委市政府对工程机械产业给予了不遗余力的支持，出台了一系列扶持政策；智能制造水平令人震撼，4家企业全部是按照智能工厂方向打造；经济效益令人震撼，尤其是三一集团的毛利率、利润率全球领先。这些对徐州都很有启示作用和借鉴价值。', '庄兆林强调，两市应站在构建以国内大循环为主体、国内国际双循环相互促进的新发展格局的高度，以更加开放的姿态深度推进工程机械产业合作发展，全面加强两地政府、企业间的交流，实现信息共享；引导企业适度错位发展，避免过度竞争和资源内耗；采取技术共享、合力攻坚、共建新型研发机构等形式，开展协同创新；联手开拓海外市场，促进服务共享和全球供应链打造。在此基础上，全面加强两市在中心城市建设、文旅产业发展、商贸往来等方面的交流合作。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>71</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>设施大棚上山贫瘠地里生金</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020-11-30</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001003/20201130/27a705e7-9da1-42bb-810d-b73304faeaa6.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['发展现代农业，致富一方百姓。近年来，燕子埠镇鹿寨村克服高亢山区土地贫瘠的制约，积极流转土地，加快配套设施建设，大力发展现代农业，鼓励村民发展大棚蔬菜种植，有效推动当地农业增效、农民增收。', '这段时间，正是棚内茄子成熟的时节，在燕子埠镇鹿寨村一处大棚内，村民正在忙着采摘刚刚成熟的茄子。村民王庆每隔一天就要摘一次茄子，一次可以采摘1500斤左右。王庆告诉记者：“收菜的老板把车开到地头，给我们发筐，我们到棚里摘茄子，装满给他们就行，园区一天最少能出三四万斤茄子。”', '过去，燕子埠镇以种植小麦、玉米等传统农作物为主。为提高百姓经济收入，改善百姓生活条件，该村组织二三十户村民外出考察，学习种植日光温室大棚先进经验，可是回到村子之后，村民的种植积极性并不高。看此情景，王庆带领其他五户村民成了第一波吃“螃蟹”的人。', '“那会，一个棚成本大概五六万块钱就能建成，第一年我们种的黄瓜，赶上黄瓜价格最贵的时候，那年一斤是4.8元，一年成本全部回收。”', '头一年就见到了效益，这让王庆坚定了信心，随着种植技术日渐成熟，王庆也开始扩建大棚，效益一年比一年好。现在王庆的大棚建了4个，黄瓜、茄子各类蔬菜都种植，每年从秋天开始，他的大棚就陆续有蔬菜收获，棚里的活忙不过来，他还雇了几名村民来帮忙，让村里的留守妇女有了挣钱的途径。', '村民胡燕每天都到园区来干活挣钱，她说：“在这里干点活也能照顾小孩，也能照顾老人，不要出远门，一个月挣2000块钱，我觉得挺好。”', '不光是带动留守妇女就业，王庆还带动了一批村民种植大棚。几年间，看到不断增长的效益，有些村民也开始主动找王庆学习种大棚。村民王春久、马芬莲夫妻俩开始试种大棚。王春久说：“我看王庆他们几个人种大棚效益怪好，也怪挣钱，所以我也开始种大棚了。”', '由于缺乏技术和经验，王春久大棚蔬菜的质量不高。王庆知道后，主动到他棚里进行技术帮扶，很快王春久学到了技术，积累了种植经验，大棚蔬菜丰收、高产，种植几年大棚蔬菜腰包也越来越鼓。', '“你尝尝我这黄瓜口感怎么样？”王春久让王庆尝尝他今年种的黄瓜。“口感不错，行。”在王春久的大棚里，王庆正在查看黄瓜长势情况，不时提出意见和建议。王春久告诉记者，从9月份开始，棚内黄瓜就逐渐成熟，目前已经摘了10000多斤。这几年，在王庆的帮助下，王春久的大棚效益逐年递增。夫妻俩每天忙里忙外，虽然累点但是日子过得很充实。而随着收入增多，他们的生活也随之改善。', '“一年一个棚挣四万多块钱，一年稳稳挣十几万，生活条件比以前强多了，吃的穿的都充足，家里房子也盖好了。到时候说儿媳妇到城里再给买房，反正手里有钱。”王春久高兴地告诉记者。', '腰包鼓了起来，日子不用愁，王春久打算再扩建一个大棚，好好经营，让生活更有奔头。“家里已经三个棚了，我打算再扩一个棚，到时忙不过来就找工人干活，棚多挣钱就多。”王春久打算这样干。', '目前，鹿寨村蔬菜园区约有140户大棚种植户，本村村民占80%，村民的生活条件也渐渐提高。鹿寨村成为第一批借助大棚种植走上富裕的村庄。对于未来的生活，村民也充满了希望。', '“在村庄卫生环境这方面，我们也得提升，把村庄治理干净，生活才有质量，让村民不光有钱花，也得住得好，生活得好。”王庆如是说。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>71</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>区退役军人服务中心组织镇村服务站负责人赴诸暨南京学习考察</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020-11-16</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001002/20201116/2b912098-3634-470b-949f-b37dee34c334.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['区退役军人服务中心组织镇、村服务站负责人赴诸暨、南京学习考察_徐州市贾汪区人民政府', '为深入贯彻落实新时代“枫桥经验”，学习退役军人服务保障体系建设先进经验和做法，日前，区退役军人服务中心组织各乡镇（街道）、功能区服务站负责人及优秀村（社区）服务站长赴浙江诸暨和江苏南京，开展为期三天的考察学习。', '第一天，考察学习团首先来到浙江省诸暨市枫桥镇，作为“枫桥经验”的发源地，枫桥镇始终坚持并致力于“枫桥经验”的传承与推广。1963年11月，毛泽东同志亲笔批示“枫桥经验”，历经实践发展，“小事不出村、大事不出镇、矛盾不上交”成为“枫桥经验”的基本特征。随着时间的推移，进入新时期后，枫桥人结合时代的发展，与时俱进，又探索总结出了以坚持党建统领、坚持人民主体、坚持三治融合、坚持四防并举、坚持共建共享为主要内容的新时代“枫桥经验”。', '在枫桥镇退役军人服务站，该单位负责人详细介绍了其重点打造的“四微服务”工作模式，包括微治理、微志愿、微联动、微代理四项服务，将党员管理、结对帮扶、就业扶持、法律援助、情感疏导等多项工作有机结合，坚持“全科网格管理，服务不缺位”的工作理念，分成若干工作板块，整体统一推进。特别成立关爱退役军人协会，坚持“关心关爱退役军人、用心用情用力服务”理念，通过沟通联系常态化、困难帮扶个性化，打通服务退役军人“最后一公里”。', '当天下午，又乘车来到“枫桥经验”最初始源地之一的枫桥镇枫源村，参观了村为民服务中心办事大厅和退役军人服务站，服务站倡导“服务不缺位，保障全覆盖，尊崇有氛围，引领建新功”的工作理念，全部实现了所有退役军人基本信息一人一档，并输入电子信息库，提供搜索查询服务。服务大厅设有办事服务查询系统，提供办事业务指南和就业创业信息的推介，实现智能化、便捷式的一站式服务。服务站组建退役军人580志愿服务队（谐音：我帮你），利用退役军人群体组织观念强、身体素质硬、应变能力快等特点，在应急救援、平安巡逻、环境治理、文明乡风等事务中发挥积极作用。', '第二天，考察学习团又来到南京市江宁区汤山街道退役军人服务站，参观了退役军人服务保障体系建设，服务站坚持统筹化布局，着重打造具有示范引领作用的“退役军人之家”。做好“四心”服务，即坚持统筹化布局，建好引领之家强人心；坚持标准化建设，建好品质之家聚人心；坚持常态化服务，建好奉献之家暖人心；坚持特色化推进，建好活力之家稳人心，让退役军人服务站成为弘扬军人品质、颂扬军旅文化、传播社会正能量、促进乡风文明的“活力之家”。', '第三天，在汤山街道龙尚村退役军人服务站，学习了富有当地特色的“1+5+N”工作模式，即为退役军人服务的1支专业队伍，5支志愿服务队（包括政策宣讲、爱国教育、老兵调解、治安巡防、乡村共建服务队），N个服务项目（包括优抚褒扬、就业创业帮扶、困难救助等）。在汤山街道古泉社区退役军人服务站，参观了社区“退役军人之家”', '在古泉社区退役军人服务站党员活动室，区退役军人事务局相关负责人为全体成员上了一堂特殊的“党课”。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>71</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>区自然资源和规划分局配合区政协开展僵尸企业用地再开发利用专题调研</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020-11-16</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001002/20201116/bd64f36b-729f-4e70-a571-3df947bc0517.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['区自然资源和规划分局配合区政协开展“僵尸企业”用地再开发利用专题调研_徐州市贾汪区人民政府', '日前，贾汪区政协成立专题调研组，开展“僵尸企业”用地再开发利用专题调研，探索“ 僵尸企业”用地再开发利用思路和方法，区自然资源和规划分局积极做好配合工作。', '调研组先后深入徐州工业园区、青山泉、江庄、大吴等地，开展走访调研，赴铜山区、无锡市惠山区考察学习先进经验和府院联动模式，探索盘活路径。区自然资源和规划分局充分利用全区低效闲置用地调查工作成果，为调研组科学认定“僵尸企业”、剖析停产原因提供基础数据，并提出专业性建议。', '在下一步处置工作中，将坚持运用市场机制、法治手段，因企施策、分类处置、建立优胜劣汰的企业市场化退出长效机制，依法依规推动“僵尸企业”盘活再利用。一是坚持府院联动，通过诉讼、司法拍卖、破产清算等方式，强制企业依法退出市场；二是加大政府土地收储和前期开发，规范土地供应管理模式；三是坚持土地供应创新方式，提高土地节约集约利用水平；四是坚持“腾笼换鸟”，以招商吸引优质资源进驻；五是坚持属地管理，明确乡镇主体责任制；六是坚持统一领导，确保协同有效推进处置工作。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>71</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>加强交流互动共促产业发展</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2020-11-06</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20201106/ba2c5bef-4917-4bf1-b6f5-5307b337a9c1.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['11月4日至5日，市委书记、市人大常委会主任周铁根率徐州市考察团赴贵州省贵阳市考察，学习贵阳市探索实践大数据产业发展与应用、以大数据为引领推动后发赶超的创新成果。贵州省委常委、贵阳市委书记、贵安新区党工委书记赵德明陪同活动。', '近年来，贵阳坚持守住发展和生态两条底线，以脱贫攻坚统揽经济社会发展大局，实施大扶贫大数据大生态三大战略行动，不断探索经济发展与生态改善双赢之路。自2014年以来，贵州与贵阳省市两级全力实施大数据战略，构建以大数据为引领的现代产业体系，将贵阳打造成为国家级大数据产业集聚区、全国领先的大数据创新与应用服务示范基地，为全面实施国家大数据战略贡献“贵州智慧”和“贵州方案”。', '在贵阳期间，考察团先后深入贵阳市城乡规划展览馆、国家大数据（贵州）综合试验区展示中心、贵阳公安块数据指挥中心、南明区社会治理综合服务中心、贵安国际绿色金融港展示大厅、中国电信云计算贵州信息园等处，详细了解贵阳市大数据产业发展、基层社会治理、绿色金融中心建设等情况。贵阳市围绕大数据产业发展，推动大数据与实体经济、乡村振兴、服务民生、社会治理深度融合的创新做法给考察团留下了深刻印象。', '考察团表示，近年来，贵阳市发挥自身优势，经济社会发展成就突出，特别是在大数据产业发展与应用方面走在全国前列，已经成为引领贵阳市乃至贵州省高质量发展的强力引擎。徐州市围绕大数据产业发展，着力发挥数据基础资源作用，大力推动数据共享，促进大数据产业与传统产业融合发展。我们将认真学习借鉴贵阳市在大数据产业发展与创新应用方面的好经验好做法，进一步解放思想、开阔视野，深入推进大数据与实体经济、社会治理、政务服务等领域的融合发展。希望双方进一步加强互动，深化交流，互学互鉴，共同开创两地合作发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>71</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>青海省兴海县代表团来丰考察</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020-11-02</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001001/20201102/1e973924-307e-43e3-84a4-797526900098.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['兴海县代表团一行先后来到数字经济产业园、汉羊牧业、君乐宝乳业、师寨镇党群服务中心、梦天机电等地参观考察，详细了解丰县在数字产业、实体经济、特色园区、改善生态环境、推动乡村振兴等方面的经验做法。', '数字丰县产业园目前已注册落户互联网、云计算、人工智能、平台经济、电子商务等相关企业46家，2019年实现开票营业收入5.8亿元、税收3800万元。2020年6月，丰县被江苏省工信厅评为“2019年江苏省大数据开放共享与应用实验区”。数字赋能、创新驱动，丰县将继续贯彻落实发展数字经济、建设智慧社会要求，充分发挥数字丰县产业园平台载体优势，努力打造县域经济和新型智慧城市建设丰县模式。', '兴海县考察团表示，丰县智慧城市建设思路清晰，成效凸显，走出了一条特色鲜明的智慧产业道路，充分体现了丰县县委县政府的创新精神和超前意识，这对星海县城市建设和社会治理起到了较好的借鉴作用。', '江苏君乐宝乳业有限公司是集种植、养殖、加工、研发于一体的农业产业化国家重点龙头企业，主营“君乐宝”系列乳制品，是一家一二三产业高度融合协调发展的现代化奶业公司，目前年生产量已经突破15万吨，年销售额超10亿元。考察团认为，我县通过挖掘资源、放大优势，积极发展绿色循环优质高效特色农业，君乐宝等农业龙头企业在丰县的蓬勃发展，为区域经济转型升级注入了新活力。', '丰县人大常委会主任杜亚峰对考察团的到来表示欢迎，并介绍了我县经济社会发展情况，表示丰县作为徐州市本届对口援建兴海县的队长单位，将认真按照上级部署要求，聚焦民生改善、人才培训交流与产业发展领域，与兴海广泛开展合作、努力实现共赢。', '兴海县县委常委、组织部部长马海山向丰县一年多来的对口援建表示感谢，对丰县城市面貌日新月异的变化、经济社会高质量发展的态势、干群干事创业的精气神给予高度评价。希望今后两地进一步密切交流，深化合作，实现优势互补、互利共赢，推动两地共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>71</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>密切两地交流合作增强帮扶能力水平</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2020-10-16</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20201016/cf4a6e6b-9203-49ee-92c7-c8d4cdf1d521.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['10月14日至15日，南通市老区发展促进会理事长秦厚德率队来我市考察学习。市委书记周铁根，市委常委、秘书长王强，市政协副主席王军，市老区发展促进会理事长、市扶贫开发协会理事长李荣启陪同。', '在徐期间，考察组走进金龙湖之窗、徐工矿业机械有限公司、江苏天科合达半导体有限公司，详细了解了我市大力培育战略性新兴产业、加快推动产业转型升级的情况，对取得的成绩给予高度评价。在金龙湖宕口公园、云龙湖综合改造工程等地，我市大力实施矿山治理和生态修复、全面推动生态转型的做法，给考察组留下了深刻的印象。来到铜山区野奢部落、汉王镇紫山村，优美的自然风光、整洁的人居环境，充满现代田园气息和厚重历史文化底蕴的乡村面貌令人振奋，活力四射的现代农业、文化旅游产业发展态势令人赞叹。考察组成员纷纷表示，徐州市在统筹推进农村人居环境整治、农民集中居住区建设、促进农民增收、推动乡村振兴等方面的经验做法值得学习借鉴，希望以此次考察为契机，进一步加深两地老区发展促进会经验交流。', '周铁根对考察组一行的到来表示了欢迎，并简要介绍了徐州经济社会发展情况。他说，近年来，徐州市坚持以贯彻落实习近平总书记视察徐州重要指示为主线，以推动高质量发展为主旋律，以建设淮海经济区中心城市为主抓手，大力推进产业转型、城市转型、生态转型、社会转型，扎实推动经济社会全面发展、全面进步，各项事业发展都取得了显著成绩，全面建成小康社会取得决定性进展。当前，全市上下正聚焦“两高两强”目标定位，自觉用新发展理念引领高质量发展实践，努力创造更多高质量发展的徐州经验典型，全力打造贯彻新发展理念的区域样板，加快建设“强富美高”新徐州。', '周铁根表示，希望两地老区发展促进会密切交流合作，充分发挥职能作用，不断提高帮扶困难群体的能力水平，为老区和贫困地区发展多办实事好事，积极为老区建设和扶贫工作出点子、想法子、找路子，为促进老区和经济欠发达地区加快发展增添新的动力。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>71</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>深化交流合作携手共促发展</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2020-09-14</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20200914/d1d62e8f-1b1a-43da-89ff-f82b06714828.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['9月10日，淮安市委副书记张国梁率淮安市党政代表团来徐考察。市委副书记徐大勇，副市长王维峰会见代表团一行并陪同考察。', '徐大勇对淮安市党政代表团的到来表示欢迎，并简要介绍了徐州经济社会发展情况。他说，徐州近年来大力践行新发展理念，城市发生了脱胎换骨的变化，初步走出一条具有徐州特色的振兴转型之路。淮安致力于围绕建设长三角北部重要中心城市，全力发展枢纽经济，很多好经验好做法值得徐州学习借鉴，希望双方进一步深化交流合作，在区域协调发展中不断拓展新空间，在促进优势互补中持续培育新动能，携手为江苏高质量发展作出新贡献。', '张国梁感谢徐州长期以来给予淮安发展的大力支持。他说，徐州坚持以推动高质量发展为主旋律，以建设淮海经济区中心城市为主抓手，全力打造贯彻新发展理念区域样板，开创了“强富美高”新徐州建设的新局面。希望学习借鉴徐州的好思路好经验好做法，进一步加强互通往来、强化优势互补，推动两市开展多层次、全方位交流合作，共同谱写合作发展的新篇章。', '在徐期间，代表团深入铜山区、贾汪区，实地考察学习了我市围绕建设全面小康、推进乡村振兴、发展富民特色产业等方面的经验和做法。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>71</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>丰县闸站管理处赴江都水利枢纽管理处考察学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2020-09-15</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001002/20200915/efa32dbc-c076-4728-9e56-d5724b136c56.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['9月9～10日，在徐州市水务局的组织下，丰县水务局党委委员、副主任科员刘卫东带领县闸管系统业务骨干近15人赴江都水利枢纽管理处学习闸站先进管理经验。', '此次考察主要围绕国家级水管单位精细化、智能化、系统化管理等方面进行学习。通过工作人员的精细讲解及对南水北调江都四站、万福闸、五星级档案室等实地考察，使在场人员对闸站管理标准化建设有了更深刻的认识。', '江都水利枢纽是江苏江水北调的第一级控制工程，它既是江苏省江水北调的龙头，也是国家南水北调东线工程的源头，集泄洪、灌溉、排涝、引水、通航、发电、改善生态环境等多项功能于一体，是目前我国乃至远东地区规模最大的电力排灌工程。', '丰县闸站管理处已先后成功创建李楼闸省一级水利管理单位及黄楼闸、华山闸、丰城闸、赵庄闸等4家省二级水利管理单位，在闸站管理方面取得了一定成绩。但管理工作无终点，考核创建无止境，通过此次考察学习让干部职工增长了见识，为提升县管水利工程规范化、精细化、常态化的奋斗目标提供了技术指引，更有效促进了全县闸站管理队伍的全面发展。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>71</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>携手深化合作实现共赢发展</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020-09-18</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20200918/bcf3d0c5-c6ec-4378-9e37-1642a2ac6069.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['周铁根陪同徐惠民等南通市党政代表团考察徐州经开区金龙湖科技创新谷。徐报融媒记者 徐剑 摄', '9月16日，南通市委书记、市人大常委会主任徐惠民率领党政代表团来徐考察，学习借鉴我市在传统产业转型、新兴产业培育、美丽乡村建设等方面的经验和做法，为两市深化交流合作、实现共赢发展注入新的活力动力。市委书记、市人大常委会主任周铁根，市委副书记、市长庄兆林陪同活动。', '在徐期间，代表团先后考察了金龙湖创新谷、江苏天拓半导体科技有限公司、天科合达碳化晶片项目、徐工矿业机械有限公司、协鑫鑫晶半导体大硅片项目、野奢部落、铜山区紫山村等处，我市依托科技创新改造提升传统产业、集聚资源要素培育发展新兴产业、聚焦宜居宜业推进美丽乡村建设的务实举措和显著成效，给代表团留下深刻的印象。', '周铁根在座谈交流时说，近年来，我市深入贯彻落实习近平总书记视察徐州重要指示精神，大力推进产业、城市、生态、社会“四大转型”，全市高新技术产业、战略性新兴产业和“四新经济”发展实现新突破，淮海经济区中心城市功能和品质显著提升，社会治理体系不断完善，开创了高质量发展新局面。当前，我市上下正深入践行新发展理念，聚焦实现“两高两强”，全力打造贯彻新发展理念区域样板。今年以来，南通克服新冠肺炎疫情影响，经济运行持续向好，各项工作取得显著成效，作为南通人，衷心为家乡发展取得的成绩感到高兴。今年6月，我率领徐州党政代表团赴南通考察，南通良好的发展态势、火热的发展氛围让我们深受感染，南通改革发展的宝贵经验值得我们学习借鉴。希望两市在产业协同、园区共建、乡村振兴等领域持续加强合作，携手在推动高质量发展征程中展现新作为、实现新突破。', '徐惠民对徐州长期以来对南通发展的支持表示感谢。他说，近年来，徐州全面推动产业转型、城市转型、生态转型和社会转型，经济社会发展取得的成绩让人震撼、令人敬佩，也让南通倍感压力、备受激励。特别是徐州在开发园区建设、龙头企业培育、建设美丽乡村、推进乡村振兴等方面的做法，值得南通认真学习借鉴。当前，南通正按照“全方位融入苏南、全方位对接上海、全方位推进高质量发展”的总体思路，奋力打造长三角一体化沪苏通核心三角强支点城市。徐州与南通一直以来都是志同道合的好兄弟、携手并进的好伙伴，希望两市加强交流交往，推动双方合作向全方位、深层次迈进，共同谱写优势互补、共赢发展的新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>71</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>贾汪区多措并举推进审批服务执法一体化平台建设</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001002/20200902/aa4f9013-20a0-4426-9e90-39da99b50980.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['为深入推进审批服务执法一体化平台建设，今年以来，贾汪区通过建立机制、深入调研、外出考察和试点先行等举措，全力推动我区“互联网+治理”工作。', '建立机制形成合力。建立党委政府全程、全面指导机制，乡镇（街道）严格落实一把手负责制，进一步明确分工、密切协调配合，形成群策群力、齐抓共管的整体合力。深入调研整体谋划。调研镇街网络平台情况，摸清镇街现使用平台情况以及开发单位。据调研区级部门以及镇街共28个系统有25个均为中国移动开发，需后期逐个对接一体化平台预留端口。外出考察求取真经。成立区委编办、大吴街道以及江苏有线贾汪分公司考察组赴昆山市周市镇考察学习，分别对其综合指挥中心和行政审批局进行现场调研，了解平台建设情况，为我区平台建设提供参考借鉴。试点先行逐步推进。确定大吴街道办事处和青山泉镇为一体化平台试点，先行探索建设一体化平台的样板区，而后全面开展平台建设实现镇街一体化平台全覆盖。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>71</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>淮安市党政代表团来贾考察</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20200911/466356bb-7aae-4ff6-bbee-f003bc27d1a7.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['9月10日，淮安市委副书记张国梁率党政代表团来贾考察经济社会发展情况。徐州市委副书记徐大勇，贾汪区委书记张克，区人大常委会主任朱连芹，副区长耿薇陪同。', '张国梁一行先后来到贾汪转型之路展馆、潘安湖采煤塌陷地综合整治工程、真旺村、马庄村等地，实地考察学习我区产业转型、生态修复、乡村振兴等工作。', '在贾汪转型之路展馆，张国梁一行认真听取了张克关于贾汪经济社会转型发展情况介绍。近年来，我区坚持以高质量贯彻落实习近平总书记视察贾汪重要指示为主线，在新发展理念指引下，围绕转型发展“大文章”， 大力实施“14610”行动计划，真抓实干，打基础、补短板、利长远，不断夯实高质量转型发展的产业基础，开创了资源枯竭城市经济高质量转型发展的崭新局面。张国梁对我区经济社会转型发展取得的成就给予高度赞扬，认为我区坚持生态优先，绿色发展，走出了一条资源枯竭城市转型发展的新路子，尤其在生态修复、产业转型、改善矿区群众生产生活等方面，亮点突出，成效明显，经验和做法值得学习借鉴。', '在真旺村，张国梁一行详细了解农村生活垃圾分类、生活污水处理、公共空间治理及村容村貌整治提升等情况。近年来，我区聚焦农村民生短板，按照“特色田园、美丽宜居、整治达标”三种类型，以“通、净、绿、亮”为标准，全面推进净化、绿化、亮化、硬化和美化，各镇村面貌焕然一新。张国梁对我区美丽乡村建设给予高度评价，认为我区因地制宜，突出特色，形成了“一村一景”“一村一韵”的独特画卷。', '在马庄村，张国梁一行实地参观了新时代文明实践站、村史馆、党员学习室、香包文化大院，详细了解马庄村历史变迁、精神文明建设、基层党建和乡村振兴等工作。多年来，马庄村坚持“文化立村、文化育人”，用先进的文化聚人心、领好路、谋发展，让百姓“富了”口袋，更“富了”脑袋，展现了新时代农民新风采和农村新风貌。张国梁希望两地加强沟通交流，相互学习、取长补短，共同推动经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>71</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>玉米再见辣椒你好</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001003/20200904/87fe367c-dfe9-4e53-9789-682a98406440.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['引导农民在有限的耕地上挖掘更大潜力，提高单位面积产量及效益，成为农民增收最现实的选择。近两年来，车辐山镇就提高土地复种指数、增加单位面积产量作了很多有益尝试，形成了蒜椒套作种植模式，经济效益十分可观。', '近日，记者来到车辐山镇红光村蒜椒套作基地看到，蒜地里套种的辣椒已进入收获期，一簇簇鲜红的朝天椒在绿叶映衬下，显得十分鲜艳，不少农户忙着采摘已经熟透的辣椒。村民衡敦洪采用蒜椒套作模式种了10亩地，今年大蒜每亩收入3000多元，加上辣椒收入，预计每亩收入达1万多元。衡敦洪开心地说：“红辣椒3元一斤，青辣椒3.5元一斤，预计一亩地辣椒纯收入6000多元，蒜椒套种模式好，比出去打工赚钱。”', '据了解，多年以来红光村都是采用大蒜套种玉米传统种植模式，大蒜价格不稳定，玉米利润又不高。近年来，车辐山镇坚持用工业化理念推动大蒜产业发展，通过新品种、新模式的推广，让大蒜地增效、蒜农增收。为了继续提升蒜农收益，去年红光村进行农业产业结构调整，通过土地流转形式将村民们土地集中起来统一管理，以辣椒代替玉米，打破传统种植模式。红光村党支部书记耿茏介绍，采取蒜椒套种模式，疏通沟渠铺好路，并请专业人员过来技术指导，跟大公司签下订单。目前，红光村蒜椒套种种植面积达285亩，明年准备扩大到500亩。', '同样，官厢村也尝到蒜椒套种模式甜头，通过外出考察学习，并立足于本村土壤特点，村里确定了适合本村种植的辣椒品种，还与大公司签订订单合同，首次发展蒜椒套种110亩。看着满地红彤彤的辣椒，官厢村党支部书记马运奎脸上露出了开心的笑容。“选择栽吨椒王，每亩种植八千到一万株，干辣椒10元一斤，1000多斤就是一万多元。首批流转100多亩地作为试验田，真正有效益了，明年带动大家一起种植，村里负责技术指导及销售，给农户解除后顾之忧。”', '车辐山镇今年有5个村采用蒜椒套种模式，种植面积达2000亩。车辐山镇农技中心主任邢东风表示：“辣椒亩产达4000斤左右，我们和老干妈集团签订订单合同，目前市场价格一斤鲜辣椒3元左右，到冬天干辣椒效益会更好。经过去年一年试验摸索，预计明年全镇种植规模能达10000亩左右。”']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>常州市委统战部来贾考察学习</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020-08-29</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20200829/7321a1fc-2fdb-4fde-bb0c-79addc200676.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['8月28日，常州市委统战部常务副部长章卫忠率队来贾考察学习党建及统战信息工作。市委统战部常务副部长吴彬，区委常委、统战部部长苗国庆陪同。', '章卫忠一行先后来到贾汪转型之路展馆、潘安湖采煤塌陷地治理工程、马庄村等地，实地考察我区经济社会转型发展、采煤塌陷区生态修复治理、党建工作、统战信息工作等。', '章卫忠对我区转型发展、生态修复治理、党建工作等方面取得的成绩给予高度评价，认为贾汪在党建、统战信息工作中采取的有效机制和办法，值得学习和借鉴，通过此次学习考察活动，进一步解放思想、深化交流、转化吸收，希望今后两地加强交流学习，共谋发展，实现共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>陕西省铜川市耀州区工商联来贾考察学习</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020-08-26</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001002/20200826/43b09ed9-64a9-4d80-aa86-331a3133be78.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['考察组一行先后来到大吴街道普洛斯项目一期、徐州双楼物流园区等地，听取相关负责人有关项目建设、运营以及双楼港航线、运输等情况介绍。', '长期工作中，铜川市耀州区工商联与贾汪区工商联一直保持密切联系，相互取长补短、资源共享，共同推进两地工商联工作。在此次考察交流中，铜川市耀州区工商联一行认为，贾汪区经济社会发展成效显著，工商联工作扎实，亮点纷呈，值得学习借鉴。', '考察学习中，双方还就两地商会互助等问题进行深入探讨交流。希望两地商会要经常性开展互访与交流，共同提高办会水平，推动两地交流合作取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>71</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>取真经补短板再出发张克率贾汪区党政代表团南下考察学习</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020-08-11</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20200811/4b4a8609-82e0-4019-920d-09c78bf2fa24.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['8月10日—11日，区委书记张克率贾汪区党政代表团赴南通、苏州、无锡三地考察学习。这是贯彻落实市委书记周铁根关于深入推进南北挂钩合作共建指示精神的具体行动，也是一次解放思想、开阔眼界的学习之行，更是一次对标先进、寻找差距的收获之旅。向三座城市学什么？怎么学？如何在比学赶超中狠抓落实，在争先进位中奋发向上，打造贯彻新发展理念贾汪样板，成为贾汪区党政代表团着重思考的课题。', '8月10日上午，张克率贾汪区党政代表团参观考察了通州区城市展览馆、雄邦压铸（南通）有限公司、江苏生益特种材料有限公司、上海展华电子（南通）有限公司、南通家纺城（川姜镇）等，学习考察通州区抢抓战略机遇、扩大双向开放、培育新兴产业等方面的宝贵经验。', '通州区位于江苏省东南部长江入海口北岸，东临黄海，南依长江，与苏州隔江相望，和上海灯火相邀，靠江、靠海、靠上海，被誉为“通江达海第一州”，区位优势得天独厚。全境面积1526平方公里。近年来，通州区以项目论英雄，持续深化“大项目突破年”活动，不断完善项目建设机制，招引一批投资强度高、技术含量高、带动能级高的重大产业项目，着力打造产业腹地、创新智谷、城市绿洲、幸福家园。2019年，该区实现地区生产总值1385.5亿元，增长6.1%；一般公共预算收入66.7亿元；城镇居民人均可支配收入52158元，增长8.4%；农村居民人均可支配收入25846元，增长8.5%，经济总量始终保持南通市第一。', '考察中，张克指出，贾汪和通州区相比还存在很大差距，要通过此次考察，找寻差距、深入思考、探索路径，变触动为行动、变压力为动力，以学促思、以思促行，把现场考察看到的发展态势、交流学习听到的发展真经、深入思考悟到的发展经验，转化为推动贾汪跨越赶超的行动自觉和实招硬招，以两地深化合作共建的过硬成果开创贾汪新阶段高质量转型发展的新局面。', '8月10日下午，张克率贾汪区党政代表团先后来到昆山市江苏天瑞仪器股份有限公司、昆山维信诺科技有限公司、昆山小核酸及生物医药产业园进行实地考察学习。近年来，昆山经济经历了“农转工”“内转外”“低转高”“散转聚”“大转强”五个发展转型阶段，产业走过了由小到大、到优、到强、到专的过程，但始终围绕着工业发展这条主线不动摇。昆山多年发展的经验，就是重招商，以“能招商、会招商、招外商”著称，是一座因“招商引资”而兴起的城市，昆山市的发展经验用8个字可以高度概括：“台资企业、外向经济”。眼下，昆山对资本、项目、人才的强劲吸引力没有因为疫情而减弱，相反，企业对昆山经济长期看好的信心、投资创业的热情丝毫未减，形成了签约一批、储备一批、建设一批、投运一批的良好局面，连续多年被国家统计局评为全国百强县之首。', '张克指出，干事创业精气神，是一座城市实现高质量发展最坚实的精神根基，全区上下要学习昆山干部干在先、想在前的创业、创新、创优精神，不断解放思想、转变观念、开拓创新，抓紧抓牢招商引资项目建设“生命线”，大力实施精准招商，强力推进项目建设，以实实在在、源源不断的大项目好项目，实现产业发展涅槃重生，再造一个“新贾汪”。', '8月11日，考察团还分别来到苏州高新区、无锡新吴区等地学习考察经济社会发展经验与做法。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>71</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>狠抓民生工程提升平台能力争当两带两轴六片区先行军</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020-08-17</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001003/20200817/120290a4-2417-4ed7-a577-5ea366a10743.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['为深入贯彻落实全会精神，戴圩街道结合实际，落实新思想，践行新理念，不断完善优化配套基础设施，提升承载能力，全面部署下半年任务，争当“两带两轴六片区”先行军。', '全会指出，要通过解放思想认清短板、找准路径，提升发展质量。戴圩街道深刻认识到创建全国文明城市是是推动城镇建设、改变社区风貌的重要契机，在创建全国文明城市工作中，不断加大基础设施建设，打造更加舒适的人居生活环境，同时多次召开会议，讨论街道创文的短板在哪里，解决问题的路径在何处。戴圩街道党工委书记周鹏说：“我们街道创文的短板主要是城乡接合部，前期基础设施投入不足，我们要痛下决心解决这个短板，通过加大农贸市场、社区、背街小巷各个创文点位的投入，建立长效机制，管理好、维护好，提高社区居民、各村群众文明意识。”', '在吴闸农贸市场，周鹏和市场管理人员、商户交流，详细了解改造升级后吴闸农贸市场的使用情况。前段时间，吴闸农贸市场建设与创文有一定差距，戴圩街道组织班子成员外出考察学习，邀请杭州设计院设计，利用一周时间，高标准打造吴闸农贸市场。“全会强调，坚持民生优先，深入排查和解决突出民生问题，让衣食住行、娱购游学，事事都能享受到优质高效的公共服务，绘就群众幸福生活的美丽图景。农贸市场要做到群众满意，摊主也满意，对此我们要长效保持下去。”周鹏说。', '党的根基在基层、力量在基层。全会要求，大力实施“党建+”工程，充分发挥党组织的战斗堡垒作用、党员干部的先锋模范作用，把党建优势转化为发展优势。戴圩街道在社区积极构建社区党组织、居委会、业委会和物业“四位一体”工作机制，夯实党建根基。金水杉小区物业成立了党支部，在今年初的抗击疫情工作中，配合社区表现得非常突出，获得居民们一致称赞。周鹏介绍：“我们从复转军人、大专以上学历的年轻人、派出所辅警以及愿意投身家乡建设的年轻人中选拔村工作人员和后备干部，建强基层队伍。目前三个村部改造计划全部启动，保证今年完成任务。”', '在电子产业园标准厂房建设现场，周鹏仔细查看工程进度。目前，标准化厂房主体已经封顶，正在做外墙保温工作，预计10月份主体完工。“抓项目就是抓发展，谋项目就是谋未来。全会要求，引培链主企业，打造产业航母。大力扶持工业园区建设，打造特色产业集群。在招商引资工作中，我们要作表率。通过努力，深圳瑞吉讯科技有限公司计划在园区投资5亿元上马集成电路封装项目，目前正在积极洽谈，近期可以落户电子产业园。”周鹏表示。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>71</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>淮安市涟水县党政代表团来贾考察</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020-08-07</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20200807/ebd63a0f-8ab9-49d1-878e-5b3165c0703c.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['8月6日，淮安市涟水县县委书记时勇率党政代表团来贾考察。徐州市委副书记徐大勇，贾汪区委书记张克，区委常委、统战部部长苗国庆陪同。', '时勇一行先后来到贾汪转型之路展馆、大吴街道小吴村以及潘安湖街道西大吴村、真旺村、马庄村等地，考察学习我区转型发展、新时代文明实践、农村人居环境整治等工作。', '时勇对我区经济社会转型发展取得的成就给予高度赞扬，认为我区农村人居环境整治工作亮点多，涌现一批特色田园村庄；新时代文明实践“十必联”工作法把服务送到群众身边，把矛盾化解在萌芽，拉近了干群距离；在乡村振兴中，注重发展香包等特色产业，既壮大了集体经济，又带动百姓增收致富，传承了非遗文化，促进了精神文明建设，贾汪经济社会转型发展的探索与经验值得涟水学习借鉴。', '张克介绍了我区经济社会转型发展情况，希望两地继续加强沟通交流，相互学习、取长补短，共同推动两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>71</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>盐城东台市党政代表团来贾考察学习农村人居环境整治工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-08-01</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20200801/202de86e-cbb9-491e-b6d1-15b342c77987.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['7月31日，盐城东台市委副书记、政法委书记许峰，副市长孙高明一行来贾考察学习农村人居环境整治工作。副区长耿薇陪同。许峰一行先后来到大吴街道小吴村以及潘安湖街道西大吴村、真旺村、马庄村，实地考察学习我区人居环境整治工作。考察中，许峰对贾汪人居环境整治工作取得的成绩给予充分肯定，认为我区农村人居环境整治工作经验值得学习推广。希望双方加强沟通交流，共促两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>71</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>寻标对标创新争先加快邳州工业经济发展</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-07-19</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20200719/793882e6-e4a2-43ae-b15f-50e3e9452a5f.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['7月17日，市委书记吴卫东，市委副书记、市长曹智率党政代表团赴徐州经开区、高新区考察，学习园区经济、产城融合发展、项目招商引资、优化营商环境等先进经验和做法，加快邳州工业经济发展。', '在徐州经开区党工委书记李淑侠，党工委副书记、管委会主任臧晓鹏的陪同下，我市党政代表团一行深入天科合达硅片项目、徐工矿机、开沃新能源、徐州综合保税区、淮海人力资源产业园、金龙湖之窗等地，大家一路走、一路看，一边思考、一边探讨。徐州经济技术开发区紧扣“建设现代化产业园区、奋力走在高质量发展前列”目标，大力发展高端装备与智能制造、新能源新材料、生物技术和新医药等中高端产业，同时依托金龙湖核心区，加快构建现代服务业体系，综合实力跃居国家级经开区第25位。为打造全国一流营商环境，徐州经开区营商环境系统集成改革，率先完成“六合”集成审批、实现“五零”快捷服务，新颖的理念，高效的服务，让代表团成员们备受启发。大家纷纷表示，回去之后将进一步解放思想、转变观念、寻标对标，加快邳州工业经济发展。', '在铜山区委副书记刘光明，铜山区委常委、徐州高新区党工委副书记、管委会常务副主任于帆陪同下，我市党政代表团先后考察了徐工消防、高端装备产业园、淮海生物医药产业、华录数据湖项目、国家安全科技产业园、苏宁智慧物流项目、奥创电子等地，听取了园区、企业发展情况介绍，就招商引资、人才引进、产业链发展、营商环境打造进行深入交流。徐州高新区为苏北地区首家国家级高新区，近年来围绕“建设国家一流高新区”目标，放大安全科技产业特色，做强高端装备制造、电子信息等主导产业，积极推动生物医药、汽车制造、安全应急三大产业集群集聚发展，实现综合实力持续攀升。当地干部群众以开阔的视野和专业化的能力，加强政策集成、搭建信息平台载体、以人才集聚和技术创新为引领，做大做强高新技术产业、全力打造新经济增长极的经验和做法，为我市推动工业经济发展提供了现实样板。我市党政代表团一致认为，徐州高新区企业多、规模大、科技含量高，是努力学习的标兵，将把当地强化科技创新、加快产业发展的新理念、新思路，灵活运用到各自实际工作中去。', '活动中，吴卫东指出，学习是为了更好地发展，在全市优化发展环境加快工业振兴大会召开之际，我们利用一天时间，组织党政代表团在徐州经开区、高新区考察学习，拓宽了视野和思路，所看项目点片密集，内容丰富，两个园区产业层次高、高端集群集聚，特色鲜明；发展理念新、路径办法新，平台载体强，竞争优势明显；营商环境优，干部作风优，营商环境位置凸显。通过寻标对标，倍感压力、倍受启迪、倍增干劲,更加坚定了加快发展的信心和决心。要用心学习、认真消化在园区管理、招商引资、科技创新、服务企业、优化营商环境等方面的先进理念和经验做法，以此次考察学习为契机，进一步解放思想、凝聚共识，创新争先，将考察学习成果转化为推动发展的创新做法和具体行动，为实施“工业立市、产业强市”发展战略，争当徐州打造贯彻新发展理念区域样板先行军做出新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>71</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>大吴街道总工会考察学习市级爱心母婴室建设</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2020-07-17</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001002/20200717/3aa397df-f8f1-4303-8f77-4aec95acf5c3.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['为做好徐州市总工会“当好娘家人·情暖职工心＂服务品牌创建活动，进一步提高对建设“爱心母婴室” 重要性的认识，把“爱心母婴室”建设作为一项长期性、持续性工作纳入工会全局工作之中，大吴街道总工会组织辖区企业工会参观市级授牌的“爱心母婴室”母婴室。', '爱心母婴室主要是为照顾哺乳期以及孕产妇设置的休息功能室，相对来说比较安全，布置温馨。此次走访了江庄纺织厂、中国移动和人民医院爱心母婴室，其母婴室除了配备基本的饮水机、空调、尿布台、温奶器、电源插座、垃圾桶等基本设施外，还增设冰箱、消毒柜等物品，能够解决许多年轻妈妈带着婴儿在出行中的难题。', '温馨的爱心母婴室，能更好地维护女职工合法权益，关爱女职工特殊时期的生活与工作。下一步，大吴街道总工会将在女职工较多的企业加大宣传，建设爱心母婴室。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>71</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>年度履行教育职责自评报告</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2020-06-28</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/govxxgk/01410330X/2020-06-28/aa2b05fa-1e54-4292-8ab4-b5a66e6928d2.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['2019年，新沂市人民政府以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大、十九届四中全会以及省、市教育工作会议精神，认真落实徐州市委、市政府“基础教育全面学南通，素质升学水平双提升”工作要求，牢牢抓住立德树人根本任务，坚持优先发展教育事业，加快教育现代化，办好人民满意的教育，各项工作均取得新突破。高考成绩再次攀升，本科上线率77.1%，位居徐州大市第一，本科增加人数、清北录取人数、中考成绩均居徐州各县（市）区第一。全国新教育实验区工作会议在新沂召开，“新沂经验”多次在全省基础教育工作会议、中国家长大会等大型教育会议上推出。新教育实验中，全国“十佳智慧校长”“十佳榜样教师”等多项荣誉同时花开新沂，45所学校荣获“全国新教育实验示范学校”或“优秀学校”称号。', '1.高度重视教育工作。成立市委教育工作领导小组，坚持和加强党对教育工作的全面领导，牢牢把握意识形态工作领导权、话语权和主动权。出台《关于深化教育体制机制改革支持教育优先发展的实施意见》，秉持经济社会发展规划优先安排教育项目，财政资金优先保障教育投入，公共资源优先满足教育需要，教育问题优先解决。把教育摆在民生之首，高规格召开全市教育发展大会，全面落实教育优先发展战略，为全市教育改革高质量发展描绘了远景蓝图、提供了强力保障。市委、市政府领导班子经常深入一线调研教育发展情况，定期召开专题会议研究教育工作，着力解决教育发展的困难和问题。', '2.全面加强党的建设。坚持党要管党，全面从严治党，不断深化教育系统党的思想、组织、作风、制度和反腐倡廉建设，结合实际制定“三重一大”决策制度、实施办法和议事决策制度，深入落实“三会一课”制度，加强党内监督，规范决策行为，提高决策水平，防范决策风险，确保正确行使权力，增强拒腐防变和抵御风险能力。进一步健全中小学校党组织管理体制，着力加强民办学校和校外培训机构党建工作，实现党组织全覆盖，不断提高教育系统党建科学化水平。及时调整任命学校党组织书记，新建校同步建立党支部，健全民办学校党支部组织机构，为校外培训机构选派党建工作指导员50人。', '3.健全完善督导机制。成立教育、财政、人社、编办、自然资源与规划、经发等部门为成员单位的新沂市人民政府教育督导委员会，负责指导全市教育督导工作。各部门履行教育职责分工明确、落实有力，及时向市政府提交履职报告。全面落实挂牌督导包干制度，全市学校划分为8个片区，选聘市专职督学13人，责任督学42人，每校确定1名联络员，先后对师资建设、图书管理等方面进行了专项督导。同时建立健全责任督学教育督导公告、约谈、奖惩、限期整改等制度，强化督导结果运用。', '1.全力维护教育系统安全稳定。一是严格执行安全督查制度。采取“四不两直”形式，对全市200余所学校的常规安全管理、校内食品卫生及食堂管理、夜间值班、校园周边环境治理等情况进行督查，形成23期《教育安全督报》《教育安全预警》《维稳督报》。二是不断完善“四防”建设。安保人员配备数量充足、学校警务室标识、制度统一、物防器械配备足额到位、校园技防设施先进且能正常使用。设立50万元安全奖励基金，投入800余万元，配足配齐安防“七小件”、校门口“360监控系统”等软硬件设施。三是强化安全常规管理。开展校园和校车安全专项整治，强化学生安全常规教育，全市校园学生意外伤害事故率大幅下降，学生溺亡率同比下降80%、非正常死亡率同比下降70%。全力推进“雪亮工程”“明厨亮灶”“阳光食堂”等校园食品安全项目建设，全年共创建省健康促进学校金奖2所、银奖8所、铜奖24所，在徐州率先建成“江苏省平安校园建设示范县（市）区”。', '2.全面落实立德树人根本任务。一是健全完善德育工作机制，通过课程育人、文化育人、活动育人、实践育人、管理育人和协同育人等多种途径深入开展理想信念教育、社会主义核心价值观教育、中华优秀传统文化教育、生态文明教育和心理健康教育工作。二是开足开齐各级各类课程。严格执行省关于中小学开足开齐各类课程的规定，出台《关于开展全市中小学违规办学行为专项治理工作的实施意见》等文件，开齐开足课程、切实减轻学生过重课业负担。三是全面推进素质教育。擦亮德育品牌，棋盘中学获批立项徐州市中小学品格提升工程；深入推动课程基地建设，邵店中心小学成功立项徐州市小学特色文化项目；第四中学、八一实验学校成功创建徐州市初中质量提升工程项目。常态化推进读书节、科技节、体育节、艺术节“四大节庆活动”，北沟小学、瓦窑小学等6所学校创成全国校园足球特色学校；新安幼儿园、城关小学等10所学校（园）创成省体育特色学校；新安中心小学花样跳绳队、邵店小学柳琴戏先后登上央视舞台，新沂素质教育知名度和影响力不断提升。', '3.有效化解教育热点难点问题。一是化解大班额。新建北京路小学、人民路小学、芳草地小学、城东小学、新安小学一分部、第三中学和机关园分园等7所整建制学校，改扩建马陵山中心小学等7个工程建成投入使用，新增小学班级270个、学位1.2万个，新增高中班级105个、学位5250个，有效解决了大班额、大校额问题。二是规范招生行为。出台《新沂市2019年义务教育学校招生工作意见》（新教〔2019〕51号），执行义务教育公民同招的政策，建立考核机制，严肃查处各级各类学校招生入学中违纪违规行为。三是加强校外培训机构专项整治。成立联合专项整治小组，出动11次共1500人次，排摸校外培训机构310家，查出需要整治培训机构60家，2019年12月底已经全部完成整治工作，并公布了“白名单”。', '4.不断优化管理体制机制。一是深入推进教育管办评分离改革。制定《新沂市推进教育管办评分离工作实施方案》，围绕构建政府、学校、社会之间新型关系、完善教育公共治理的新格局，推动了教育事业健康发展。完善教职工大会或教职工代表大会制度，保障教职员工民主参与管理和决策的权力。二是促进城乡教育优质均衡发展。印发《新沂市政府关于统筹推进城乡义务教育一体化促进优质均衡发展的若干意见》，全力推进义务教育学校优质均衡发展。2019年省义务教育现代化监测达标23项，完成率71.9%，较前一年增长6.3%，监测综合得分高于年度规划目标。实验学校、城东小学等12所学校建成省义务教育现代化标准学校，全市标准化学校完成率达95.9%，在徐州市处于领先水平。三是推进职业教育产教融合。加大校企合作、校企交流力度，中专校与高新区医疗装备产业园等6家公司研讨签订订单式培养方案；与经开区维尤纳特等企业合作办学。积极开展“产教融合本土名企行”系列活动，组织师生走进企业考察学习和实践实习。成功创建省级专业群1个、实训基地1个，省现代化示范性职业学校创建顺利通过网评，我市职业教育从“数量追赶期”转入“质量提升期”。', '1.全面落实经费保障机制。不断提高农村义务教育学校公用经费保障水平，加大对义务教育的投入，完善城乡一体化的义务教育发展机制，经费投入重点向农村义务教育和小规模学校倾斜。结合本地区教育发展需求和物价变动等实际，按照不低于省定基准定额的要求，确定本地区义务教育学校生均公用经费财政拨款标准，并建立动态调整机制。经费使用进一步向薄弱地区、薄弱学校和薄弱环节倾斜，向教育改革发展重点难点问题倾斜，同时不断加大学前教育、高中教育、中等职业教育的投入，统筹推进社区教育改革创新。', '4.突出加强师资队伍建设。一是完善义务教育教师管理。出台《新沂市义务教育学校教师“县管校聘”管理体制改革的实施意见（试行）》，进行教师交流轮岗，盘活教师存量、提高教学质量、增加教师总量。积极引导优秀教师向乡村偏远学校、薄弱学校流动，并使教师“下得去”、“留得住”、“教得好”。二是健全教师补充机制。按照各学校生源数情况，重新核定全市中小学教职工编制数，招聘新教师708人，选调外市新沂籍教师58人，招聘劳务派遣教师865人，校长、教师交流轮岗587人。招聘岗位涵盖中小学、幼儿园所有学科教师，及时补充自然减员空编教师，在一定程度上缓解了我市教师不足的问题。三是加强师德师风建设。制订《新沂市新时代中小学教师职业行为十项准则》，出台《关于禁止在职教师从事有偿家教的若干规定》，成立了在职教师有偿补课专项整治领导小组，认真做好有偿补课专项治理工作，师德师风建设水平全面提升。姚松、冷学宝、王保强3人被评为正高级教师，郭振京、陈晓慧两位校长分别获评徐州市“最具影响力校长”和“年度校长人物”，35人入选徐州市“三师工程”。', '1.进一步提高学前教育覆盖率。一是提高普惠性幼儿园覆盖率。对提出申请举办为普惠性幼儿园的民办幼儿园,由教育、财政、经济发展（物价）等部门共同做好普惠性幼儿园认定工作，市政府与其签订授权委托协议书，正式认定为普惠性民办幼儿园。全市105所幼儿园中，公办园49所，普惠性民办园25所，普惠性幼儿园在园幼儿覆盖率为87.83%。二是做好看护点清理工作。按照“统筹规划、合理布局、规范管理、依法取缔”的工作思路，通过重新调整服务区、鼓励多元办园、盘活闲置校舍、对标创建合格园等方式，统筹推进幼儿园建设和看护点清理整顿工作，全年关停看护点48个、整改提升11所，任务完成情况居徐州各县（市）区前列。三是不断扩大优质学前教育资源。高流程徐、新安嶂苍2所公办园和唐店春晓、红枫家园等5所民办园成功创建省优质园；阿湖双池、机关园分园2所公办园和辰华蓝天、草桥启蒙等7所民办园成功创建徐州市优质园；唐店中心园（共建园）、小湖中心园（项目园）创建成徐州市课程游戏化项目1个。', '2.进一步提升义务教育质量。一是计划引领，督查跟进，指导到校。组织各学科研训员采取包挂学校的方式，每位研训员包挂2-4所学校，每周1-2次进校指导，深入学校课堂，通过听课、检查备课资料、调查学生和教师等方式，规范教师的教学行为。二是目标引领，数据说话，精准帮扶。科学规范的检测流程，挖掘每次调研数据，从数据中找到原因，发现问题并提出整改建议。三是措施引领，人文关怀，家校共育。组织各学段优质课评选，教学先进个人评选，组织青年教师基本功大赛，搭建教师成长平台。省义务教育质量监测每两年举行一次，2018年我市小学合格率99%，高中学业合格率99.5%，均超过省95%的目标要求。录播《家长大讲堂》节目107期，点击量近3亿人次，《构建“知行合一”的区域推进家校共育生态系统研究》获批省教育科学“十三五”规划课题。', '3.进一步促进学校卫生健康。一是加强中小学生的体质健康监测和近视综合防控工作。扎实推行学校的体检和“防近”工作开展；每年对中小学生进行4次视力筛查和1次健康体检，我市中小学生的体质健康标准合格率达到95%以上。二是标准化学校卫生室的创建工作。管理上做到“教、管、防”的统一，全市中小学校卫生室（保健室）的建设率达100%。三是加强学生心理健康监测。认真落实《关于全面加强徐州市中小学心理健康教育的实施意见》（徐教基〔2018〕63号），优化中小学生心理健康服务，促进中小学生良好心理素质的养成。2019年底，全市各级各类学校全部建有心理辅导室，心理健康教育活动内容丰富、形式多样，中小学心理健康状况监测合格率100%。', '回顾过去的一年，我市的教育工作取得了一些成绩，但与周边乃至南通、苏南等先进地区相比，新沂在教育质量、育人模式、师资保障等方面还存在着一定的差距。下一步，我市将继续以收官战的坚定决心、追梦人的责任担当、奋斗者的务实作风，撸起袖子加油干，甩开膀子加速跑，把工作做得更细致，把短板补得更扎实，把基础打得更牢固，加快树立教育“新沂高度”、跑出教育“新沂速度”、彰显教育“新沂亮度”、提升教育“新沂温度”，奋力开创新沂教育事业高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>71</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>江西省寻乌县来贾考察学习新时代文明实践中心建设工作</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2020-07-07</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20200707/587ebd21-d31f-4952-bb46-4dc43b98848b.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['7月5日至6日，江西省赣州市政协副主席、寻乌县委书记柯岩松率队来贾考察学习新时代文明实践中心建设工作。区委副书记李圣东，区委常委、宣传部部长丁思英陪同。', '柯岩松一行先后来到贾汪区新时代文明实践中心、贾汪转型之路展馆、马庄村新时代文明实践站以及大泉新时代文明实践所等地，详细了解我区新时代文明实践中心（所、站、点）的功能设置、人员配置、工作机制、品牌特色、平台运行以及群众文化活动开展等情况。', '目前，我区共计建成新时代文明实践中心1个、文明实践所12个、文明实践站134个、文明实践点300个，初步形成四级阵地网络。工作中，坚持“贴近群众需求，在服务群众中引导和凝聚群众”的工作理念，逐步探索形成“5453”新时代文明实践工作模式，初步形成一批可操作的工作制度，有力推动新时代文明实践各项工作更加聚人气、接地气、有活力、可持续。', '柯岩松对我区在新时代文明实践工作上的积极探索给予高度评价，认为我区把文明实践活动与百姓需求紧密结合，充分发挥志愿者的主体力量，切实有效地帮助和带动群众，形成了新时代文明实践工作特有的“贾汪模式”，成功的经验做法值得学习借鉴。希望今后两地加强沟通，继续深入交流，促进两地新时代文明实践工作取得新进展、新突破。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>71</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>实现全方位合作共促高质量发展</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2020-06-17</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20200617/891236b2-f334-4e4c-bd48-8ed2dcc27a2e.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['6月10日至12日，市委书记、市人大常委会主任周铁根，市委副书记、市长庄兆林率领徐州党政代表团赴南通考察，学习借鉴南通抢抓战略机遇、扩大双向开放、培育新兴产业等方面的经验和做法，两市签订县（市）区合作共建协议，为促进县（市）区合作发展、全面进步注入活力动力。南通市委书记、市人大常委会主任徐惠民，市委副书记、市长王晖陪同活动。', '周铁根庄兆林王安顺等考察南通市如皋江苏力星通用钢球股份有限公司。徐报融媒记者 徐剑 摄', '在南通期间，代表团一行先后考察了南通创新区、中远海运川崎船舶工程有限公司、五山及沿江地区生态修复工程，并深入如东县、如皋市、海安市，进园区、走企业、看项目、访社区，大家一路上边听边看边思考、相互讨论促学习，南通扩大双向开放、强化科技创新、加快产业转型的新理念新成就，特别是如东、如皋、海安三地立足优势集聚资源、大力发展特色产业、提升区域经济实力的思路和举措，以及干部群众敢为人先、真抓实干的精神风貌，给代表团留下深刻印象。在随后举行的座谈会上，新沂市与海安市、丰县与如皋市、邳州市与如东县、睢宁县与海门市、沛县与启东市、贾汪区与通州区签订合作共建协议，双方将在产业承接、园区共建、城镇建设、科技创新、乡村振兴等领域对接合作。 徐惠民说，徐州区位优势突出、城市特色鲜明、历史文化悠久，是辐射带动力强、综合实力强的区域性中心城市。近年来，徐州产业转型决心大、力度大，城市转型理念新、思路新，生态转型亮点多、经验多，社会转型举措实、成效实，走出了一条具有时代特征和自身特色的高质量发展之路。徐州与南通一直以来都是志同道合的好兄弟、携手并进的好伙伴，两市同为开放门户，在全省开放发展大局中都承担着重大使命；同为区域龙头，在区域协调发展中都在加快打造新增长极；同为交通枢纽，在交通强省建设中都扮演着重要角色。希望两市携手合作，认真落实国家战略和省委部署，不断深化重点区域、重点领域的合作，共同打造产业双向互动、协同发展的战略联盟，共同打造板块合作共建、联动发展的黄金组合，共同打造交流交往密切、融合发展的亲密伙伴，携手在高质量发展进程中铸就新辉煌、绽放新光彩。 周铁根说，南通是我的家乡，我曾在这里生活和工作多年，对这片土地充满感情，带队来这里考察心情非常激动。南通近年来经济社会发展取得显著成绩，产业转型升级持续推进，高新技术产业不断壮大，新的经济增长点和增长极加速形成，城市环境面貌越来越美，各级干部干事创业的“狼性”精神劲头十足，很多改革发展的宝贵经验，值得徐州认真学习借鉴。近年来，我市坚持以贯彻落实习近平总书记视察徐州重要指示为主线，以推动高质量发展为主旋律，以建设淮海经济区中心城市为主抓手，大力推进产业、城市、生态、社会“四大转型”，经济社会发展呈现良好态势。当前，我市上下正深入践行新发展理念，聚焦实现“两高两强”，全力打造贯彻新发展理念区域样板，奋力答好推动高质量发展的“徐州考卷”。此次双方签订县（市）区合作共建协议，必将推动徐通合作向全方位、多层次迈进。希望两市以此为契机，进一步深化产业协同发展、园区合作建设、社会事业共建和人文交流交往，携手开创高质量发展的美好明天。 徐州市政协主席王安顺，市委常委、常务副市长王剑锋，市委常委、秘书长王强，市人大常委会常务副主任张赴宁，副市长赵立群、王维峰；南通市政协主席黄巍东，市人大常委会常务副主任庄中秋，市委副书记、统战部部长沈雷，市委常委、常务副市长单晓鸣，市委常委、政法委书记姜永华，市委常委、秘书长吴永宏，市人大常委会副主任陈惠娟、葛玉琴，副市长姜东、潘建华等参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>71</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>青海省兴海县党政代表团来丰参观考察</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2020-06-09</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001001/20200609/1dd8be5a-e952-4c57-8f4c-b34634152206.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['6月7日，青海省海南州副州长、兴海县县委书记张生彪带领兴海县党政代表团来丰参观考察。', '在县委书记娄海的陪同下，代表团一行先后考察数字经济产业园、江苏君乐宝乳业、巨杰机电、电动车产业园、丰县中等专业学校、大沙河国家湿地公园、大沙河水岳人家、盛世梨园、润丰湖花海等地，了解我县发展数字产业、实体经济、特色园区、改善生态环境、推动乡村振兴等方面的经验做法。', '去年以来，我县正视发展状况、保持战略定力、坚定发展信心，明确了“工业立县、产业强县”发展战略，加快建设苏鲁豫皖接壤地区产业、创新创业、商贸物流、文化旅游、教育医疗五个高地，全力推进大产业、大交通、大水利、大生态、大民生等五大类58项振兴丰县重点提升和突破工程，布局了一批打基础、利长远的工作，全县发展站在全新起点、步入全新阶段。', '娄海对张生彪等一行的到来表示热烈欢迎。娄海表示，对口支援海南州是一项必须完成的政治任务，也是实现两地优势互补、加强交流合作的有利契机。丰县作为徐州市本届对口援建海南州的队长单位，更是义不容辞、责无旁贷。娄海强调，丰县将认真按照上级部署要求，聚焦民生改善、人才培训交流与产业发展领域，与兴海广泛开展合作、努力实现共赢，以更大力度推进项目落实，以更高标准做好对口支援工作，努力推动对口援青工作走在前列。', '张生彪向丰县一年多来的对口援建表示感谢，对丰县城市面貌日新月异的变化、经济社会高质量发展的态势、干群干事创业的精气神给予高度评价。他指出，徐州市、丰县对口支援青海省海南州和兴海县以来，做了大量卓有成效的工作，为推动当地经济社会发展作出了突出贡献。', '张生彪表示，将以此次考察学习为动力，切实把丰县经济发展、城市建设、民生改善等工作，特别是推进乡村振兴、打造生态环境等方面的好经验、好做法学深悟透，真正运用到具体工作之中。希望两地继续深化对口援建，在推进生态保护、乡村振兴、绿色产业发展和做强实体经济等方面，进行多层面、多维度深入交流，共同谱写合作发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>71</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>丰县医保局三项举措稳步推进长期护理保险工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2020-05-20</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/govxxgk/01407968-8/2020-05-20/e50fdb9a-3b79-4208-852d-cffe1efb6b8d.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['为建立多层次的社会保障体系，切实解决重度失能人员的长期护理服务问题， 2019年11月丰县出台《县政府办公室关于开展长期护理保险工作的实施意见》（丰政办发〔2019〕47号）,自2020年1月1日按“先职工后居民”的原则运行。', '一是统筹谋划，建立健全政策体系。为确保长护基金安全有效管理和运行，通过考察学习，综合学习外地的先进做法，吸取他们的经验教训，发展完善我县相关制度。通过多次讨论出台了以下几个配套文件：《丰县长期护理保险协议长护服务机构管理办法（试行）》、《丰县长期护理保险协议长护服务机构管理办法（试行）》和《关于丰县长期护理保险居家长护服务的意见（试行）》。配套文件从资金安排、待遇标准、结算流程、长效管理等方面，形成了较为完备的长期护理保险制度体系。', '二是多措并举，持续加大宣传力度。为进一步推动我县长护险政策落地，切实提升政策的普惠度和群众的获得感，县医保中心全面开展长护险政策集中宣传活动。通过入户调查、社区蹲点、见缝插针式宣传，确保工作取得实效。', '三是创新理念，有序推进评估服务工作。在县行政服务中心开设长护保险服务窗口，负责失能人员鉴定申请材料受理、初审及整理工作，首批申报截止，共计受理了长期护理保险失能评定材料92份。为了切实保障重度失能人员权益，按照公开、公正、透明的原则，特委托第三方评估机构于5月7日—5月15日完成了首批失能等级评估工作。后期评估人员按照失能等级评估标准的内容进行逐项评分，评分内容分成基本生活活动能力、认知和行为能力、视听觉和交流能力以及特殊情况四个方面，细化成进食、洗澡、穿衣、如厕、上下楼梯等六大项二十二个指标。除4人在院期间未能进行评估鉴定；分别对88人进行了打分，符合重度失能人员71人和不符合重度失能人员17人。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>71</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>深化对口支援促进共同发展</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2020-06-04</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/001/001001/20200604/d58deb82-d84d-4e54-a48b-8350e497fae2.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['6月1日至6月2日，青海省政协副主席、海南藏族自治州委书记张文魁带领党政代表团来徐考察。市委书记、市人大常委会主任周铁根，市委副书记、市长庄兆林等陪同活动。', '在徐期间，代表团一行先后考察了徐州市规划馆、徐州重型机械有限公司、潘安湖生态整治修复工程、潘安湖街道马庄村、淮海战役烈士纪念塔（馆）、云龙湖综合改造工程、汉王镇紫山村、徐州国家安全科技产业园等地，考察了解我市发展实体经济、推进科技创新、建设中心城市、改善生态环境、推动乡村振兴等方面的思路和举措。', '周铁根代表市委、市政府对海南州党政代表团来访表示热烈欢迎。他说，近年来，徐州坚持以贯彻落实习近平总书记视察徐州重要指示为主线，以推动高质量发展为主旋律，以建设淮海经济区中心城市为主抓手，着力构建现代产业体系，加快推进中心城市建设，持续提升社会治理能力和水平，努力推动经济社会全面发展全面进步。当前，全市上下正围绕打造贯彻新发展理念的区域样板，聚焦实现“两高两强”，坚持问题导向、锐意改革突破，进一步补短板、强弱项、增优势,奋力答好贯彻新发展理念、推动高质量发展的“徐州考卷”。做好对口援青工作既是一项政治任务，也是两地优势互补、加强合作的有利契机。徐州将按照党中央和省委、省政府的部署要求，聚焦民生改善、产业发展、合作共赢，以更大力度推进项目建设，以更高标准做好对口支援工作，努力推动对口支援工作走在前列。', '张文魁对徐州市长期以来的对口援建工作表示感谢。他说，江苏省对口支援青海省海南州以来，对海南州经济发展、繁荣稳定给予了很大的帮助。特别是徐州落实项目、选派人才对口支援兴海县，为推动兴海县发展经济、改善民生作出了突出贡献。徐州近年来经济社会发展取得显著成绩，得益于市委市政府立足当前、放眼全局的战略思维和统筹部署，靠的是广大干部群众担当作为、真抓实干的恒心毅力和韧劲拼劲。我们将以此次考察学习为契机，切实把徐州经济发展、城市建设、民生改善特别是推进乡村振兴、建设美丽乡村等方面的宝贵经验学深悟透、消化吸收，真正落到具体工作举措中。希望两地继续深化对口援建，持续加强交流交往，共同谱写合作发展的新篇章。', '徐州市委副书记徐大勇，市委常委、常务副市长王剑锋，市委常委、秘书长王强，市委常委、组织部部长季培东，副市长王维峰；海南州委常委陈鸿林，州委常委、副州长、江苏援青前方指挥部总指挥陈明，州委常委、秘书长史长智，州人大常委会副主任才让太，副州长张生彪、独金萍等参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>71</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>徐州市媒体融合案例交流座谈会在邳召开</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020-06-04</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001002/20200604/b1b63e4c-86f0-478f-b000-9bc742ec712a.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['6月2日，徐州市媒体融合案例交流座谈会在邳召开。徐州市文化广电和旅游局及徐州五县两区融媒体中心负责人参加会议。', '会议听取了邳州银杏融媒获奖典型融媒案例汇报，就如何完善媒体平台建设、更好推进媒体融合发展等进行了深入交流。会议要求，各单位要认真组织好2020年江苏省广播电视媒体融合优秀案例评选活动上报工作，创新媒体融合工作思路、举措，着力推动徐州媒体融合工作向纵深发展。', '据了解，自2015年邳州广播电视台启动融媒改革以来，以移动优先为要、内容创新为本、“融媒+”体系为核，锁定“内部深融、跨界互融、区域共融”目标定位，形成“银杏融媒智慧港”、“银杏融媒学院”、“银杏融创共享联盟”三驾马车并驾齐驱，全力构建全程、全息、全员、全效“四全”新型主流媒体，不断增强融媒传播力、提升融媒引导力、深化融媒服务力。', '会前，与会人员还深入邳州银杏融媒新闻采访中心、融媒体指挥调度中心等处，实地考察学习我市在推进媒体深度融合、加快融媒体平台建设等方面的创新做法。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>71</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>关于开展贾汪区三师工程和教坛新秀评选工作的通知</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2020-05-11</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/govxxgk/jwq_bgs/2020-05-11/ca0f43ee-7fe5-4363-b632-8a3f6ff46d0e.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为落实国家、省、市关于全面深化新时代教师队伍建设改革实施意见精神，着力建设新时代高素质专业化创新型教师队伍，充分发挥名优教师的示范引领作用，经研究,决定评选贾汪区 “领军名师、带头优师、青年良师”(以下简称“三师工程”)和教坛新秀。具体评选事项通知如下：', '区少年宫，现在职在岗一线教师及教师发展中心从事教育教学研究工作的教育工作者。支教人员在编制所在单位申报，并由编制所在单位评审推荐，借用到其他中小学、幼儿园及其他教', '2.获得“江苏人民教育家工程培养对象”、“江苏省特级教师”称号人员不再参加评选。已取得过市级及以上“三师工程”系列荣誉称号且在任期内的不再申报同类称号。', '3.近 5 年获江苏省基本功大赛三等奖及以上教师申报领航名师，或获徐州市基本功大赛二等奖及以上教师申报带头优师，不受名额限制。', '各单位在推荐过程中应注意学段、学科分布，并向一线优秀教师倾斜，向乡村学校教师倾斜。正校级人员参加“三师工程”系列申报，必须担任所申报学科教学工作并达到规定课时量(不少于同学科标准授课时数的 1/4)，副校级人员必须担任所申报学科教学工作并达到规定课时量(不少于同学科标准授课时数的 1/3)，且每学年听课不少于 40 节；中层管理人员(少先队大队辅导员)的教学工作量不少于同学科普通教师任课量的 1/2，且每学年听课不少于 20 节,可作为普通教师推荐。', '曾获得区“名教师、学科带头人、青年优秀骨干教师”称号的教师可以对照条件重新申报区“领军名师、带头优师、青年良师”称号。原“贾汪区名教师”参照“贾汪区领军名师”；“贾汪区学科带头人”参照“贾汪区带头优师”；“贾', '师应具备大学本科及以上学历。已获得教育硕士学位或其他教育类专业硕士及以上学位的，视同满足以上学历条件要求，具备申报学段合格教师资格。', '业道德行为处理办法(2018 修订)》)、《教育部关于印发&lt;新时代高校教师职业行为十项准则&gt;&lt;新时代中小学教师职业行为十项准则&gt;&lt;新时代幼儿园教师职业行为十项准则&gt;的通知》(教', '符合基本条件，距离退休年限超过 3 年，具有中小学高级教师任职资格（乡村学校教师具备中小学一级教师任职资格 5', '课堂教学改革，教改成果显著；教学质量考核优秀，学科教学水平区内领先，学生满意度测评在 90%以上。', '业学校教师获市级技能大赛银牌(省级技能大赛铜牌)及以上或职业学校“两课评比”市级研究课及以上或职业学校教学大赛市级二等奖(省级三等奖)及以上。近 5 年来，开设不少于 3', '次区级及以上讲座、公开课、示范课并获得好评；教育教学研究人员承担不少于 8 次区级及以上公开课、示范课、专题讲座并获得好评(其中至少 2 次大市级及以上)。', '发表过 3 篇以上本学科专业研究论文（其中省级及以上不少于一篇，乡村学校教师省级以上论文篇数不做要求)；主持或作为课题组核心成员参加区级以上教科研课题并已结题。教育教学研究机构中的教科研人员需作为第一作者在省级及以上学术刊物上公开发表有较高指导作用和应用价值的本学科专业学术论文 4 篇以上（其中至少一篇为核心刊物发表）；主持或作为课题组核心成员参加市级以上教科研课题并已结题。', '各类学术或专业委员会和教科研工作中发挥作用，有较强的影响力。近 5 年来指导培养青年教师效果良好，且至少有 2 人获得市级及以上教学、科研、竞赛等方面的奖项。', '符合基本条件，距离退休年限超过 5 年，具有中小学一级教师任职资格已满 3 年，且具备以下条件者可申报贾汪区带头优师。', '1.近 10 年来，曾获区级及以上综合奖励或单项表彰奖励，或近 5 年年度考核等次均达到合格且至少有一次为优秀。', '课堂教学改革，教改成果显著；教学质量考核优秀，学科教学水平在学校领先，学生满意度测评在 90%以上。', '优课二等奖或教学基本功竞赛三等奖及以上奖励，职业学校教师获市级技能大赛铜牌及以上或职业学校“两课评比”市级研究课及以上或职业学校教学大赛市级三等奖及以上。近 5 年来，开设不少于 5 次校级及以上讲座、公开课、示范课并获得好评；教育教学研究人员承担不少于 5 次区级及以上公开课、示范课、专题讲座并获得好评。', '5.近 5 年来，作为第一作者在区级及以上学术刊物上公开发表过 2 篇以上本学科专业研究论文（其中市级及以上不少于一篇，乡村学校教师市级以上论文篇数不做要求）。教育教学研究机构中的教科研人员需作为第一作者在市级及以上学术刊物上公开发表有较高指导作用和应用价值的本学科专业学术论文 4 篇以上，主持或参与区级以上教育行政部门立项的教科研课题并已结题。', '年来指导培养青年教师效果良好，且至少有 2 人获得区级及以上教学、科研、竞赛等方面的奖项。', '符合基本条件，年龄在 45 周岁以下，具有中小学一级教师任职资格，且符合以下条件者可申报贾汪区青年良师。', '1.近 10 年，曾获镇级（直管学校为校级）及以上综合奖励，或近 5 年年度考核等次均达到合格。', '优课三等奖及以上奖励，职业学校教师获市级技能大赛铜牌及以上或职业学校“两课评比”市级研究课三等奖及以上。近 5', '得好评；教育教学研究人员承担不少于 4 次区级及以上公开课、示范课、专题讲座并获得好评。', '发表过 1 篇以上本学科专业研究论文(乡村学校教师不做要求，但至少撰写 2 篇以上教研论文或教育教学案例或教育教学经验总结，在校级及以上交流、获奖。)。教育教学研究机构中的教科研人员需作为第一作者在市级及以上学术刊物上公开发表有较高指导作用和应用价值的本学科专业学术论文 3 篇以上，主持或参与区级以上教育行政部门立项的教科研课题并已结题。', '符合基本条件，年龄在 35 周岁以下，在我区具有 3 年以上教龄，具有中小学二级教师以上任职资格（研究生学历职称不作要求），且符合以下条件者可申报贾汪区教坛新秀。', '3. 工作态度好，工作能力强，在工作量、班级管理和学科教学水平等方面，能在青年教师中发挥骨干作用，教学质量考核优秀，学科教学水平在学校领先（教学质量在本学科中名列', '物上公开发表过本学科专业研究论文，或获区级及以上学科专业论文评比二等奖及以上。乡村学校教师发表论文不作要求，但在我区任教以来，至少撰写 1 篇以上教研论文或教育教学案例或教育教学经验总结，在校级及以上交流、获奖。', '青年良师和教坛新秀的评选，由个人申报，直管学校（教育中心校）在分配名额内评审，区教育局审核、命名表彰；区领军名师、带头优师的评选由直管学校（教育中心校）推荐，区教育局评审、命名表彰。', '人述职、材料审核、民主测评、组织推荐等方式，对照评审条件综合考核申报人的思想政治表现、教育教学及科研水平并做出书面评价意见。公开述职和教师测评一般结合进行，参加人数不少于所在学校(单位)人员总数的 70%。', '新秀评审领导小组和评审委员会，组织专家对各校评审的青年良师和教坛新秀进行审核，对各校推荐的区领军名师、带头优师进行综合评审。', '则，把培养和使用结合起来，把发挥名优教师的作用和培养新的名优教师结合起来，在使用中培养，在实践中提升。“三师工程”和教坛新秀管理期为 4 年。', '新秀称号的教师管理期内按现单位归属关系，与所在单位签订目标管理责任书，明确管理期内的目标任务，由各校（教育中心校）负责日常管理工作，逐年进行考核，考核不合格，将取消其相应资格。', '建平台，开展名师论坛、教育沙龙、专题讲座、学术交流、送教下乡和示范课、公开课、观摩课等活动，鼓励他们在发挥作用中锻炼提升。根据实际需要，开展参观考察、学习研修等培训活动，支持他们开展教学改革和教育科研，宣传推广他们的先进经验、优秀成果和先进事迹。', '表和材料填写完整、准确、真实(材料上报要求见附件 2)。要建立教师诚信机制，如在申报、推荐、评选过程中发现弄虚作假现象，则取消申报人参评资格，且从下一年度起三年内不得参加类似评选活动，并对有关单位负责人和责任人作出相应处理。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>71</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>我县举行重大产业项目暨工业园区建设观摩点评活动</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020-04-29</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001001/20200429/6e9e7e7a-5a8c-4552-97aa-1dfc59107e0a.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['为进一步学先进、找差距，坚定信心、鼓舞干劲，加快全县工业经济快速发展，4月27日上午，县委书记娄海，县委副书记、县长郑春伟带领各镇（街道）、开发区以及各有关部门负责人，对师寨、欢口、首羡三镇的产业园区、企业、在建项目进行现场观摩，对全县重大产业项目暨工业园区建设进行点评。县领导杜亚峰、徐国良、张丙飞、巩志刚一同参加。', '工业经济是经济发展的基础，招商引资、项目建设是经济工作的重要抓手。娄海、郑春伟等先后来到师寨镇工业集中区；欢口镇机械制造产业园标准厂房、铭山路桥机械、克鲁森机械配件建设项目、金沙滩机床配件项目、天炬精密机械项目；首羡镇标准厂房进行现场观摩。大家零距离感受各项目、园区跨越赶超、加快发展的生动局面。', '在师寨镇工业集中区，多台大型机械正在紧张作业，工人们有序施工。据了解，这里原本是一片破旧厂房和闲置的空地，为拓展工业发展空间，师寨镇解放思想、大胆破题，在该处规划实施面积约2500亩的工业集中区。该工业集中区依托全县产业发展对师寨的定位，集约发展机械零部件加工产业，力争打造专业的、具有区域代表性的机械零部件加工中心。目前，一期4条道路正在施工，二期3条道路及污水处理厂正在设计中。', '位于欢口镇的徐州铭山路桥机械设备制造有限公司，主要生产多功能高效节能破碎机及耐磨材料。娄海详细询问了企业生产经营情况，鼓励企业紧盯智能化中高端目标，加强企业合作、扩大生产规模、延长产业链条，实现更大发展。', '首羡工业园区位于镇区北侧，一期规划用地130亩，建设18栋标准厂房。目前工业园区已破土动工，标志着首羡镇由农业镇向工业镇迈出坚实一步。随着今后徐菏铁路与济徐高速顺河互通连接线的通车，将进一步提升工业区与外部的交通联系。', '在随后召开的全县重大产业项目暨工业园区建设观摩点评会上，商务局汇报了2020年我县招商引资、开放型经济、“765”项目签约总体情况；经发局汇报了市、县重大产业项目、“765”项目开工、投产总体情况；各镇（街道）、开发区先后汇报了赴徐州经开区考察学习感悟、项目招引建设情况以及下一步工作思路。', '娄海指出，目前，全县各镇级工业园区建设稳步推进，基础设施不断完善，有了明显地起色和进展，但仍存在着不平衡、不充分、不彻底等问题，需要进一步解放思想、加压奋进。', '娄海强调，要进一步放大格局视野，着力解决“干事气魄小、思想不开阔、思路不清晰”等问题，以更大的决心加大园区基础设施投入，大手笔建设工业园区，大气魄推进项目建设。要进一步明确产业导向，深刻研究把握产业发展规律，坚决克服为难情绪，以长远发展眼光谋划产业布局，积极围绕园区定位和产业链招商，不断壮大园区产业规模。要进一步优化配套服务，超前规划园区土地，创新园区管理方式、优化园区体制机制，全力为企业寻机遇、搭平台，以工业经济大发展助力全县经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>71</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>选好产业种下希望</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-04-17</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.pz.gov.cn/001/001003/20200417/7901d88f-75f2-47d2-be14-8b3fd0020eb8.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['邹庄镇、四户镇、陈楼镇等镇在推动乡村振兴过程中，突出村集体经营主体地位，积极探索土地规模经营新模式，实现土地转起来、产业火起来、农户富起来。', '不管耕种不投入，拿着土地来入股，生产收益有保证，打工挣钱两不误。邹庄镇近年来探索林下种植，破解了土地经营散、种植效益低的难题。', '韩家村耕种田地少，大部分都是银杏林地，为避免林下土地资源浪费，村支“两委”决定探索发展林下规模种植中药材柴胡，但市场经济效益不好，销路也难以保证。经历第一次林下种植不如意后，村支“两委”没有气馁，汲取教训，总结经验，从石东村松茸种植中看到了转机，他们一边向石东村学习松茸种植技术，一边请专业的菌业公司做技术指导，去年10月，韩家村松茸迎来了丰收，一颗颗品质优良的松茸被销往北京、上海等大城市，增加了村集体收入。“收益按照四比四比二的比例进行分红，村集体公司占四成，农户占四成，另外两成是管理费用。”韩家村党支部书记王勇说，下一步，他们计划发展深加工，把新鲜的松茸烘干，便于运输、存放，也利于网络销售。', '和韩家村有同样经历的还有汉庄村。去年下半年，该村流转了160亩地，第一季因为部分村民把沟渠平整，造成雨季排水不畅，土地内涝，颗粒无收。查明原因后，村支“两委”挖通了所有沟渠，种上了60亩红薯。汉庄村党支部书记王清冉告诉记者，根据老人们以往种地的经验和技术员的检测，发现我们这个地方的土质比较适合种红薯，不仅产量高，口感也好。同时，考虑到南汇8424西瓜品种行情较好，村里还种植了50亩的大棚西瓜。“现在是西瓜的授粉期，棚内温度控制非常关键。”汉庄村村民张允花正忙着给大棚通风。自从把自己家的土地流转给村里后，张允花就一直在这打工，她开心地说：“过去自己种操心还不赚钱，流转给村里，我们夫妇两个人在这打工，净拿800块钱地租不说，还能赚零花钱，淡季一天挣五六十块，忙的时候一天能挣八九十块钱，还不担风险，别提多舒坦了。”', '记者来到四户镇沟涯村时，种地能手王克孝正在给毛豆浇水。阀门一开，配好的水肥顺着喷淋管道喷洒至田间。往年的这个时候，王克孝可没这么轻松，既要外出务工，又要浇水、除草、施肥，忙得脚不沾地。王克孝说：“过去一家几亩地，田分八九块，这样的‘巴掌田’种起来费时又费力，收入还上不去，规模经营后更有助于开展机械化作业。比如过去用人力或者小机器喷灌，不如自动喷灌设备喷灌的均匀，再有使用大型机器耕种也比私人种植省力。而且听说村里还计划为水肥一体化喷灌设备安装远程操控系统，这样就不用匆忙奔跑开关阀门了。用年轻人的话说可以‘用手机种田’了”。', '王克孝耕种的这片土地面积约600亩，过去由村民分散种植小麦、玉米等粮食作物，今年村里将这片地流转出来，其中400亩由村集体经营，种植毛豆、土豆，剩下的200亩由村集体和大户合作经营景观树苗圃。沟涯村党组织书记孟现恒说：“无论是化肥、农药还是种子等都是大批量采购，价格比单买要便宜。形成规模以后，很多收购商主动到我们这边收购，价格相对稳定。土地流转给村里后，许多农民拿着土地租金，还能外出打工增加收入。”村民石荣花家里有七八亩地，她一个人忙不过来，在外务工的子女们又看不上地里的活。“这么好的地，要是荒了多可惜。”庄稼人，谁也不愿意让地撂荒。于是石荣花就把地流转出去，自己出去打零工，一天也能挣五六十块钱。她说，人轻松，收入也增多了，很满足。', '除了通过规模经营降低成本，四户镇还推行订单种植，收购商需要什么，先签订合同，镇里再规划种植，降低了种植风险。四户镇纪委书记吕委说告诉记者，截至去年底，累计流转土地4.2万亩，其中1.5万亩正规划重点用于产业的提档升级。下一步，重点围绕东片和西片打造高标准农田建设，真正形成“两园两区”种植格局。', '陈楼镇竹园村的沂河滩面地上，春节前种植的杞柳已经长出了几十厘米长的枝条，杞柳苗列队而立，成方连片。这片河滩地东西长6华里，土地面积460亩左右。之前长满荒草和芦苇，前年村里开始进行公共空间治理，希望种点庄稼增加集体收入。但是由于滩面地紧靠沂河，雨季河水极易淹没河滩地，导致颗粒无收。村支“两委”通过外出考察学习了解到杞柳耐湿耐碱，对土壤条件要求低，成活率高，产量大，效益高，是重要的经济树种，就将460亩地全部种上了杞柳。竹园村党总支书记孙敏强说：“目前杞柳长势非常好，一年两次收获，第一次采收在今年7月中下旬，年底还可以采收一次。同时杞柳是一次栽种五年受益，期间只要加强水肥管理，治虫治草。”', '杨兴勇是竹园村的建档立卡户，自村里种植杞柳以来，他就干起了插柳条、施肥、打药、抹芽等管护工作。“我就在这里撒撒化肥，浇浇水，打打药，除除草，100多块钱一天。活也不算累，很适合我这年龄的人。”杨兴勇乐呵呵地说道。竹园村利用河滩地发展杞柳规模种植，所得收益一部分归村集体，一部分分配给全体村民。“有了资金兜底，诸如修路、装路灯、建公厕等公益事业才能更好地开展。”孙敏强说。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>71</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>江西鹰潭市党政代表团来丰考察</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020-03-14</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001001/20200314/c540c3ce-0bb3-41da-856b-78f78119f48e.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['3月12日，鹰潭市委常委、市政府常务副市长张子建带领党政代表团来丰，考察学习我县产业建设和经济社会发展工作。徐州市政府副市长徐东海、县委书记娄海、县政府副县长常夫建陪同活动。', '鹰潭市党政考察团一行先后来到君乐宝乳业、巨杰机电、数字经济产业园等地参观考察，认真了解我县在产业发展中的具体经验和做法。', '江苏君乐宝乳业有限公司是集种植、养殖、加工、研发于一体的农业产业化国家重点龙头企业，主营“君乐宝”系列乳制品，是一家一二三产业高度融合协调发展的现代化奶业公司，目前年生产量已经突破15万吨，年销售额超10亿元。考察团认为，我县通过挖掘资源、放大优势，积极发展绿色循环优质高效特色农业，君乐宝等农业龙头企业在丰县的蓬勃发展，为区域经济转型升级注入了新活力。', '江苏巨杰机电有限公司，是一家集智能制造集成系统研发、生产、销售、服务于一体的全链条、多元化集团公司。公司投资建设的丰县巨杰智能制造系统集成项目，生产自主研发的高级精度数控机床、多面车削中心等数控设备。公司负责人向考察团介绍了巨杰机电十余年的发展历程、研发体系、生产布局及企业未来的发展战略。通过参观了解，代表团对巨杰机电在智能制造领域的发展成就给予了高度评价和充分认可，表示巨杰机电作为传统机械制造企业，能够在运营模式上大胆创新，是传统企业转型升级的标杆和榜样。', '数字经济产业园项目积极推动丰县在大数据、云计算、物联网、互联网金融、人工智能等方面与实体经济融合发展，项目已入驻软通动力、浪潮集团、蚂蚁金服等30余家知名“互联网+”企业，2019年实现服务业增加值近2亿元。考察团表示，丰县智慧城市建设思路清晰，成效明显，涉及领域较多，注重实用实效，走出了一条适合自己的智慧产业道路，充分体现了丰县县委县政府的务实精神和超前意识，丰县的很多做法可学可用，对鹰潭市智慧城市建设将起到较好的借鉴作用。', '县委书记娄海对鹰潭市党政考察团的到来表示欢迎，并介绍了我县产业发展情况。目前，我县已形成盐煤新材料、机械装备制造、高端食品及农副产品加工三大主导产业，近年来围绕形成现代化经济体系新格局、壮大实体经济、打造高质量发展的强大引擎，大力实施“工业立县、产业强县”发展战略，重点发展智能终端、零醛家居、绿色食品等特色产业，推动县域经济高质量发展。', '鹰潭市委常委、市政府常务副市长张子建表示，丰县的整体发展思路、产业布局科学合理，在产业“转型升级、绿色发展”方面成效显著，经验做法值得鹰潭市学习借鉴，希望今后两地进一步密切交流，深化合作，实现优势互补、互利共赢，推动两地共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>71</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>张克率队赴铜山区徐州科技创新谷考察学习</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20200303/bfe9b343-2190-4f38-95c5-d2c7c717a39c.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['3月2日，区委书记张克率队赴铜山区考察学习徐州科技创新谷规划建设、运行机制和管理模式。区委常委、组织部部长李政，区政府党组成员施兴程等参加活动。铜山区委书记、徐州高新区党工委书记王维峰，铜山区委常委、组织部部长杨中良陪同。', '张克一行先后来到徐州高新云谷创新建设工程、徐州国际学术交流中心项目建设现场、科技创新谷展厅、德坤电气实验室、江苏鸿鹄安全科技有限公司、徐州盖亚智能装备研究院有限公司、徐州智谷光频产业研究院有限公司、江苏信创安全技术研究院有限公司等地，详细了解科技创新谷规划建设、运行机制、科技项目、产业发展等情况。', '在随后召开的座谈会上，王维峰介绍了徐州科技创新谷规划理念、招商引资和运行机制等情况介绍。徐州科技创新谷是徐州市高标准打造科技创新核心区——“一城一谷一区一院”的重要组成部分，近年来，铜山区瞄准高精尖产业，放眼全球“重金求才”，大力优化营商环境，全力推进招商引资、项目落地。科技创新谷迅速形成人才、资源、产业集聚的“洼地效应”，一大批新一代信息技术、大数据、云计算、无人机、机器人、新医药、新材料等高新产业企业、科研院所纷纷入驻科技创新谷，成为充满生机与活力的创新型特色园区、战略性新兴产业高地、自主创新高地和创新创业人才聚集高地。', '张克在座谈中说，潘安湖科教创新区与徐州科技创新谷同为徐州市“一城一谷一区一院”的重要组成部分，通过考察学习，看到了徐州科技创新谷高质量发展的风采魅力，学习到了园区规划建设与运营管理及招商引资上的新理念、新做法，看到了贾汪发展的差距。贾汪区将用心汲取铜山区在园区规划、招商引资、科技创新及营商环境打造等方面的先进经验与做法，进一步解放思想、创新机制，更好地集聚科教创新资源、促进产学研深度融合，推进潘安湖科教创新区高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>71</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>娄海主持召开乡村振兴指挥部工作会议让农民群众在乡村振兴中有更多获得感幸福感</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2020-03-03</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001001/20200303/360c7883-8eb5-492a-9ed3-02a94ca55f97.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['娄海主持召开乡村振兴指挥部工作会议：让农民群众在乡村振兴中有更多获得感幸福感_丰县人民政府', '2月29日下午，县委书记娄海主持召开全县乡村振兴指挥部工作会议，听取我县乡村振兴工作情况汇报，研究部署下一阶段重点工作任务，动员各相关部门、各镇（街道）以更新的理念、更实的举措、更严的作风，扎实推进乡村振兴战略，推动县域经济社会高质量发展，让农民群众在乡村振兴中有更多获得感、幸福感。县领导郑春伟、庄红、鹿飞、孙厚权、常夫建、姚凤腾、韩以振参加会议。', '会上，县乡村振兴办公室通报了农村人居环境整治工作检查情况，以及当前重点工作开展情况。农业农村局通报了农村集体经济收入情况。生态环境局、水务局等相关单位分别汇报了各自牵头领域工作开展情况、目前存在问题及下一步工作思路。在听取各相关部门乡村振兴工作谋划实施情况汇报后，与会县领导分别就下一步工作提出具体要求。', '娄海指出，去年以来，各相关单位、各镇（街道）、开发区按照县委统一部署，在实施乡村振兴战略方面做了大量工作，取得了一定进展。在肯定成绩的同时，也要深刻认识到工作中依然存在思想认识不到位、工作思路不宽、统筹协调能力不强、方式方法过于简单、“等、靠、要”思想严重、内生动力不足等问题。要认真分析存在问题，切实改进工作作风，围绕“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”目标，进一步补齐乡村振兴工作突出短板。', '娄海要求，推进乡村振兴，要紧紧围绕产业兴旺下功夫，培育农业农村发展新动能。产业兴旺是乡村振兴的重要基础，只有产业兴旺，农业农村各项事业发展才有坚实的物质基础，要因地制宜确定乡村产业发展主攻方向，以招商引资助力乡村振兴；注重农村特色支柱产业培育和发展，引导农业新型经营主体提升发展能力、激发内生活力，竭尽所能为发展壮大新型农业经营主体服务；打好金融服务“三农”发展“组合拳”，为具有融资需求的农民提供优质金融服务，加强乡村产业培育、新型农民培育，让农业更强、农民更富。', '娄海强调，推进乡村振兴，生态宜居是关键。要抓好镇村生活污水无害化处理和黑臭水体综合整治，引入专业技术力量，实地考察学习污水治理先进经验，扎实开展农村污水治理试点工作，探索适合丰县农村生产生活实际的治理新模式，为下一步高标准高质量全面综合整治奠定基础。要增强“小厕所大民生”理念，强化问题导向，深入一线调研，在摸清农户实际需求的基础上制定改厕计划，充分调动群众参与改厕的积极性和主动性，不断优化工作方案，切实提高改厕质量。要稳步推进农村垃圾收运体系建设工作，进一步提升乡村风貌，真正实现“丰县真干净”。要以大数据为抓手，通过开展“梳网清格”行动，推动乡村治理精准化，持续推进农村道路“户户通”，大力加强农村饮水安全保障，多措并举推进农房改善，努力让广大农民群众在乡村振兴中有更多获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>71</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>中共丰县县委十五届八次全会召开</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020-01-02</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/001/001001/20200102/b6a570be-ba6f-45ff-8f70-821cc63a36e9.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['12月29日，中共丰县县委十五届八次全会召开，会议以习近平新时代中国特色社会主义思想为指导，深入学习党的十九大和十九届二中、三中、四中全会以及中央经济工作会议精神，全面贯彻省委、市委决策部署，回顾今年工作，研究部署明年任务，动员全县上下坚定不移贯彻新发展理念，解放思想，扎实苦干，奋力谱写高质量振兴丰县新篇章。', '会议在嘹亮的国歌声中拉开帷幕。县领导娄海，庄红，王洪伟，张云，张丙飞，靳新建，李吉宁在主席台就座。县委委员、候补委员出席会议。县纪委委员、有关方面负责同志和部分基层党代表列席会议。县委常委会主持会议。县委书记娄海代表县委常委会讲话。', '娄海充分肯定了全年工作，他指出，回顾总结全年工作，高质量发展取得新成绩。一年来，全县上下深入贯彻新发展理念，高质量发展取得新成绩。抓学习、重谋划，高质量发展的路径更加明确，扎实开展“不忘初心、牢记使命”主题教育，组织开展10次县委常委会大调研和外出考察学习活动，确定了“工业立县、产业强县”主战略和58项振兴丰县重点提升和突破工程。抓产业、补短板，高质量发展的基础不断夯实，开发区“赋能提质、赋权提效”初步显现，智能电动车产业园等5个特色园区竞相发展，“果菌菜牧木”五大特色产业发展成效显著，交通、水利等重大基础设施建设加快推进。抓统筹、惠民生，高质量发展的成果城乡共享，脱贫攻坚省定任务全面完成，农村人居环境和路域环境明显提升，农民住房条件有效改善，实现城乡供水一体化，创成国家卫生县城。抓党建、优环境，高质量发展的活力持续增强，党政机构改革基本完成，凝心聚力抓落实的体制机制基本形成，“三清示范区”建设迈出坚实步伐，干部群众干事创业精气神明显提振。', '娄海表示，要认清形势正视问题，坚定不移践行新发展理念。一年来我们取得的成就，就是按照新思想新发展理念干出来的，工作中存在这样那样的问题，根子上也是贯彻新思想新发展理念不全面、不彻底、不到位。要清醒地看到，在创新发展方面，还存在意识欠缺、能力不足、担当不够、氛围不浓等问题；在协调发展方面，还存在不善于“弹钢琴”、缺乏“一盘棋”思想、城乡发展不平衡不协调等问题；在绿色发展方面，还存在认识不到位、对生态经济重视不够、城乡生态环境质量改善不稳定等问题；在开放发展方面，还存在“引进来”水平不高、“走出去”步子不大等问题；在共享发展方面，还存在资源配置不足、发展成果分享不够均衡等问题。面对困难和问题，全县上下要剖析观念上的差距，在主观上找原因、看不足，在更高维度、更长期的历史阶段、更大的区域空间中找准方向、把握机遇、赢得主动。要坚定不移践行新理念，切实让创新成为丰县发展的第一动力，让协调成为丰县发展的内生特点，让绿色成为丰县发展的普遍形态，让开放成为丰县发展的必由之路，让共享成为丰县发展的根本目的。', '娄海指出，统领2020年工作，要高举习近平新时代中国特色社会主义思想伟大旗帜，全面学习贯彻党的十九大和十九届二中、三中、四中全会精神，深入贯彻落实中央经济工作会议和省委十三届七次全会、市委十二届九次全会决策部署，以高水平全面建成小康社会为奋斗目标，以“工业立县、产业强县”为主战略，以5大类58项“振兴丰县”重点提升和突破工程为主抓手，加快建设苏鲁豫皖接壤地区产业高地、创新创业高地、商贸物流高地、文化旅游高地、教育医疗高地，加快推动高质量发展，确保全面建成小康社会和“十三五”规划圆满收官，得到人民认可、经得起历史检验。', '娄海要求，做好明年工作，要突出蓄势增能，高质量推进“工业立县、产业强县”；要突出“五城同创”，高质量推进城乡融合；要突出优先发展，高质量推进乡村振兴；要突出绿色发展，高质量推进生态建设；要突出以人为本，高质量推进民生改善；要突出“智治”支撑，高质量推进社会治理。', '娄海强调，要发扬自我革命精神，勇担丰县振兴时代使命。一是笃信笃行新理念，在解放思想中加深认识，在深化理解中展现担当，在贯彻落实中保持定力，打造富有战略定力的干部队伍。二是准确把握发展规律，变区域经济观为全球经济观，推动政府主导与市场主体、社会主体、群众参与同向发力，遵循发展是一个过程的规律，打造善谋善抓的干部队伍。三是强化能力水平提升，提升统筹协调能力、化解难题能力、狠抓落实能力，打造精干高效的干部队伍。四是加强党的政治建设，强化政治意识、廉洁意识、责任意识，打造廉洁为民的干部队伍。在严管干部的同时，要深入推进“三项机制”，在“容错”和“激励”方面下功夫，努力解决好党组织和领导干部顾虑多、包袱重等问题，对善抓落实、敢抓敢管的年轻干部，要优先提拔、大胆使用；要旗帜鲜明地保护干部，正确区分过错和违纪的界限，鼓励、支持干部在不逾越底线的前提下，大胆闯、大胆干，切实激发干事创业的内生动力。', '全体与会人员就县委书记娄海所作的讲话以及会议相关内容进行分组讨论。通过讨论，与会人员纷纷认为，这是一次让人精神振奋、信心倍增的会议，全县上下无不深受启发、为之鼓舞。会上，全体委员表决通过了全会《决议》。', '县委书记娄海就当前工作进行部署。娄海要求，要贯彻全会精神，聚焦目标狠抓工作落实；要发起最后冲刺，如期全面建成小康社会；要树牢底线思维，确保安全生产形势稳定；要高度关注民生，切实做好节日保障工作；要增强纪律观念，筑牢为政清廉坚固防线。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>71</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>山东省枣庄市峄城区人大常委会来贾考察</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-07-10</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20190710/9699660f-126a-49f0-b857-41d1ab19f7f8.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['7月9日，山东省枣庄市峄城区人大常委会主任魏作明率队来贾考察。区人大常委会主任朱连芹、副主任马家福陪同。', '魏作明一行先后来到潘安湖贾汪转型之路展示馆、潘安湖神农码头、马庄村、金海科技园、徐州工业园区展示馆、全域旅游服务中心等地，考察学习我区人大常委会在强化监督、履职行权、机关党建等方面的先进经验和创新做法。', '近年来，区人大常委会坚持一手抓规范一手抓创新，在提升科学化、规范化水平的同时，开展“三联三帮”、“五级人大代表助推脱贫致富奔小康”主题实践活动，实施乡村振兴“四四五”工程，实行审议意见清单制，拓宽代表履职平台等，努力以系统思维谋划和开展人大工作，在规范和完善中寻求特色、打造亮点，收到了良好的工作效果和社会效应。', '魏作明认为，近年来，贾汪区人大常委会在强化监督、履职行权等方面创新工作模式，充分发挥人大代表作用，推动贾汪在转型发展、生态建设、乡村振兴、全域旅游等方面取得了优异成绩，走出了一条具有贾汪特色的转型发展之路，值得峄城区学习借鉴。贾汪与峄城地缘相近，所处区位相似，发展路径相通，希望两地今后进一步加强交流合作，实现优势互补、互利共赢，促进两区共同发展，为两地人民造福。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>71</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>关于印发贾汪区新型职业农民认定管理办法试行的通知</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2019-01-28</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/govxxgk/jwq_bgs/2019-01-28/eca0bef8-d4b7-4dff-9455-3328dd81351c.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为贯彻落实中央和省、市有关新型职业农民认定管理工作部署，进一步推动新型职业农民认定管理，建立一只“爱农业、懂技术、善经营”新型职业农民队伍，夯实乡村振兴人才支撑，区农委牵头制定了《贾汪区新型职业农民认定管理办法（试行）》，现印发给你们，请各地各有关单位结合实际认真贯彻执行。', '第一条 为加快推动新型职业农民培育制度建设，规范新型职业农民认定管理，根据省农委《关于印发&lt;江苏省新型职业农民认定管理指导意见&gt;的通知》（苏农科〔2018〕15号）和《市政府办公室关于印发&lt;徐州市新型职业农民认定管理指导意见&gt;的通知》（徐政办发〔2018〕198号）等文件精神，结合我区实际，制定本办法。', '第二条 本办法中所称新型职业农民是指以农业为职业、具有一定的农业生产技能和科学文化素质、收入主要来自农业的现代从业者，包括生产经营型、专业技能型和专业服务型职业农民。', '生产经营型职业农民是指长期从事农业生产、有一定产业规模的专业大户、家庭农场主、农民合作社带头人、农业园区企业管理者等。', '专业技能型职业农民是指在农业园区（基地）、家庭农场、农民合作社、农业企业等单位稳定从事农业生产、具有一定专业知识和丰富实践经验的农业工人、农业雇员等。', '专业服务型职业农民是指在农业社会化服务组织中或个人直接从事农业产前、产中、产后服务，并熟练掌握本专业知识与技能的园区企业技术人员、农村信息员、农产品经纪人、农产品检测员、农机服务人员、动物防疫员、技术指导员等。', '第四条 新型职业农民教育培训工作由区农业委员会牵头负责，构建以区农广分校为培训主体，各方积极参与的新型职业农民教育培训体系，开展教育培训工作。', '第五条 新型职业农民培育对象需参加规定学时以上的农业职业技能培训，取得相关工种职业技能资格证书、或取得中专及以上相关专业学历方可申请新型职业农民资格认定。被认定的新型职业农民每年仍需参加一定时间的知识更新培训，以此作为今后新型职业农民资格证书年检的重要依据。', '第六条 新型职业农民培育采用集中学习、生产实践、考试考核和跟踪指导服务相结合的方式进行。培训结束后，培训单位根据生产需求组织学员参加相关岗位的职业技能鉴定。', '第七条 新型职业农民资格认定坚持公开、公平、公正、择优的原则，根据申请人从业类型而异，重点考核文化技能水平、教育培训情况、产业发展规模、农业收入水平和社会化服务能力等因素。', '1、基本条件。年龄在18-55周岁，初中及以上学历，且在本区稳定从事农业生产与服务3年以上，经培训并获得农业职业技能培训合格证书、农业行业职业技能资格证书。', '生产经营型职业农民。（1）稻麦种植类，规模在50亩以上，栽培水平较高，全面应用优良品种与高产优质标准化栽培技术；（2）园艺种植类，露地果蔬10亩以上，设施园艺3亩以上，设施先进，全面应用无公害、绿色食品标准化生产技术；（3）畜禽养殖类，生猪年出栏100头以上，肉禽年出栏5000羽以上，蛋禽存栏1000羽以上，奶牛存栏20头以上，肉羊年出栏100只以上，养殖设施配套、工艺先进；（4）水产养殖类，规模养殖20亩以上，标准化养殖，各项设施齐全。', '专业技能型职业农民。在农业园区、农业企业、农民合作社、家庭农场等新型农业经营主体中从事专业技能工作3年以上，具有相对较高的专业技能水平和较丰富的实践经验，并以此为主要收入来源。', '社会服务型职业农民。在社会服务化组织中或个体直接从事农业产前、产中、产后服务3年以上，具有一定服务范围和相对较高的经济效益。', '自愿申请。申请人向所在村和乡镇农业职能部门自愿提出认定申请，填写《贾汪区新型职业农民认定申请表》，并提供身份证、学历证书、农业职业技能培训合格证书、国家职业资格证书、新型职业农民培训证书、承包合同、单位或村委会从业证明等相关证明材料。', '镇村核实。由所在村、乡镇农业职能部门和乡镇政府对申请材料进行核实，汇总上报区新型职业农民培训工作领导小组办公室审核。', '区级认定。成立区新型职业农民培训工作领导小组，领导小组下设办公室，具体负责受理新型职业农民的认定管理。成立区新型职业农民认定评审委员会，具体负责认定评审。对符合条件的农民进行为期7天的公示，公示无异议后，认定为新型职业农民。', '颁发证书。对符合认定条件标准的农民，颁发农业农村部统一式样的新型职业农民证书，作为农民职业身份和享受相关政策的有效凭证。', '第十条 对经认定的新型职业农民实行动态管理。对经过认定的新型职业农民建立完整档案资料，及时录入新型职业农民培育信息管理系统，并对认定后的跟踪服务情况进行详细记录。', '第十一条 建立新型职业农民退出机制。对已认定的新型职业农民进行年度复核，对有违法行为和不诚信行为的、出现农产品安全责任事故的、不愿接受管理服务的、不按要求参加培训学习的、不再从事农业生产经营等情况的，应按规定程序予以退出。', '教育支持。新型职业农民免费享有政府提供的职业教育、实用技术培训、创业培训等。优先安排新型职业农民参加各类考察、学习和交流活动。', '资金支持。优先享有土地流转、农机等农业补贴。大力推动农业银行、农村小额贷款公司对新型职业农民的贷款支持。鼓励银行金融机构建立新型职业农民金融服务考核激励机制，适当提高新型职业农民业务风险容忍度。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>71</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>安徽省淮北市人大常委会来贾考察学习</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019-05-31</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/xwzx/001001/20190531/008d54a1-326e-4663-bc56-5ee3fef69fa6.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['5月30日，安徽省淮北市人大常委会副主任张香娥率队来贾考察学习。区人大常委会副主任马家福陪同。', '张香娥一行先后来到贾汪转型之路展示馆、神农码头、马庄村史馆、基层党建室、文化礼堂等地，全面考察我区采煤塌陷地生态修复治理及乡村振兴、基层党建等工作开展情况。', '考察中，张香娥通过看图片、文字，听取相关汇报等方式，详细了解我区从“一城煤灰半城土”到“一城青山半城湖”的华丽转变。张香娥认为，贾汪从百年矿区变成“湖阔景美、绿树成荫”的生态公园，是资源枯竭城市生态环境修复再造的典范，其经验和做法值得学习推广。在马庄村，张香娥一行重走了习近平总书记路线，她说，马庄村的文化和凝聚力十分感染人，“文化立村、旅游富民”战略不仅带动了村里的经济，也带起了村民的精气神。希望今后两地能够进一步加强交流，共促发展。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>71</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>年度鼓楼区创新入围项目简介二</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-01-29</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.xzgl.gov.cn/xwzx/001005/20190129/3a1b12da-2669-4577-8241-625dd26023f6.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['24、由区科技局申报的“加快构建产业科技创新生态系统”项目：围绕加快构建“产业+企业+平台+人才+载体+金融+政策”的产业科技创新生态系统，加快集聚创新资源要素，培育创新发展新动能。制定出台了《关于加快产业科技创新推动高质量发展的工作意见》。创新型企业加快培育，新增国家高新技术企业3家、省科技型中小企业13家、省民营科技企业28家。创新载体平台提档升级，新增省级科技企业孵化器1家、省级众创空间2家、市级众创空间1家、省级工程技术研究中心1家。产学研合作深入推进，加强与矿业大学对接合作，矿大科技园鼓楼园建成运营，新建校企联盟7家，申报获批省“双创”科技副总2名。创新创业蓬勃开展，举办鼓楼科技创新创业大赛，推荐3个优质项目参加市大赛分别获二等奖、三等奖，区科技局被评为“徐州科技创新创业大赛优秀组织单位”。帮助企业争取市级、省级科技创新扶持资金450万元，申请“苏科贷”资金1050万元。', '25、由区财政局申报的“整合财政业务系统，深化公共财政改革”项目：近年来，为提高财政管理自动化水平，区财政部门不断加强信息化建设，通过整合业务系统，完善业务功能，有力地推动了财政管理改革，为建立科学、规范、高效的财政管理模式提供重要支撑。2018年以国库集中支付系统为核心，更换预算执行软件，将预算编制、指标管理、用款计划编审、电子支付、动态监控、账务处理融为一体，优化流程，强化执行分析，既满足单位及时用款需要，也使财政实时掌握预算指标的变动情况和预算执行情况。推进国库电子化支付，提升财政服务效能，提高资金使用效率。实行动态监控，加强国库资金、预算执行的管理和监督。优化预算编制流程，实现线上编报。', '26、由区人防办申报的“创新驱动，激发民防宣传教育新活力”项目：民防宣传教育工作是国防教育和民防建设的重要内容，是党和国家赋予民防部门的重要职责，是让社会公众准确认知民防、主动支持民防、积极参与民防的有效手段。多年来，各级民防部门发挥宣传教育工作的引领和先导作用，为民防各项工作注入了强大的精神文化力量，有力地助推了民防事业改革发展。迈入新时代，民防宣传教育工作面临着更多机遇和挑战。结合我区民防宣传工作实际，我们民防部门必须适应新常态，立足新形势，充分认识新时代民防宣传教育工作的重要意义，不断研究新情况，探索新方法，总结新经验，聚力求发展，创新求突破。', '27、由区城市更新保障中心申报的“气体厂周边征地项目被征地农民入保工作”项目：本项目涉及安置殷庄居委会被征地农民632人（其中已批准地块涉及343人），气体厂周边地块征收殷庄居委会集体土地47.93亩（均为农地）。增补土地86.92亩（其中拟报批面积约55亩），扣减天嘉化工泵站国有土地0.68亩，实际补偿134.17亩。其中，农用地116.17亩。根据省政府第93号令、《省政府办公厅关于严格落实社会保障切实做好征地补偿安置工作的通知》（苏政办发﹝2017﹞34号）和《徐州市征地补偿和被征地农民社会保障实施办法（试行）》（徐政规〔2014〕1号）文件规定办理被征地农民入保工作。', '28、由区人民法院申报的““三四五”特色党建工作法”项目：鼓楼法院坚持“抓党建、带队建、促审判”的工作思路，通过促进党建工作与审执工作、法院文化、司法作风建设“三个结合”，创新党建新标准、力推党建新品牌、实践党建新形式、完善党建新机制等“四新举措”，打造学习教育、党性分析、岗位培训、主题活动、为民服务等“五大平台”，形成了“三四五”特色党建工作法，有力推动了全院工作的高质量发展。被省高院评为“全省法院党建工作先进集体”，被市委组织部命名为“徐州市基层党建示范点”。最高人民法院、省委办公厅、省高院、市委办公室、市中院、区委党建工作领导小组办公室分别以《简报》等形式全面推广该院党建工作经验，《江苏法制报》头版头条、《徐州日报》头版等予以报道。鼓楼区委书记龚维芳和市中院党组书记、院长花玉军先后作出重要批示并充分肯定。', '29、由区统计局申报的“鼓楼区新兴产业体系统计监测制度”项目：2016年年初，区统计局根据区主要领导指示要求，结合鼓楼区实际工作需要，对作为区委区政府赋能聚能促产业转型谋产业发展重要抓手的“4+2”主导产业和“5+1”新兴产业的总体规模、业态结构和经营结构等情况进行统计监测。依据区委区政府的工作规划和工作报告来确定监测范围。本着突出重点、突出实用、突出特点的原则，从实际出发确定统计监测内容。对可以直接获取数据的产业企业，直接由报表取数；对无报表企业，按比例抽取产业企业，由街道办事处通过调查获取数据，根据抽样调查数据推算产业数据。区统计局按季度向区委区政府提交“4+2+3”产业统计监测报告，分析各产业发展状况。目前，已提交分析报告11篇，多篇获主要领导好评。', '30、由区司法局申报的“律师全方位参与公共法律服务工作机制”项目：鼓楼区司法局全面聚焦提供更加优质高效便捷的公共法律服务目标定位，创新开展“周二法律诊所”，积极引导律师在服务营商环境建设、发挥法律顾问作用、参与矛盾纠纷化解、维护困难群体合法权益等方面全方位提供法律服务，为我区经济社会发展和法治政府建设发挥了积极作用。搭建律师服务咨询平台，设立律师值班窗口，开设“周二法律门诊”，实行“一社区一法律顾问”制度，建立“法润村居微信群”，形成律师线上线下全方位参与法律服务格局。建立专项案件律师资源库，挑选20名律师组成信访案件律师库，建立刑事案件、劳动争议、侵权诉讼等专业法律援助名优律师团。健全律师参与法律服务工作机制，选聘律师担任人民调解员，参与个案研讨分析会，对符合法律援助条件的纳入援助程序。将法律服务纳入为民办实事工程，保证了律师参与法律服务的常态化、制度化。“周二法律诊所”做法被推荐为第三批法治徐州建设优秀实践案例参评项目；区司法局积极探索网络交易纠纷调解工作和推行“五机制”促矛盾同比下降的做法受到省厅领导批示；区人民调解委员会被司法部表彰为“全国人民调解工作先进集体”；司法局坚持发展“枫桥经验”实现矛盾不上交试点工作受到司法部通报表彰。', '31、由区司法局申报的“搭建“心桥”——心理咨询助力特殊人群管控”项目：鼓楼区司法局主动与徐州市心理咨询师协会合作，探索“搭建“心桥”——心理咨询助力特殊人群管控”做法，为预防和减少重新违法犯罪发挥了积极作用。搭建心理咨询平台。与市心理咨询师协会建立合作关系，在区矫正中心和环城、丰财司法所设立心理咨询室，心理咨询师定期坐诊，其他司法所分别明确2名心理咨询师，根据司法所特殊人群管理需要上门开展心理咨询。建立特殊人群心理健康档案。对三类人员通过软件、绘画、沙盘等多种方式进行开展心理测试评估，根据测试评估结果建立个人心理健康档案；开展常态化心理咨询活动。心理咨询师根据测试结果，定期进行开设心理课堂，进行评估测试、心理辅导、个案咨询，帮助减压放松和情绪调控，帮助重塑人格，促进教育转化。该做法在徐州市司法行政系统属于首创，通过一年的实际运行，取得了较好效果。2018年，我区社区服刑人员无一人重新犯罪，刑满释放人员当年无重新犯罪，五年内重新犯罪率控制在4%以下。解除强制隔离戒毒后续照管对象戒治操守保持率为100%，无一人复吸。', '32、由区发改经济局申报的“鼓楼区老工业区搬迁改造重点工程”项目：自2013年启动搬迁改造工作以来，省、市各级政府高度重视，密集制定出台了一系列政策给予重要支持。2018年9月，列入全国25家老工业区搬迁改造重点工程，全省唯一。为加快推进老工业区转型升级，更好完成工业企业搬迁，积极培育发展新动能，优化城区空间动能布局，依据国家和省有关老工业区搬迁改造文件要求，按照市委、市政府要求，结合鼓楼老工业区搬迁改造工作实际，制定《徐州市鼓楼老工业区搬迁改造重点工程行动计划（2018年-2020年）》，确定“聚焦新动能培育”和“城市更新再造”为重点工程领域，再造产业发展新动能，提升城市综合服务功能。2018年以来，共计争取中央预算内资金10512万元。', '33、由区发改经济局申报的“争创省服务业综改试点，推动新旧动能加速转换”项目：省新一轮服务业综合改革是引领创新发展、培育发展新动能的重要举措，为江苏经济高质量发展提供新支撑。发改局紧紧抓住服务业综合改革试点的重大契机，立足淮海经济区中心城市重要支撑板块的新坐标，基于徐州“四个中心”战略定位，推进“1+N”产业发展计划，全面打造区域竞争新优势，主动适应经济发展新常态，调结构、促改革、惠民生，大力推进服务业倍增战略，大胆创新服务业体制机制，以服务业综合改革试点为动力，全力打造现代服务业新高地，构建充满活力、特色明显、优势互补的现代服务业发展格局。在更高起点、更深领域先行先试，率先形成有助于服务业发展的创新体制机制和政策保障体系，营造良好发展环境；形成有助于服务业高端、创新、融合、绿色、集约、共享发展的有效途径和良好格局，打造具有示范引领和辐射带动的服务业发展高地；形成有助于构建与淮海经济区中心城市发展相适应的现代服务业产业体系。实现区域经济持续健康较快发展，加快形成基于徐州“四个中心”战略定位的、更加宜居宜业的创新型城市形态。', '34、由区委宣传部申报的“‘城市向北·鼓楼变美’全媒体传播正能量”项目：为庆祝改革开放40周年，区委宣传部组织开展“城市向北，鼓楼变美”全媒体主题宣传，旨在借力借势“搭建”全媒体传播大平台，改变我区缺乏独立媒体、宣传资源先天不足现状，在利用好区级自有平台同时，充分利用好外在平台，内外双线作战，构建多平台传播矩阵。自2018年10月起至2019年10月，在市主流媒体开设专栏并协调其新媒体同步宣传，在全区党务政务新媒体矩阵，以及区内马上到家、大汉网、地铁圈、指尖徐州等7家新媒体同步推出，全方位、多角度解读鼓楼近些年取得的新变化、新成就，以全媒体联动方式制作并传播一批新闻精品，讲好鼓楼故事，传播鼓楼声音，向受众展现真实、立体、全面的鼓楼形象。', '35、由区委宣传部申报的“着力‘四个下功夫’，推动思想解放落地开花”项目：全省解放思想大讨论活动开展以来，鼓楼区委坚持把解放思想作为推动新一轮改革开放的“当头炮”，按照省市委统一部署，着力在学深悟透新思想、精准对标找差、成果转化应运、深化拓展创新上下功夫，组织开展思想武装、定位提升、对标找差、发展升级、活力激发、环境优化“六大行动”，着力谋划中心城市核心区建设的重大问题，一些制约鼓楼高质量发展的矛盾问题得到逐步解决，全区上下凝心聚力加快建设淮海经济区中心城市核心区。组织区委党政代表团赴二七区、上城区、玄武区、秦淮区等地考察学习，确定了“学南京玄武、赶郑州二七”目标定位，强烈激发了全区上下跨越赶超的紧迫感和责任感。区委常委多次深入联系点开展解放思想大讨论专题调研，深入听取干部群众意见建议，围绕区委重点工作加强精准指导，营造全区上下形成浓厚活动氛围，推动全区经济社会高质量发展走在前列。', '36、由区政府办申报的“线上线下相互融合，积极推进政府信息公开多元化”项目：区政府办公室通过线上线下相互融合，加快推进政府信息公开步伐、扩大公开范围、突出公开重点、细化公开内容，创新工作办法，切实抓好重点领域和关键环节的政府信息公开,形成了包括政府网站、微博、微信公众号及手机APP等多层次信息公开体系，取得良好的创新成效，群众获得政府信息方式途径更多、更广、更加便捷。2018年，政府主动公开政府信息共1878条，其中区政府本级公开信息121条，街道办事处公开政府信息319条，政府各部门公开信息1354条，事业单位公开信息84条。线上线下同时受理依申请公开，全年共受理依申请公开13件，其中网上申请1件，当面申请3件，邮寄申请9件，全部按时办理，准时办结率100%，无因政府信息依申请公开造成的行政诉讼案件。重新设计政府信息公开专栏所包含的子栏目，精简僵尸栏目数量30个，添加新时代新要求新发展类栏目16个，栏目设置更科学、更规范。利用多媒体助推政府信息公开多元化，全年“鼓楼发布”政务微博推送政府信息7756条，微信公众号推送信息1178条，关注人数超20000人。', '37、由区政府办申报的“顺应“互联网+”时代需求，打造信息化协同办公平台（OA系统）”项目：OA项目于2018年3月启动，历经业务需求调研阶段、项目实施开发阶段、上线调试运行阶段以及项目验收并正式上线运行四个阶段，总共历时10个月。OA系统涵盖了政务办公、发文管理、收文管理、会议议题与方案，以及通知公告、会议通知等日常工作流程。系统共计创建了5大类82种流程，充分满足了各局、各办事处上报、下发以及内部文件流转的需求。项目为85家单位创建了单位账号，为75家单位制作了电子签章并创建了1436个个人账号,同时为每家单位设置了系统管理员。为保证全区人员能够尽快掌握系统的使用方法，切实推进信息化协同办公在全区的实现，逐步分批进行了7场OA使用培训和2场系统管理员培训。目前系统已平稳运行，截至到2019年1月,系统中流转对外签订合同、协议办文单311份,政府请示办文单653份,通知公告539份,会议通知250份,收文流程4608份,所有流转文件共计7251份。全区基本实现了无纸化电子公文交换，大大节约了办公成本、提高了工作效率。', '38、由区纪委监委申报的“党风廉政建设主体责任提醒制度”项目：鼓楼区党风廉政建设主体责任提醒制度是鼓楼区纪委监委根据派驻纪检监察组在派驻监督过程中存在的监督单位数量多、位置分散、派驻纪检监察组人员少等问题，针对性提出的一种“嵌入式”监督方式，并于2018年8月28日印发了《鼓楼区党风廉政建设主体责任提醒制实施意见》（徐鼓纪〔2018〕20号），该制度在全区各派驻监督单位有效实施。鼓楼区纪委监委派驻纪检监察组通过采取廉政风险点专项排查、查阅资料、谈心谈话、明察暗访、专项督查等方式，对派驻监督单位进行检查，对需要提醒的问题进行收集梳理，拟定需要提醒的内容，填写《主体责任提醒问题清单》，向派驻监督单位党组织或领导班子成员签发。派驻监督单位党组织或班子成员收到提醒函后，对提醒事项进行全面自查自纠，进一步完善工作制度，并在规定时间将整改情况向派驻纪检监察组报备；派驻纪检监察组建立工作台账，对提醒问题及时跟踪督导，做到早提醒、早警示、早督促、早整改，以压力推动各派驻监督单位党组织和领导班子成员明责知责担责。', '39、由区纪委监委申报的“创新小微权力监管，让权力在阳光下运行”项目：聚焦基层腐败易发多发领域，针对基层群众反映强烈的“微腐败”问题，通过推进清单式明权、规范化用权、闭环式治权，创新“小微权力”监管方式。清单式明权，厘清权力界限。通过自上而下审核梳理清权确权，广纳民意摸排职权，重点筛选出关系群众切身利益的权力事项，主要包括村级项目交易、“三资”管理、便民服务、扶贫等十大类三十多条，为村级组织和村干部行使权力定下“边界”。规范化用权,确保权力透明。督促各社区抓住清权确权、查找廉政风险点、制定防控措施等关键环节进行权力规范化落实，优化权力结构，建章立制，健全制度执行的责任机制和监督机制。闭环式治权，强化监督问责。街道纪工委负责监督检查、考核评估、纠错整改和责任追究机制，区纪委监委会同有关职能办（站、中心），对基层社区推进基层小微权力规范化运行情况进行专项检查。对发现的“小官巨腐”“为官不为”、滥用小微权力等典型违纪问题线索，严查严处。', '40、由区人大办申报的“打造‘代表线上履职平台’，全面提高代表履职质效”项目：鼓楼区人大代表“履职通”大数据平台通过信息化手段，为全区人大代表提供了一个“网上代表之家”，为区人大及其常委会提供了一个联系公众和服务代表的平台。该平台包括PC端和移动端，可以在PC和智能手机上同步使用。让代表摆脱时间空间制约，随时随地联系和服务群众，为人大工作规范有效有序运转提供可靠保障。平台主要包括代表信息管理、通知消息、新闻公告资讯、议案建议、履职管理、数据统计等模块。2018年7月平台建设至今，代表注册率为95%以上，发布代表信息动态105条，大会及闭会期间的活动通知20余条，建议交办110余条，真正使代表履职监督更方便、更快捷，广泛受到代表们的好评。', '41、由区人大办申报的“区人大常委会特定问题专题询问”项目：专题询问是人大及其常委会有计划、有组织、有重点地就某一方面工作集中开展的专门询问活动。2018年，区人大常委会围绕环保法律法规贯彻执行及大气污染防治攻坚工作开展了专题审议和询问。活动中，区人大常委会将全区217名区人大代表、88名镇人大代表分成8个执法检查组集中开展询问前执法检查活动，在全市乃至全省都首开先河。在区十七届人大常委会第十五次会议上，常委会组成人员围绕大气污染防治攻坚工作相关问题向区环保分局相关负责人提问并进行满意度测评。专题询问后，区环保分局针对问题及时整改，以坚定的信心、切实的举措打造“天更蓝、水更清、地更绿”生态鼓楼。', '42、由区委统战部申报的“打造新的社会阶层人士统战工作实践创新示范点”项目：以彭隆律师事务所为依托，通过党建引领、统战融入、资源整合、多方联动，打造成人才集聚、教育培养、创新创业、、成果转化、互助合作五大示范点，以此先行先试、以点带面，推动全区新的社会阶层人士统战工作深入开展。6-8月份，充分沟通酝酿，制定工作方案，组织召开新的社会阶层人士统战工作实践创新基地工作会议，明确各自分工和职责任务；8-10月份，在彭隆律师事务所揭牌成立“鼓楼区新的社会阶层人士实践创新示范点”；10-12月份，形成经验，总结推广，在全区范围内，依照经验成立行业分会。', '43、由区委统战部申报的“构建“虚拟机关”凝聚统战合力”项目：“虚拟机关”是针对基层统战力量不足，以群众化、自愿化为基础，设立的不占行政编制、不占办公场所的机构，旨在促进基层统战组织健全机构、完善制度，提高运行质量和履职能力，良好地破解人、财、物等资源限制，最大程度地调动各民主党派参政议政的积极性，促进我区统战工作再创新局面。“虚拟机关”设立组织处、宣传处、参政议政处、社会服务处等处室，通过明确岗位职能、完善工作制度、制订年度计划，实现“年初有计划、年中有作为，年底有成绩”。成立以来，它提高了基层统战组织的能力，强化了成员的集体荣誉、参政意识和使命责任感，在加强联谊、发挥作用、促进发展上发挥了积极作用。目前，有6人被推荐市、区政协委员，先后收到社情民意、提案、调研报告29件，其中转化提交市政协提案3件，重点提案5件。民建鼓楼支部、民进鼓楼支部分别被评为先进集体，被《团结报》采用信息1篇，被省委统战部采用信息4篇，被评为市优秀政协提案3篇。', '44、由区人社局申报的“全力打造‘四维驱动’就业培训工程”项目：鼓楼区人社局坚持“劳动者自主择业、市场调节就业、政府促进就业”的方针，全力打造政府—企业—平台—培训学校“四维驱动”就业培训工程，大力推行“订单式”培训，采取“一次登记，全程服务”的“一条龙”培训和就业服务，建立招工、培训、就业三位一体的就业培训模式，营造良好的就业环境和就业条件, 不断提高求职者就业能力。2018年，围绕“四维驱动”就业培训工程，组织城乡劳动者职业技能培训530人，城乡新成长劳动力技能培训240人，实现新增就业9822人，失业人员再就业8793人，就业困难人员再就业1231人。《徐州市鼓楼区开启失地农民“订单、定向、套餐式”培训模式》被中国劳动保障新闻网和市人社局《创业民生杂志》刊发报道。', '45、由区人社局申报的“推进校地共建，打造人才高地”项目：为了贯彻落实我区主要领导与徐州工业职业技术学院主要领导会谈的主旨议题，本着“资源共享、优势互补、互利互惠、共谋发展”的原则，在打造人才高地方面，人社局与徐州工业职业技术学院展开了深度合作，初步在招才引智、创业人才培训基地、高技能人才培养基地、大学生就业等多个领域取得成效，形成特色，为鼓楼区经济社会发展提供了必要的人才和智力支撑。一年来，校地双方建立了联系协调合作机制、定期互访和会议机制，召开了合作联席会议，开展了合作协商，在不断加强调研并找准共建活动的切入点的基础上，落实地区合作各项事宜，并取得了令人满意的进展，为下一步的深入合作开了好头。', '46、由区农水局申报的“水流产权确权试点”项目：水流产权确权是中央生态文明改革的重要内容，也是健全自然资源资产产权制度的重要组成。我区按照《徐州市水流产权确权试点实施方案》要求，成立由政府分管领导任组长的试点工作领导小组，全面落实试点河道的“划、确、登、管”四项任务。“划”即依法划定水生态空间范围，明确地理坐标，设立界桩、标识牌，向社会公布划界成果；“确”即确定水域、岸线等水生态空间不动产权，申领不动产权证；“登”即按照自然资源统一确权登记的有关规定对水生态空间内水域岸线等自然资源实施登记；“管”即研究水生态空间监管措施，确保河湖守住管好。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>71</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>恒大地产集团副总裁梁伟康一行来贾考察学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2018-04-13</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.xzjw.gov.cn/govxxgk/jwq_bgs/2018-04-13/71e56c2c-fb4e-4a20-8903-1aa55536e54d.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['4月12日，恒大地产集团副总裁梁伟康一行来贾考察学习。区领导张克、赵志刚等陪同活动。', '梁伟康一行先后来到神农码头和马庄村。在神农码头，梁伟康一行观看了有关展板，听取了情况介绍。当得知脚下4A级景区曾是采煤塌陷地时，梁伟康说，生态环境的巨变让人震撼，贾汪转型发展来之不易，也为贾汪带来了商机，希望恒大能够与贾汪深入合作，共同发展。', '在马庄村，梁伟康一行深入马庄村史馆、党建工作室、王秀英香包工作室、村综合服务室、文化礼堂等地，详细了解马庄村经济社会发展、乡村文化建设及基层党建等工作，感受马庄在乡村振兴等方面取得的丰硕成果。在村史馆，梁伟康都认真观看学习，看完习近平总书记视察马庄的新闻视频后，他说，马庄“一马当先”的精神值得恒大学习，恒大要在新时代发展中看到新内涵、新机遇，并为之努力。在王秀英香包工作室，梁伟康拿起缝制好的香包，现场观看香包能手制作，了解制作工艺和销售情况。他说，通过自己的双手艰苦奋斗获得的美好生活很踏实，这种创业精神了不起。在文化礼堂，大家观看了村民自编自演的快板节目，高昂的气势、有力的编词让大家印象深刻，催人奋进。', '活动期间，张克代表区委、区政府欢迎梁伟康副总裁来贾汪考察学习。他说，去年，习近平总书记视察贾汪，对潘安湖和马庄都提出了新的发展要求，也带来了强大的发展机遇，希望恒大与贾汪合作愉快，共同打造高质量发展的新贾汪。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>71</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>市政府办公室关于印发文润彭城第二届徐州市文化惠民消费季活动方案的通知</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2017-08-18</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/govxxgk/014051247/2017-08-08/e56550a4-87c8-4427-9eae-b1c7c3d0b063.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['市政府办公室关于印发“文润彭城”第二届徐州市文化惠民消费季活动方案的通知_徐州市人民政府', '各县（市）、区人民政府，徐州经济技术开发区、新城区管委会，市各委、办、局（公司），市各直属单位：', '《“文润彭城”——第二届徐州市文化惠民消费季活动方案》已经市政府同意，现印发给你们，请结合各自实际，认真抓好贯彻落实。', '为迎接党的十九大胜利召开，进一步丰富我市城乡群众精神文化生活，培养文化消费理念，引领文化消费意愿，激励文化消费行为，培育和打造新的文化增长极，在2016年首届文化惠民消费季的基础上，拟举办“文润彭城”——第二届文化惠民消费季活动。具体方案如下。', '——强化政府引导。积极引导消费者树立正确的文化消费理念，培育良好的文化消费习惯。推动文化领域供给侧结构调整，着力建立引导和扩大文化消费的长效机制。', '——坚持市场运作。突出市场导向，发挥市场主体作用，着力改善文化市场环境，增强文化产品供给能力，推动文化业态融合，繁荣文化消费市场。', '——突出惠民惠企。强化文化销售与文化消费对接，打造一个文化企业与消费者之间“链接供需、拓展市场”的平台，拉近企业与消费者距离，采取商家优惠折扣和社会支持等方式真正实现让利于民，扩大和培育潜在文化消费市场。', '——发动社会参与。充分发动社会各方面力量参与文化供给和文化消费的积极性，让文化惠民从文化系统“内循环”转变为社会参与“大循环”，逐步形成全社会参与、健康推进的新局面，为群众带来更多文化实惠。', '徐州文化馆、徐州博物馆、徐州汉画像石艺术馆、徐州市图书馆，丰县文广新体局、沛县文广新体局、睢宁县文广新体局、邳州市文广新体局、新沂市文广新体局、铜山区文广新体局、贾汪区文广新体局，鼓楼区文化旅游局、云龙区文化旅游局、泉山区文产办', '云龙区人民政府、徐州市商务局、徐州市旅游局、徐州报业传媒集团、徐州广电传媒集团、徐州演艺集团、徐州市各相关文化企业。', '（一）开展免费文化惠民系列活动。主要包括送戏送图书送电影下乡、名家名画展览、高雅艺术进校园、专题讲座、艺术品鉴定、博物馆参观及分时段免费讲解、戏曲天天看、纳凉晚会、徐州文化博览会、汉文化旅游节等。', '（二）推广“文化惠民卡”。发放20万张实名制“文化惠民卡”，“文化惠民卡”涉及看、听、学、读、感、娱、品、印等方面的千家文化企业单位，活动期间给予持文化惠民卡的消费者年度最低优惠，一卡在手，欢乐消费。', '1.推出文化旅游博览节会。举办第四届中国·徐州民间工艺博览会，邀请国内外文化企业参展，集聚文创、玉器、陶瓷、雕刻、非遗、织绣等众多文化工艺品。举办2017中国徐州第十一届汉文化旅游节，组织开展各类旅游推介活动，着力打造徐州旅游文化品牌。', '2.举办江苏省艺术（戏曲）展演月。9月14日—20日，分别在音乐厅、人民舞台、管道剧场和睢宁文化艺术中心演艺馆等举办“江苏省艺术（戏曲）展演月”活动演出不少于12场；消费季期间，在徐州民俗博物馆戏曲大舞台举办“好戏天天看”活动，共演出62场。', '3.举办书画展。消费季期间，在徐州博物馆、徐州图书馆等地，举办书画展等22场，助力“书画徐州”建设。组织高雅艺术进校园公益巡展和专题讲座，力争覆盖徐州各大高等院校，传播徐州文化。', '4.开展“百戏千影镇村行”活动。消费季期间，组织市直专业艺术表演团体开展戏曲乡镇免费演活动112场；组织农村、社区电影放映队开展电影乡村免费放活动6730场。', '5.举办传统文化讲座。消费季期间，分别在图书馆、博物馆、汉画像石馆、彭城书院、有鱼书院等，邀请专家学者举办各类专题讲座100余场。', '各县（市）区要立足辖区文化特色和文化产业优势，广泛开展各具特色的群众文化活动：一是开展特色文化展演展示活动，比如沛县的武术、睢宁的儿童画、贾汪的马庄民俗等；二是举办各类纳凉晚会、广场文艺汇演和经典朗诵活动，展示文化建设成果，丰富群众文化生活；三是举办各类非物质文化遗产展示，组织非物质文化遗产创意产品售卖，扩大文化创意产品的影响力；四是举办图书馆、博物馆、艺术馆等文化场馆的免费开放和讲解活动，加强对群众尤其是青少年的地方历史文化教育；五是举办各类公益性文化艺术培训和公益文化讲座，提高公众文化素养。按照“统筹协作、分工负责”的原则，成立活动领导机构，保证文化企业、知名商贸企业和旅游企业的参与热情，把文化惠民、商贸惠民、旅游惠民结合起来，让第二届文化惠民消费季活动惠企惠民，促进辖区文化、旅游等相关产业的发展。', '（一）各县（市）区要积极动员辖区内文化、商贸和旅游企业，确保80%以上的文化企业参与本次活动（各辖区不低于100家）；做好各自辖区内旅游景点门票优惠政策的落实；统计好活动期内的各项公益惠民活动的数据（含送戏、送电影、送图书的次数、广场舞及各类文体类活动情况）。', '（二）云龙区、鼓楼区、泉山区要做好辖区内产业园内文化企业的参与工作，参与企业不低于100家，惠民折扣到最低标准。鼓楼区要做好龟山汉墓、龟山民间博物馆区等旅游景点门票惠民折扣，云龙区要做好汉文化景区、民俗馆、戏马台等旅游景点门票惠民折扣。', '（三）市文广新局负责统筹做好活动组织、社会宣传、文化惠民卡制作发放、活动总结等工作；市商务局协调做好苏宁广场、金鹰国际、金地等各大商场的文化惠民工作；市旅游局负责统筹抓好汉文化旅游节活动组织和文化景点的文化惠民工作；徐州报业传媒集团、徐州广电传媒集团负责配合做好活动期间的社会宣传、场地保障等工作；徐州演艺集团负责组织市直文艺院团开展文化惠民系列演出活动。', '（一）强化组织领导。各地、各相关单位要成立“文润彭城”徐州市文化惠民消费季活动领导机构和工作机构，明确具体部门和专人负责落实各项活动部署。市文广新局要统筹做好与市各相关部门、各县（市）区的沟通对接和协调推进工作；各相关部门单位要加强协作，积极配合，形成合力，为组织实施好文化惠民消费季活动提供强有力的组织保障和机制保障。', '（二）强化责任落实。开展“文润彭城”文化惠民消费季活动，是推动居民文化消费、引领文化市场发展和丰富城乡百姓文化生活的重要抓手，各地、各相关单位要进一步提高思想认识，牢固树立责任意识、全局意识、安全意识，切实将活动安全摆上重要位置，严格对照既定的各项目标任务，研究制定具体工作方案，细化分工、责任到人，突出重点，明确进度，确保取得实效。', '（三）强化政策支持。积极通过报刊、广播、电视、网络、微信、微博等媒体，加大对参与活动文化单位和企业推介推广力度；对参与活动的优秀企业在文化产业政策解读、人才培训、考察学习等方面提供优先支持，在申请国家和省市文化产业发展专项资金项目时予以优先支持，并向有关投融资机构进行优先推荐；对在活动期间表现优秀的文化企业将给予相应表彰。', '（四）强化社会宣传。活动期间将印制主题海报10万份在公共场所宣传张贴，发放惠民消费卡20万张、惠民节目单5万份，协调省市各大新闻媒体、网站、徐州发布微信公众号等对活动进行宣传，在文化企业、城乡居民和协会单位中策划开展系列访谈活动，提高广大市民的认知度、参与度，增强文化惠民消费季活动的影响力和传播力。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>71</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>泉山区年安全生产工作总结</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2018-03-02</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.xzqs.gov.cn/govxxgk/13673981-6/2018-03-02/a39ffa56-8d8c-4ba6-9a2a-21c281c0fb80.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['区委、区政府高度重视安全生产工作，始终把安全生产工作作为保底工程、民生工程来抓。今年以来，我区紧紧围绕《中共中央国务院关于推进安全生产领域改革发展的意见》，贯彻落实各级关于安全生产工作指示要求，夯实基层基础，强化监管执法，突出防范治理，深入开展了“西部城区生产安全专项整治”、“夏季安全行动”、“夏季百日执法行动”等活动，有力确保了辖区安全生产形势平稳可控。特别是七月份以来，按照国务院和省、市部署要求，层层发动、强化推动，深入开展了安全生产大检查，扎扎实实抓好安全隐患排查治理。截止目前，全区2017年共办理安全生产违法案件879件，罚款426.54万元，其中安监部门办理114件，罚款138.79万元；市场监管部门办理4件，罚款26.5万元；公安部门办理656件，罚款86.15万元；消防部门办理105件，罚款175.1万元。具体抓了七个方面工作：', '一是深入学习贯彻《意见》精神。区安委会将宣贯落实中共中央、国务院《关于推进安全生产领域改革发展的意见》作为2017年安全生产工作的首要内容，订购了一批《意见》学习读本发至区四套班子领导和全区各部门、各单位。结合“安全生产月”等活动，在全区开展了《意见》和“两法一条例”学习宣贯活动。10月8日，区委召开了常委（扩大）会议，集中学习了江苏省委、省政府《关于推进安全生产领域改革发展的实施意见》（苏发〔2017〕18号），提出了深化落实《实施意见》措施要求。', '二是不断强化安全生产组织领导。多次召开区委常委会、政府常务会、党政联席会，学习贯彻上级指示精神，分析研究安全生产形势，制定部署工作落实措施。8月26日，区委召开了八届三次全会，对安全生产工作进行了重点强调。8月31日，召开了“三大一创”工作推进会，对安全生产大检查进行再部署、再动员。今年以来，区安委会先后召开了12次安全生产工作会议，并将每月1日确定为调度例会日，重点是调度上月工作开展情况，协调解决疑难问题，布置下月重点任务，确保工作件件落实。', '三是科学确立安全生产任务目标。3月份召开了全区安全生产工作会议，进一步明确了年度工作目标任务。区长与各位分管副区长签订了责任状，区政府与区有关部门、各街道办事处分别签订了个性化的《2017年安全生产目标管理责任书》，与14个办事处签订了烟花爆竹责任状，把控制指标和目标任务分解量化到街道、部门和企业。区政府还拨付专项资金用于兑现2016年安全生产目标考核。', '一是不断强化行业安全监管工作力度。印发了《区政府有关部门和单位安全生产工作职责规定》，进一步明确了33个部门和单位的安全生产工作职责。落实《关于进一步明确市县两级城镇燃气及餐饮场所燃气安全管理职责（试行）的通知》要求，区安委会组织召开了城镇燃气安全专项整治会议，并开展2次燃气安全专项整治，查扣不合格液化气瓶726个。区住建局、园林局等部门组织了安全监管业务培训，开展了专项检查整治活动。区发改局多次邀请专家对电力行业、成品油市场等进行安全检查。其他部门也都加强了对本行业领域的安全监管工作。', '二是长效推进安全生产督查考核机制。由年度考核改为季度考核，以督查考核促进安全生产工作责任落实。目前，对泉山经济开发区、各办事处组织了前3季度和年度督查考核，对区各有关部门和单位完成了半年及年度督查考核。“两会”期间、丰县“6.15”爆炸事件后，组织了2次专项督查检查。安全生产大检查期间，先后组织了4次联合督查检查，每次为期一周。督查检查情况经区安委办主任会议审定后报区委、区政府，并通报有关单位。', '三是持续抓好“四项督查”问题整改。区委、区政府制定下发了“四项督查”任务分解专项方案和《关于对“四项督查”安全生产问题实施“表格化”责任管理的通知》，将23个问题分解到区有关部门和单位，区领导逐项包挂负责，每月调度上报推进情况，目前已完成整改20件。贯彻落实市安委会要求，区安委会印发了《隐患整改交办通知》，挂牌督办了39件隐患问题。同时，继续深化区级“六项督查”工作，先后将徐州明宇加油站、雨润农副产品市场（冷库）等32件隐患滚入区“六项督查”，予以挂牌督办和整改。', '一是扎实开展安全隐患检查排查。突出重要节日、重大活动，紧盯高危行业、重点企业、薄弱环节，全面开展安全隐患检查排查。“元旦”、“春节”期间，共检查各类生产经营单位420家/次，排查各类隐患298处，收缴烟花18箱，鞭炮130余万头。春节后，按照“检查到位、监管到位、预防到位”的要求，在全区范围内开展了节后复产复工检查。“两会”期间，区安监局分3个组分片在全区开展安全检查督查。3月上中旬省、市安监局到区督查“两会”期间安全生产工作，对我区工作给予了充分肯定。', '二是部署实施“夏季安全行动”。5月12日,区委、区政府组织召开了全区夏季安全生产工作会议，部署实施“夏季安全行动”，共600余人参加会议。夏季安全行动5月份开始、8月底结束，共检查企业1619家/次，排查整改各类隐患1381处，立案处罚40余起。丰县爆炸事件后，根据区主要领导要求，在全区范围内立即开展燃气安全专项检查整治活动。区安监局联合市场监管局、消防大队成立了14个督查小组，直接到各街道办事处一线进行督查检查，查扣不合格气瓶169个。', '三是全力打好安全生产保卫战。贯彻7月20日全国安全生产电视电话会议精神，从7月份至10月底深入开展安全生产大检查。区安委会办公室每天调度各单位、各部门工作情况，并组织安监、消防、市场监管等部门，成立了3个联合督查组，不间断、分批次进行了4轮督查检查。10月15日，国务院安委会督查组、省暗访组到泉山进行督查检查，对我区大检查工作开展情况给予充分肯定。中秋、国庆，落实24小时领导带班和值班值守制度，并采取蹲点包挂方式，向每个街道办事处派出1-2人，全程全时督查指导街道办事处和重点企业单位安全生产工作，全力打好安全生产工作保卫战。', '四是扎实开展岁末年初安全生产大检查。年底岁末历来是安全生产工作关键时期，也是事故的多发期，区委区政府高度重视，12月29日区委书记赵兴友同志专门召开会议强调抓好元旦春节期间安全稳定工作，12月份以来区安委会先后召开3次会议强调抓好岁末年初安全生产工作，要求认真吸取连云港“12.9”、山东潍坊“12.19”事故教训，区两办、区安委会印发多份文件强调抓好元旦春节安全生产工作，在全区组织开展了新一轮安全生产大检查，区委区政府领导同志在元旦前后先后带队开展了督查检查，并针对近期雨雪冰冻天气启动了应急预案，积极做好事故防范和应对工作。', '一是积极推进西部城区生产安全专项整治。根据区西部大整治统一部署，计划利用2年时间，投入专项资金60万元开展西部城区“生产安全专项整治”活动。2月份邀请安全专家对西部城区安全生产条件和职业卫生状况进行了全面排查摸底，制定了202家生产企业整治方案，目前已搬迁关停35家企业，新完成达标11家企业，其他企业正在按计划组织整治提升和安全达标。', '三是严格实施“夏季百日执法行动”。印发了《区安委会关于开展夏季安全生产百日执法行动的通知》，从7月下旬开始至10月底，重点围绕烟花爆竹、有限空间、动火作业等七个方面开展精准执法，突出抓大案要案。同时，落实 “两法衔接”部署要求，建立联办工作机制，及时移交办理相关案件。', '一是加大安全生产宣教力度。广泛开展全国第十六个“安全生产月”活动，在全区主要街道、村、企业悬挂安全横幅100余幅，举办安全专栏60个，制作展板80个，发放宣传资料10000余份。6月16日，区安委会在中石化管道储运公司文化广场举行“安全生产月”咨询日活动，接待参观、咨询3000多人次，起到了很好地宣传教育作用。制定下发了“安全生产法宣传周”专项方案，广泛开展安全生产普法宣传活动。通过“泉山安监”微信公众平台，每周定期更新2期，发布了600余条安全信息。', '二是抓好安全生产宣传报道。严格按照《泉山区安全生产信息宣传工作考评办法》，对各单位、各部门安全生产宣传工作进行量化考评。与《徐州日报》、徐州电视台及网络媒体等单位加强协调，积极传播安全生产正能量。今年以来，我区发表二类以上安全生产宣传稿件28篇，在市安监局网站发布188篇，在区政府网站发布45篇，段庄街道《“110”执法模式》被《中国安全生产报》采用，《徐州泉山开发区多力并举推进企业主体责任落实》被《江苏省安全生产杂志》采用。', '三是强化安全生产培训工作。牢固树立“培训不到位是重大安全隐患”理念，坚持不懈地抓好安全生产培训工作。全年共培训“三项岗位”人员1465人，并开展了2次持证上岗专项执法检查。通过持续加强安全教育培训，进一步提高了从业人员安全意识和技能水平。', '一是完善安全监管网络体系。率先在主城区设立安全生产监察大队和街道办事处安监办，积极推进安全生产专职安全员队伍建设。下发了《关于进一步明确各辖区内安全生产监管职责的通知》，各街道办事处按照“三个必须”要求进一步明确了安全生产责任分工。11月底，组织人员随同市局到盐城、昆山进行考察学习，对区安全生产网格化监管工作进行了研究讨论，并初步在泉山经济开发区和庞庄、段庄2个办事处开展试点先行工作。', '二是加强“科技兴安”建设。起草相关方案和文件，促成市政府与中信重工开诚智能装备有限公司签定了“合作开展徐州市科技安全建设”战略框架协议，并在泉建设特种机器人研发生产基地，6月份第一批82台特种机器人已交付徐州市消防支队。按照省、市标准要求，投入14万多为全区安监部门执法人员配备了19套移动执法终端，并先后组织2次专项操作培训，对执法终端使用、管理进行统一规范。投入资金30余万元，购买了一台执法车及特种作业操作证读卡器、可燃气体检测仪、激光测距仪等检测检验设备，安装了安监视频会议系统，与省、市实现了互通互联。', '三是强化执法人员业务培训。今年以来，我局安监执法人员参加省市业务培训30余人次，对街道安监办执法人员开展综合、专项培训7次200余人次,1名安全监管执法人员通过了注册安全工程师执业资格考试。11月12日，组织58名街道安监人员，参加了区法治办执法资格考试，较好地解决了持证执法问题。11月27日，委托徐州创伟安全技术培训中心开展了安全生产综合能力培训，全区各有关部门和单位分管领导、安全工作负责人共60余人参加了培训。', '一是健全完善应急预案。完善和修订区级总体应急预案1个，专项预案5个，制定了《泉山区较大生产安全事故应急处置手册》、《泉山区安全生产应急救援物资储备管理制度》等，印制了《泉山区生产安全事故应急救援工作手册》分发到区领导和区有关部门负责人。同时，做好生产经营单位应急预案备案工作，督查企业落实安全生产应急救援主体责任。', '二是强化应急处置演练。依托泉山消防大队，成立了区综合应急救援大队，依托大中型企业组建了专业应急救援队伍，各街道也成立了综合性应急救援队。今年以来，组织危化企业、工贸企业以及学校、医院、社区等开展应急演练100余次。区安监局先后组织开展了徐州雨润农贸市场氨气泄漏、加勒比水世界人员受困实战演练，以及华美热电供热事故桌面演练。', '三是高效启动应急工作。上半年，辖区内接连发生家泰上院碎石作业致周边群众财产受损、解放南路地铁施工燃气泄漏等事件，区政府立即启动应急预案，各部门密切协调联动，采取积极有效应对措施，快速及时地解决了隐患问题。', '2017年，在各级安监局及各有关部门的关心支持下，我区安全生产形势继续保持平稳。但我们也清醒地认识到，在工作中还存在许多薄弱与不足。下一步，我们将认真学习贯彻党会议精神，落实各级关于安全生产工作指示要求，以安全隐患排查治理和防控安全事故为核心，把各项改革措施落到实处，有效防控一般事故、坚决杜绝较大事故，确保全区安全生产形势平稳可控。', '一是制定出台区级改革发展实施意见。全面深入学习领会会议及一中全会有关精神，贯彻落实中共中央国务院和省委、省政府关于推进安全生产领域改革发展的意见，待市级相关贯彻落实意见出台后，结合我区实际制定区级《关于推进安全生产领域改革发展的实施意见》，着力解决制约我区安全生产工作的薄弱问题，推进提升我区安全生产工作水平。', '二是进一步压紧压实安全生产责任。重点是强化党委政府领导责任、部门监管责任和企业主体责任。对行业领域监管权限、处罚权限存在歧义的，树立“以我为主、主动作为”意识，切实承接好区级政府属地安全管理工作。督促企业全面落实“一必须五到位”安全生产责任和“三位一体”管理模式，采取有效措施大力提升辖区企业安全生产标准化管理水平。', '三是继续抓好岁末年初安全生产工作。贯彻落实国家、省、市有关岁末年初安全生产工作指示要求，抓好安全检查排查、隐患问题整改、宣传教育培训以及重点行业领域专项整治等工作。重点抓好春节及各级“两会”期间安全生产大检查和冬季防火工作，集中开展“除隐患防事故保安全”专项行动，强化值班值守和应急准备，防治因赶工赶产或复产复工造成安全生产事故，确保岁末年初特别是春节及各级“两会”期间安全生产形势持续稳定好转。', '四是深入开展安全生产专项整治工作。继续抓好危险化学品综合治理、建筑施工、燃气安全、特种设备等重点行业领域安全生产专项整治。推行烟花爆竹24小时安全监管视频系统，在每一家专营店内安装一套视频监控设备，实现烟花爆竹安全经营的全程实时管控。继续抓好西部生产安全专项整治工作，确保2018年底前按期完成整治目标任务。', '五是不断强化安全生产执法工作。进一步完善安全生产检查、督查等监管执法方式，有效解决“重检查轻执法”的问题，加大执法处罚力度，严格落实“四个一律”执法措施，查办一批大案要案。同时，强化安监移动执法终端和《江苏省安全生产行政处罚自由裁量实施细则》推广运用，严格执法程序，规范执法行为，推动安监执法工作更进一步。', '六是进一步加强安监基层基础建设。按照各级社会治理网格化建设总体部署要求以及总局关于安全生产网格化监管的意见，大力推进安全生产网格化建设，进一步完善基层安全生产监管网络体系。按照执法机构建设标准要求，完善安监部门机构、人员、保障等，并推动行业领域专业安全生产委员会、行业部门安全监管机构建设。继续推进安全生产专职安全员招录聘用工作，尽早将人员按标准配备到位。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>71</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>关于做好应急管理工作的通知</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2013-07-05</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.zgts.gov.cn/govxxgk/014088621-001/2013-07-05/f9e0c28c-b5aa-407c-af19-dcdef39482c9.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['各镇（场）人民政府、街道办事处，徐州高新区管委会，吕梁风景区管理处，区各委办局（公司），区各直属单位：', '为切实保障人民群众生命财产安全，提升预防和处置突发事件的能力，有效应对各类突发事件，全面加强应急体系建设，促进全区经济更好更快发展。结合我区实际，就做好应急管理工作提出如下意见。', '加强应急管理，提高预防和处置突发公共事件的能力，是关系经济社会发展全局和人民群众生命财产安全的大事，是构建社会主义和谐社会的重要内容，是坚持以人为本、执政为民的重要体现，是全面履行政府职能，进一步提高行政能力的重要内容。党中央、国务院高度重视应急管理工作， 2007 年 11 月 1 日，国家制定了《中华人民共和国突发事件应对法》， 2012 年 2 月 1 日，江苏省制定了《江苏省实施〈中华人民共和国突发事件应对法〉办法》，国务院、省政府、市政府形成了较为完善的应急管理体系。我区根据《江苏省实施〈中华人民共和国突发事件应对法〉办法》和上级主管部门的要求，结合实际，成立了铜山区应急管理委员会，设立了应急管理办公室，综合协调区应急管理工作。各镇（场）、街道办事处、各有关单位要进一步提高认识，认真落实区应急管理工作部署，努力把应急管理工作做好、做扎实。', '2013年区应急管理工作的基本思路和目标是：根据国务院、省、市政府应急管理工作会议要求，结合我区实际，贯彻“以人为本、健全机制，预防为主、统一领导、分级负责，依靠科学、依法规范，快速反应、协同应对”的工作原则，在区多年来形成的综合减灾和紧急处置体系的框架基础上，进一步健全工作机制，整合预防和处置自然灾害、事故灾难、公共卫生事件、社会安全事件的相关资源，完善区公共突发事件的预案预防体系，搭建全区应急指挥平台和信息网络系统，建立综合预防、应对处置突发公共事件的综合管理协调体系，强化应急管理的全社会联动机制，使常态长效管理和非常态应急管理相结合，努力提升区应对各类突发公共事件的能力和水平，构建和谐铜山。', '（2）明确责任，严格按照属地管理和“谁主管，谁负责”的原则，层层落实责任制，建立主要领导亲自抓，负总责，分管领导具体抓，直接负责的责任体系。切实把应急管理工作落实到单位，责任到个人。区政府应急办将根据《徐州市应急管理工作目标考核暂行办法》细化考核细则，对全区应急管理工作进行综合考核，抓好各级、各部门的责任落实，确保各项应急管理措施落实到位，实现应急管理体系建设的科学发展，切实维护人民群众生命财产安全和社会稳定。对重视度不高、存在麻痹思想和侥幸心理的单位，及时督查督促落实，保证应急工作取得实效。', '按照《徐州市突发事件应急预案管理办法》和突发事件应对工作需要，区应急管理办公室编制区总体应急预案，区政府及区各有关单位为应对某一类型或某几种类型突发事件编制专项应急预案，各镇（场）、街道编制镇级总体应急预案，区各有关部门编制本部门总体应急预案，各企事业单位要根据有关法律法规，编制本单位应急预案，各主办重大活动的单位、公共场所经营管理单位在组织重大活动时要编制重大活动应急预案，同时编制本预案的简本，根据预案编写应急预案明白卡，编制的预案要有针对性、实效性和可操作性。要规范细化应急处置流程，确保有效应对和处置突发事件。形成完备的预案体系。各级、各部门编写的预案要到上一级主管部门备案。在预案演练后根据演练效果，及时发现不足进行完善，定期进行修订。', '科学制订应急演练计划，统筹安排区级有关部门演练项目，组织开展1-2次以上区级综合应急救援演练，各镇（场）、街道、各有关单位至少开展1次综合应急演练。同时，加强高风险地区、高危行业和基层组织的应急演练。进一步规范应急演练程序，强化应急演练总结评估，提升应急演练质量。', '积极组建应急救援队伍。一是组建区综合应急救援队伍。二是组建防汛抗旱、森林消防、供水抢修、电力抢修、重大交通事故应急救援、地质灾害、矿山救援、危化品救援、卫生防疫、动植物重大疫情等专业救援队伍和青年志愿者、红十字志愿者队伍。三是组建镇、村（社区）、企事业等基层组织专兼职应急救援队伍。各专项预案牵头单位要进一步组建重点领域专业救援队伍，加强培训，加大抢险救援和个人防护装备的配备力度，提高救援能力。', '按照《关于徐州市应急管理基础地理信息系统运行有关事项的通知》的要求，进一步摸清底数，建立健全物资储备数据库和物资储备信息共享、调拨征用和余缺调剂机制，加强应急物资储备管理。要重点加强矿山救援物资、救灾减灾物资、防汛抗旱物资和防冰冻灾害物资的储备和管理，提高物资装备保障能力。', '各镇（场）、街道、各有关单位要做好应急值守工作，重点抓好基层值班软硬件建设，严格24小时领导带班、专人值班制度，健全节假日、重要会议、重大活动和敏感时期的值班机制。区政府值班室每周不定时对各乡镇或重点工作部门值班情况进行抽查，并记录在案，作为年终考核的依据。同时，围绕“第一时间上报”和“第一时间落实”的要求，加强信息报送工作，提高信息报告的及时性和准确性，进一步落实《徐州市政府办公室关于进一步加强突发事件信息报送工作的通知》的精神，建立和完善信息的采集和上报工作。对重要信息迟报、漏报、瞒报和续报不及时等现象要追究责任。', '按照属地管理的原则，组织开展所辖范围内容易引发较大以上突发事件危险源和危险区域的调查、登记和风险评估工作，建立健全风险隐患信息数据库，督促有关部门和单位实时进行检查、监控，积极落实安全防范措施。完善自然灾害、事故灾难、公共卫生事件、社会安全事件等各级各类监测监控系统，做好突发事件监测预警工作。及时发布突发事件预警信息，扩大突发事件信息覆盖范围，提高预测预警的及时性、准确性，实现突发事件相关信息的实时共享。', '以深化应急管理知识进社区、进农村、进学校、进家庭、进企业的“五进”活动为载体，利用法制宣传日、“5•12”防灾减灾日等时机，通过广播、电视、报刊、网站、手机短信、发放宣传手册、举办知识竞赛等形式，宣传应急管理法律法规、科普知识、应急预案，切实增强公众的风险防范意识和预防避险、自救互救能力。运用以会代训、专题培训、跟班学习、网上学习、异地考察学习等多种形式加强各级领导干部特别是应急管理专业人员和高危行业人员的应急管理知识培训，提高应对突发事件的综合素质。', '加强领导。各镇（场）、街道、各有关单位要把加强应急管理工作作为保障公共安全和经济社会协调发展的重要任务，列入议事日程，进一步加大组织领导和协调力度。要严格依法行政、规范政府行为，将应急管理工作纳入本部门、本单位年度重点工作中，严格实行突发公共事件应急处置工作领导责任制和责任追究制，切实加强对应急管理工作的领导。', '充实机构。各镇（场）、街道、各有关单位要按照总体应急预案的要求，立足现实、细化职责，充实加强应急管理机构，明确专职的应急管理工作人员。要进一步加强应急管理工作队伍自身建设，认真解决工作中职能不明确，应急管理和值班人员素质、业务水平不高等问题，选配政治敏锐性和工作责任感强、熟悉业务、有较强组织协调能力的同志充实到应急管理工作岗位上。', '加大投入。各镇（场）、街道、各有关单位要切实转变职能，更新理念，把加强应急管理摆上重要位置，把人力、财力、物力等公共资源更多地用于社会管理和公共服务。要加大投入，保证应急管理工作的必备条件和经费，提供应有的物质保障，确保应急工作的有效开展。', '密切配合。应急管理工作综合性很强，是一项复杂的社会系统工程，涉及到行政管理和社会管理的诸多方面。它不仅是某个应急管理办事机构或工作机构的事情，而是各级政府和各有关部门乃至全社会的共同责任。要加强各级之间、部门之间的密切配合，无论是预案的修订和完善、应急队伍和信息平台的建设，还是突发公共事件的处置，都要齐心协力，形成合力，最大限度地提高应对突发公共事件的处置能力和水平。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>71</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>市政府关于加快发展多层次资本市场的实施意见</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-03-31</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/govxxgk/01410330X/2017-03-31/2141a594-8d0f-46ca-b4db-bd26fde67a03.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['各镇人民政府，各街道办事处，马陵山景区管理处，新沂经济开发区、锡沂高新区，市各有关单位：', '为贯彻落实《国务院关于进一步促进资本市场健康发展的若干意见》（国发〔2014〕17号）、《省政府关于进一步促进资本市场健康发展的实施意见》（苏政发〔2014〕122号）和《市政府关于加快发展利用多层次资本市场的意见》（徐政发〔2016〕52号）精神，结合我市实际，现提出如下实施意见。', '坚持政府引导、市场化运作的原则，树立资本经营理念，抢抓资本市场发展改革机遇，推动企业走实体经营与资本经营相结合的道路，以企业上市、“新三板”和区域性股权市场挂牌以及上市后备资源建设为重点，充分利用股权投资、债券、基金、票据、资产证券化等直接融资方式融资，提高企业直接融资比重，强化金融服务实体经济功能，加快金融集聚区建设，大力招引银行、证券、基金、创投、期货等机构，形成各种金融机构并存，结构较为合理，功能比较完善的多层次资本市场体系，助推全市经济发展方式转变和产业转型升级。', '到2020年底，全市非金融企业直接融资占社会融资的比重提高到35%左右；在A股上市企业达10家以上，“新三板”挂牌企业达20家以上；发起设立产业投资母基金规模30亿元，带动和招引股权投资机构超20家；区域性股权交易市场挂牌企业总数超20家。全市金融业增加值占GDP比重提高到5%，多层次资本市场建设走在苏北县域前列。', '1.加快企业上市步伐。加强与沪、深等证券交易所合作，推动华信新材料、维尤纳特、斯尔克、康程新材料、卧牛山新型防水材料、交投公司等重点目标企业加快上市步伐。力争华信新材料2017年成功上市，维尤纳特2019年上市，其他重点目标企业上市工作取得突破。结合我市“4+3”产业体系，动态选取20家创新能力强、成长性好、产业层次高的龙头企业重点培育，健全上市后备企业库。', '2.鼓励企业“新三板”挂牌。积极对接“新三板”扩容、分层、转板及竞价交易等改革发展机遇，鼓励符合条件的企业规范改制为股份公司，每年动态培育后备企业3家以上，加快企业挂牌步伐。引导“新三板”挂牌企业积极利用资本市场开展股权融资、债券融资和并购重组。引导银行等机构对“新三板”挂牌企业开展股权质押融资等创新业务。（责任单位：发改经济委，新沂经济开发区、锡沂高新区）', '3.引导企业在区域性股权市场挂牌。对暂不符合上市和“新三板”挂牌条件的企业，鼓励其在上海股权交易中心、天津交易所、江苏股权交易中心等区域股权市场挂牌，推进企业多元化融资和规范发展。支持企业利用徐州产权交易所股权托管融资平台，通过股权质押、私募股权、私募债券等方式进行融资。（责任单位：发改经济委，新沂经济开发区、锡沂高新区）', '4.推进上市公司再融资。切实提高上市公司质量，鼓励上市公司通过兼并重组、增发股份、发行债券等方式募集资金，用于企业产业链的整合扩张、转型升级和跨界经营，进一步做大做强做优企业。（责任单位：发改经济委，新沂经济开发区、锡沂高新区）', '5.支持企业发行各类债券。加快推进城市综合管廊等各类专项债券申报发行，引导符合条件的国有、民营企业推广发行绿色债、可续期债、项目收益债等创新产品，不断优化债券结构。鼓励中小型企业发行中小企业集合票据、中小企业集合债券、中小企业私募债等，充分拓宽企业融资渠道。力争到2018年底全市企业债存量规模达到120亿以上，2020年底达到150亿以上。（责任单位：发改经济委、金融办、各国有公司，新沂经济开发区、锡沂高新区）', '6.鼓励企业境外发债。抓住国家鼓励企业境外发债机遇，鼓励资信状况好、偿债能力强、有实力的民营企业和国有公司申请境外发债。（责任单位：发改经济委、金融办、各国有公司，新沂经济开发区、锡沂高新区）', '7.探索资产证券化。推进国有公司等企业资产证券化、资产支持票据，鼓励新沂农商行联合信用评级机构开展信贷资产证券化业务，大力发展个人住房、汽车、消费等零售类贷款证券化产品，缩短融资链条，降低融资成本。（责任单位：财政局、发改经济委、新沂农商行、各国有公司）', '8.引导企业开展期货交易。充分利用期货市场的价格发现和风险管理功能，支持各类企业科学利用期货等衍生工具对冲风险。加强与上海期货交易所、大连商品交易所、郑州商品交易所等机构的合作，支持符合条件的生产、仓储物流企业申请设立期货交割仓库。', '9.鼓励企业开展大宗商品交易。鼓励花厅生物科技、华宏特钢等龙头企业利用电子买卖交易套保的大宗商品批发市场，开展大宗商品交易，稳步开展套期保值业务。（责任单位：商务局、金融办，新沂经济开发区、锡沂高新区）', '10.提升物权类交易市场服务功能。充分利用新沂市农村产权交易服务中心平台，推进农村土地承包经营权抵押贷款、逐步开展房屋所有权等产权要素融资，激发农村发展活力，实现城市资本和农村闲置资源良性互动和市场化交易。（责任单位：农工办、邮储银行、新沂农商行、国土局、房产服务中心）', '11.设立产业引导基金。按照“政府引导、市场运作、科学决策、严格管理”原则，依据“两个层级、四只基金”总体框架，分别设立市级层面母子产业基金和开发区、高新区两只产业基金。母基金由市财政出资，总规模不低于3亿元，对接国家、省和徐州市各项引导基金，重点对先进制造业、现代服务业、现代农业等领域进行投资；针对具体项目，结合我市产业特点，由母基金与社会资本共同出资设立市场化子基金，对纳入我市战略性新兴产业、中国制造2025新沂“三大行动计划”，引领转型升级、创新驱动发展的产业项目，以及具备一定前瞻性、投资大、回报期长、外部效应明显的新材料、新能源、生物制药等新兴产业领域进行投资。力争到2018年底设立各类产业基金达到15支以上，规模不低于20亿元；2020年底达到20支，规模不低于30亿元。（责任单位：财政局、发改经济委、科技局，新沂经济开发区、锡沂高新区）', '12.支持创投、股权基金发展。加快推进股权融资，吸引各类资本在我市设立股权投资基金及管理机构，支持股权投资基金加大对我市中小科技型、创新型企业开展投资，帮助企业完成股份制改造，推动企业建立规范的现代企业制度；动态完善企业重点融资项目库，联系徐州市发改委等有关部门，积极参与在深圳、上海、北京等地举办的新兴产业暨现代服务业融资路演活动，每年举行一次风投、创投、基金机构说明会，推动产业与创投资本深度对接。力争到2020年底引进设立创投、股权基金达到20家以上。（责任单位：发改经济委、财政局、金融办，新沂经济开发区、锡沂高新区）', '13.发展并购基金。推动和支持我市蓝丰生化、利民化工、必康制药等上市企业联合股权投资基金、银行、证券等机构发起设立并购基金，收购上下游关联企业，提高产业集中度，实现资源要素再优化、再配置，形成一批具有核心竞争力的行业龙头企业。鼓励有条件的企业开展国际并购。（责任单位：发改经济委、财政局、金融办，新沂经济开发区、锡沂高新区）', '14.发挥银行信贷主渠道作用。支持商业银行推广一批服务于传统产业转型升级、战略性新兴产业发展和解决融资难、融资贵的金融产品、工具和服务模式，提升服务实体经济能力。加强与外资银行的协调联络，吸引外资银行来我市开展业务。（责任单位：人民银行新沂支行、金融办、市内各银行机构）', '15.创新产业链金融合作模式。引导银行业金融机构与产业链核心企业开展产业链金融合作，采取应收账款质押、商业承兑汇票贴现等方式，缓解工业企业、供应商、销售商等上下游产业链企业的资金压力。（责任单位：人民银行新沂支行、中小企业局，新沂经济开发区、锡沂高新区）', '16.开展物流金融业务。以临港物流园、公路港物流园、铁路物流园等为主体，推进金融机构、供应链企业、物流企业三方合作，提高物流企业的服务能力和经营利润，降低供应链企业的融资成本，拓宽企业的融资渠道，降低企业原材料、半成品和产成品的资金占用率，实现资本优化配置。（责任单位：人民银行新沂支行、金融办、交通运输局、各银行业金融机构）', '17.开展投贷联动试点。根据省、徐州市投贷联动试点政策精神，鼓励金融机构围绕经济开发区、锡沂高新区等科技型、初创型企业聚集地，开展“投贷联动”业务试点，探索“股权+债权”、“投资+贷款+保险”的融资模式，开展投贷联动试点。（责任单位：人民银行新沂支行、发改经济委、科技局、财产保险公司，新沂经济开发区、锡沂高新区）', '18.做大做强科技金融。加强科技企业与金融机构的对接融资服务，深化“苏科贷”、“科易贷”等金融服务品牌，为不同发展阶段的科技创新企业提供一站式、系统化金融服务。加快设立科技支行和科技金融专营部门，鼓励企业开展知识产权、应收账款、仓单等抵质押贷款，组织科技项目融资对接。（责任单位：人民银行新沂支行、科技局、财政局）', '19.探索发展众筹融资模式。探索发展基于互联网和社交网络的众筹平台，利用众筹的低门槛、大众性、多样化等优势，建立募资、投资、孵化、运营一站式服务体系，加强对众筹平台的引导发展与规范管理，促使其在支持初创型企业融资和创业发展方面发挥积极作用。（责任单位：发改经济委、科技局、金融办）', '20.支持开展融资租赁业务。积极吸引市外金融租赁、融资租赁公司来我市设立机构、开展业务；鼓励东联重工、八达重工等企业开展融资租赁业务，促进装备制造业发展。（责任单位：商务局、中小企业局、金融办）', '21.加强组织领导。成立新沂市加快多层次资本市场发展领导小组，由市政府分管市领导任组长，市发改经济委、科技局、财政局、环保局、商务局、房产服务中心、住建局、国资办、国土局、国税局、地税局、市场监督管理局、金融办、人行、城管局、消防大队、人才办等部门负责人为成员；领导小组办公室设在金融办，实行联席会议制度，及时协调解决资本市场运作过程中的具体问题。', '22.对来新沂新设分支机构的证券业金融机构给予10万元开办费补助。对新设分支机构或营业部的证券、信托、期货、融资租赁等金融机构，新购办公用房按每平方米1000元人民币给予补贴；租赁办公用房按每平方米每年300元人民币给予补贴，连续补贴3年，每年不超过20万元。', '23.对新设立的农村（科技）小额贷款公司，收到省金融办批复正式开业，给予一次性补助5万元。', '24.新设或迁入的创投机构（经省发改经济委备案）、股权基金及管理机构给予开办费补助10万元；自盈利年度起前2年按缴纳的企业所得税地方留成部分给予全额补助，后3年按缴纳的企业所得税地方留成部分给予减半补助；新购办公用房按每平方米1000元人民币给予补贴；租赁办公用房按每平方米每年300元人民币给予补贴，连续补贴3年，每年不超过20万元。创投机构、股权投资基金、基金管理公司在投资、运营中对我市产业发展作出突出贡献的，采取“一事一议”方式给予特殊支持。', '25.给予新设或迁入的证券营业部、期货营业部、创投机构、股权投资基金、银行等金融机构副总经理级（副行长）以上高管人员缴纳的个人所得税地方留成部分前2年给予全额补助，后3年给予减半补助。', '26.鼓励各类资本发起设立中小企业信用担保机构和融资性担保机构。新设或经整合达到注册资本10000万元（含）以上的担保机构，前3年每年按注册资本的0.5%给予补助，开业6个月内必须开展业务，年度补助不超过50万元；从第4年开始，每年按与最高担保额年份相比新增担保余额的0.2%给予补助，补助时间最长不超过5年。所有补助资金全部用于增补风险准备金。', '27.鼓励各类金融中介服务机构发展。对新设或迁入的有证券业务资质的会计师事务所、律师事务所、资产评估事务所、信用评级和企业咨询等金融中介服务机构，新购办公用房按每平方米500元人民币给予补贴，租赁办公用房按每平方米每年200元人民币给予补贴，连续补贴3年，每年不超过10万元。', '28.支持我市企业充分利用多层次资本市场做大做强，具体扶持政策按照《市政府关于进一步加快推进企业上市融资工作的意见》（新政发〔2016〕24号）、《市政府办公室关于印发新沂市促进企业兼并重组实施办法的通知》（新政办发〔2016〕25号）执行。', '29.享受新购办公用房补贴的金融机构或企业，所购办公用房5年内不得出售或出租；享受租赁办公用房补贴的金融机构或企业，所租办公用房仅限自用，不得转租。', '31.鼓励和支持企事业单位采取任职、兼职、顾问等方式，招引一批发展急需的高层次金融管理人才，在资本运作、产业发展等方面指导企业开展上市挂牌、债券发行、基金运营等，提升我市多层次资本市场利用水平。对引进的高层次金融管理人才，经评审认定后，最高可享受80万元资金资助和40万元住房补贴，并优先申报创新型金融领军人才各类项目。组织金融管理部门、企业家积极参加徐州市开展的资本市场知识专项培训，选派优秀年轻干部到金融监管部门、金融机构挂职，快速提升金融操作水平；同时，组织高层次金融人才赴国内外金融中心考察学习，了解多层次、多类型资本市场创新动态和发展趋势，提升服务资本市场的能力。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>71</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>丰县卫生局改进工作作风密切联系群众实施办法</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2013-02-28</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/govxxgk/01407968-8/2013-02-28/c13b6c07-8565-4259-a609-afb7e25f834a.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['为认真贯彻落实党的十八大精神和中央、省、市县关于改进工作作风、密切联系群众的有关规定，按照《中共丰县县委关于改进工作作风、密切联系群众的十项规定》（丰委发〔2013〕6号）、《&lt;中共丰县县委关于改进工作作风、密切联系群众的十项规定&gt;的具体办法》（丰委办〔2013〕10号）和《市卫生局改进工作作风、密切联系群众实施办法》（徐卫委〔2013〕2号）要求，现就我县卫生系统进一步改进工作作风、密切联系群众、提高执行能力制定如下实施办法。', '1.注重察实情求实效。局科级干部每年到基层调查研究时间不少于2个月，推动“五联系五提升”活动常态化制度化。要紧紧围绕推进卫生事业改革发展等事关全局的重点热点难点问题，结合各自分工，明确调研主题，实事求是地确定调研内容，全面深入地了解基层医疗机构的实情，为工作决策提供第一手资料。局科级干部每年要向局党委提交1篇以上调研报告和3条以上具有决策参考价值的工作建议，必要时局党委会可听取调研情况汇报。', '2．减少陪同和工作人员。局领导同志到基层考察调研要坚持轻车简从，严格控制陪同和工作人员。局主要领导同志到基层考察调研，陪同的有关科室、部门负责同志不超过3人，基层单位只安排1位负责同志陪同；其他局领导同志到基层考察调研，陪同的有关科室、部门负责同志不超过2人，基层单位只安排1位分管负责同志陪同。调研内容涉及多个单位或需要现场协调解决问题，可增加涉及到的有关科室、部门单位负责同志陪同，并尽量减少随行人员，车辆1部，最多不过2部。', '3．简化基层接待工作。县卫生局同志到基层调研，基层单位不安排迎送，不张贴悬挂欢迎标语横幅，不打电子屏滚动字幕，不摆放花草，不赠送各类纪念品和土特产。原则上不在基层就餐，确因工作需要的，安排食堂工作餐，不上烟酒。召开座谈会、汇报会等一律不摆放花草、饮料、香烟、水果等。', '4．严格控制各类会议频次。每年全县性卫生工作大会不超过1次；卫生专业性工作会议，采取合并的原则，由局各分管领导统筹并报局主要领导同意后召开。坚持精简务实高效的原则，能不开的会议坚决不开；坚持开短会、讲短话，提高会议效率。', '5．严格控制会议活动规模和时间。全县性工作会议，根据需要从严控制参会人数，时间不超过半天；以卫生局名义召开的较大型工作会议，人数一般控制在100人之内，时间不过半天；分管领导同志召集的一般性工作会议，原则上由下属单位分管负责同志参加，时间不过2小时；股室召开的业务工作会议，人数不超过50人，时间一般在1-2小时，可请分管领导参加；局党委会每月至少召开1次，重大问题根据需要可随时召开，要压缩时间；科级干部、股室负责人工作会议一般每周召开1次，时间控制在2小时之内。', '坚持会议报批制度。局党委会议题实行会前预告，由各分管负责人确定各自会议议题，由办公室统一整理印发至各委员，会议办公室做好会议记录，重大事项实行局办公室、纪委书记“双记录”制度；凡是需要各单位主要负责人参加的会议和分管领导召集的会议，必须报请单位主要负责人批准；凡是股室召集的会议，必须报请分管领导批准。坚持开当事人会议，不陪会、不坐会。', '6．严格控制会议活动经费。举办会议、活动要严格执行有关规定，厉行节约，反对铺张浪费。严禁提高会议用餐标准；严禁以任何名义发放纪念品、礼品、礼金、礼券等；严禁组织与会议主题无关的活动。会议、活动现场布置庄重简朴，会场不搭拱形门，不升空飘气球，不悬挂宣传条幅，不摆放花草，不摆放水果香烟饮料，不制作背景板，不发放笔、记录本和非纸质材料袋，参会人员一律不佩戴胸花。不得组织会议、活动代表游览和参加与会议、活动无关的参观活动。会议、活动期间如需就餐，只安排工作餐，不上烟酒，不宴请与会人员。对不符合会议、活动管理要求的经费，不予审核报销。', '8.切实减少公务活动。严格执行关于清理和规范评比、达标、表彰与庆典、研讨会、论坛活动的各项规定，切实精简各种茶话会、联欢会。未经县委、县政府批准，不邀请县领导同志出席各类剪彩、奠基活动和庆祝会、纪念会、表彰会、研讨会及各类论坛等。', '10．严格外出管理。局主要负责同志外出，必须经县委、县政府主要领导同意，按相关规定报批，并严格执行请销假制度。局科级领导、局直单位、各镇卫生院主要负责同志外出，超过一天必须经局党政主要领导批准，并到局办公室履行请假相关手续。严格控制外出学习交流活动，非上级行政机关组织开展的异地学习培训参观活动，原则上一律不予参加。外出不得超标准乘坐交通工具、不得超标准食宿、不去名胜古迹、风景区参观。集体出行安排集中乘车，除特殊用车外，不超过2辆面包车。外出考察学习要保持通讯畅通，严格执行计划安排，不得擅自改变线路、延长时间、增加地点，禁止利用公款游山玩水、参与高消费娱乐活动。严格按照差旅费开支标准和核准的经费开支报销费用，报账时必须附《外出学习参观考察活动审批表》，对未经审批同意或随意增加的外出活动开支，一律不予报销。', '11．坚持工作日午间禁酒。除重要招商引资和外事活动（须报分管县领导同意，并报县纪委备案），工作日中午严禁饮酒。', '12．厉行勤俭节约。中央部委和省市机关领导同志来丰县考察调研，按照国家、省、市简化接待工作的要求执行。不上高档菜肴、高档烟酒。严禁各级领导干部、机关人员、部门之间相互宴请和送礼；严禁超标准购车、用车和高标准车内装潢；严禁公车私用，办公车辆没有外出公务一律在单位集中停放；严禁未经批准租借、占用基层、企业或私人车辆。', '13．严格执行廉洁从政各项规定。认真落实领导干部报告个人有关事项制度，严禁违反规定干预和插入市场经济活动。机关工作人员在审批、执法、检查和考核及履行其他公务中，不得接受任何机关、企事业单位以及个人的吃请和礼品、礼金、礼券等。严禁参与赌博和非法集资活动。审慎对待亲情友情和社会交往，严格教育、从严要求配偶、子女、亲属和身边工作人员，严禁利用职权和职务影响为配偶、子女以及其他亲属经商办企业提供便利。', '14．加强与新闻媒体沟通。全县性卫生工作会议和全局性工作会议、重大活动可邀请电视新闻媒体予以报道。在报道时，一般情况下文字稿不超过1000 字，播出时长不超过2分钟。其他会议、活动可发文字稿在县级以上媒体报道，字数在200字以内。局领导同志考察、调研活动一般不予报道。按照上级要求，局领导同志的讲话、文章，需要在县新闻媒体发表的，由局党委研究把关。', '做好部门网站的维护和管理，积极推行电子政务、党务、政务、院务公开，探索运用网络等手段，为医疗卫生机构健康发展创造良好的舆论氛围。', '15.严格控制各类考核检查活动。县卫生局安排的考核活动，由局各股室提出意见，报局研究批准。除陪同省市有关业务检查外，各股室不得随意安排各类检查考核活动。要改进检查考核方式方法，注重业务工作实绩，减少重复的实地检查。', '16．坚持领导示范带头。县卫生局领导要坚持以人为本，以身作则、率先垂范，按照“一岗双责”的要求，带头改进工作作风，既要严格遵守廉洁从政有关规定，又要严格要求身边工作人员按规定办事，做好贯彻落实工作。', '17．健全完善制度规定。要按照《中共丰县县委关于改进工作作风、密切联系群众的十项规定的具体办法》，结合各卫生实际，进一步完善管理规定，细化贯彻落实措施，狠抓工作落实，坚决防止走形式、搞变通，确保取得实实在在的成效。', '18．组织开展专项检查。各单位要严格执行本办法，每年卫生局组织对执行情况进行 1 次专项检查，并将检查结果（含平时明察暗访、上级部门通报）计入年终综合目标考核加减分。局纪检监察部门要加强督促检查，对违反本办法的违法违纪行为进行处理。', '19．本实施办法自发布之日起施行。此前发布的有关规定，凡与本实施办法不一致的，以本实施办法为准。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>71</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>丰县人民政府关于年全县科技创新工作的意见</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.chinafx.gov.cn/govxxgk/01407968-8/2016-03-07/340037b7-908a-4b88-a1bc-1702ba6fb828.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['为了充分发挥科技创新支撑经济发展的引领作用，全力推进科技创新工作实现更大突破，根据县委、县政府“调结构、转方式、保增长”的经济发展要求，现就2016年全县科技创新工作提出如下意见：', '深入贯彻落实党的十八届三中、四中、五中全会精神及全省科技工作会议、全市大众创业·万众创新工作会议精神，深化科技体制改革，完善科技创新驱动机制，进一步推动以企业为主体、产业为依托、产学研为纽带、科技平台建设为基础、多元投入为保障的科技创新体系，突出支持科技型、成长型中小企业创新发展、转型发展、跨越发展，促进科技与经济深度结合，支撑全县经济又好又快发展。', '2016年，我县将深入实施创新驱动发展战略，围绕“国家科技进步先进县”创建这一目标，重点培育自主创新生力军，以创新平台载体为依托，打造科技成果转化新高地，以深化产学研结合为突破口，形成经济持续健康较快发展新支撑。全社会研发投入占GDP比重力争达到1.9%，科技进步贡献率达56%，高新技术产业产值达到255亿元，占规模工业产值比重达到36%，认真落实研发经费加计扣除和高新技术企业税收减免政策，力争超额完成各项科技目标任务。', '（一）品牌创建工程。1.国家级品牌创建：争创国家科技进步先进县；争创国家级科技企业孵化器2家；争创国家级知识产权示范园区1家；培育国家级研发机构1家；争创国家驰名商标2件。2.省级品牌创建：争创省级创新型试点县；争创省级创新型试点镇；争创省级科技企业孵化器1家；争创省级科技产业园1家；争创省级农业科技园1家；筹建申报省级科技企业加速器，新增孵化面积10万平方米；争创省著名商标3件；创建省级大学生创业园1家。3.市级品牌创建：争创市级工程技术研究中心6家；争创市知名商标2件；争创市级科技企业孵化器1家；争创市级重点众创空间1家。', '（二）科教人才工程。积极引进海内外院士等领军型人才1名；引进“双创人才”30名；引进“双创博士”20名；引进企业急需紧缺人才100名；选派16名科技特派员担任企业副总；推选3名科技人员入选科技人才培训计划；完成2个国外引智项目；对接20所理工院校，聘请20名丰县籍专家、教授和优秀大学生作为产学研合作联络员；举办大型产学研对接活动2次以上；组织50人次企业家、高层次人才外出考察学习。', '（三）科技项目工程。争取获得国家级创新基金项目2个以上；争建南京大学生命科学院功能性生菜种植试验基地1个；力争建成省农科院丰县特种经济作物试验示范基地1个；申报国际合作项目2项；申报、实施省农业“三新”工程项目4项；开展农作物秸秆生物酶转化利用项目示范研究；微生物法处理钾长石研究；申报市级以上各类科技项目20项以上。', '（四）平台创建工程。申报省级企业工程技术研究中心4家、市级工程技术研究中心6家；申报企业研究生工作站4家；申报企业科技副总8家；申报省级技术中心2家；争创省级科技超市示范店1家、省级农村科技服务超市分店1家、便利店2家；争创省级博士后创新实践基地1个；争创省级工程中心1家、市级工程中心11家；完成智能招聘平台的升级改造。', '（五）校企联盟工程。建立创新创业载体1家；推进建立机械焊接实验室1家、电机实验室1家；对接南京大学、山东大学、东南大学解决企业技术需求100项；新建校企联盟45家以上，实施成果转化项目30项以上；引入徐州德彦机械等企业，建成与教学相配套的校外实训基地35个；构建产业联盟、新建产业研究院2家以上，企业研究院17家以上，推进国际合作2项以上。', '（六）企业创新工程。培育“小巨人”企业2家以上；力争新增国家高新技术企业3家以上，省级高新技术企业3家以上；开发省级高新技术产品20个以上；新增省科技型中小企业20家以上；新增省民营科技企业20家以上。', '（七）知识产权工程。专利申请1550件以上，其中发明专利申请230件以上；专利授权850件以上，其中发明专利授权32件以上；争创省贯标企业2家；组织知识产权执法10次，打击知识产权侵权行为。', '（八）科技金融工程。培育引进创投企业1家;推进落实“苏科贷”工作，增加入库企业10家，总数达到54家。争取县级配套资金1000万元，省级资金1000万元，按1:10的标准放大，发放企业贷款2亿元；人民银行与清华大学联合搭建行业发展研究中心，为我县八大产业发展提供政策解读及宏观形势的研判；由人民银行牵头充分运用中小企业辅导中心为中小企业提供融资、担保等综合服务。', '（一）高度重视，大力推进品牌创建。按照县委、县政府工作要求，抽调专门人员，搭建专门班子全力以赴、齐抓共管，争创国家科技进步先进县。充分发挥部门职能作用，集聚开发区、产业园和相关企业大力度推进、高强度工作，强化沟通协调，强势推进实施，力争创建一批省级以上品牌，提高丰县经济发展的核心竞争力和科技支撑力。', '（二）围绕中心，大力推进招才引智。积极开展“五招五引”，突出招引有一定科技含量的高新技术项目，着力招引高校院所的先进科技成果转化项目，大力招引符合丰县产业发展的高层次人才、先进适用型人才，支撑企业发展。继续开展“海外高端人才合作项目丰县行”“丰籍高层次人才家乡行”“校地合作凤城论坛”“凤还巢”等招才引智活动。积极探索“引进一个人才，带来一个团队，办起一个企业，兴起一个产业”的“招才引智”新模式。', '（三）攻坚克难，大力推进项目申报。在掌握政策、收集信息、广泛联系的基础上，积极对接上级主管部门，采取“勤跑、上挂、请进、联动、合作”的办法，培育创新点，挖掘项目源，主动深入企业，积极帮助企业策划包装一批有带动性、延伸性、前瞻性的项目，提高各类项目申报成功率。对于申报的各类项目，进行全程监管，使其规范化实施，建立项目台账，确保项目资金有效合理使用。', '（四）把握关键，大力推进载体建设。按照“引种子—育苗圃—入驻孵化—加速成长”的思路，大力推进众创空间、科技企业孵化器、加速器、孵化链建设。促进国内外一流高校院所与企业共建研发机构，支持开发区、电动车产业园建立产业研究院，支持骨干企业建立企业研究院，支持科技型企业建立企业院士工作站、博士后工作站、研究生工作站、企业工程中心、技术中心、工程技术研究中心等“三站三中心”研发平台。强化目标管理、流程管理和责任管理，确保目标能够按照序时进度完成。', '（五）集聚资源，大力推进产学研合作。构建利益与风险共担、技术要素参与分配的产学研合作机制。帮助企业制定一企一校一项目、一企多校多项目的产学研合作项目推进计划，引导有条件的企业提前介入高校院所早期研发活动，与高校院所科研人员一起，围绕企业需求共同开展前瞻性技术研发，开发一批具有行业标志性意义的重大战略产品。积极开展“创新创业在丰县”“县级机关服务企业科技行”等活动，更好的促进校企互动，促进海内外科技成果在我县尽快转化为现实生产力。大力推进科技招商工作，组建多种形式的“校企联盟”“产业技术联盟”，深化产学研合作的深度和广度。', '（六）加大投入，大力推进考核奖惩。建立财政科技投入刚性增长机制，确保财政科技经费增幅高于财政经常性收入增幅、高于全市平均增幅，科技经费支出不低于财政一般预算支出的3%。落实高新技术企业税收政策和企业研发费用加计扣除政策，引导企业主体性投入持续增长。推进科技创新工作考核，科技创新指标在科学发展目标综合考核中对各镇、各街道考核占4分，对县直机关考核占8分，细化考核内容、完善考核办法。加大对科技创新工作做出突出贡献的单位、个人的表彰力度。', '（七）加强组织领导，大力推进效能提升。调整县科技创新领导小组，由县委县政府主要领导任组长，分管领导和督巡委主任任副组长，县委办、政府办、组织部、宣传部、政法委、开发区、电动车产业园、科技局等相关单位主要负责人任成员。充分发挥各相关单位的职能作用，按照工作项目化、项目责任化、责任具体化的要求，明确目标责任，采取“月调度、季评比、半年考核、年终总结”相结合的办法，加强调度督促，确保各项科技创新工作主要任务指标如期完成。', '争创国家科技进步先进县；争创国家级科技企业孵化器2家（高新技术产业园、电动车产业园）；争创国家级知识产权示范园区1家（丰县经济开发区）；培育国家级研发机构1家（江煤科技）;争创省级创新型试点县；争创省级创新型试点镇1个（欢口镇）；争创省级科技企业孵化器1家（丰县机械制造产业园）；争创省级科技产业园1家（高新技术产业园高端装备）；筹建申报省级科技企业加速器1家（常店电动车配件园），新增孵化面积10万平方米；争创市级科技企业孵化器1家（丰县机械制造产业园）；争创市级重点众创空间1家（丰县高新技术创业园）。', '争创国家驰名商标2件（旺达食品、京味福），省著名商标3件（佳合食品、康汇百年、主角），市知名商标2件。', '积极引进1名海内外院士等领军型人才、30名“双创人才”、20名“双创博士”、100名企业急需紧缺人才；选派16名科技特派员担任企业副总；推选3名科技人员入选科技人才培训计划；对接20所理工院校，聘请20名丰县籍专家、教授和优秀大学生作为产学研合作联络员，举办大型产学研对接活动2次以上；组织50人次企业家、高层次人才外出考察学习。', '争取国家级创新基金项目2个以上；争建南京大学生命科学院功能性生菜种植试验基地1个（宋楼镇）；力争建成省农科院丰县特种经济作物试验示范基地1个；申报国际合作项目2项；开展农作物秸秆生物酶转化利用项目示范研究；微生物法处理钾长石研究（南京大学）；申报市级以上各类科技项目20项以上。', '申报省级企业工程技术研究中心4家（速利达、南瑞银龙、冠华铸造、潜龙泵业）、市级工程技术研究中心6家（安迪泰、铜墙铁壁、科耐尔、盈丰佳园、天虹银丰、丰展机械）；申报企业研究生工作站4家（南普机电、康汇百年、吉林森工、百事利）；申报企业科技副总8家（博达生物、平安人家、东大锅炉、百安居、冠辰实业、腾宇羽绒、丰县人民医院、丰县中医院）；争创省级科技超市示范店1家、科技服务超市分店1家、便利店2家。', '争创省级工程中心1家（南瑞银龙）、省级技术中心2家（心实肥业、东大锅炉）、市级工程中心11家（南瑞银龙、冠宸实业、丰垒果蔬特种机械、信尔胜机械、丫丫食品、速利达电机、七巧板电动车、南普机电、东大钢构、绿源电动车、鸿润达电动车）。', '建立创新创业载体1家；推进建立机械焊接实验室1家（山东大学机械学院）、电机实验室1家（湖南大学）；对接南京大学、山东大学、东南大学解决企业技术需求100项；新建校企联盟45家以上，实施成果转化项目30项以上；构建产业联盟、新建产业研究院2家以上，企业研究院17家以上（凤城街道、常店镇各2家，其余镇、街道各1家以上），推进国际合作2项以上。', '培育“小巨人”企业2家以上；力争新增国家高新技术企业3家以上，省级高新技术企业3家以上；开发省级高新技术产品20个以上；新增省科技型中小企业20家以上；新增省民营科技企业20家以上。', '专利申请1550件以上，其中发明专利申请230件以上；专利授权850件以上，其中发明专利授权32件以上；争创省贯标企业2家；组织知识产权执法10次。', '人民银行与清华大学联合搭建行业发展研究中心，为我县八大产业发展提供政策解读及宏观形势的研判；由人民银行牵头充分运用中小企业辅导中心为中小企业提供融资、担保等综合服务。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>71</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>关于实施教师队伍建设三师工程的意见</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2017-07-29</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.xz.gov.cn/govxxgk/014051247/2017-07-19/c7f44ad0-f070-4bf4-86c3-1146ec621514.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['我市实施 “青蓝工程”、“名师工程”以来，教师队伍建设受到各个方面的高度重视，人力资源投入逐年加大，名优教师梯队逐步形成，有力推动了全市教育事业发展。为适应新形势下教师队伍建设的需要，更加突出学科队伍建设，更加注重梯队结构优化和衔接，更加有利于发挥优秀教师群体的示范引领作用，根据省、市“十三五”人才发展规划要求，决定将原徐州市“名教师(名校长)、学科带头人、青年名教师、青年优秀骨干教师”，调整为徐州市“领军名师、带头优师、青年良师”(以下简称“三师工程”)，并从今年起开展首批评选工作。现就实施“三师工程”提出如下意见：', '1.全市普通中小学、幼儿园、特殊教育学校、师范学校、中等职业学校、教师发展中心(教研室、教科所、教师进修学校、电教馆)在职在岗教育工作者。', '2.获得 “江苏人民教育家工程培养对象”、“江苏省特级教师”称号人员不再参加评选。', '3.各地、各学校(单位)在推荐上报人选时应注意学段、学科分布，青年良师中乡村学校教师占同学段推荐总数的比例不低于15%。', '4.学校校级领导和教育教学研究机构人员推荐人选总数不得超过推荐名额的20%。正校级人员必须担任所申报学科教学工作并达到规定课时量(不少于同学科标准授课时数的1/4)，且每学年听课不少于40节；副校级人员必须担任所申报学科教学工作并达到规定课时量(不少于同学科标准授课时数的1/3)，且每学年听课不少于50节；中层管理人员(少先队大队辅导员)的教学工作量应不少于同学科普通教师任课量的1/2，且每学年听课不少于60节。可作为普通教师推荐。', '1.热爱教育事业，模范遵守教师职业道德规范，具有较强的事业心和责任感，为人师表，立德树人，在广大师生中享有较高威信。', '2.小学(幼儿园)教师应具备大学专科及以上学历，中学教师应具备大学本科及以上学历。已获得教育硕士学位或其他教育类专业硕士及以上学位的，视同满足以上学历条件要求。', '3.申报各类称号需在徐州市教育局组织的暑期教师业务能力测试中成绩排名达本学科前50%(未组织考试学科的教师不受此限制)。', '6.有违反中小学教师职业道德行为(见《中小学教师违反职业道德行为处理办法》教师〔2014〕1号)以及其他文件规定“一票否决”的违规行为的不得申报；校长任职期间学校存在“一票否决”违规办学行为的不得申报。', '(二)符合基本条件，距离退休年限超过3年，具有中小学高级教师任职资格满3年，且具备以下条件者可申报徐州市领军名师。', '1.近10年来，曾获得市级及以上综合表彰或两次县(市)区级综合表彰或省级表彰单项奖励，近5年年度考核等次达到合格，且至少一次为优秀。', '2.从教以来，担任班主任7年以上，或担任团队辅导员、课外活动小组指导教师等其他教育管理工作9年以上。', '3.注重课堂教学实践，教学工作量达满工作量；积极开展课堂教学改革，教改成果显著；教学质量考核优秀，学科教学水平在全市领先，学生满意度测评在85%以上。有不少于3名“江苏人民教育家工程培养对象”或“江苏省特级教师”实名推荐。', '4.曾获得评优课(教学基本功竞赛)市级一等奖或省级二等奖及以上奖励，职业学校教师获市级技能大赛金牌(省级技能大赛银牌)及以上或职业学校“两课评比”市级示范课(省级研究课)及以上或职业学校教学大赛市级一等奖(省级二等奖)及以上。近5年来，开设不少于5次县(市)区级及以上讲座、公开课、示范课(其中至少1次大市级及以上)并获得好评；教育教学研究人员承担不少于10次县(市)区级及以上公开课、示范课、专题讲座并获得好评(其中至少3次大市级及以上)。', '5.近5年来，作为第一作者在省级及以上学术刊物上公开发表过3篇以上本学科专业研究论文(乡村学校教师可减少1篇)；主持或作为核心成员参加市级以上教科研课题并已结题。教育教学研究机构中的教科研人员需作为第一作者在省级及以上学术刊物上公开发表有较高指导作用和应用价值的本学科专业学术论文5篇以上 (其中至少一篇为核心刊物发表)，正式出版的水平较高的学术著作(与他人合著者，本人至少承担一半以上撰写任务)可视同为核心期刊发表；主持或作为课题组核心成员参加省级以上教科研课题并已结题。', '6. 具有领导和组织教育教学和科研的能力，在中小学教育各类学术或专业委员会发挥作用，有较强的影响力。近5年来指导培养青年教师效果良好，且至少有3人获得市级及以上教学、科研、竞赛等方面的奖项。', '(三)符合基本条件，距离退休年限超过5年，具有中小学一级教师任职资格已满3年，且具备以下条件者可申报徐州市带头优师。', '1.近10年来曾获得县(市)区级综合奖励或市级表彰单项奖或近5年年度考核等次达到合格且至少有一次为优秀。', '2.从教以来，担任班主任5年以上，或担任团队辅导员、课外活动小组指导教师等其他教育管理工作7年以上。', '3.注重课堂教学实践，教学工作量达满工作量；积极开展课堂教学改革，教改成果显著；教学质量考核优秀，学科教学水平在县(市)区领先，学生满意度测评在85%以上。有不少于2名“江苏人民教育家工程培养对象”或“江苏省特级教师”实名推荐。', '4.曾获得评优课(教学基本功竞赛)市级二等奖或省级三等奖及以上奖励，职业学校教师获市级技能大赛银牌(省级技能大赛铜牌)及以上或职业学校“两课评比”市级研究课及以上或职业学校教学大赛市级二等奖(省级三等奖)及以上。近5年来，开设不少于3次县(市)区级及以上讲座、公开课、示范课并获得好评；教育教学研究人员承担不少于8次县(市)区级及以上公开课、示范课、专题讲座并获得好评(其中至少2次大市级及以上)。', '5. 近5年来，作为第一作者在省市级及以上学术刊物上公开发表过3篇以上本学科专业研究论文 (其中省级发表2篇，乡村学校教师可减少1篇省级期刊发表)； 主持县(市)区级或作为课题组核心成员参加市级以上教科研课题并已结题。教育教学研究机构中的教科研人员需作为第一作者在省级及以上学术刊物上公开发表有较高指导作用和应用价值的本学科专业学术论文5篇以上；主持市级或作为课题组核心成员参加省级以上教科研课题并已结题。', '6.近5年来指导培养青年教师效果良好，且至少有2人获得市级及以上教学、科研、竞赛等方面的奖项。', '(四)符合基本条件，年龄在45周岁以下，具有中小学一级教师任职资格，且符合以下条件者可申报徐州市青年良师。', '1.近10年，曾获县(市)区级及以上综合奖励或单项表彰奖励，且近5年年度考核等次均达到合格。', '2.从教以来，担任班主任3年以上，或担任团队辅导员、课外活动小组指导教师等其他教育管理工作5年以上。', '3.注重课堂教学实践，教学工作量达满工作量；积极开展课堂教学改革，教改成果显著；教学质量考核优秀，学科教学水平在学校领先，学生满意度测评在85%以上。', '4.曾获得评优课(教学基本功竞赛)市级二等奖或省级三等奖及以上奖励，职业学校教师获市级技能大赛银牌(省级技能大赛铜牌)及以上或职业学校“两课评比”市级研究课及以上或职业学校教学大赛市级二等奖(省级三等奖)及以上。近5年来，开设不少于5次校级及以上讲座、公开课、示范课(其中至少1次县(市)区级及以上)并获得好评；教育教学研究人员承担不少于5次县(市)区级及以上公开课、示范课、专题讲座并获得好评(其中至少1次大市级及以上)。', '4. 近5年来，作为第一作者在省市级及以上学术刊物上公开发表过3篇以上本学科专业研究论文(其中省级发表1篇，乡村学校教师可减少1篇省级期刊发表)。教育教学研究机构中的教科研人员需作为第一作者在省级及以上学术刊物上公开发表有较高指导作用和应用价值的本学科专业学术论文3篇以上，主持县(市)区或参与市级以上教育行政部门立项的教科研课题并已结题。', '2.学校(单位)推荐。学校(单位)成立推荐考核组，通过个人述职、材料审核、民主测评、组织推荐等方式，对照评审条件综合考核申报人的思想政治表现、教育教学及科研水平并作出书面评价意见。公开述职和教师测评一般结合进行，参加人数不少于所在学校(单位)人员总数的70%。确定人选后，由教师所在学校(单位)向上级教育主管部门提出申请，按规定提交申报材料。', '3.初审上报。各县(市、区)教育局成立由相关部门及学科专家组成的初审委员会，对所辖学校(单位)推荐的申报人员进行全面审核把关，确定推荐人选，形成推荐评审意见，公示一周无异议后，按分配名额提交市教育局师资处。', '4.评委会评审。市教育局成立徐州市“三师工程”评审领导小组和评审委员会，组织专家对各地推荐人选进行综合评审。', '5.审批确定。由评审委员会将评审结果和公示复核意见提请市教育局党委会审议，确定人选名单。', '1.坚持“分层培养、逐级提升、突出重点、注重实效”原则，把培养和使用结合起来，把发挥名优教师的作用和培养新的名优教师结合起来，在使用中培养，在实践中提升。“三师工程”管理期为4年。期满全面考核合格后方可申报更高层次称号，不可重复申报或降格申报。', '2.获得徐州市“领军名师、带头优师、青年良师”称号的教师管理期内按现单位归属关系，与所在单位、教育行政部门签订目标管理责任书，明确管理期内的目标任务，由各地教育行政部门负责日常管理工作，逐年进行考核，期满进行全面考核。', '3.各地教育行政部门要参照《徐州市名特优教师校长专项补助实施方案》(徐政办发 [2016]111号)，对管理期内年度考核合格的教师发放补助。其中徐州市领军名师参照原徐州名教师标准执行；徐州市带头优师参照原徐州市学科带头人标准执行；徐州市青年良师参照原徐州市青年优秀骨干教师标准执行。鼓励创新补助办法，逐步变“补助个人”为“补助工作”，对“三师”开展教科研工作、发挥示范引领作用给予资助扶持。', '4.各地、各学校(单位)要为“三师”成长和发展创造条件、搭建平台，开展名师论坛、教育沙龙、专题讲座、学术交流、送教下乡和示范课、公开课、观摩课等活动，鼓励他们在发挥作用中锻炼提升。要根据“三师”实际需要，开展参观考察、学习研修等培训活动，支持他们开展教学改革和教育科研，宣传推广他们的先进经验、优秀成果和先进事迹。', '5.各地、各学校(单位)要建立和完善“三师工程”信息管理系统，加强跟踪管理和服务，及时了解工作情况，帮助解决具体困难。相关学校(单位)要为“三师”创造良好的工作、学习和生活条件，帮助解决后顾之忧。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>71</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>徐州市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>市政府关于加快推进企业上市融资工作的意见</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2008-09-17</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.xy.gov.cn/govxxgk/01410330X/2008-09-17/482338ff-d869-429b-adc1-313a7cbb0d67.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['各镇人民政府，新沂经济开发区、无锡—新沂工业园，市各委、办、局（公司），市各直属单位：', '为进一步调动我市企业上市的积极性，加快我市企业在境内外上市步伐，现就推进我市企业上市融资工作提出以下意见：', '坚持以科学发展观为指导，抓住当前资本市场发展的机遇，以壮大企业规模、提高核心竞争力为目标，以优势骨干企业和高新技术企业为重点，充分利用境内外资本市场资源，扎实开展企业上市的指导协调和服务工作，鼓励、引导、促成一批成长性好、发展潜力大的企业通过上市，尽快做大做强，促进我市经济又好又快发展。', '“十一五”期间，按照“培训一批、辅导一批、上市一批”的原则，在全市选择10家左右的重点骨干企业跟踪培育、重点扶持，进行资本市场基本知识培训，转换经营机制，争取有1家企业成功上市。', '为鼓励企业上市，对在新沂境内的企业（指总部及注册地在新沂的企业，下同）上市给予以下优惠政策支持:', '1、企业因上市整体改制为股份有限公司，或有限责任公司整体变更为股份有限公司时，需要办理有关变更手续时，工商、税务、国土、房管、公安等部门只收取登记费和工本费,对因使用权(所有权)人主体改变产生的相关税收，由受益财政按地方留成的全额予以奖励。', '2、企业因上市整体改制为股份有限公司，或有限责任公司整体变更为股份有限公司时，因审计调帐增加年度销售收入及利润需补缴增值税、营业税及所得税的，由受益财政按地方留成的全额予以奖励。', '3、已进入上市程序的企业（指与保荐人、会计师事务所等中介机构签订正式协议并经市上市办认定的企业，以下简称拟上市企业），当年纳税额以上年纳税额为基数，新增纳税额地方留成的80%部分，可以先借给企业，待企业成功上市后以奖励的形式冲抵。三年内未能上市的，全额收回。', '4、企业因上市整体改制为股份有限公司，或有限责任公司整体变更为股份有限公司时，将资本公积金、盈余公积金和未分配利润转增为股本所缴纳的个人所得税，由企业代缴，待企业成功上市后将地方留成部分以技术开发专项补贴形式等额返还企业。', '5、拟上市企业在因享受国家和地方有关优惠政策（减免税、财政贴息等）而形成的扶持资金，财政、税务部门在按上市要求对企业进行规范时，作为国家和地方无偿扶持资金分别处理。', '6、拟上市企业自进入上市辅导期之日起，其生产性建设项目审批建设过程中涉及的各种行政性收费,除了必缴省、中央财政部分外，地方性规费项目及中央、省定收费项目中的地方留成部分，全部免收。', '7、拟上市企业投资新建符合国家产业政策的项目，优先办理立项审批、核准、备案或转报手续，优先安排土地使用指标，优先保证工业生产要素。', '8、企业投资高新技术项目或进行技术改造，符合有关政策规定的，优先推荐享受国家、省和徐州市各类扶持资金。支持申报高新技术企业，帮助申报徐州市级、省级、国家级工程中心或技术中心。', '9、拟上市企业列入国家、省、徐州市各类工业科技和技术改造计划的项目，受益财政按照国家、省和徐州市规定比例优先给予配套支持。', '10、企业成功上市后，募集资金80%（含80%）以上用于本市范围内生产经营性项目建设的，由市政府按照募集资金总额的2%对企业主要负责人及有功人员予以奖励，最高限额为300万元；对在我市范围内首家上市的企业再给予50万元的奖励。奖金的40%奖励给上市公司主要负责人，其余60%奖励给其他高层管理人员。', '11、企业成功上市后，给予市企业上市工作领导小组和上市办公室20万元奖励；对各镇、江苏新沂经济开发区、无锡新沂工业园每实现一家上市公司（包括买壳上市）奖励20万元。', '12、企业通过买壳上市后将上市公司注册地迁至我市、并在我市纳税的，对企业主要负责人及有功人员奖励20万元。', '13、企业上市融资工作中的其他政策性问题，可以采取一事一议、特事特办的办法研究解决。', '（一）加强组织领导。成立新沂市企业上市工作领导小组，由市政府主要领导任组长，市发改经贸委等相关部门的主要负责人为成员，组织领导全市的企业上市工作。领导小组下设办公室，办公室设在市发改经贸委。领导小组成员单位要把企业上市工作作为重大事项，积极配合，全力做好职责范围内的相关服务，积极推进企业上市工作。各镇、经济开发区、无锡—新沂工业园要把企业上市工作列入经济发展的工作重点，明确专人负责。全市上下形成强有力的企业上市领导组织体系，确保我市企业上市工作协调有序快速推进。', '（二）加大政策宣传。各级政府要充分认识企业上市的重要性和必要性，强化和坚持“政府引导、企业自主、市场运作、政策扶持”的工作机制，加大宣传引导力度，通过参观考察、专题讲座、会议推动、现场办公、政策宣传等形式，引导企业自觉实施生产经营与资本经营相结合的发展战略，引导企业走上市之路，增强企业上市的主动性、积极性。', '（三）注重培训辅导。采取“走出去、请进来”的办法，加大培训辅导力度。一是邀请证券监管部门和推介机构对全市上市后备企业逐一把脉，提出指导意见和整改建议。二是每年组织1-2次上市知识普及培训班，邀请有关专业机构的专家进行上市业务讲座、现场咨询。三是组织上市后备企业赴境内外考察学习。', '（四）培育后备企业。确定重点上市后备企业，建立企业上市资源库，全市滚动培育10家左右上市后备企业，主要在年销售额超亿元、净利润超千万元且主业突出、发展前景好的规模企业中选择。开发区和锡沂工业园要各确保2-3家企业列入重点上市后备。对上市后备企业要加快规范重组步伐，优化股权结构，完善法人治理结构，规范经营行为，提高盈利能力，完成上市辅导，实现申报上市；对基础较好但规模偏小的企业，要指导帮助引进法人资本、社会资本，加快增资扩股，壮大企业实力，尽快进入上市轨道；对产品外向度较高、获利能力较强的上市后备企业，要帮助引进境外战略合作伙伴，通过规范重组，赴境外上市。', '（五）强化统筹协调。企业上市是一项复杂的系统工程，各级各部门要落实相应职能，坚持统筹协调，对企业实行“一企一策”，想企业未想之策，做企业未做之事，引导更多的企业实施上市战略，全面营造工业企业与农业、基础服务业企业一起上，大企业与中小企业一起上，国内证券市场与境外证券市场一起上的新局面。']</t>
         </is>
